--- a/DCIT 65 - CS 3A/LEC AND LAB - CS 3A.xlsx
+++ b/DCIT 65 - CS 3A/LEC AND LAB - CS 3A.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="296">
   <si>
     <t>Subject:</t>
   </si>
@@ -970,6 +970,9 @@
   </si>
   <si>
     <t>Project 2</t>
+  </si>
+  <si>
+    <t>201501-189</t>
   </si>
 </sst>
 </file>
@@ -2401,99 +2404,37 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2533,129 +2474,104 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2696,6 +2612,93 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2754,6 +2757,102 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2829,102 +2928,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2949,26 +2952,23 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="111">
+  <dxfs count="99">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3089,133 +3089,6 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4043,6 +3916,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4446,7 +4329,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4458,7 +4341,7 @@
   <dimension ref="A2:R71"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C44"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4479,82 +4362,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="125"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="165" t="s">
+      <c r="A6" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="165"/>
-      <c r="E6" s="166" t="s">
+      <c r="D6" s="127"/>
+      <c r="E6" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="166"/>
+      <c r="F6" s="128"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -4562,28 +4445,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="167" t="s">
+      <c r="J6" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="167"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="170"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="171" t="s">
+      <c r="E7" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="171"/>
+      <c r="F7" s="133"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -4591,28 +4474,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="171" t="s">
+      <c r="J7" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="171"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="152"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="E8" s="153" t="s">
+      <c r="E8" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="153"/>
+      <c r="F8" s="137"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -4620,45 +4503,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="153" t="s">
+      <c r="J8" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="153"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="155" t="s">
+      <c r="A9" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="159" t="s">
+      <c r="C9" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160" t="s">
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="160" t="s">
+      <c r="G9" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="143" t="s">
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="144"/>
-      <c r="L9" s="143" t="s">
+      <c r="K9" s="148"/>
+      <c r="L9" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="144"/>
+      <c r="M9" s="148"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="156"/>
-      <c r="B10" s="158"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="142"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -4668,14 +4551,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="149"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -4696,19 +4579,19 @@
       <c r="F11" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="146"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="148"/>
-      <c r="O11" s="135" t="s">
+      <c r="G11" s="154"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="156"/>
+      <c r="O11" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="136"/>
-      <c r="Q11" s="136"/>
-      <c r="R11" s="137"/>
+      <c r="P11" s="168"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="169"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -4729,21 +4612,21 @@
       <c r="F12" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="130" t="s">
+      <c r="P12" s="165" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="165"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4764,21 +4647,21 @@
       <c r="F13" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="130" t="s">
+      <c r="P13" s="165" t="s">
         <v>172</v>
       </c>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="130"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="165"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4799,21 +4682,21 @@
       <c r="F14" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="127" t="s">
+      <c r="P14" s="162" t="s">
         <v>163</v>
       </c>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="129"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="164"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4834,21 +4717,21 @@
       <c r="F15" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="133"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="127" t="s">
+      <c r="P15" s="162" t="s">
         <v>164</v>
       </c>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="129"/>
+      <c r="Q15" s="163"/>
+      <c r="R15" s="164"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4869,21 +4752,21 @@
       <c r="F16" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="133"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="138" t="s">
+      <c r="P16" s="170" t="s">
         <v>167</v>
       </c>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="140"/>
+      <c r="Q16" s="171"/>
+      <c r="R16" s="172"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4904,21 +4787,21 @@
       <c r="F17" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="127" t="s">
+      <c r="P17" s="162" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="129"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="164"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4939,13 +4822,13 @@
       <c r="F18" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4966,13 +4849,13 @@
       <c r="F19" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4993,13 +4876,13 @@
       <c r="F20" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="133"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -5020,13 +4903,13 @@
       <c r="F21" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="133"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -5050,13 +4933,13 @@
       <c r="F22" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="133"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -5083,13 +4966,13 @@
       <c r="F23" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="133"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -5116,13 +4999,13 @@
       <c r="F24" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="133"/>
-      <c r="M24" s="133"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -5149,13 +5032,13 @@
       <c r="F25" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="133"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -5180,13 +5063,13 @@
       <c r="F26" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="133"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -5213,13 +5096,13 @@
       <c r="F27" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="153"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -5246,13 +5129,13 @@
       <c r="F28" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="133"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -5279,13 +5162,13 @@
       <c r="F29" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -5312,13 +5195,13 @@
       <c r="F30" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="133"/>
-      <c r="M30" s="133"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -5345,13 +5228,13 @@
       <c r="F31" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="142"/>
-      <c r="L31" s="133"/>
-      <c r="M31" s="133"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="153"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -5374,13 +5257,13 @@
       <c r="F32" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="142"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="133"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -5407,13 +5290,13 @@
       <c r="F33" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="133"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -5434,13 +5317,13 @@
       <c r="F34" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="131"/>
-      <c r="H34" s="131"/>
-      <c r="I34" s="131"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="133"/>
-      <c r="M34" s="133"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -5461,13 +5344,13 @@
       <c r="F35" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="142"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="133"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="153"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -5488,13 +5371,13 @@
       <c r="F36" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="142"/>
-      <c r="L36" s="133"/>
-      <c r="M36" s="133"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -5515,13 +5398,13 @@
       <c r="F37" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="132"/>
-      <c r="L37" s="133"/>
-      <c r="M37" s="133"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="159"/>
+      <c r="K37" s="159"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -5542,13 +5425,13 @@
       <c r="F38" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="132"/>
-      <c r="L38" s="133"/>
-      <c r="M38" s="133"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="159"/>
+      <c r="K38" s="159"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="153"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -5569,13 +5452,13 @@
       <c r="F39" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="131"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="131"/>
-      <c r="J39" s="132"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="159"/>
+      <c r="K39" s="159"/>
+      <c r="L39" s="153"/>
+      <c r="M39" s="153"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -5596,13 +5479,13 @@
       <c r="F40" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="132"/>
-      <c r="K40" s="132"/>
-      <c r="L40" s="133"/>
-      <c r="M40" s="133"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="159"/>
+      <c r="K40" s="159"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="153"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -5623,19 +5506,21 @@
       <c r="F41" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G41" s="131"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="132"/>
-      <c r="K41" s="132"/>
-      <c r="L41" s="133"/>
-      <c r="M41" s="133"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="159"/>
+      <c r="K41" s="159"/>
+      <c r="L41" s="153"/>
+      <c r="M41" s="153"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
         <v>32</v>
       </c>
-      <c r="B42" s="15"/>
+      <c r="B42" s="15" t="s">
+        <v>295</v>
+      </c>
       <c r="C42" s="15" t="s">
         <v>280</v>
       </c>
@@ -5648,13 +5533,13 @@
       <c r="F42" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G42" s="131"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="131"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="133"/>
-      <c r="M42" s="133"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="159"/>
+      <c r="K42" s="159"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="153"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -5675,13 +5560,13 @@
       <c r="F43" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G43" s="131"/>
-      <c r="H43" s="131"/>
-      <c r="I43" s="131"/>
-      <c r="J43" s="132"/>
-      <c r="K43" s="132"/>
-      <c r="L43" s="133"/>
-      <c r="M43" s="133"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="159"/>
+      <c r="K43" s="159"/>
+      <c r="L43" s="153"/>
+      <c r="M43" s="153"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -5702,13 +5587,13 @@
       <c r="F44" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G44" s="131"/>
-      <c r="H44" s="131"/>
-      <c r="I44" s="131"/>
-      <c r="J44" s="132"/>
-      <c r="K44" s="132"/>
-      <c r="L44" s="133"/>
-      <c r="M44" s="133"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="159"/>
+      <c r="K44" s="159"/>
+      <c r="L44" s="153"/>
+      <c r="M44" s="153"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -5719,13 +5604,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
-      <c r="J45" s="132"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="133"/>
-      <c r="M45" s="133"/>
+      <c r="G45" s="150"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="150"/>
+      <c r="J45" s="159"/>
+      <c r="K45" s="159"/>
+      <c r="L45" s="153"/>
+      <c r="M45" s="153"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -5736,13 +5621,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="131"/>
-      <c r="H46" s="131"/>
-      <c r="I46" s="131"/>
-      <c r="J46" s="132"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="133"/>
-      <c r="M46" s="133"/>
+      <c r="G46" s="150"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="150"/>
+      <c r="J46" s="159"/>
+      <c r="K46" s="159"/>
+      <c r="L46" s="153"/>
+      <c r="M46" s="153"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -5753,13 +5638,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
-      <c r="J47" s="132"/>
-      <c r="K47" s="132"/>
-      <c r="L47" s="133"/>
-      <c r="M47" s="133"/>
+      <c r="G47" s="150"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="150"/>
+      <c r="J47" s="159"/>
+      <c r="K47" s="159"/>
+      <c r="L47" s="153"/>
+      <c r="M47" s="153"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -5770,13 +5655,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="131"/>
-      <c r="I48" s="131"/>
-      <c r="J48" s="132"/>
-      <c r="K48" s="132"/>
-      <c r="L48" s="133"/>
-      <c r="M48" s="133"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="150"/>
+      <c r="J48" s="159"/>
+      <c r="K48" s="159"/>
+      <c r="L48" s="153"/>
+      <c r="M48" s="153"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -5787,13 +5672,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="131"/>
-      <c r="H49" s="131"/>
-      <c r="I49" s="131"/>
-      <c r="J49" s="132"/>
-      <c r="K49" s="132"/>
-      <c r="L49" s="133"/>
-      <c r="M49" s="133"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="159"/>
+      <c r="K49" s="159"/>
+      <c r="L49" s="153"/>
+      <c r="M49" s="153"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -5804,13 +5689,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="131"/>
-      <c r="J50" s="132"/>
-      <c r="K50" s="132"/>
-      <c r="L50" s="133"/>
-      <c r="M50" s="133"/>
+      <c r="G50" s="150"/>
+      <c r="H50" s="150"/>
+      <c r="I50" s="150"/>
+      <c r="J50" s="159"/>
+      <c r="K50" s="159"/>
+      <c r="L50" s="153"/>
+      <c r="M50" s="153"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -5821,13 +5706,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131"/>
-      <c r="J51" s="132"/>
-      <c r="K51" s="132"/>
-      <c r="L51" s="133"/>
-      <c r="M51" s="133"/>
+      <c r="G51" s="150"/>
+      <c r="H51" s="150"/>
+      <c r="I51" s="150"/>
+      <c r="J51" s="159"/>
+      <c r="K51" s="159"/>
+      <c r="L51" s="153"/>
+      <c r="M51" s="153"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -5838,13 +5723,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="131"/>
-      <c r="J52" s="132"/>
-      <c r="K52" s="132"/>
-      <c r="L52" s="133"/>
-      <c r="M52" s="133"/>
+      <c r="G52" s="150"/>
+      <c r="H52" s="150"/>
+      <c r="I52" s="150"/>
+      <c r="J52" s="159"/>
+      <c r="K52" s="159"/>
+      <c r="L52" s="153"/>
+      <c r="M52" s="153"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -5855,13 +5740,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="132"/>
-      <c r="K53" s="132"/>
-      <c r="L53" s="133"/>
-      <c r="M53" s="133"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="150"/>
+      <c r="I53" s="150"/>
+      <c r="J53" s="159"/>
+      <c r="K53" s="159"/>
+      <c r="L53" s="153"/>
+      <c r="M53" s="153"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5872,13 +5757,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="131"/>
-      <c r="H54" s="131"/>
-      <c r="I54" s="131"/>
-      <c r="J54" s="132"/>
-      <c r="K54" s="132"/>
-      <c r="L54" s="133"/>
-      <c r="M54" s="133"/>
+      <c r="G54" s="150"/>
+      <c r="H54" s="150"/>
+      <c r="I54" s="150"/>
+      <c r="J54" s="159"/>
+      <c r="K54" s="159"/>
+      <c r="L54" s="153"/>
+      <c r="M54" s="153"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5889,13 +5774,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="131"/>
-      <c r="H55" s="131"/>
-      <c r="I55" s="131"/>
-      <c r="J55" s="132"/>
-      <c r="K55" s="132"/>
-      <c r="L55" s="133"/>
-      <c r="M55" s="133"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="150"/>
+      <c r="I55" s="150"/>
+      <c r="J55" s="159"/>
+      <c r="K55" s="159"/>
+      <c r="L55" s="153"/>
+      <c r="M55" s="153"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5906,13 +5791,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="131"/>
-      <c r="H56" s="131"/>
-      <c r="I56" s="131"/>
-      <c r="J56" s="132"/>
-      <c r="K56" s="132"/>
-      <c r="L56" s="133"/>
-      <c r="M56" s="133"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="150"/>
+      <c r="J56" s="159"/>
+      <c r="K56" s="159"/>
+      <c r="L56" s="153"/>
+      <c r="M56" s="153"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5923,13 +5808,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="131"/>
-      <c r="I57" s="131"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="132"/>
-      <c r="L57" s="133"/>
-      <c r="M57" s="133"/>
+      <c r="G57" s="150"/>
+      <c r="H57" s="150"/>
+      <c r="I57" s="150"/>
+      <c r="J57" s="159"/>
+      <c r="K57" s="159"/>
+      <c r="L57" s="153"/>
+      <c r="M57" s="153"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5940,13 +5825,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="131"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="131"/>
-      <c r="J58" s="132"/>
-      <c r="K58" s="132"/>
-      <c r="L58" s="133"/>
-      <c r="M58" s="133"/>
+      <c r="G58" s="150"/>
+      <c r="H58" s="150"/>
+      <c r="I58" s="150"/>
+      <c r="J58" s="159"/>
+      <c r="K58" s="159"/>
+      <c r="L58" s="153"/>
+      <c r="M58" s="153"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5957,13 +5842,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="131"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="131"/>
-      <c r="J59" s="132"/>
-      <c r="K59" s="132"/>
-      <c r="L59" s="133"/>
-      <c r="M59" s="133"/>
+      <c r="G59" s="150"/>
+      <c r="H59" s="150"/>
+      <c r="I59" s="150"/>
+      <c r="J59" s="159"/>
+      <c r="K59" s="159"/>
+      <c r="L59" s="153"/>
+      <c r="M59" s="153"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5974,13 +5859,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="131"/>
-      <c r="H60" s="131"/>
-      <c r="I60" s="131"/>
-      <c r="J60" s="132"/>
-      <c r="K60" s="132"/>
-      <c r="L60" s="133"/>
-      <c r="M60" s="133"/>
+      <c r="G60" s="150"/>
+      <c r="H60" s="150"/>
+      <c r="I60" s="150"/>
+      <c r="J60" s="159"/>
+      <c r="K60" s="159"/>
+      <c r="L60" s="153"/>
+      <c r="M60" s="153"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5991,13 +5876,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="131"/>
-      <c r="H61" s="131"/>
-      <c r="I61" s="131"/>
-      <c r="J61" s="132"/>
-      <c r="K61" s="132"/>
-      <c r="L61" s="133"/>
-      <c r="M61" s="133"/>
+      <c r="G61" s="150"/>
+      <c r="H61" s="150"/>
+      <c r="I61" s="150"/>
+      <c r="J61" s="159"/>
+      <c r="K61" s="159"/>
+      <c r="L61" s="153"/>
+      <c r="M61" s="153"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -6008,13 +5893,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="131"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="131"/>
-      <c r="J62" s="132"/>
-      <c r="K62" s="132"/>
-      <c r="L62" s="133"/>
-      <c r="M62" s="133"/>
+      <c r="G62" s="150"/>
+      <c r="H62" s="150"/>
+      <c r="I62" s="150"/>
+      <c r="J62" s="159"/>
+      <c r="K62" s="159"/>
+      <c r="L62" s="153"/>
+      <c r="M62" s="153"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -6025,13 +5910,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="131"/>
-      <c r="H63" s="131"/>
-      <c r="I63" s="131"/>
-      <c r="J63" s="132"/>
-      <c r="K63" s="132"/>
-      <c r="L63" s="133"/>
-      <c r="M63" s="133"/>
+      <c r="G63" s="150"/>
+      <c r="H63" s="150"/>
+      <c r="I63" s="150"/>
+      <c r="J63" s="159"/>
+      <c r="K63" s="159"/>
+      <c r="L63" s="153"/>
+      <c r="M63" s="153"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -6042,13 +5927,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="131"/>
-      <c r="H64" s="131"/>
-      <c r="I64" s="131"/>
-      <c r="J64" s="132"/>
-      <c r="K64" s="132"/>
-      <c r="L64" s="133"/>
-      <c r="M64" s="133"/>
+      <c r="G64" s="150"/>
+      <c r="H64" s="150"/>
+      <c r="I64" s="150"/>
+      <c r="J64" s="159"/>
+      <c r="K64" s="159"/>
+      <c r="L64" s="153"/>
+      <c r="M64" s="153"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -6059,13 +5944,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="131"/>
-      <c r="H65" s="131"/>
-      <c r="I65" s="131"/>
-      <c r="J65" s="132"/>
-      <c r="K65" s="132"/>
-      <c r="L65" s="133"/>
-      <c r="M65" s="133"/>
+      <c r="G65" s="150"/>
+      <c r="H65" s="150"/>
+      <c r="I65" s="150"/>
+      <c r="J65" s="159"/>
+      <c r="K65" s="159"/>
+      <c r="L65" s="153"/>
+      <c r="M65" s="153"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -6076,13 +5961,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="131"/>
-      <c r="H66" s="131"/>
-      <c r="I66" s="131"/>
-      <c r="J66" s="132"/>
-      <c r="K66" s="132"/>
-      <c r="L66" s="133"/>
-      <c r="M66" s="133"/>
+      <c r="G66" s="150"/>
+      <c r="H66" s="150"/>
+      <c r="I66" s="150"/>
+      <c r="J66" s="159"/>
+      <c r="K66" s="159"/>
+      <c r="L66" s="153"/>
+      <c r="M66" s="153"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -6093,13 +5978,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="131"/>
-      <c r="H67" s="131"/>
-      <c r="I67" s="131"/>
-      <c r="J67" s="132"/>
-      <c r="K67" s="132"/>
-      <c r="L67" s="133"/>
-      <c r="M67" s="133"/>
+      <c r="G67" s="150"/>
+      <c r="H67" s="150"/>
+      <c r="I67" s="150"/>
+      <c r="J67" s="159"/>
+      <c r="K67" s="159"/>
+      <c r="L67" s="153"/>
+      <c r="M67" s="153"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -6110,13 +5995,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="131"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="131"/>
-      <c r="J68" s="132"/>
-      <c r="K68" s="132"/>
-      <c r="L68" s="133"/>
-      <c r="M68" s="133"/>
+      <c r="G68" s="150"/>
+      <c r="H68" s="150"/>
+      <c r="I68" s="150"/>
+      <c r="J68" s="159"/>
+      <c r="K68" s="159"/>
+      <c r="L68" s="153"/>
+      <c r="M68" s="153"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -6127,13 +6012,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="131"/>
-      <c r="H69" s="131"/>
-      <c r="I69" s="131"/>
-      <c r="J69" s="132"/>
-      <c r="K69" s="132"/>
-      <c r="L69" s="133"/>
-      <c r="M69" s="133"/>
+      <c r="G69" s="150"/>
+      <c r="H69" s="150"/>
+      <c r="I69" s="150"/>
+      <c r="J69" s="159"/>
+      <c r="K69" s="159"/>
+      <c r="L69" s="153"/>
+      <c r="M69" s="153"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -6144,13 +6029,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="131"/>
-      <c r="H70" s="131"/>
-      <c r="I70" s="131"/>
-      <c r="J70" s="132"/>
-      <c r="K70" s="132"/>
-      <c r="L70" s="133"/>
-      <c r="M70" s="133"/>
+      <c r="G70" s="150"/>
+      <c r="H70" s="150"/>
+      <c r="I70" s="150"/>
+      <c r="J70" s="159"/>
+      <c r="K70" s="159"/>
+      <c r="L70" s="153"/>
+      <c r="M70" s="153"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -6161,13 +6046,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="131"/>
-      <c r="H71" s="131"/>
-      <c r="I71" s="131"/>
-      <c r="J71" s="132"/>
-      <c r="K71" s="132"/>
-      <c r="L71" s="133"/>
-      <c r="M71" s="133"/>
+      <c r="G71" s="150"/>
+      <c r="H71" s="150"/>
+      <c r="I71" s="150"/>
+      <c r="J71" s="159"/>
+      <c r="K71" s="159"/>
+      <c r="L71" s="153"/>
+      <c r="M71" s="153"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -6175,195 +6060,6 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -6388,484 +6084,673 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
-    <cfRule type="cellIs" dxfId="110" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="103" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B71">
-    <cfRule type="cellIs" dxfId="109" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C71">
-    <cfRule type="cellIs" dxfId="24" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="102" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C71">
-    <cfRule type="cellIs" dxfId="108" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="101" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D71">
-    <cfRule type="cellIs" dxfId="107" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D71">
-    <cfRule type="cellIs" dxfId="106" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="99" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E71">
-    <cfRule type="cellIs" dxfId="105" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="98" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E71">
-    <cfRule type="cellIs" dxfId="104" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="97" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B30">
-    <cfRule type="cellIs" dxfId="103" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B30">
-    <cfRule type="cellIs" dxfId="102" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C31">
-    <cfRule type="cellIs" dxfId="101" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C31">
-    <cfRule type="cellIs" dxfId="100" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="85" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D31">
-    <cfRule type="cellIs" dxfId="99" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="84" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D31">
-    <cfRule type="cellIs" dxfId="98" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="83" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E31">
-    <cfRule type="cellIs" dxfId="97" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E31">
-    <cfRule type="cellIs" dxfId="96" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="81" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E37 C27:E38">
-    <cfRule type="cellIs" dxfId="95" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="80" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E37 C27:E38">
-    <cfRule type="cellIs" dxfId="94" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E37 C27:E38">
-    <cfRule type="cellIs" dxfId="93" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="78" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E37 C27:E38">
-    <cfRule type="cellIs" dxfId="92" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B36">
-    <cfRule type="cellIs" dxfId="91" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B36">
-    <cfRule type="cellIs" dxfId="90" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C37">
-    <cfRule type="cellIs" dxfId="89" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C37">
-    <cfRule type="cellIs" dxfId="88" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D37">
-    <cfRule type="cellIs" dxfId="87" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D37">
-    <cfRule type="cellIs" dxfId="86" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E37">
-    <cfRule type="cellIs" dxfId="85" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E37">
-    <cfRule type="cellIs" dxfId="84" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="69" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B29">
-    <cfRule type="cellIs" dxfId="83" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B29">
-    <cfRule type="cellIs" dxfId="82" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C31">
-    <cfRule type="cellIs" dxfId="81" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C31">
-    <cfRule type="cellIs" dxfId="80" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D31">
-    <cfRule type="cellIs" dxfId="79" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D31">
-    <cfRule type="cellIs" dxfId="78" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E31">
-    <cfRule type="cellIs" dxfId="77" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E31">
-    <cfRule type="cellIs" dxfId="76" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E36 C27:E37">
-    <cfRule type="cellIs" dxfId="75" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="60" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E36 C27:E37">
-    <cfRule type="cellIs" dxfId="74" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E36 C27:E37">
-    <cfRule type="cellIs" dxfId="73" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="58" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E36 C27:E37">
-    <cfRule type="cellIs" dxfId="72" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E36 C27:E37">
-    <cfRule type="cellIs" dxfId="71" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="56" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E36 C27:E37">
-    <cfRule type="cellIs" dxfId="70" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B36">
-    <cfRule type="cellIs" dxfId="69" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="54" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B36">
-    <cfRule type="cellIs" dxfId="68" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C37">
-    <cfRule type="cellIs" dxfId="67" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C37">
-    <cfRule type="cellIs" dxfId="66" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D37">
-    <cfRule type="cellIs" dxfId="65" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D37">
-    <cfRule type="cellIs" dxfId="64" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E37">
-    <cfRule type="cellIs" dxfId="63" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E37">
-    <cfRule type="cellIs" dxfId="62" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B29">
-    <cfRule type="cellIs" dxfId="61" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="46" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B29">
-    <cfRule type="cellIs" dxfId="60" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C31">
-    <cfRule type="cellIs" dxfId="59" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C31">
-    <cfRule type="cellIs" dxfId="58" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D31">
-    <cfRule type="cellIs" dxfId="57" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D31">
-    <cfRule type="cellIs" dxfId="56" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E31">
-    <cfRule type="cellIs" dxfId="55" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E31">
-    <cfRule type="cellIs" dxfId="54" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E36 C27:E37">
-    <cfRule type="cellIs" dxfId="53" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E36 C27:E37">
-    <cfRule type="cellIs" dxfId="52" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E36 C27:E37">
-    <cfRule type="cellIs" dxfId="51" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="36" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E36 C27:E37">
-    <cfRule type="cellIs" dxfId="50" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E36 C27:E37">
-    <cfRule type="cellIs" dxfId="49" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E36 C27:E37">
-    <cfRule type="cellIs" dxfId="48" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B44">
-    <cfRule type="cellIs" dxfId="47" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B44">
-    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C44">
-    <cfRule type="cellIs" dxfId="45" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C44">
-    <cfRule type="cellIs" dxfId="44" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D44">
-    <cfRule type="cellIs" dxfId="43" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D44">
-    <cfRule type="cellIs" dxfId="42" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E44">
-    <cfRule type="cellIs" dxfId="41" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E44">
-    <cfRule type="cellIs" dxfId="40" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E17">
-    <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E17">
-    <cfRule type="cellIs" dxfId="38" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B44">
-    <cfRule type="cellIs" dxfId="37" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B44">
-    <cfRule type="cellIs" dxfId="36" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C44">
-    <cfRule type="cellIs" dxfId="35" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C44">
-    <cfRule type="cellIs" dxfId="34" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D44">
-    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D44">
-    <cfRule type="cellIs" dxfId="32" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E44">
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E44">
-    <cfRule type="cellIs" dxfId="30" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E17">
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E17">
-    <cfRule type="cellIs" dxfId="28" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6888,9 +6773,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT13" sqref="AT13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6904,452 +6789,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="166" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="134"/>
-      <c r="AK2" s="134"/>
-      <c r="AL2" s="134"/>
-      <c r="AM2" s="134"/>
-      <c r="AN2" s="134"/>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="134"/>
-      <c r="AQ2" s="134"/>
-      <c r="AR2" s="134"/>
-      <c r="AS2" s="134"/>
-      <c r="AT2" s="134"/>
-      <c r="AU2" s="134"/>
-      <c r="AV2" s="134"/>
-      <c r="AW2" s="134"/>
-      <c r="AX2" s="134"/>
-      <c r="AY2" s="134"/>
-      <c r="AZ2" s="134"/>
-      <c r="BA2" s="134"/>
-      <c r="BB2" s="134"/>
-      <c r="BC2" s="134"/>
-      <c r="BD2" s="134"/>
-      <c r="BE2" s="134"/>
-      <c r="BF2" s="134"/>
-      <c r="BG2" s="134"/>
-      <c r="BH2" s="134"/>
-      <c r="BI2" s="134"/>
-      <c r="BJ2" s="134"/>
-      <c r="BK2" s="134"/>
-      <c r="BL2" s="134"/>
-      <c r="BM2" s="134"/>
-      <c r="BN2" s="134"/>
-      <c r="BO2" s="134"/>
-      <c r="BP2" s="134"/>
-      <c r="BQ2" s="134"/>
-      <c r="BR2" s="134"/>
-      <c r="BS2" s="134"/>
-      <c r="BT2" s="134"/>
-      <c r="BU2" s="134"/>
-      <c r="BV2" s="134"/>
-      <c r="BW2" s="134"/>
-      <c r="BX2" s="134"/>
-      <c r="BY2" s="134"/>
-      <c r="BZ2" s="134"/>
-      <c r="CA2" s="134"/>
-      <c r="CB2" s="134"/>
-      <c r="CC2" s="134"/>
-      <c r="CD2" s="134"/>
-      <c r="CE2" s="134"/>
-      <c r="CF2" s="134"/>
-      <c r="CG2" s="134"/>
-      <c r="CH2" s="134"/>
-      <c r="CI2" s="134"/>
-      <c r="CJ2" s="134"/>
-      <c r="CK2" s="134"/>
-      <c r="CL2" s="134"/>
-      <c r="CM2" s="134"/>
-      <c r="CN2" s="134"/>
-      <c r="CO2" s="134"/>
-      <c r="CP2" s="134"/>
-      <c r="CQ2" s="134"/>
-      <c r="CR2" s="134"/>
-      <c r="CS2" s="134"/>
-      <c r="CT2" s="134"/>
-      <c r="CU2" s="134"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="166"/>
+      <c r="AI2" s="166"/>
+      <c r="AJ2" s="166"/>
+      <c r="AK2" s="166"/>
+      <c r="AL2" s="166"/>
+      <c r="AM2" s="166"/>
+      <c r="AN2" s="166"/>
+      <c r="AO2" s="166"/>
+      <c r="AP2" s="166"/>
+      <c r="AQ2" s="166"/>
+      <c r="AR2" s="166"/>
+      <c r="AS2" s="166"/>
+      <c r="AT2" s="166"/>
+      <c r="AU2" s="166"/>
+      <c r="AV2" s="166"/>
+      <c r="AW2" s="166"/>
+      <c r="AX2" s="166"/>
+      <c r="AY2" s="166"/>
+      <c r="AZ2" s="166"/>
+      <c r="BA2" s="166"/>
+      <c r="BB2" s="166"/>
+      <c r="BC2" s="166"/>
+      <c r="BD2" s="166"/>
+      <c r="BE2" s="166"/>
+      <c r="BF2" s="166"/>
+      <c r="BG2" s="166"/>
+      <c r="BH2" s="166"/>
+      <c r="BI2" s="166"/>
+      <c r="BJ2" s="166"/>
+      <c r="BK2" s="166"/>
+      <c r="BL2" s="166"/>
+      <c r="BM2" s="166"/>
+      <c r="BN2" s="166"/>
+      <c r="BO2" s="166"/>
+      <c r="BP2" s="166"/>
+      <c r="BQ2" s="166"/>
+      <c r="BR2" s="166"/>
+      <c r="BS2" s="166"/>
+      <c r="BT2" s="166"/>
+      <c r="BU2" s="166"/>
+      <c r="BV2" s="166"/>
+      <c r="BW2" s="166"/>
+      <c r="BX2" s="166"/>
+      <c r="BY2" s="166"/>
+      <c r="BZ2" s="166"/>
+      <c r="CA2" s="166"/>
+      <c r="CB2" s="166"/>
+      <c r="CC2" s="166"/>
+      <c r="CD2" s="166"/>
+      <c r="CE2" s="166"/>
+      <c r="CF2" s="166"/>
+      <c r="CG2" s="166"/>
+      <c r="CH2" s="166"/>
+      <c r="CI2" s="166"/>
+      <c r="CJ2" s="166"/>
+      <c r="CK2" s="166"/>
+      <c r="CL2" s="166"/>
+      <c r="CM2" s="166"/>
+      <c r="CN2" s="166"/>
+      <c r="CO2" s="166"/>
+      <c r="CP2" s="166"/>
+      <c r="CQ2" s="166"/>
+      <c r="CR2" s="166"/>
+      <c r="CS2" s="166"/>
+      <c r="CT2" s="166"/>
+      <c r="CU2" s="166"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="134"/>
-      <c r="AH3" s="134"/>
-      <c r="AI3" s="134"/>
-      <c r="AJ3" s="134"/>
-      <c r="AK3" s="134"/>
-      <c r="AL3" s="134"/>
-      <c r="AM3" s="134"/>
-      <c r="AN3" s="134"/>
-      <c r="AO3" s="134"/>
-      <c r="AP3" s="134"/>
-      <c r="AQ3" s="134"/>
-      <c r="AR3" s="134"/>
-      <c r="AS3" s="134"/>
-      <c r="AT3" s="134"/>
-      <c r="AU3" s="134"/>
-      <c r="AV3" s="134"/>
-      <c r="AW3" s="134"/>
-      <c r="AX3" s="134"/>
-      <c r="AY3" s="134"/>
-      <c r="AZ3" s="134"/>
-      <c r="BA3" s="134"/>
-      <c r="BB3" s="134"/>
-      <c r="BC3" s="134"/>
-      <c r="BD3" s="134"/>
-      <c r="BE3" s="134"/>
-      <c r="BF3" s="134"/>
-      <c r="BG3" s="134"/>
-      <c r="BH3" s="134"/>
-      <c r="BI3" s="134"/>
-      <c r="BJ3" s="134"/>
-      <c r="BK3" s="134"/>
-      <c r="BL3" s="134"/>
-      <c r="BM3" s="134"/>
-      <c r="BN3" s="134"/>
-      <c r="BO3" s="134"/>
-      <c r="BP3" s="134"/>
-      <c r="BQ3" s="134"/>
-      <c r="BR3" s="134"/>
-      <c r="BS3" s="134"/>
-      <c r="BT3" s="134"/>
-      <c r="BU3" s="134"/>
-      <c r="BV3" s="134"/>
-      <c r="BW3" s="134"/>
-      <c r="BX3" s="134"/>
-      <c r="BY3" s="134"/>
-      <c r="BZ3" s="134"/>
-      <c r="CA3" s="134"/>
-      <c r="CB3" s="134"/>
-      <c r="CC3" s="134"/>
-      <c r="CD3" s="134"/>
-      <c r="CE3" s="134"/>
-      <c r="CF3" s="134"/>
-      <c r="CG3" s="134"/>
-      <c r="CH3" s="134"/>
-      <c r="CI3" s="134"/>
-      <c r="CJ3" s="134"/>
-      <c r="CK3" s="134"/>
-      <c r="CL3" s="134"/>
-      <c r="CM3" s="134"/>
-      <c r="CN3" s="134"/>
-      <c r="CO3" s="134"/>
-      <c r="CP3" s="134"/>
-      <c r="CQ3" s="134"/>
-      <c r="CR3" s="134"/>
-      <c r="CS3" s="134"/>
-      <c r="CT3" s="134"/>
-      <c r="CU3" s="134"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="166"/>
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="166"/>
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="166"/>
+      <c r="AG3" s="166"/>
+      <c r="AH3" s="166"/>
+      <c r="AI3" s="166"/>
+      <c r="AJ3" s="166"/>
+      <c r="AK3" s="166"/>
+      <c r="AL3" s="166"/>
+      <c r="AM3" s="166"/>
+      <c r="AN3" s="166"/>
+      <c r="AO3" s="166"/>
+      <c r="AP3" s="166"/>
+      <c r="AQ3" s="166"/>
+      <c r="AR3" s="166"/>
+      <c r="AS3" s="166"/>
+      <c r="AT3" s="166"/>
+      <c r="AU3" s="166"/>
+      <c r="AV3" s="166"/>
+      <c r="AW3" s="166"/>
+      <c r="AX3" s="166"/>
+      <c r="AY3" s="166"/>
+      <c r="AZ3" s="166"/>
+      <c r="BA3" s="166"/>
+      <c r="BB3" s="166"/>
+      <c r="BC3" s="166"/>
+      <c r="BD3" s="166"/>
+      <c r="BE3" s="166"/>
+      <c r="BF3" s="166"/>
+      <c r="BG3" s="166"/>
+      <c r="BH3" s="166"/>
+      <c r="BI3" s="166"/>
+      <c r="BJ3" s="166"/>
+      <c r="BK3" s="166"/>
+      <c r="BL3" s="166"/>
+      <c r="BM3" s="166"/>
+      <c r="BN3" s="166"/>
+      <c r="BO3" s="166"/>
+      <c r="BP3" s="166"/>
+      <c r="BQ3" s="166"/>
+      <c r="BR3" s="166"/>
+      <c r="BS3" s="166"/>
+      <c r="BT3" s="166"/>
+      <c r="BU3" s="166"/>
+      <c r="BV3" s="166"/>
+      <c r="BW3" s="166"/>
+      <c r="BX3" s="166"/>
+      <c r="BY3" s="166"/>
+      <c r="BZ3" s="166"/>
+      <c r="CA3" s="166"/>
+      <c r="CB3" s="166"/>
+      <c r="CC3" s="166"/>
+      <c r="CD3" s="166"/>
+      <c r="CE3" s="166"/>
+      <c r="CF3" s="166"/>
+      <c r="CG3" s="166"/>
+      <c r="CH3" s="166"/>
+      <c r="CI3" s="166"/>
+      <c r="CJ3" s="166"/>
+      <c r="CK3" s="166"/>
+      <c r="CL3" s="166"/>
+      <c r="CM3" s="166"/>
+      <c r="CN3" s="166"/>
+      <c r="CO3" s="166"/>
+      <c r="CP3" s="166"/>
+      <c r="CQ3" s="166"/>
+      <c r="CR3" s="166"/>
+      <c r="CS3" s="166"/>
+      <c r="CT3" s="166"/>
+      <c r="CU3" s="166"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="202" t="s">
+      <c r="B5" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="202" t="s">
+      <c r="C5" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="203" t="s">
+      <c r="D5" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="204"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="204"/>
-      <c r="K5" s="204"/>
-      <c r="L5" s="204"/>
-      <c r="M5" s="204"/>
-      <c r="N5" s="204"/>
-      <c r="O5" s="204"/>
-      <c r="P5" s="204"/>
-      <c r="Q5" s="204"/>
-      <c r="R5" s="204"/>
-      <c r="S5" s="204"/>
-      <c r="T5" s="204"/>
-      <c r="U5" s="204"/>
-      <c r="V5" s="204"/>
-      <c r="W5" s="204"/>
-      <c r="X5" s="204"/>
-      <c r="Y5" s="204"/>
-      <c r="Z5" s="204"/>
-      <c r="AA5" s="204"/>
-      <c r="AB5" s="204"/>
-      <c r="AC5" s="204"/>
-      <c r="AD5" s="204"/>
-      <c r="AE5" s="204"/>
-      <c r="AF5" s="204"/>
-      <c r="AG5" s="204"/>
-      <c r="AH5" s="204"/>
-      <c r="AI5" s="204"/>
-      <c r="AJ5" s="204"/>
-      <c r="AK5" s="204"/>
-      <c r="AL5" s="204"/>
-      <c r="AM5" s="204"/>
-      <c r="AN5" s="204"/>
-      <c r="AO5" s="204"/>
-      <c r="AP5" s="204"/>
-      <c r="AQ5" s="204"/>
-      <c r="AR5" s="204"/>
-      <c r="AS5" s="204"/>
-      <c r="AT5" s="204"/>
-      <c r="AU5" s="204"/>
-      <c r="AV5" s="204"/>
-      <c r="AW5" s="204"/>
-      <c r="AX5" s="204"/>
-      <c r="AY5" s="204"/>
-      <c r="AZ5" s="204"/>
-      <c r="BA5" s="204"/>
-      <c r="BB5" s="204"/>
-      <c r="BC5" s="204"/>
-      <c r="BD5" s="205"/>
-      <c r="BE5" s="206" t="s">
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="179"/>
+      <c r="Q5" s="179"/>
+      <c r="R5" s="179"/>
+      <c r="S5" s="179"/>
+      <c r="T5" s="179"/>
+      <c r="U5" s="179"/>
+      <c r="V5" s="179"/>
+      <c r="W5" s="179"/>
+      <c r="X5" s="179"/>
+      <c r="Y5" s="179"/>
+      <c r="Z5" s="179"/>
+      <c r="AA5" s="179"/>
+      <c r="AB5" s="179"/>
+      <c r="AC5" s="179"/>
+      <c r="AD5" s="179"/>
+      <c r="AE5" s="179"/>
+      <c r="AF5" s="179"/>
+      <c r="AG5" s="179"/>
+      <c r="AH5" s="179"/>
+      <c r="AI5" s="179"/>
+      <c r="AJ5" s="179"/>
+      <c r="AK5" s="179"/>
+      <c r="AL5" s="179"/>
+      <c r="AM5" s="179"/>
+      <c r="AN5" s="179"/>
+      <c r="AO5" s="179"/>
+      <c r="AP5" s="179"/>
+      <c r="AQ5" s="179"/>
+      <c r="AR5" s="179"/>
+      <c r="AS5" s="179"/>
+      <c r="AT5" s="179"/>
+      <c r="AU5" s="179"/>
+      <c r="AV5" s="179"/>
+      <c r="AW5" s="179"/>
+      <c r="AX5" s="179"/>
+      <c r="AY5" s="179"/>
+      <c r="AZ5" s="179"/>
+      <c r="BA5" s="179"/>
+      <c r="BB5" s="179"/>
+      <c r="BC5" s="179"/>
+      <c r="BD5" s="180"/>
+      <c r="BE5" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="207"/>
-      <c r="BG5" s="207"/>
-      <c r="BH5" s="207"/>
-      <c r="BI5" s="207"/>
-      <c r="BJ5" s="207"/>
-      <c r="BK5" s="207"/>
-      <c r="BL5" s="207"/>
-      <c r="BM5" s="207"/>
-      <c r="BN5" s="207"/>
-      <c r="BO5" s="207"/>
-      <c r="BP5" s="207"/>
-      <c r="BQ5" s="207"/>
-      <c r="BR5" s="207"/>
-      <c r="BS5" s="207"/>
-      <c r="BT5" s="207"/>
-      <c r="BU5" s="207"/>
-      <c r="BV5" s="207"/>
-      <c r="BW5" s="207"/>
-      <c r="BX5" s="207"/>
-      <c r="BY5" s="207"/>
-      <c r="BZ5" s="207"/>
-      <c r="CA5" s="207"/>
-      <c r="CB5" s="207"/>
-      <c r="CC5" s="207"/>
-      <c r="CD5" s="207"/>
-      <c r="CE5" s="207"/>
-      <c r="CF5" s="207"/>
-      <c r="CG5" s="207"/>
-      <c r="CH5" s="207"/>
-      <c r="CI5" s="207"/>
-      <c r="CJ5" s="207"/>
-      <c r="CK5" s="207"/>
-      <c r="CL5" s="207"/>
-      <c r="CM5" s="207"/>
-      <c r="CN5" s="207"/>
-      <c r="CO5" s="207"/>
-      <c r="CP5" s="207"/>
-      <c r="CQ5" s="207"/>
-      <c r="CR5" s="208"/>
-      <c r="CS5" s="195" t="s">
+      <c r="BF5" s="182"/>
+      <c r="BG5" s="182"/>
+      <c r="BH5" s="182"/>
+      <c r="BI5" s="182"/>
+      <c r="BJ5" s="182"/>
+      <c r="BK5" s="182"/>
+      <c r="BL5" s="182"/>
+      <c r="BM5" s="182"/>
+      <c r="BN5" s="182"/>
+      <c r="BO5" s="182"/>
+      <c r="BP5" s="182"/>
+      <c r="BQ5" s="182"/>
+      <c r="BR5" s="182"/>
+      <c r="BS5" s="182"/>
+      <c r="BT5" s="182"/>
+      <c r="BU5" s="182"/>
+      <c r="BV5" s="182"/>
+      <c r="BW5" s="182"/>
+      <c r="BX5" s="182"/>
+      <c r="BY5" s="182"/>
+      <c r="BZ5" s="182"/>
+      <c r="CA5" s="182"/>
+      <c r="CB5" s="182"/>
+      <c r="CC5" s="182"/>
+      <c r="CD5" s="182"/>
+      <c r="CE5" s="182"/>
+      <c r="CF5" s="182"/>
+      <c r="CG5" s="182"/>
+      <c r="CH5" s="182"/>
+      <c r="CI5" s="182"/>
+      <c r="CJ5" s="182"/>
+      <c r="CK5" s="182"/>
+      <c r="CL5" s="182"/>
+      <c r="CM5" s="182"/>
+      <c r="CN5" s="182"/>
+      <c r="CO5" s="182"/>
+      <c r="CP5" s="182"/>
+      <c r="CQ5" s="182"/>
+      <c r="CR5" s="183"/>
+      <c r="CS5" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="196"/>
-      <c r="CU5" s="197"/>
+      <c r="CT5" s="189"/>
+      <c r="CU5" s="190"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="200"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="178" t="s">
+      <c r="A6" s="175"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="208" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="181" t="s">
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="194" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="181"/>
-      <c r="O6" s="181"/>
-      <c r="P6" s="181"/>
-      <c r="Q6" s="181"/>
-      <c r="R6" s="181"/>
-      <c r="S6" s="181"/>
-      <c r="T6" s="181"/>
-      <c r="U6" s="181"/>
-      <c r="V6" s="181"/>
-      <c r="W6" s="181"/>
-      <c r="X6" s="181"/>
-      <c r="Y6" s="181"/>
-      <c r="Z6" s="181"/>
-      <c r="AA6" s="181"/>
-      <c r="AB6" s="181"/>
-      <c r="AC6" s="181"/>
-      <c r="AD6" s="181"/>
-      <c r="AE6" s="181"/>
-      <c r="AF6" s="181"/>
-      <c r="AG6" s="181"/>
-      <c r="AH6" s="181"/>
-      <c r="AI6" s="181"/>
-      <c r="AJ6" s="181"/>
-      <c r="AK6" s="181"/>
-      <c r="AL6" s="181"/>
-      <c r="AM6" s="181"/>
-      <c r="AN6" s="181"/>
-      <c r="AO6" s="181" t="s">
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
+      <c r="S6" s="194"/>
+      <c r="T6" s="194"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="194"/>
+      <c r="X6" s="194"/>
+      <c r="Y6" s="194"/>
+      <c r="Z6" s="194"/>
+      <c r="AA6" s="194"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="194"/>
+      <c r="AD6" s="194"/>
+      <c r="AE6" s="194"/>
+      <c r="AF6" s="194"/>
+      <c r="AG6" s="194"/>
+      <c r="AH6" s="194"/>
+      <c r="AI6" s="194"/>
+      <c r="AJ6" s="194"/>
+      <c r="AK6" s="194"/>
+      <c r="AL6" s="194"/>
+      <c r="AM6" s="194"/>
+      <c r="AN6" s="194"/>
+      <c r="AO6" s="194" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="181"/>
-      <c r="AQ6" s="181"/>
-      <c r="AR6" s="181"/>
-      <c r="AS6" s="181" t="s">
+      <c r="AP6" s="194"/>
+      <c r="AQ6" s="194"/>
+      <c r="AR6" s="194"/>
+      <c r="AS6" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="181"/>
-      <c r="AU6" s="181"/>
-      <c r="AV6" s="181" t="s">
+      <c r="AT6" s="194"/>
+      <c r="AU6" s="194"/>
+      <c r="AV6" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="181"/>
-      <c r="AX6" s="181"/>
-      <c r="AY6" s="181"/>
-      <c r="AZ6" s="181"/>
-      <c r="BA6" s="181"/>
-      <c r="BB6" s="181"/>
-      <c r="BC6" s="188" t="s">
+      <c r="AW6" s="194"/>
+      <c r="AX6" s="194"/>
+      <c r="AY6" s="194"/>
+      <c r="AZ6" s="194"/>
+      <c r="BA6" s="194"/>
+      <c r="BB6" s="194"/>
+      <c r="BC6" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="189"/>
-      <c r="BE6" s="190" t="s">
+      <c r="BD6" s="199"/>
+      <c r="BE6" s="200" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="191"/>
-      <c r="BG6" s="191"/>
-      <c r="BH6" s="191"/>
-      <c r="BI6" s="191"/>
-      <c r="BJ6" s="191"/>
-      <c r="BK6" s="192"/>
-      <c r="BL6" s="193" t="s">
+      <c r="BF6" s="201"/>
+      <c r="BG6" s="201"/>
+      <c r="BH6" s="201"/>
+      <c r="BI6" s="201"/>
+      <c r="BJ6" s="201"/>
+      <c r="BK6" s="202"/>
+      <c r="BL6" s="203" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="191"/>
-      <c r="BN6" s="191"/>
-      <c r="BO6" s="191"/>
-      <c r="BP6" s="191"/>
-      <c r="BQ6" s="191"/>
-      <c r="BR6" s="191"/>
-      <c r="BS6" s="191"/>
-      <c r="BT6" s="191"/>
-      <c r="BU6" s="191"/>
-      <c r="BV6" s="191"/>
-      <c r="BW6" s="191"/>
-      <c r="BX6" s="191"/>
-      <c r="BY6" s="191"/>
-      <c r="BZ6" s="191"/>
-      <c r="CA6" s="191"/>
-      <c r="CB6" s="191"/>
-      <c r="CC6" s="191"/>
-      <c r="CD6" s="191"/>
-      <c r="CE6" s="191"/>
-      <c r="CF6" s="191"/>
-      <c r="CG6" s="191"/>
-      <c r="CH6" s="191"/>
-      <c r="CI6" s="191"/>
-      <c r="CJ6" s="191"/>
-      <c r="CK6" s="191"/>
-      <c r="CL6" s="191"/>
-      <c r="CM6" s="191"/>
-      <c r="CN6" s="191"/>
-      <c r="CO6" s="191"/>
-      <c r="CP6" s="191"/>
-      <c r="CQ6" s="198" t="s">
+      <c r="BM6" s="201"/>
+      <c r="BN6" s="201"/>
+      <c r="BO6" s="201"/>
+      <c r="BP6" s="201"/>
+      <c r="BQ6" s="201"/>
+      <c r="BR6" s="201"/>
+      <c r="BS6" s="201"/>
+      <c r="BT6" s="201"/>
+      <c r="BU6" s="201"/>
+      <c r="BV6" s="201"/>
+      <c r="BW6" s="201"/>
+      <c r="BX6" s="201"/>
+      <c r="BY6" s="201"/>
+      <c r="BZ6" s="201"/>
+      <c r="CA6" s="201"/>
+      <c r="CB6" s="201"/>
+      <c r="CC6" s="201"/>
+      <c r="CD6" s="201"/>
+      <c r="CE6" s="201"/>
+      <c r="CF6" s="201"/>
+      <c r="CG6" s="201"/>
+      <c r="CH6" s="201"/>
+      <c r="CI6" s="201"/>
+      <c r="CJ6" s="201"/>
+      <c r="CK6" s="201"/>
+      <c r="CL6" s="201"/>
+      <c r="CM6" s="201"/>
+      <c r="CN6" s="201"/>
+      <c r="CO6" s="201"/>
+      <c r="CP6" s="201"/>
+      <c r="CQ6" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="198"/>
-      <c r="CS6" s="194" t="s">
+      <c r="CR6" s="191"/>
+      <c r="CS6" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="194" t="s">
+      <c r="CT6" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="185" t="s">
+      <c r="CU6" s="195" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="200"/>
-      <c r="B7" s="202"/>
-      <c r="C7" s="202"/>
+      <c r="A7" s="175"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -7358,341 +7243,341 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="180">
+      <c r="J7" s="186">
         <v>42980</v>
       </c>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="184">
+      <c r="K7" s="186"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="186"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="186"/>
+      <c r="R7" s="186"/>
+      <c r="S7" s="186"/>
+      <c r="T7" s="187">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>1</v>
       </c>
-      <c r="U7" s="184"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="180"/>
-      <c r="Z7" s="180"/>
-      <c r="AA7" s="180"/>
-      <c r="AB7" s="180"/>
-      <c r="AC7" s="180"/>
-      <c r="AD7" s="180"/>
-      <c r="AE7" s="180"/>
-      <c r="AF7" s="180"/>
-      <c r="AG7" s="180"/>
-      <c r="AH7" s="180"/>
-      <c r="AI7" s="180"/>
-      <c r="AJ7" s="180"/>
-      <c r="AK7" s="180"/>
-      <c r="AL7" s="180"/>
-      <c r="AM7" s="180"/>
+      <c r="U7" s="187"/>
+      <c r="V7" s="186"/>
+      <c r="W7" s="186"/>
+      <c r="X7" s="186"/>
+      <c r="Y7" s="186"/>
+      <c r="Z7" s="186"/>
+      <c r="AA7" s="186"/>
+      <c r="AB7" s="186"/>
+      <c r="AC7" s="186"/>
+      <c r="AD7" s="186"/>
+      <c r="AE7" s="186"/>
+      <c r="AF7" s="186"/>
+      <c r="AG7" s="186"/>
+      <c r="AH7" s="186"/>
+      <c r="AI7" s="186"/>
+      <c r="AJ7" s="186"/>
+      <c r="AK7" s="186"/>
+      <c r="AL7" s="186"/>
+      <c r="AM7" s="186"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="180" t="s">
+      <c r="AO7" s="186" t="s">
         <v>175</v>
       </c>
-      <c r="AP7" s="180"/>
-      <c r="AQ7" s="180"/>
-      <c r="AR7" s="180"/>
-      <c r="AS7" s="184">
+      <c r="AP7" s="186"/>
+      <c r="AQ7" s="186"/>
+      <c r="AR7" s="186"/>
+      <c r="AS7" s="187">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="184"/>
+      <c r="AT7" s="187"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="180" t="s">
+      <c r="AV7" s="186" t="s">
         <v>176</v>
       </c>
-      <c r="AW7" s="180"/>
-      <c r="AX7" s="180"/>
-      <c r="AY7" s="180"/>
-      <c r="AZ7" s="184">
+      <c r="AW7" s="186"/>
+      <c r="AX7" s="186"/>
+      <c r="AY7" s="186"/>
+      <c r="AZ7" s="187">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="184"/>
+      <c r="BA7" s="187"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="188"/>
-      <c r="BD7" s="189"/>
-      <c r="BE7" s="180" t="s">
+      <c r="BC7" s="198"/>
+      <c r="BD7" s="199"/>
+      <c r="BE7" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="BF7" s="180"/>
-      <c r="BG7" s="180" t="s">
+      <c r="BF7" s="186"/>
+      <c r="BG7" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="BH7" s="180"/>
-      <c r="BI7" s="184">
+      <c r="BH7" s="186"/>
+      <c r="BI7" s="187">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>3</v>
       </c>
-      <c r="BJ7" s="184"/>
+      <c r="BJ7" s="187"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="180">
+      <c r="BL7" s="186">
         <v>42980</v>
       </c>
-      <c r="BM7" s="180"/>
-      <c r="BN7" s="180">
+      <c r="BM7" s="186"/>
+      <c r="BN7" s="186">
         <v>42987</v>
       </c>
-      <c r="BO7" s="180"/>
-      <c r="BP7" s="180">
+      <c r="BO7" s="186"/>
+      <c r="BP7" s="186">
         <v>42994</v>
       </c>
-      <c r="BQ7" s="180"/>
-      <c r="BR7" s="180">
+      <c r="BQ7" s="186"/>
+      <c r="BR7" s="186">
         <v>43001</v>
       </c>
-      <c r="BS7" s="180"/>
-      <c r="BT7" s="180">
+      <c r="BS7" s="186"/>
+      <c r="BT7" s="186">
         <v>43022</v>
       </c>
-      <c r="BU7" s="180"/>
-      <c r="BV7" s="180">
+      <c r="BU7" s="186"/>
+      <c r="BV7" s="186">
         <v>43029</v>
       </c>
-      <c r="BW7" s="180"/>
-      <c r="BX7" s="180"/>
-      <c r="BY7" s="180"/>
-      <c r="BZ7" s="180"/>
-      <c r="CA7" s="180"/>
-      <c r="CB7" s="180"/>
-      <c r="CC7" s="180"/>
-      <c r="CD7" s="180"/>
-      <c r="CE7" s="180"/>
-      <c r="CF7" s="180"/>
-      <c r="CG7" s="180"/>
-      <c r="CH7" s="180"/>
-      <c r="CI7" s="180"/>
-      <c r="CJ7" s="180"/>
-      <c r="CK7" s="180"/>
-      <c r="CL7" s="180"/>
-      <c r="CM7" s="180"/>
-      <c r="CN7" s="184">
+      <c r="BW7" s="186"/>
+      <c r="BX7" s="186"/>
+      <c r="BY7" s="186"/>
+      <c r="BZ7" s="186"/>
+      <c r="CA7" s="186"/>
+      <c r="CB7" s="186"/>
+      <c r="CC7" s="186"/>
+      <c r="CD7" s="186"/>
+      <c r="CE7" s="186"/>
+      <c r="CF7" s="186"/>
+      <c r="CG7" s="186"/>
+      <c r="CH7" s="186"/>
+      <c r="CI7" s="186"/>
+      <c r="CJ7" s="186"/>
+      <c r="CK7" s="186"/>
+      <c r="CL7" s="186"/>
+      <c r="CM7" s="186"/>
+      <c r="CN7" s="187">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>6</v>
       </c>
-      <c r="CO7" s="184"/>
+      <c r="CO7" s="187"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="198"/>
-      <c r="CR7" s="198"/>
-      <c r="CS7" s="194"/>
-      <c r="CT7" s="194"/>
-      <c r="CU7" s="186"/>
+      <c r="CQ7" s="191"/>
+      <c r="CR7" s="191"/>
+      <c r="CS7" s="173"/>
+      <c r="CT7" s="173"/>
+      <c r="CU7" s="196"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="200"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="209" t="s">
+      <c r="A8" s="175"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="184" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209" t="s">
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
-      <c r="J8" s="173" t="s">
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="185" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173" t="s">
+      <c r="K8" s="185"/>
+      <c r="L8" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173" t="s">
+      <c r="M8" s="185"/>
+      <c r="N8" s="185" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173" t="s">
+      <c r="O8" s="185"/>
+      <c r="P8" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="173" t="s">
+      <c r="Q8" s="185"/>
+      <c r="R8" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173" t="s">
+      <c r="S8" s="185"/>
+      <c r="T8" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173" t="s">
+      <c r="U8" s="185"/>
+      <c r="V8" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="173"/>
-      <c r="X8" s="173" t="s">
+      <c r="W8" s="185"/>
+      <c r="X8" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="173" t="s">
+      <c r="Y8" s="185"/>
+      <c r="Z8" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173" t="s">
+      <c r="AA8" s="185"/>
+      <c r="AB8" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="173"/>
-      <c r="AD8" s="173" t="s">
+      <c r="AC8" s="185"/>
+      <c r="AD8" s="185" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="173"/>
-      <c r="AF8" s="173" t="s">
+      <c r="AE8" s="185"/>
+      <c r="AF8" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="173"/>
-      <c r="AH8" s="173" t="s">
+      <c r="AG8" s="185"/>
+      <c r="AH8" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="173"/>
-      <c r="AJ8" s="173" t="s">
+      <c r="AI8" s="185"/>
+      <c r="AJ8" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="173"/>
-      <c r="AL8" s="173" t="s">
+      <c r="AK8" s="185"/>
+      <c r="AL8" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="173"/>
+      <c r="AM8" s="185"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="173" t="s">
+      <c r="AO8" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="173"/>
-      <c r="AQ8" s="173" t="s">
+      <c r="AP8" s="185"/>
+      <c r="AQ8" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="173"/>
-      <c r="AS8" s="173" t="s">
+      <c r="AR8" s="185"/>
+      <c r="AS8" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="173"/>
+      <c r="AT8" s="185"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="173" t="s">
+      <c r="AV8" s="185" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="173"/>
-      <c r="AX8" s="173" t="s">
+      <c r="AW8" s="185"/>
+      <c r="AX8" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="173"/>
-      <c r="AZ8" s="173" t="s">
+      <c r="AY8" s="185"/>
+      <c r="AZ8" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="173"/>
+      <c r="BA8" s="185"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="188"/>
-      <c r="BD8" s="189"/>
-      <c r="BE8" s="183" t="s">
+      <c r="BC8" s="198"/>
+      <c r="BD8" s="199"/>
+      <c r="BE8" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="182"/>
-      <c r="BG8" s="182" t="s">
+      <c r="BF8" s="204"/>
+      <c r="BG8" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="182"/>
-      <c r="BI8" s="182" t="s">
+      <c r="BH8" s="204"/>
+      <c r="BI8" s="204" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="182"/>
+      <c r="BJ8" s="204"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="176" t="s">
+      <c r="BL8" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="177"/>
-      <c r="BN8" s="176" t="s">
+      <c r="BM8" s="206"/>
+      <c r="BN8" s="205" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="177"/>
-      <c r="BP8" s="176" t="s">
+      <c r="BO8" s="206"/>
+      <c r="BP8" s="205" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="177"/>
-      <c r="BR8" s="176" t="s">
+      <c r="BQ8" s="206"/>
+      <c r="BR8" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="177"/>
-      <c r="BT8" s="176" t="s">
+      <c r="BS8" s="206"/>
+      <c r="BT8" s="205" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="177"/>
-      <c r="BV8" s="174" t="s">
+      <c r="BU8" s="206"/>
+      <c r="BV8" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="175"/>
-      <c r="BX8" s="174" t="s">
+      <c r="BW8" s="193"/>
+      <c r="BX8" s="192" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="175"/>
-      <c r="BZ8" s="174" t="s">
+      <c r="BY8" s="193"/>
+      <c r="BZ8" s="192" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="175"/>
-      <c r="CB8" s="174" t="s">
+      <c r="CA8" s="193"/>
+      <c r="CB8" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="175"/>
-      <c r="CD8" s="174" t="s">
+      <c r="CC8" s="193"/>
+      <c r="CD8" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="175"/>
-      <c r="CF8" s="174" t="s">
+      <c r="CE8" s="193"/>
+      <c r="CF8" s="192" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="175"/>
-      <c r="CH8" s="174" t="s">
+      <c r="CG8" s="193"/>
+      <c r="CH8" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="175"/>
-      <c r="CJ8" s="174" t="s">
+      <c r="CI8" s="193"/>
+      <c r="CJ8" s="192" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="175"/>
-      <c r="CL8" s="174" t="s">
+      <c r="CK8" s="193"/>
+      <c r="CL8" s="192" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="175"/>
-      <c r="CN8" s="174" t="s">
+      <c r="CM8" s="193"/>
+      <c r="CN8" s="192" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="175"/>
+      <c r="CO8" s="193"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="198"/>
-      <c r="CR8" s="198"/>
-      <c r="CS8" s="194"/>
-      <c r="CT8" s="194"/>
-      <c r="CU8" s="186"/>
+      <c r="CQ8" s="191"/>
+      <c r="CR8" s="191"/>
+      <c r="CS8" s="173"/>
+      <c r="CT8" s="173"/>
+      <c r="CU8" s="196"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="201"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="202"/>
+      <c r="A9" s="176"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -7700,7 +7585,9 @@
       <c r="F9" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="27">
+        <v>100</v>
+      </c>
       <c r="H9" s="91"/>
       <c r="I9" s="96" t="s">
         <v>87</v>
@@ -7868,9 +7755,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="194"/>
-      <c r="CT9" s="194"/>
-      <c r="CU9" s="187"/>
+      <c r="CS9" s="173"/>
+      <c r="CT9" s="173"/>
+      <c r="CU9" s="197"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -7897,13 +7784,13 @@
         <v>15.899999999999999</v>
       </c>
       <c r="G10" s="107"/>
-      <c r="H10" s="92" t="e">
+      <c r="H10" s="92">
         <f>(G10/$G$9)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I10" s="95">
         <f t="shared" ref="I10:I41" si="1">IFERROR((H10*$I$7), "")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J10" s="107">
         <v>15</v>
@@ -8153,13 +8040,13 @@
         <v>6.8999999999999995</v>
       </c>
       <c r="G11" s="107"/>
-      <c r="H11" s="92" t="e">
+      <c r="H11" s="92">
         <f t="shared" ref="H11:H70" si="2">(G11/$G$9)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I11" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J11" s="108">
         <v>11</v>
@@ -8409,13 +8296,13 @@
         <v>18</v>
       </c>
       <c r="G12" s="107"/>
-      <c r="H12" s="92" t="e">
+      <c r="H12" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I12" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J12" s="108">
         <v>16</v>
@@ -8665,13 +8552,13 @@
         <v>18.599999999999998</v>
       </c>
       <c r="G13" s="107"/>
-      <c r="H13" s="92" t="e">
+      <c r="H13" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I13" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J13" s="108">
         <v>11</v>
@@ -8921,13 +8808,13 @@
         <v>17.7</v>
       </c>
       <c r="G14" s="107"/>
-      <c r="H14" s="92" t="e">
+      <c r="H14" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I14" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J14" s="108">
         <v>17</v>
@@ -9177,13 +9064,13 @@
         <v>4.5</v>
       </c>
       <c r="G15" s="107"/>
-      <c r="H15" s="92" t="e">
+      <c r="H15" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I15" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J15" s="108">
         <v>11</v>
@@ -9433,13 +9320,13 @@
         <v>15</v>
       </c>
       <c r="G16" s="107"/>
-      <c r="H16" s="92" t="e">
+      <c r="H16" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I16" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J16" s="108">
         <v>17</v>
@@ -9689,13 +9576,13 @@
         <v>16.8</v>
       </c>
       <c r="G17" s="107"/>
-      <c r="H17" s="92" t="e">
+      <c r="H17" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I17" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J17" s="108">
         <v>14</v>
@@ -9945,13 +9832,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G18" s="107"/>
-      <c r="H18" s="92" t="e">
+      <c r="H18" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I18" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J18" s="108">
         <v>13</v>
@@ -10201,13 +10088,13 @@
         <v>11.1</v>
       </c>
       <c r="G19" s="107"/>
-      <c r="H19" s="92" t="e">
+      <c r="H19" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I19" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J19" s="108">
         <v>13</v>
@@ -10457,13 +10344,13 @@
         <v>10.799999999999999</v>
       </c>
       <c r="G20" s="107"/>
-      <c r="H20" s="92" t="e">
+      <c r="H20" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I20" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J20" s="108">
         <v>13</v>
@@ -10701,7 +10588,9 @@
         <f>CONCATENATE(REGISTRATION!C22," ",REGISTRATION!D22," ",REGISTRATION!E22)</f>
         <v>Dayao Jan Dave V</v>
       </c>
-      <c r="D21" s="108"/>
+      <c r="D21" s="108">
+        <v>0</v>
+      </c>
       <c r="E21" s="92">
         <f t="shared" si="43"/>
         <v>0</v>
@@ -10711,15 +10600,17 @@
         <v>0</v>
       </c>
       <c r="G21" s="107"/>
-      <c r="H21" s="92" t="e">
+      <c r="H21" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I21" s="95">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J21" s="108"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="108">
+        <v>0</v>
+      </c>
       <c r="K21" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10965,13 +10856,13 @@
         <v>13.2</v>
       </c>
       <c r="G22" s="107"/>
-      <c r="H22" s="92" t="e">
+      <c r="H22" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I22" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J22" s="108">
         <v>14</v>
@@ -11221,13 +11112,13 @@
         <v>8.4</v>
       </c>
       <c r="G23" s="107"/>
-      <c r="H23" s="92" t="e">
+      <c r="H23" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I23" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J23" s="108">
         <v>13</v>
@@ -11477,13 +11368,13 @@
         <v>6.6</v>
       </c>
       <c r="G24" s="107"/>
-      <c r="H24" s="92" t="e">
+      <c r="H24" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I24" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J24" s="108">
         <v>14</v>
@@ -11733,13 +11624,13 @@
         <v>5.3999999999999995</v>
       </c>
       <c r="G25" s="107"/>
-      <c r="H25" s="92" t="e">
+      <c r="H25" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I25" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J25" s="108">
         <v>14</v>
@@ -11989,13 +11880,13 @@
         <v>23.7</v>
       </c>
       <c r="G26" s="107"/>
-      <c r="H26" s="92" t="e">
+      <c r="H26" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I26" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J26" s="108">
         <v>17</v>
@@ -12245,13 +12136,13 @@
         <v>25.8</v>
       </c>
       <c r="G27" s="107"/>
-      <c r="H27" s="92" t="e">
+      <c r="H27" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I27" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J27" s="108">
         <v>17</v>
@@ -12509,13 +12400,13 @@
         <v>15</v>
       </c>
       <c r="G28" s="107"/>
-      <c r="H28" s="92" t="e">
+      <c r="H28" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I28" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J28" s="108">
         <v>14</v>
@@ -12765,13 +12656,13 @@
         <v>22.2</v>
       </c>
       <c r="G29" s="107"/>
-      <c r="H29" s="92" t="e">
+      <c r="H29" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I29" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J29" s="108">
         <v>17</v>
@@ -13029,13 +12920,13 @@
         <v>18.599999999999998</v>
       </c>
       <c r="G30" s="107"/>
-      <c r="H30" s="92" t="e">
+      <c r="H30" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I30" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J30" s="108">
         <v>16</v>
@@ -13285,13 +13176,13 @@
         <v>12.9</v>
       </c>
       <c r="G31" s="107"/>
-      <c r="H31" s="92" t="e">
+      <c r="H31" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I31" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J31" s="108">
         <v>13</v>
@@ -13541,13 +13432,13 @@
         <v>6.8999999999999995</v>
       </c>
       <c r="G32" s="107"/>
-      <c r="H32" s="92" t="e">
+      <c r="H32" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I32" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J32" s="108">
         <v>14</v>
@@ -13797,13 +13688,13 @@
         <v>3.9</v>
       </c>
       <c r="G33" s="107"/>
-      <c r="H33" s="92" t="e">
+      <c r="H33" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I33" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J33" s="108">
         <v>10</v>
@@ -14053,13 +13944,13 @@
         <v>12.6</v>
       </c>
       <c r="G34" s="108"/>
-      <c r="H34" s="92" t="e">
+      <c r="H34" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I34" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J34" s="108">
         <v>14</v>
@@ -14309,13 +14200,13 @@
         <v>6</v>
       </c>
       <c r="G35" s="108"/>
-      <c r="H35" s="92" t="e">
+      <c r="H35" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I35" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J35" s="108">
         <v>13</v>
@@ -14565,13 +14456,13 @@
         <v>20.099999999999998</v>
       </c>
       <c r="G36" s="108"/>
-      <c r="H36" s="92" t="e">
+      <c r="H36" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I36" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J36" s="108">
         <v>18</v>
@@ -14821,13 +14712,13 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="G37" s="108"/>
-      <c r="H37" s="92" t="e">
+      <c r="H37" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I37" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J37" s="108">
         <v>13</v>
@@ -15077,13 +14968,13 @@
         <v>16.8</v>
       </c>
       <c r="G38" s="108"/>
-      <c r="H38" s="92" t="e">
+      <c r="H38" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I38" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J38" s="108">
         <v>9</v>
@@ -15333,13 +15224,13 @@
         <v>19.8</v>
       </c>
       <c r="G39" s="108"/>
-      <c r="H39" s="92" t="e">
+      <c r="H39" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I39" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J39" s="108">
         <v>15</v>
@@ -15589,13 +15480,13 @@
         <v>17.099999999999998</v>
       </c>
       <c r="G40" s="108"/>
-      <c r="H40" s="92" t="e">
+      <c r="H40" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I40" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J40" s="108">
         <v>14</v>
@@ -15825,9 +15716,9 @@
         <f>REGISTRATION!A42</f>
         <v>32</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="41" t="str">
         <f>REGISTRATION!B42</f>
-        <v>0</v>
+        <v>201501-189</v>
       </c>
       <c r="C41" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C42," ",REGISTRATION!D42," ",REGISTRATION!E42)</f>
@@ -15845,13 +15736,13 @@
         <v>5.3999999999999995</v>
       </c>
       <c r="G41" s="108"/>
-      <c r="H41" s="92" t="e">
+      <c r="H41" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I41" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J41" s="108">
         <v>13</v>
@@ -16101,13 +15992,13 @@
         <v>19.8</v>
       </c>
       <c r="G42" s="108"/>
-      <c r="H42" s="92" t="e">
+      <c r="H42" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I42" s="95">
         <f t="shared" ref="I42:I70" si="47">IFERROR((H42*$I$7), "")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J42" s="108">
         <v>16</v>
@@ -16357,13 +16248,13 @@
         <v>15</v>
       </c>
       <c r="G43" s="108"/>
-      <c r="H43" s="92" t="e">
+      <c r="H43" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I43" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J43" s="108">
         <v>11</v>
@@ -16611,13 +16502,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="108"/>
-      <c r="H44" s="92" t="e">
+      <c r="H44" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I44" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I44" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J44" s="108"/>
       <c r="K44" s="92">
@@ -16859,13 +16750,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="108"/>
-      <c r="H45" s="92" t="e">
+      <c r="H45" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I45" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J45" s="108"/>
       <c r="K45" s="92">
@@ -17107,13 +16998,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="108"/>
-      <c r="H46" s="92" t="e">
+      <c r="H46" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I46" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J46" s="108"/>
       <c r="K46" s="92">
@@ -17355,13 +17246,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="108"/>
-      <c r="H47" s="92" t="e">
+      <c r="H47" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I47" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I47" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J47" s="108"/>
       <c r="K47" s="92">
@@ -17603,13 +17494,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="108"/>
-      <c r="H48" s="92" t="e">
+      <c r="H48" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I48" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I48" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J48" s="108"/>
       <c r="K48" s="92">
@@ -17851,13 +17742,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="108"/>
-      <c r="H49" s="92" t="e">
+      <c r="H49" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I49" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I49" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J49" s="108"/>
       <c r="K49" s="92">
@@ -18099,13 +17990,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="108"/>
-      <c r="H50" s="92" t="e">
+      <c r="H50" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I50" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I50" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J50" s="108"/>
       <c r="K50" s="92">
@@ -18347,13 +18238,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="108"/>
-      <c r="H51" s="92" t="e">
+      <c r="H51" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I51" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I51" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J51" s="108"/>
       <c r="K51" s="92">
@@ -18595,13 +18486,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="108"/>
-      <c r="H52" s="92" t="e">
+      <c r="H52" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I52" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J52" s="108"/>
       <c r="K52" s="92">
@@ -18843,13 +18734,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="108"/>
-      <c r="H53" s="92" t="e">
+      <c r="H53" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I53" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J53" s="108"/>
       <c r="K53" s="92">
@@ -19091,13 +18982,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="108"/>
-      <c r="H54" s="92" t="e">
+      <c r="H54" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I54" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I54" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J54" s="108"/>
       <c r="K54" s="92">
@@ -19339,13 +19230,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="108"/>
-      <c r="H55" s="92" t="e">
+      <c r="H55" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I55" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I55" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J55" s="108"/>
       <c r="K55" s="92">
@@ -19587,13 +19478,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="108"/>
-      <c r="H56" s="92" t="e">
+      <c r="H56" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I56" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I56" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J56" s="108"/>
       <c r="K56" s="92">
@@ -19835,13 +19726,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="108"/>
-      <c r="H57" s="92" t="e">
+      <c r="H57" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I57" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I57" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J57" s="108"/>
       <c r="K57" s="92">
@@ -20083,13 +19974,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="108"/>
-      <c r="H58" s="92" t="e">
+      <c r="H58" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I58" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I58" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J58" s="108"/>
       <c r="K58" s="92">
@@ -20331,13 +20222,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="108"/>
-      <c r="H59" s="92" t="e">
+      <c r="H59" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I59" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I59" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J59" s="108"/>
       <c r="K59" s="92">
@@ -20579,13 +20470,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="108"/>
-      <c r="H60" s="92" t="e">
+      <c r="H60" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I60" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I60" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J60" s="108"/>
       <c r="K60" s="92">
@@ -20827,13 +20718,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="108"/>
-      <c r="H61" s="92" t="e">
+      <c r="H61" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I61" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I61" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J61" s="108"/>
       <c r="K61" s="92">
@@ -21075,13 +20966,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="108"/>
-      <c r="H62" s="92" t="e">
+      <c r="H62" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I62" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I62" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J62" s="108"/>
       <c r="K62" s="92">
@@ -21323,13 +21214,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="108"/>
-      <c r="H63" s="92" t="e">
+      <c r="H63" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I63" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I63" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J63" s="108"/>
       <c r="K63" s="92">
@@ -21571,13 +21462,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="108"/>
-      <c r="H64" s="92" t="e">
+      <c r="H64" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I64" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I64" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J64" s="108"/>
       <c r="K64" s="92">
@@ -21819,13 +21710,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="108"/>
-      <c r="H65" s="92" t="e">
+      <c r="H65" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I65" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I65" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J65" s="108"/>
       <c r="K65" s="92">
@@ -22067,13 +21958,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="108"/>
-      <c r="H66" s="92" t="e">
+      <c r="H66" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I66" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I66" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J66" s="108"/>
       <c r="K66" s="92">
@@ -22315,13 +22206,13 @@
         <v>0</v>
       </c>
       <c r="G67" s="108"/>
-      <c r="H67" s="92" t="e">
+      <c r="H67" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I67" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I67" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J67" s="108"/>
       <c r="K67" s="92">
@@ -22563,13 +22454,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="108"/>
-      <c r="H68" s="92" t="e">
+      <c r="H68" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I68" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I68" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J68" s="108"/>
       <c r="K68" s="92">
@@ -22811,13 +22702,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="108"/>
-      <c r="H69" s="92" t="e">
+      <c r="H69" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I69" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I69" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J69" s="108"/>
       <c r="K69" s="92">
@@ -23059,13 +22950,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="108"/>
-      <c r="H70" s="92" t="e">
+      <c r="H70" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I70" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I70" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J70" s="108"/>
       <c r="K70" s="92">
@@ -23287,6 +23178,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A2:CU3"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
     <mergeCell ref="CS6:CS9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
@@ -23303,91 +23276,9 @@
     <mergeCell ref="BG7:BH7"/>
     <mergeCell ref="CF7:CG7"/>
     <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A2:CU3"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CF8:CG8"/>
-    <mergeCell ref="CH8:CI8"/>
-    <mergeCell ref="CJ8:CK8"/>
-    <mergeCell ref="CL8:CM8"/>
-    <mergeCell ref="BP8:BQ8"/>
-    <mergeCell ref="BR8:BS8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BV8:BW8"/>
-    <mergeCell ref="BX8:BY8"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23590,9 +23481,9 @@
         <f>'RAW GRADES'!F10</f>
         <v>15.899999999999999</v>
       </c>
-      <c r="D8" s="89" t="str">
+      <c r="D8" s="89">
         <f>'RAW GRADES'!I10</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E8" s="52">
         <f>'RAW GRADES'!AN10</f>
@@ -23655,9 +23546,9 @@
         <f>'RAW GRADES'!F11</f>
         <v>6.8999999999999995</v>
       </c>
-      <c r="D9" s="89" t="str">
+      <c r="D9" s="89">
         <f>'RAW GRADES'!I11</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E9" s="52">
         <f>'RAW GRADES'!AN11</f>
@@ -23720,9 +23611,9 @@
         <f>'RAW GRADES'!F12</f>
         <v>18</v>
       </c>
-      <c r="D10" s="89" t="str">
+      <c r="D10" s="89">
         <f>'RAW GRADES'!I12</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="52">
         <f>'RAW GRADES'!AN12</f>
@@ -23785,9 +23676,9 @@
         <f>'RAW GRADES'!F13</f>
         <v>18.599999999999998</v>
       </c>
-      <c r="D11" s="89" t="str">
+      <c r="D11" s="89">
         <f>'RAW GRADES'!I13</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E11" s="52">
         <f>'RAW GRADES'!AN13</f>
@@ -23850,9 +23741,9 @@
         <f>'RAW GRADES'!F14</f>
         <v>17.7</v>
       </c>
-      <c r="D12" s="89" t="str">
+      <c r="D12" s="89">
         <f>'RAW GRADES'!I14</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E12" s="52">
         <f>'RAW GRADES'!AN14</f>
@@ -23915,9 +23806,9 @@
         <f>'RAW GRADES'!F15</f>
         <v>4.5</v>
       </c>
-      <c r="D13" s="89" t="str">
+      <c r="D13" s="89">
         <f>'RAW GRADES'!I15</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E13" s="52">
         <f>'RAW GRADES'!AN15</f>
@@ -23980,9 +23871,9 @@
         <f>'RAW GRADES'!F16</f>
         <v>15</v>
       </c>
-      <c r="D14" s="89" t="str">
+      <c r="D14" s="89">
         <f>'RAW GRADES'!I16</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E14" s="52">
         <f>'RAW GRADES'!AN16</f>
@@ -24045,9 +23936,9 @@
         <f>'RAW GRADES'!F17</f>
         <v>16.8</v>
       </c>
-      <c r="D15" s="89" t="str">
+      <c r="D15" s="89">
         <f>'RAW GRADES'!I17</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E15" s="52">
         <f>'RAW GRADES'!AN17</f>
@@ -24110,9 +24001,9 @@
         <f>'RAW GRADES'!F18</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="D16" s="89" t="str">
+      <c r="D16" s="89">
         <f>'RAW GRADES'!I18</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E16" s="52">
         <f>'RAW GRADES'!AN18</f>
@@ -24175,9 +24066,9 @@
         <f>'RAW GRADES'!F19</f>
         <v>11.1</v>
       </c>
-      <c r="D17" s="89" t="str">
+      <c r="D17" s="89">
         <f>'RAW GRADES'!I19</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E17" s="52">
         <f>'RAW GRADES'!AN19</f>
@@ -24240,9 +24131,9 @@
         <f>'RAW GRADES'!F20</f>
         <v>10.799999999999999</v>
       </c>
-      <c r="D18" s="89" t="str">
+      <c r="D18" s="89">
         <f>'RAW GRADES'!I20</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E18" s="52">
         <f>'RAW GRADES'!AN20</f>
@@ -24305,9 +24196,9 @@
         <f>'RAW GRADES'!F21</f>
         <v>0</v>
       </c>
-      <c r="D19" s="89" t="str">
+      <c r="D19" s="89">
         <f>'RAW GRADES'!I21</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E19" s="52">
         <f>'RAW GRADES'!AN21</f>
@@ -24370,9 +24261,9 @@
         <f>'RAW GRADES'!F22</f>
         <v>13.2</v>
       </c>
-      <c r="D20" s="89" t="str">
+      <c r="D20" s="89">
         <f>'RAW GRADES'!I22</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E20" s="52">
         <f>'RAW GRADES'!AN22</f>
@@ -24435,9 +24326,9 @@
         <f>'RAW GRADES'!F23</f>
         <v>8.4</v>
       </c>
-      <c r="D21" s="89" t="str">
+      <c r="D21" s="89">
         <f>'RAW GRADES'!I23</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E21" s="52">
         <f>'RAW GRADES'!AN23</f>
@@ -24500,9 +24391,9 @@
         <f>'RAW GRADES'!F24</f>
         <v>6.6</v>
       </c>
-      <c r="D22" s="89" t="str">
+      <c r="D22" s="89">
         <f>'RAW GRADES'!I24</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E22" s="52">
         <f>'RAW GRADES'!AN24</f>
@@ -24565,9 +24456,9 @@
         <f>'RAW GRADES'!F25</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="D23" s="89" t="str">
+      <c r="D23" s="89">
         <f>'RAW GRADES'!I25</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E23" s="52">
         <f>'RAW GRADES'!AN25</f>
@@ -24630,9 +24521,9 @@
         <f>'RAW GRADES'!F26</f>
         <v>23.7</v>
       </c>
-      <c r="D24" s="89" t="str">
+      <c r="D24" s="89">
         <f>'RAW GRADES'!I26</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E24" s="52">
         <f>'RAW GRADES'!AN26</f>
@@ -24695,9 +24586,9 @@
         <f>'RAW GRADES'!F27</f>
         <v>25.8</v>
       </c>
-      <c r="D25" s="89" t="str">
+      <c r="D25" s="89">
         <f>'RAW GRADES'!I27</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E25" s="52">
         <f>'RAW GRADES'!AN27</f>
@@ -24760,9 +24651,9 @@
         <f>'RAW GRADES'!F28</f>
         <v>15</v>
       </c>
-      <c r="D26" s="89" t="str">
+      <c r="D26" s="89">
         <f>'RAW GRADES'!I28</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E26" s="52">
         <f>'RAW GRADES'!AN28</f>
@@ -24825,9 +24716,9 @@
         <f>'RAW GRADES'!F29</f>
         <v>22.2</v>
       </c>
-      <c r="D27" s="89" t="str">
+      <c r="D27" s="89">
         <f>'RAW GRADES'!I29</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E27" s="52">
         <f>'RAW GRADES'!AN29</f>
@@ -24890,9 +24781,9 @@
         <f>'RAW GRADES'!F30</f>
         <v>18.599999999999998</v>
       </c>
-      <c r="D28" s="89" t="str">
+      <c r="D28" s="89">
         <f>'RAW GRADES'!I30</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E28" s="52">
         <f>'RAW GRADES'!AN30</f>
@@ -24955,9 +24846,9 @@
         <f>'RAW GRADES'!F31</f>
         <v>12.9</v>
       </c>
-      <c r="D29" s="89" t="str">
+      <c r="D29" s="89">
         <f>'RAW GRADES'!I31</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E29" s="52">
         <f>'RAW GRADES'!AN31</f>
@@ -25020,9 +24911,9 @@
         <f>'RAW GRADES'!F32</f>
         <v>6.8999999999999995</v>
       </c>
-      <c r="D30" s="89" t="str">
+      <c r="D30" s="89">
         <f>'RAW GRADES'!I32</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E30" s="52">
         <f>'RAW GRADES'!AN32</f>
@@ -25085,9 +24976,9 @@
         <f>'RAW GRADES'!F33</f>
         <v>3.9</v>
       </c>
-      <c r="D31" s="89" t="str">
+      <c r="D31" s="89">
         <f>'RAW GRADES'!I33</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E31" s="52">
         <f>'RAW GRADES'!AN33</f>
@@ -25150,9 +25041,9 @@
         <f>'RAW GRADES'!F34</f>
         <v>12.6</v>
       </c>
-      <c r="D32" s="89" t="str">
+      <c r="D32" s="89">
         <f>'RAW GRADES'!I34</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E32" s="52">
         <f>'RAW GRADES'!AN34</f>
@@ -25215,9 +25106,9 @@
         <f>'RAW GRADES'!F35</f>
         <v>6</v>
       </c>
-      <c r="D33" s="89" t="str">
+      <c r="D33" s="89">
         <f>'RAW GRADES'!I35</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E33" s="52">
         <f>'RAW GRADES'!AN35</f>
@@ -25280,9 +25171,9 @@
         <f>'RAW GRADES'!F36</f>
         <v>20.099999999999998</v>
       </c>
-      <c r="D34" s="89" t="str">
+      <c r="D34" s="89">
         <f>'RAW GRADES'!I36</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E34" s="52">
         <f>'RAW GRADES'!AN36</f>
@@ -25345,9 +25236,9 @@
         <f>'RAW GRADES'!F37</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="D35" s="89" t="str">
+      <c r="D35" s="89">
         <f>'RAW GRADES'!I37</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E35" s="52">
         <f>'RAW GRADES'!AN37</f>
@@ -25410,9 +25301,9 @@
         <f>'RAW GRADES'!F38</f>
         <v>16.8</v>
       </c>
-      <c r="D36" s="89" t="str">
+      <c r="D36" s="89">
         <f>'RAW GRADES'!I38</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E36" s="52">
         <f>'RAW GRADES'!AN38</f>
@@ -25475,9 +25366,9 @@
         <f>'RAW GRADES'!F39</f>
         <v>19.8</v>
       </c>
-      <c r="D37" s="89" t="str">
+      <c r="D37" s="89">
         <f>'RAW GRADES'!I39</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E37" s="52">
         <f>'RAW GRADES'!AN39</f>
@@ -25540,9 +25431,9 @@
         <f>'RAW GRADES'!F40</f>
         <v>17.099999999999998</v>
       </c>
-      <c r="D38" s="89" t="str">
+      <c r="D38" s="89">
         <f>'RAW GRADES'!I40</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E38" s="52">
         <f>'RAW GRADES'!AN40</f>
@@ -25605,9 +25496,9 @@
         <f>'RAW GRADES'!F41</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="D39" s="89" t="str">
+      <c r="D39" s="89">
         <f>'RAW GRADES'!I41</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E39" s="52">
         <f>'RAW GRADES'!AN41</f>
@@ -25670,9 +25561,9 @@
         <f>'RAW GRADES'!F42</f>
         <v>19.8</v>
       </c>
-      <c r="D40" s="89" t="str">
+      <c r="D40" s="89">
         <f>'RAW GRADES'!I42</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E40" s="52">
         <f>'RAW GRADES'!AN42</f>
@@ -25735,9 +25626,9 @@
         <f>'RAW GRADES'!F43</f>
         <v>15</v>
       </c>
-      <c r="D41" s="89" t="str">
+      <c r="D41" s="89">
         <f>'RAW GRADES'!I43</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E41" s="52">
         <f>'RAW GRADES'!AN43</f>
@@ -25800,9 +25691,9 @@
         <f>'RAW GRADES'!F44</f>
         <v>0</v>
       </c>
-      <c r="D42" s="89" t="str">
+      <c r="D42" s="89">
         <f>'RAW GRADES'!I44</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E42" s="52">
         <f>'RAW GRADES'!AN44</f>
@@ -25865,9 +25756,9 @@
         <f>'RAW GRADES'!F45</f>
         <v>0</v>
       </c>
-      <c r="D43" s="89" t="str">
+      <c r="D43" s="89">
         <f>'RAW GRADES'!I45</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E43" s="52">
         <f>'RAW GRADES'!AN45</f>
@@ -25930,9 +25821,9 @@
         <f>'RAW GRADES'!F46</f>
         <v>0</v>
       </c>
-      <c r="D44" s="89" t="str">
+      <c r="D44" s="89">
         <f>'RAW GRADES'!I46</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E44" s="52">
         <f>'RAW GRADES'!AN46</f>
@@ -25995,9 +25886,9 @@
         <f>'RAW GRADES'!F47</f>
         <v>0</v>
       </c>
-      <c r="D45" s="89" t="str">
+      <c r="D45" s="89">
         <f>'RAW GRADES'!I47</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E45" s="52">
         <f>'RAW GRADES'!AN47</f>
@@ -26060,9 +25951,9 @@
         <f>'RAW GRADES'!F48</f>
         <v>0</v>
       </c>
-      <c r="D46" s="89" t="str">
+      <c r="D46" s="89">
         <f>'RAW GRADES'!I48</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E46" s="52">
         <f>'RAW GRADES'!AN48</f>
@@ -26125,9 +26016,9 @@
         <f>'RAW GRADES'!F49</f>
         <v>0</v>
       </c>
-      <c r="D47" s="89" t="str">
+      <c r="D47" s="89">
         <f>'RAW GRADES'!I49</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E47" s="52">
         <f>'RAW GRADES'!AN49</f>
@@ -26190,9 +26081,9 @@
         <f>'RAW GRADES'!F50</f>
         <v>0</v>
       </c>
-      <c r="D48" s="89" t="str">
+      <c r="D48" s="89">
         <f>'RAW GRADES'!I50</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E48" s="52">
         <f>'RAW GRADES'!AN50</f>
@@ -26255,9 +26146,9 @@
         <f>'RAW GRADES'!F51</f>
         <v>0</v>
       </c>
-      <c r="D49" s="89" t="str">
+      <c r="D49" s="89">
         <f>'RAW GRADES'!I51</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E49" s="52">
         <f>'RAW GRADES'!AN51</f>
@@ -26320,9 +26211,9 @@
         <f>'RAW GRADES'!F52</f>
         <v>0</v>
       </c>
-      <c r="D50" s="89" t="str">
+      <c r="D50" s="89">
         <f>'RAW GRADES'!I52</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E50" s="52">
         <f>'RAW GRADES'!AN52</f>
@@ -26385,9 +26276,9 @@
         <f>'RAW GRADES'!F53</f>
         <v>0</v>
       </c>
-      <c r="D51" s="89" t="str">
+      <c r="D51" s="89">
         <f>'RAW GRADES'!I53</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E51" s="52">
         <f>'RAW GRADES'!AN53</f>
@@ -26450,9 +26341,9 @@
         <f>'RAW GRADES'!F54</f>
         <v>0</v>
       </c>
-      <c r="D52" s="89" t="str">
+      <c r="D52" s="89">
         <f>'RAW GRADES'!I54</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E52" s="52">
         <f>'RAW GRADES'!AN54</f>
@@ -26515,9 +26406,9 @@
         <f>'RAW GRADES'!F55</f>
         <v>0</v>
       </c>
-      <c r="D53" s="89" t="str">
+      <c r="D53" s="89">
         <f>'RAW GRADES'!I55</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E53" s="52">
         <f>'RAW GRADES'!AN55</f>
@@ -26580,9 +26471,9 @@
         <f>'RAW GRADES'!F56</f>
         <v>0</v>
       </c>
-      <c r="D54" s="89" t="str">
+      <c r="D54" s="89">
         <f>'RAW GRADES'!I56</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E54" s="52">
         <f>'RAW GRADES'!AN56</f>
@@ -26645,9 +26536,9 @@
         <f>'RAW GRADES'!F57</f>
         <v>0</v>
       </c>
-      <c r="D55" s="89" t="str">
+      <c r="D55" s="89">
         <f>'RAW GRADES'!I57</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E55" s="52">
         <f>'RAW GRADES'!AN57</f>
@@ -26710,9 +26601,9 @@
         <f>'RAW GRADES'!F58</f>
         <v>0</v>
       </c>
-      <c r="D56" s="89" t="str">
+      <c r="D56" s="89">
         <f>'RAW GRADES'!I58</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E56" s="52">
         <f>'RAW GRADES'!AN58</f>
@@ -26775,9 +26666,9 @@
         <f>'RAW GRADES'!F59</f>
         <v>0</v>
       </c>
-      <c r="D57" s="89" t="str">
+      <c r="D57" s="89">
         <f>'RAW GRADES'!I59</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E57" s="52">
         <f>'RAW GRADES'!AN59</f>
@@ -26840,9 +26731,9 @@
         <f>'RAW GRADES'!F60</f>
         <v>0</v>
       </c>
-      <c r="D58" s="89" t="str">
+      <c r="D58" s="89">
         <f>'RAW GRADES'!I60</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E58" s="52">
         <f>'RAW GRADES'!AN60</f>
@@ -26905,9 +26796,9 @@
         <f>'RAW GRADES'!F61</f>
         <v>0</v>
       </c>
-      <c r="D59" s="89" t="str">
+      <c r="D59" s="89">
         <f>'RAW GRADES'!I61</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E59" s="52">
         <f>'RAW GRADES'!AN61</f>
@@ -26970,9 +26861,9 @@
         <f>'RAW GRADES'!F62</f>
         <v>0</v>
       </c>
-      <c r="D60" s="89" t="str">
+      <c r="D60" s="89">
         <f>'RAW GRADES'!I62</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E60" s="52">
         <f>'RAW GRADES'!AN62</f>
@@ -27035,9 +26926,9 @@
         <f>'RAW GRADES'!F63</f>
         <v>0</v>
       </c>
-      <c r="D61" s="89" t="str">
+      <c r="D61" s="89">
         <f>'RAW GRADES'!I63</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E61" s="52">
         <f>'RAW GRADES'!AN63</f>
@@ -27100,9 +26991,9 @@
         <f>'RAW GRADES'!F64</f>
         <v>0</v>
       </c>
-      <c r="D62" s="89" t="str">
+      <c r="D62" s="89">
         <f>'RAW GRADES'!I64</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E62" s="52">
         <f>'RAW GRADES'!AN64</f>
@@ -27165,9 +27056,9 @@
         <f>'RAW GRADES'!F65</f>
         <v>0</v>
       </c>
-      <c r="D63" s="89" t="str">
+      <c r="D63" s="89">
         <f>'RAW GRADES'!I65</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E63" s="52">
         <f>'RAW GRADES'!AN65</f>
@@ -27230,9 +27121,9 @@
         <f>'RAW GRADES'!F66</f>
         <v>0</v>
       </c>
-      <c r="D64" s="89" t="str">
+      <c r="D64" s="89">
         <f>'RAW GRADES'!I66</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E64" s="52">
         <f>'RAW GRADES'!AN66</f>
@@ -27295,9 +27186,9 @@
         <f>'RAW GRADES'!F67</f>
         <v>0</v>
       </c>
-      <c r="D65" s="89" t="str">
+      <c r="D65" s="89">
         <f>'RAW GRADES'!I67</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E65" s="52">
         <f>'RAW GRADES'!AN67</f>
@@ -27360,9 +27251,9 @@
         <f>'RAW GRADES'!F68</f>
         <v>0</v>
       </c>
-      <c r="D66" s="89" t="str">
+      <c r="D66" s="89">
         <f>'RAW GRADES'!I68</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E66" s="52">
         <f>'RAW GRADES'!AN68</f>
@@ -27425,9 +27316,9 @@
         <f>'RAW GRADES'!F69</f>
         <v>0</v>
       </c>
-      <c r="D67" s="89" t="str">
+      <c r="D67" s="89">
         <f>'RAW GRADES'!I69</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E67" s="52">
         <f>'RAW GRADES'!AN69</f>
@@ -27490,9 +27381,9 @@
         <f>'RAW GRADES'!F70</f>
         <v>0</v>
       </c>
-      <c r="D68" s="89" t="str">
+      <c r="D68" s="89">
         <f>'RAW GRADES'!I70</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E68" s="52">
         <f>'RAW GRADES'!AN70</f>
@@ -27557,7 +27448,7 @@
     <mergeCell ref="C5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="P8:P68">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27599,106 +27490,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="257"/>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
+      <c r="A3" s="226"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="260" t="s">
+      <c r="A4" s="227" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="260"/>
-      <c r="C4" s="260"/>
-      <c r="D4" s="260"/>
-      <c r="E4" s="260"/>
-      <c r="F4" s="260"/>
+      <c r="B4" s="227"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="261" t="s">
+      <c r="A5" s="228" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="261"/>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="260" t="s">
+      <c r="A6" s="227" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="260"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
+      <c r="B6" s="227"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="262" t="s">
+      <c r="A7" s="229" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="262"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="262"/>
+      <c r="B7" s="229"/>
+      <c r="C7" s="229"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="263"/>
-      <c r="B8" s="263"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
+      <c r="A8" s="230"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="257"/>
-      <c r="B9" s="257"/>
-      <c r="C9" s="257"/>
-      <c r="D9" s="257"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="257"/>
+      <c r="A9" s="226"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="226"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="226"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="264"/>
-      <c r="B10" s="264"/>
-      <c r="C10" s="264"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
+      <c r="A10" s="231"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="231"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="265" t="s">
+      <c r="A11" s="232" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="265"/>
-      <c r="C11" s="265"/>
-      <c r="D11" s="265"/>
-      <c r="E11" s="265"/>
-      <c r="F11" s="265"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="232"/>
+      <c r="F11" s="232"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="263"/>
-      <c r="B12" s="263"/>
-      <c r="C12" s="263"/>
-      <c r="D12" s="263"/>
-      <c r="E12" s="263"/>
-      <c r="F12" s="263"/>
+      <c r="A12" s="230"/>
+      <c r="B12" s="230"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="230"/>
+      <c r="E12" s="230"/>
+      <c r="F12" s="230"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="266" t="str">
+      <c r="C13" s="233" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="266"/>
-      <c r="E13" s="266"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -27706,12 +27597,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="259" t="str">
+      <c r="C14" s="225" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="259"/>
-      <c r="E14" s="259"/>
+      <c r="D14" s="225"/>
+      <c r="E14" s="225"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -27719,12 +27610,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="245" t="str">
+      <c r="C15" s="236" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="245"/>
-      <c r="E15" s="245"/>
+      <c r="D15" s="236"/>
+      <c r="E15" s="236"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -27732,12 +27623,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="245" t="str">
+      <c r="C16" s="236" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3A</v>
       </c>
-      <c r="D16" s="245"/>
-      <c r="E16" s="245"/>
+      <c r="D16" s="236"/>
+      <c r="E16" s="236"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -27745,12 +27636,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="245" t="str">
+      <c r="C17" s="236" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="245"/>
-      <c r="E17" s="245"/>
+      <c r="D17" s="236"/>
+      <c r="E17" s="236"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -27762,42 +27653,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="246" t="s">
+      <c r="A19" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="249" t="s">
+      <c r="B19" s="240" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="246" t="s">
+      <c r="C19" s="237" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="246" t="s">
+      <c r="D19" s="237" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="251" t="s">
+      <c r="E19" s="242" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="246" t="s">
+      <c r="F19" s="237" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="247"/>
-      <c r="B20" s="250"/>
-      <c r="C20" s="247"/>
-      <c r="D20" s="247"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="254"/>
+      <c r="A20" s="238"/>
+      <c r="B20" s="241"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="238"/>
+      <c r="E20" s="243"/>
+      <c r="F20" s="245"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="248"/>
+      <c r="A21" s="239"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="248"/>
-      <c r="D21" s="248"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="255"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="239"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="246"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -28582,9 +28473,9 @@
         <f>'DEPT CHAIR'!B39</f>
         <v>Tabing Revelyn E</v>
       </c>
-      <c r="C53" s="67">
+      <c r="C53" s="67" t="str">
         <f>REGISTRATION!B42</f>
-        <v>0</v>
+        <v>201501-189</v>
       </c>
       <c r="D53" s="68">
         <f>'DEPT CHAIR'!O39</f>
@@ -29310,14 +29201,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="229" t="s">
+      <c r="A83" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="230"/>
-      <c r="C83" s="230"/>
-      <c r="D83" s="230"/>
-      <c r="E83" s="230"/>
-      <c r="F83" s="231"/>
+      <c r="B83" s="254"/>
+      <c r="C83" s="254"/>
+      <c r="D83" s="254"/>
+      <c r="E83" s="254"/>
+      <c r="F83" s="255"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -29350,11 +29241,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="256">
+      <c r="E87" s="247">
         <f ca="1">NOW()</f>
-        <v>43032.351926041665</v>
-      </c>
-      <c r="F87" s="256"/>
+        <v>43035.586093402781</v>
+      </c>
+      <c r="F87" s="247"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -29364,10 +29255,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="257" t="s">
+      <c r="E88" s="226" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="257"/>
+      <c r="F88" s="226"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -29384,8 +29275,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="257"/>
-      <c r="F90" s="257"/>
+      <c r="E90" s="226"/>
+      <c r="F90" s="226"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -29501,14 +29392,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="258" t="s">
+      <c r="A105" s="248" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="258"/>
-      <c r="C105" s="258"/>
-      <c r="D105" s="258"/>
-      <c r="E105" s="258"/>
-      <c r="F105" s="258"/>
+      <c r="B105" s="248"/>
+      <c r="C105" s="248"/>
+      <c r="D105" s="248"/>
+      <c r="E105" s="248"/>
+      <c r="F105" s="248"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -29523,124 +29414,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="242" t="s">
+      <c r="C107" s="266" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="243"/>
-      <c r="E107" s="244" t="s">
+      <c r="D107" s="235"/>
+      <c r="E107" s="234" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="243"/>
+      <c r="F107" s="235"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="238">
+      <c r="C108" s="262">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="239"/>
-      <c r="E108" s="240">
+      <c r="D108" s="263"/>
+      <c r="E108" s="264">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="241"/>
+      <c r="F108" s="265"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="232">
+      <c r="C109" s="256">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="233"/>
-      <c r="E109" s="234">
+      <c r="D109" s="257"/>
+      <c r="E109" s="258">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="235"/>
+      <c r="F109" s="259"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="232">
+      <c r="C110" s="256">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="233"/>
-      <c r="E110" s="234">
+      <c r="D110" s="257"/>
+      <c r="E110" s="258">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="235"/>
+      <c r="F110" s="259"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="232">
+      <c r="C111" s="256">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="233"/>
-      <c r="E111" s="234">
+      <c r="D111" s="257"/>
+      <c r="E111" s="258">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="235"/>
+      <c r="F111" s="259"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="236">
-        <v>0</v>
-      </c>
-      <c r="D112" s="237"/>
-      <c r="E112" s="234">
+      <c r="C112" s="260">
+        <v>0</v>
+      </c>
+      <c r="D112" s="261"/>
+      <c r="E112" s="258">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="235"/>
+      <c r="F112" s="259"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="236">
-        <v>0</v>
-      </c>
-      <c r="D113" s="237"/>
-      <c r="E113" s="234">
+      <c r="C113" s="260">
+        <v>0</v>
+      </c>
+      <c r="D113" s="261"/>
+      <c r="E113" s="258">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="235"/>
+      <c r="F113" s="259"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="225">
+      <c r="C114" s="249">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="226"/>
-      <c r="E114" s="227">
+      <c r="D114" s="250"/>
+      <c r="E114" s="251">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="228"/>
+      <c r="F114" s="252"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -29808,32 +29699,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -29850,9 +29715,35 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DCIT 65 - CS 3A/LEC AND LAB - CS 3A.xlsx
+++ b/DCIT 65 - CS 3A/LEC AND LAB - CS 3A.xlsx
@@ -2393,37 +2393,99 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2463,104 +2525,137 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2601,101 +2696,6 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2754,102 +2754,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2923,6 +2827,102 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4886,7 +4886,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4919,82 +4919,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="166"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="160"/>
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="127" t="s">
+      <c r="A6" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="128" t="s">
+      <c r="D6" s="165"/>
+      <c r="E6" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="128"/>
+      <c r="F6" s="166"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -5002,28 +5002,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="129" t="s">
+      <c r="J6" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="129"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="132"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="133" t="s">
+      <c r="E7" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="133"/>
+      <c r="F7" s="171"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -5031,28 +5031,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="133" t="s">
+      <c r="J7" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="133"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="136"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="137"/>
+      <c r="F8" s="153"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -5060,45 +5060,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="137" t="s">
+      <c r="J8" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="137"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="157" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="144" t="s">
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="147" t="s">
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="148"/>
-      <c r="L9" s="147" t="s">
+      <c r="K9" s="144"/>
+      <c r="L9" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="148"/>
+      <c r="M9" s="144"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="140"/>
-      <c r="B10" s="142"/>
+      <c r="A10" s="156"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -5108,14 +5108,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="149"/>
-      <c r="M10" s="149"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -5136,19 +5136,19 @@
       <c r="F11" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="154"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="156"/>
-      <c r="O11" s="167" t="s">
+      <c r="G11" s="146"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="148"/>
+      <c r="O11" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="168"/>
-      <c r="Q11" s="168"/>
-      <c r="R11" s="169"/>
+      <c r="P11" s="136"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="137"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -5169,21 +5169,21 @@
       <c r="F12" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="165" t="s">
+      <c r="P12" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="165"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -5204,21 +5204,21 @@
       <c r="F13" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="165" t="s">
+      <c r="P13" s="130" t="s">
         <v>172</v>
       </c>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="165"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -5239,21 +5239,21 @@
       <c r="F14" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="162" t="s">
+      <c r="P14" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="164"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="129"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -5274,21 +5274,21 @@
       <c r="F15" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="152"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="162" t="s">
+      <c r="P15" s="127" t="s">
         <v>164</v>
       </c>
-      <c r="Q15" s="163"/>
-      <c r="R15" s="164"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="129"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -5309,21 +5309,21 @@
       <c r="F16" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="170" t="s">
+      <c r="P16" s="138" t="s">
         <v>167</v>
       </c>
-      <c r="Q16" s="171"/>
-      <c r="R16" s="172"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="140"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -5344,21 +5344,21 @@
       <c r="F17" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="162" t="s">
+      <c r="P17" s="127" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="164"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="129"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -5379,13 +5379,13 @@
       <c r="F18" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -5406,13 +5406,13 @@
       <c r="F19" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -5433,13 +5433,13 @@
       <c r="F20" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -5460,13 +5460,13 @@
       <c r="F21" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="152"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -5488,13 +5488,13 @@
         <v>169</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -5521,13 +5521,13 @@
       <c r="F23" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="133"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -5554,13 +5554,13 @@
       <c r="F24" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="133"/>
+      <c r="M24" s="133"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -5585,13 +5585,13 @@
       <c r="F25" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="133"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -5618,13 +5618,13 @@
       <c r="F26" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -5651,13 +5651,13 @@
       <c r="F27" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="133"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -5684,13 +5684,13 @@
       <c r="F28" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="133"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -5717,13 +5717,13 @@
       <c r="F29" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="133"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -5750,13 +5750,13 @@
       <c r="F30" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="133"/>
+      <c r="M30" s="133"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -5783,13 +5783,13 @@
       <c r="F31" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="152"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="133"/>
+      <c r="M31" s="133"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -5812,13 +5812,13 @@
       <c r="F32" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="152"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="133"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -5845,13 +5845,13 @@
       <c r="F33" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="133"/>
+      <c r="M33" s="133"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -5872,13 +5872,13 @@
       <c r="F34" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="152"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="133"/>
+      <c r="M34" s="133"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -5899,13 +5899,13 @@
       <c r="F35" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="152"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="133"/>
+      <c r="M35" s="133"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -5926,13 +5926,13 @@
       <c r="F36" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="152"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="141"/>
+      <c r="K36" s="142"/>
+      <c r="L36" s="133"/>
+      <c r="M36" s="133"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -5953,13 +5953,13 @@
       <c r="F37" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="159"/>
-      <c r="K37" s="159"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="133"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -5980,13 +5980,13 @@
       <c r="F38" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="159"/>
-      <c r="K38" s="159"/>
-      <c r="L38" s="153"/>
-      <c r="M38" s="153"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="133"/>
+      <c r="M38" s="133"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -6007,13 +6007,13 @@
       <c r="F39" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="159"/>
-      <c r="K39" s="159"/>
-      <c r="L39" s="153"/>
-      <c r="M39" s="153"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="133"/>
+      <c r="M39" s="133"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -6034,13 +6034,13 @@
       <c r="F40" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="159"/>
-      <c r="K40" s="159"/>
-      <c r="L40" s="153"/>
-      <c r="M40" s="153"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="133"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -6061,13 +6061,13 @@
       <c r="F41" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="159"/>
-      <c r="K41" s="159"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="153"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="133"/>
+      <c r="M41" s="133"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -6088,13 +6088,13 @@
       <c r="F42" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="159"/>
-      <c r="K42" s="159"/>
-      <c r="L42" s="153"/>
-      <c r="M42" s="153"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="132"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -6115,13 +6115,13 @@
       <c r="F43" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="159"/>
-      <c r="K43" s="159"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="153"/>
+      <c r="G43" s="131"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="131"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="133"/>
+      <c r="M43" s="133"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -6132,13 +6132,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="150"/>
-      <c r="J44" s="159"/>
-      <c r="K44" s="159"/>
-      <c r="L44" s="153"/>
-      <c r="M44" s="153"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="131"/>
+      <c r="J44" s="132"/>
+      <c r="K44" s="132"/>
+      <c r="L44" s="133"/>
+      <c r="M44" s="133"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -6149,13 +6149,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="150"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="150"/>
-      <c r="J45" s="159"/>
-      <c r="K45" s="159"/>
-      <c r="L45" s="153"/>
-      <c r="M45" s="153"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="131"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -6166,13 +6166,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="150"/>
-      <c r="H46" s="150"/>
-      <c r="I46" s="150"/>
-      <c r="J46" s="159"/>
-      <c r="K46" s="159"/>
-      <c r="L46" s="153"/>
-      <c r="M46" s="153"/>
+      <c r="G46" s="131"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="131"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="133"/>
+      <c r="M46" s="133"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -6183,13 +6183,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="150"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="150"/>
-      <c r="J47" s="159"/>
-      <c r="K47" s="159"/>
-      <c r="L47" s="153"/>
-      <c r="M47" s="153"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="133"/>
+      <c r="M47" s="133"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -6200,13 +6200,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="159"/>
-      <c r="K48" s="159"/>
-      <c r="L48" s="153"/>
-      <c r="M48" s="153"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="132"/>
+      <c r="K48" s="132"/>
+      <c r="L48" s="133"/>
+      <c r="M48" s="133"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -6217,13 +6217,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="150"/>
-      <c r="H49" s="150"/>
-      <c r="I49" s="150"/>
-      <c r="J49" s="159"/>
-      <c r="K49" s="159"/>
-      <c r="L49" s="153"/>
-      <c r="M49" s="153"/>
+      <c r="G49" s="131"/>
+      <c r="H49" s="131"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="132"/>
+      <c r="K49" s="132"/>
+      <c r="L49" s="133"/>
+      <c r="M49" s="133"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -6234,13 +6234,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="150"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="150"/>
-      <c r="J50" s="159"/>
-      <c r="K50" s="159"/>
-      <c r="L50" s="153"/>
-      <c r="M50" s="153"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="132"/>
+      <c r="K50" s="132"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -6251,13 +6251,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="159"/>
-      <c r="K51" s="159"/>
-      <c r="L51" s="153"/>
-      <c r="M51" s="153"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="132"/>
+      <c r="K51" s="132"/>
+      <c r="L51" s="133"/>
+      <c r="M51" s="133"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -6268,13 +6268,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="150"/>
-      <c r="H52" s="150"/>
-      <c r="I52" s="150"/>
-      <c r="J52" s="159"/>
-      <c r="K52" s="159"/>
-      <c r="L52" s="153"/>
-      <c r="M52" s="153"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="132"/>
+      <c r="K52" s="132"/>
+      <c r="L52" s="133"/>
+      <c r="M52" s="133"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -6285,13 +6285,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="150"/>
-      <c r="J53" s="159"/>
-      <c r="K53" s="159"/>
-      <c r="L53" s="153"/>
-      <c r="M53" s="153"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="132"/>
+      <c r="K53" s="132"/>
+      <c r="L53" s="133"/>
+      <c r="M53" s="133"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -6302,13 +6302,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="150"/>
-      <c r="H54" s="150"/>
-      <c r="I54" s="150"/>
-      <c r="J54" s="159"/>
-      <c r="K54" s="159"/>
-      <c r="L54" s="153"/>
-      <c r="M54" s="153"/>
+      <c r="G54" s="131"/>
+      <c r="H54" s="131"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="132"/>
+      <c r="K54" s="132"/>
+      <c r="L54" s="133"/>
+      <c r="M54" s="133"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -6319,13 +6319,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="150"/>
-      <c r="H55" s="150"/>
-      <c r="I55" s="150"/>
-      <c r="J55" s="159"/>
-      <c r="K55" s="159"/>
-      <c r="L55" s="153"/>
-      <c r="M55" s="153"/>
+      <c r="G55" s="131"/>
+      <c r="H55" s="131"/>
+      <c r="I55" s="131"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="132"/>
+      <c r="L55" s="133"/>
+      <c r="M55" s="133"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -6336,13 +6336,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="159"/>
-      <c r="K56" s="159"/>
-      <c r="L56" s="153"/>
-      <c r="M56" s="153"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="132"/>
+      <c r="L56" s="133"/>
+      <c r="M56" s="133"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -6353,13 +6353,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="150"/>
-      <c r="H57" s="150"/>
-      <c r="I57" s="150"/>
-      <c r="J57" s="159"/>
-      <c r="K57" s="159"/>
-      <c r="L57" s="153"/>
-      <c r="M57" s="153"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="131"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="132"/>
+      <c r="L57" s="133"/>
+      <c r="M57" s="133"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -6370,13 +6370,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="150"/>
-      <c r="H58" s="150"/>
-      <c r="I58" s="150"/>
-      <c r="J58" s="159"/>
-      <c r="K58" s="159"/>
-      <c r="L58" s="153"/>
-      <c r="M58" s="153"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="132"/>
+      <c r="L58" s="133"/>
+      <c r="M58" s="133"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -6387,13 +6387,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="150"/>
-      <c r="H59" s="150"/>
-      <c r="I59" s="150"/>
-      <c r="J59" s="159"/>
-      <c r="K59" s="159"/>
-      <c r="L59" s="153"/>
-      <c r="M59" s="153"/>
+      <c r="G59" s="131"/>
+      <c r="H59" s="131"/>
+      <c r="I59" s="131"/>
+      <c r="J59" s="132"/>
+      <c r="K59" s="132"/>
+      <c r="L59" s="133"/>
+      <c r="M59" s="133"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -6404,13 +6404,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="150"/>
-      <c r="H60" s="150"/>
-      <c r="I60" s="150"/>
-      <c r="J60" s="159"/>
-      <c r="K60" s="159"/>
-      <c r="L60" s="153"/>
-      <c r="M60" s="153"/>
+      <c r="G60" s="131"/>
+      <c r="H60" s="131"/>
+      <c r="I60" s="131"/>
+      <c r="J60" s="132"/>
+      <c r="K60" s="132"/>
+      <c r="L60" s="133"/>
+      <c r="M60" s="133"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -6421,13 +6421,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="150"/>
-      <c r="H61" s="150"/>
-      <c r="I61" s="150"/>
-      <c r="J61" s="159"/>
-      <c r="K61" s="159"/>
-      <c r="L61" s="153"/>
-      <c r="M61" s="153"/>
+      <c r="G61" s="131"/>
+      <c r="H61" s="131"/>
+      <c r="I61" s="131"/>
+      <c r="J61" s="132"/>
+      <c r="K61" s="132"/>
+      <c r="L61" s="133"/>
+      <c r="M61" s="133"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -6438,13 +6438,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="150"/>
-      <c r="H62" s="150"/>
-      <c r="I62" s="150"/>
-      <c r="J62" s="159"/>
-      <c r="K62" s="159"/>
-      <c r="L62" s="153"/>
-      <c r="M62" s="153"/>
+      <c r="G62" s="131"/>
+      <c r="H62" s="131"/>
+      <c r="I62" s="131"/>
+      <c r="J62" s="132"/>
+      <c r="K62" s="132"/>
+      <c r="L62" s="133"/>
+      <c r="M62" s="133"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -6455,13 +6455,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="150"/>
-      <c r="H63" s="150"/>
-      <c r="I63" s="150"/>
-      <c r="J63" s="159"/>
-      <c r="K63" s="159"/>
-      <c r="L63" s="153"/>
-      <c r="M63" s="153"/>
+      <c r="G63" s="131"/>
+      <c r="H63" s="131"/>
+      <c r="I63" s="131"/>
+      <c r="J63" s="132"/>
+      <c r="K63" s="132"/>
+      <c r="L63" s="133"/>
+      <c r="M63" s="133"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -6472,13 +6472,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="150"/>
-      <c r="H64" s="150"/>
-      <c r="I64" s="150"/>
-      <c r="J64" s="159"/>
-      <c r="K64" s="159"/>
-      <c r="L64" s="153"/>
-      <c r="M64" s="153"/>
+      <c r="G64" s="131"/>
+      <c r="H64" s="131"/>
+      <c r="I64" s="131"/>
+      <c r="J64" s="132"/>
+      <c r="K64" s="132"/>
+      <c r="L64" s="133"/>
+      <c r="M64" s="133"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -6489,13 +6489,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="150"/>
-      <c r="H65" s="150"/>
-      <c r="I65" s="150"/>
-      <c r="J65" s="159"/>
-      <c r="K65" s="159"/>
-      <c r="L65" s="153"/>
-      <c r="M65" s="153"/>
+      <c r="G65" s="131"/>
+      <c r="H65" s="131"/>
+      <c r="I65" s="131"/>
+      <c r="J65" s="132"/>
+      <c r="K65" s="132"/>
+      <c r="L65" s="133"/>
+      <c r="M65" s="133"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -6506,13 +6506,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="150"/>
-      <c r="H66" s="150"/>
-      <c r="I66" s="150"/>
-      <c r="J66" s="159"/>
-      <c r="K66" s="159"/>
-      <c r="L66" s="153"/>
-      <c r="M66" s="153"/>
+      <c r="G66" s="131"/>
+      <c r="H66" s="131"/>
+      <c r="I66" s="131"/>
+      <c r="J66" s="132"/>
+      <c r="K66" s="132"/>
+      <c r="L66" s="133"/>
+      <c r="M66" s="133"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -6523,13 +6523,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="150"/>
-      <c r="H67" s="150"/>
-      <c r="I67" s="150"/>
-      <c r="J67" s="159"/>
-      <c r="K67" s="159"/>
-      <c r="L67" s="153"/>
-      <c r="M67" s="153"/>
+      <c r="G67" s="131"/>
+      <c r="H67" s="131"/>
+      <c r="I67" s="131"/>
+      <c r="J67" s="132"/>
+      <c r="K67" s="132"/>
+      <c r="L67" s="133"/>
+      <c r="M67" s="133"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -6540,13 +6540,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="150"/>
-      <c r="H68" s="150"/>
-      <c r="I68" s="150"/>
-      <c r="J68" s="159"/>
-      <c r="K68" s="159"/>
-      <c r="L68" s="153"/>
-      <c r="M68" s="153"/>
+      <c r="G68" s="131"/>
+      <c r="H68" s="131"/>
+      <c r="I68" s="131"/>
+      <c r="J68" s="132"/>
+      <c r="K68" s="132"/>
+      <c r="L68" s="133"/>
+      <c r="M68" s="133"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -6557,13 +6557,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="150"/>
-      <c r="H69" s="150"/>
-      <c r="I69" s="150"/>
-      <c r="J69" s="159"/>
-      <c r="K69" s="159"/>
-      <c r="L69" s="153"/>
-      <c r="M69" s="153"/>
+      <c r="G69" s="131"/>
+      <c r="H69" s="131"/>
+      <c r="I69" s="131"/>
+      <c r="J69" s="132"/>
+      <c r="K69" s="132"/>
+      <c r="L69" s="133"/>
+      <c r="M69" s="133"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -6574,13 +6574,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="150"/>
-      <c r="H70" s="150"/>
-      <c r="I70" s="150"/>
-      <c r="J70" s="159"/>
-      <c r="K70" s="159"/>
-      <c r="L70" s="153"/>
-      <c r="M70" s="153"/>
+      <c r="G70" s="131"/>
+      <c r="H70" s="131"/>
+      <c r="I70" s="131"/>
+      <c r="J70" s="132"/>
+      <c r="K70" s="132"/>
+      <c r="L70" s="133"/>
+      <c r="M70" s="133"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -6591,13 +6591,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="150"/>
-      <c r="H71" s="150"/>
-      <c r="I71" s="150"/>
-      <c r="J71" s="159"/>
-      <c r="K71" s="159"/>
-      <c r="L71" s="153"/>
-      <c r="M71" s="153"/>
+      <c r="G71" s="131"/>
+      <c r="H71" s="131"/>
+      <c r="I71" s="131"/>
+      <c r="J71" s="132"/>
+      <c r="K71" s="132"/>
+      <c r="L71" s="133"/>
+      <c r="M71" s="133"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -6605,6 +6605,195 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -6629,195 +6818,6 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:B71">
     <cfRule type="cellIs" dxfId="154" priority="115" stopIfTrue="1" operator="equal">
@@ -7378,9 +7378,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="BO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7394,452 +7394,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="166"/>
-      <c r="AB2" s="166"/>
-      <c r="AC2" s="166"/>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="166"/>
-      <c r="AG2" s="166"/>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="166"/>
-      <c r="AJ2" s="166"/>
-      <c r="AK2" s="166"/>
-      <c r="AL2" s="166"/>
-      <c r="AM2" s="166"/>
-      <c r="AN2" s="166"/>
-      <c r="AO2" s="166"/>
-      <c r="AP2" s="166"/>
-      <c r="AQ2" s="166"/>
-      <c r="AR2" s="166"/>
-      <c r="AS2" s="166"/>
-      <c r="AT2" s="166"/>
-      <c r="AU2" s="166"/>
-      <c r="AV2" s="166"/>
-      <c r="AW2" s="166"/>
-      <c r="AX2" s="166"/>
-      <c r="AY2" s="166"/>
-      <c r="AZ2" s="166"/>
-      <c r="BA2" s="166"/>
-      <c r="BB2" s="166"/>
-      <c r="BC2" s="166"/>
-      <c r="BD2" s="166"/>
-      <c r="BE2" s="166"/>
-      <c r="BF2" s="166"/>
-      <c r="BG2" s="166"/>
-      <c r="BH2" s="166"/>
-      <c r="BI2" s="166"/>
-      <c r="BJ2" s="166"/>
-      <c r="BK2" s="166"/>
-      <c r="BL2" s="166"/>
-      <c r="BM2" s="166"/>
-      <c r="BN2" s="166"/>
-      <c r="BO2" s="166"/>
-      <c r="BP2" s="166"/>
-      <c r="BQ2" s="166"/>
-      <c r="BR2" s="166"/>
-      <c r="BS2" s="166"/>
-      <c r="BT2" s="166"/>
-      <c r="BU2" s="166"/>
-      <c r="BV2" s="166"/>
-      <c r="BW2" s="166"/>
-      <c r="BX2" s="166"/>
-      <c r="BY2" s="166"/>
-      <c r="BZ2" s="166"/>
-      <c r="CA2" s="166"/>
-      <c r="CB2" s="166"/>
-      <c r="CC2" s="166"/>
-      <c r="CD2" s="166"/>
-      <c r="CE2" s="166"/>
-      <c r="CF2" s="166"/>
-      <c r="CG2" s="166"/>
-      <c r="CH2" s="166"/>
-      <c r="CI2" s="166"/>
-      <c r="CJ2" s="166"/>
-      <c r="CK2" s="166"/>
-      <c r="CL2" s="166"/>
-      <c r="CM2" s="166"/>
-      <c r="CN2" s="166"/>
-      <c r="CO2" s="166"/>
-      <c r="CP2" s="166"/>
-      <c r="CQ2" s="166"/>
-      <c r="CR2" s="166"/>
-      <c r="CS2" s="166"/>
-      <c r="CT2" s="166"/>
-      <c r="CU2" s="166"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="134"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="134"/>
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="134"/>
+      <c r="AQ2" s="134"/>
+      <c r="AR2" s="134"/>
+      <c r="AS2" s="134"/>
+      <c r="AT2" s="134"/>
+      <c r="AU2" s="134"/>
+      <c r="AV2" s="134"/>
+      <c r="AW2" s="134"/>
+      <c r="AX2" s="134"/>
+      <c r="AY2" s="134"/>
+      <c r="AZ2" s="134"/>
+      <c r="BA2" s="134"/>
+      <c r="BB2" s="134"/>
+      <c r="BC2" s="134"/>
+      <c r="BD2" s="134"/>
+      <c r="BE2" s="134"/>
+      <c r="BF2" s="134"/>
+      <c r="BG2" s="134"/>
+      <c r="BH2" s="134"/>
+      <c r="BI2" s="134"/>
+      <c r="BJ2" s="134"/>
+      <c r="BK2" s="134"/>
+      <c r="BL2" s="134"/>
+      <c r="BM2" s="134"/>
+      <c r="BN2" s="134"/>
+      <c r="BO2" s="134"/>
+      <c r="BP2" s="134"/>
+      <c r="BQ2" s="134"/>
+      <c r="BR2" s="134"/>
+      <c r="BS2" s="134"/>
+      <c r="BT2" s="134"/>
+      <c r="BU2" s="134"/>
+      <c r="BV2" s="134"/>
+      <c r="BW2" s="134"/>
+      <c r="BX2" s="134"/>
+      <c r="BY2" s="134"/>
+      <c r="BZ2" s="134"/>
+      <c r="CA2" s="134"/>
+      <c r="CB2" s="134"/>
+      <c r="CC2" s="134"/>
+      <c r="CD2" s="134"/>
+      <c r="CE2" s="134"/>
+      <c r="CF2" s="134"/>
+      <c r="CG2" s="134"/>
+      <c r="CH2" s="134"/>
+      <c r="CI2" s="134"/>
+      <c r="CJ2" s="134"/>
+      <c r="CK2" s="134"/>
+      <c r="CL2" s="134"/>
+      <c r="CM2" s="134"/>
+      <c r="CN2" s="134"/>
+      <c r="CO2" s="134"/>
+      <c r="CP2" s="134"/>
+      <c r="CQ2" s="134"/>
+      <c r="CR2" s="134"/>
+      <c r="CS2" s="134"/>
+      <c r="CT2" s="134"/>
+      <c r="CU2" s="134"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="166"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="166"/>
-      <c r="AC3" s="166"/>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="166"/>
-      <c r="AG3" s="166"/>
-      <c r="AH3" s="166"/>
-      <c r="AI3" s="166"/>
-      <c r="AJ3" s="166"/>
-      <c r="AK3" s="166"/>
-      <c r="AL3" s="166"/>
-      <c r="AM3" s="166"/>
-      <c r="AN3" s="166"/>
-      <c r="AO3" s="166"/>
-      <c r="AP3" s="166"/>
-      <c r="AQ3" s="166"/>
-      <c r="AR3" s="166"/>
-      <c r="AS3" s="166"/>
-      <c r="AT3" s="166"/>
-      <c r="AU3" s="166"/>
-      <c r="AV3" s="166"/>
-      <c r="AW3" s="166"/>
-      <c r="AX3" s="166"/>
-      <c r="AY3" s="166"/>
-      <c r="AZ3" s="166"/>
-      <c r="BA3" s="166"/>
-      <c r="BB3" s="166"/>
-      <c r="BC3" s="166"/>
-      <c r="BD3" s="166"/>
-      <c r="BE3" s="166"/>
-      <c r="BF3" s="166"/>
-      <c r="BG3" s="166"/>
-      <c r="BH3" s="166"/>
-      <c r="BI3" s="166"/>
-      <c r="BJ3" s="166"/>
-      <c r="BK3" s="166"/>
-      <c r="BL3" s="166"/>
-      <c r="BM3" s="166"/>
-      <c r="BN3" s="166"/>
-      <c r="BO3" s="166"/>
-      <c r="BP3" s="166"/>
-      <c r="BQ3" s="166"/>
-      <c r="BR3" s="166"/>
-      <c r="BS3" s="166"/>
-      <c r="BT3" s="166"/>
-      <c r="BU3" s="166"/>
-      <c r="BV3" s="166"/>
-      <c r="BW3" s="166"/>
-      <c r="BX3" s="166"/>
-      <c r="BY3" s="166"/>
-      <c r="BZ3" s="166"/>
-      <c r="CA3" s="166"/>
-      <c r="CB3" s="166"/>
-      <c r="CC3" s="166"/>
-      <c r="CD3" s="166"/>
-      <c r="CE3" s="166"/>
-      <c r="CF3" s="166"/>
-      <c r="CG3" s="166"/>
-      <c r="CH3" s="166"/>
-      <c r="CI3" s="166"/>
-      <c r="CJ3" s="166"/>
-      <c r="CK3" s="166"/>
-      <c r="CL3" s="166"/>
-      <c r="CM3" s="166"/>
-      <c r="CN3" s="166"/>
-      <c r="CO3" s="166"/>
-      <c r="CP3" s="166"/>
-      <c r="CQ3" s="166"/>
-      <c r="CR3" s="166"/>
-      <c r="CS3" s="166"/>
-      <c r="CT3" s="166"/>
-      <c r="CU3" s="166"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="134"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="134"/>
+      <c r="AJ3" s="134"/>
+      <c r="AK3" s="134"/>
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="134"/>
+      <c r="AU3" s="134"/>
+      <c r="AV3" s="134"/>
+      <c r="AW3" s="134"/>
+      <c r="AX3" s="134"/>
+      <c r="AY3" s="134"/>
+      <c r="AZ3" s="134"/>
+      <c r="BA3" s="134"/>
+      <c r="BB3" s="134"/>
+      <c r="BC3" s="134"/>
+      <c r="BD3" s="134"/>
+      <c r="BE3" s="134"/>
+      <c r="BF3" s="134"/>
+      <c r="BG3" s="134"/>
+      <c r="BH3" s="134"/>
+      <c r="BI3" s="134"/>
+      <c r="BJ3" s="134"/>
+      <c r="BK3" s="134"/>
+      <c r="BL3" s="134"/>
+      <c r="BM3" s="134"/>
+      <c r="BN3" s="134"/>
+      <c r="BO3" s="134"/>
+      <c r="BP3" s="134"/>
+      <c r="BQ3" s="134"/>
+      <c r="BR3" s="134"/>
+      <c r="BS3" s="134"/>
+      <c r="BT3" s="134"/>
+      <c r="BU3" s="134"/>
+      <c r="BV3" s="134"/>
+      <c r="BW3" s="134"/>
+      <c r="BX3" s="134"/>
+      <c r="BY3" s="134"/>
+      <c r="BZ3" s="134"/>
+      <c r="CA3" s="134"/>
+      <c r="CB3" s="134"/>
+      <c r="CC3" s="134"/>
+      <c r="CD3" s="134"/>
+      <c r="CE3" s="134"/>
+      <c r="CF3" s="134"/>
+      <c r="CG3" s="134"/>
+      <c r="CH3" s="134"/>
+      <c r="CI3" s="134"/>
+      <c r="CJ3" s="134"/>
+      <c r="CK3" s="134"/>
+      <c r="CL3" s="134"/>
+      <c r="CM3" s="134"/>
+      <c r="CN3" s="134"/>
+      <c r="CO3" s="134"/>
+      <c r="CP3" s="134"/>
+      <c r="CQ3" s="134"/>
+      <c r="CR3" s="134"/>
+      <c r="CS3" s="134"/>
+      <c r="CT3" s="134"/>
+      <c r="CU3" s="134"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="177" t="s">
+      <c r="B5" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="177" t="s">
+      <c r="C5" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="178" t="s">
+      <c r="D5" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="179"/>
-      <c r="S5" s="179"/>
-      <c r="T5" s="179"/>
-      <c r="U5" s="179"/>
-      <c r="V5" s="179"/>
-      <c r="W5" s="179"/>
-      <c r="X5" s="179"/>
-      <c r="Y5" s="179"/>
-      <c r="Z5" s="179"/>
-      <c r="AA5" s="179"/>
-      <c r="AB5" s="179"/>
-      <c r="AC5" s="179"/>
-      <c r="AD5" s="179"/>
-      <c r="AE5" s="179"/>
-      <c r="AF5" s="179"/>
-      <c r="AG5" s="179"/>
-      <c r="AH5" s="179"/>
-      <c r="AI5" s="179"/>
-      <c r="AJ5" s="179"/>
-      <c r="AK5" s="179"/>
-      <c r="AL5" s="179"/>
-      <c r="AM5" s="179"/>
-      <c r="AN5" s="179"/>
-      <c r="AO5" s="179"/>
-      <c r="AP5" s="179"/>
-      <c r="AQ5" s="179"/>
-      <c r="AR5" s="179"/>
-      <c r="AS5" s="179"/>
-      <c r="AT5" s="179"/>
-      <c r="AU5" s="179"/>
-      <c r="AV5" s="179"/>
-      <c r="AW5" s="179"/>
-      <c r="AX5" s="179"/>
-      <c r="AY5" s="179"/>
-      <c r="AZ5" s="179"/>
-      <c r="BA5" s="179"/>
-      <c r="BB5" s="179"/>
-      <c r="BC5" s="179"/>
-      <c r="BD5" s="180"/>
-      <c r="BE5" s="181" t="s">
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="206"/>
+      <c r="R5" s="206"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="206"/>
+      <c r="U5" s="206"/>
+      <c r="V5" s="206"/>
+      <c r="W5" s="206"/>
+      <c r="X5" s="206"/>
+      <c r="Y5" s="206"/>
+      <c r="Z5" s="206"/>
+      <c r="AA5" s="206"/>
+      <c r="AB5" s="206"/>
+      <c r="AC5" s="206"/>
+      <c r="AD5" s="206"/>
+      <c r="AE5" s="206"/>
+      <c r="AF5" s="206"/>
+      <c r="AG5" s="206"/>
+      <c r="AH5" s="206"/>
+      <c r="AI5" s="206"/>
+      <c r="AJ5" s="206"/>
+      <c r="AK5" s="206"/>
+      <c r="AL5" s="206"/>
+      <c r="AM5" s="206"/>
+      <c r="AN5" s="206"/>
+      <c r="AO5" s="206"/>
+      <c r="AP5" s="206"/>
+      <c r="AQ5" s="206"/>
+      <c r="AR5" s="206"/>
+      <c r="AS5" s="206"/>
+      <c r="AT5" s="206"/>
+      <c r="AU5" s="206"/>
+      <c r="AV5" s="206"/>
+      <c r="AW5" s="206"/>
+      <c r="AX5" s="206"/>
+      <c r="AY5" s="206"/>
+      <c r="AZ5" s="206"/>
+      <c r="BA5" s="206"/>
+      <c r="BB5" s="206"/>
+      <c r="BC5" s="206"/>
+      <c r="BD5" s="207"/>
+      <c r="BE5" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="182"/>
-      <c r="BG5" s="182"/>
-      <c r="BH5" s="182"/>
-      <c r="BI5" s="182"/>
-      <c r="BJ5" s="182"/>
-      <c r="BK5" s="182"/>
-      <c r="BL5" s="182"/>
-      <c r="BM5" s="182"/>
-      <c r="BN5" s="182"/>
-      <c r="BO5" s="182"/>
-      <c r="BP5" s="182"/>
-      <c r="BQ5" s="182"/>
-      <c r="BR5" s="182"/>
-      <c r="BS5" s="182"/>
-      <c r="BT5" s="182"/>
-      <c r="BU5" s="182"/>
-      <c r="BV5" s="182"/>
-      <c r="BW5" s="182"/>
-      <c r="BX5" s="182"/>
-      <c r="BY5" s="182"/>
-      <c r="BZ5" s="182"/>
-      <c r="CA5" s="182"/>
-      <c r="CB5" s="182"/>
-      <c r="CC5" s="182"/>
-      <c r="CD5" s="182"/>
-      <c r="CE5" s="182"/>
-      <c r="CF5" s="182"/>
-      <c r="CG5" s="182"/>
-      <c r="CH5" s="182"/>
-      <c r="CI5" s="182"/>
-      <c r="CJ5" s="182"/>
-      <c r="CK5" s="182"/>
-      <c r="CL5" s="182"/>
-      <c r="CM5" s="182"/>
-      <c r="CN5" s="182"/>
-      <c r="CO5" s="182"/>
-      <c r="CP5" s="182"/>
-      <c r="CQ5" s="182"/>
-      <c r="CR5" s="183"/>
-      <c r="CS5" s="188" t="s">
+      <c r="BF5" s="209"/>
+      <c r="BG5" s="209"/>
+      <c r="BH5" s="209"/>
+      <c r="BI5" s="209"/>
+      <c r="BJ5" s="209"/>
+      <c r="BK5" s="209"/>
+      <c r="BL5" s="209"/>
+      <c r="BM5" s="209"/>
+      <c r="BN5" s="209"/>
+      <c r="BO5" s="209"/>
+      <c r="BP5" s="209"/>
+      <c r="BQ5" s="209"/>
+      <c r="BR5" s="209"/>
+      <c r="BS5" s="209"/>
+      <c r="BT5" s="209"/>
+      <c r="BU5" s="209"/>
+      <c r="BV5" s="209"/>
+      <c r="BW5" s="209"/>
+      <c r="BX5" s="209"/>
+      <c r="BY5" s="209"/>
+      <c r="BZ5" s="209"/>
+      <c r="CA5" s="209"/>
+      <c r="CB5" s="209"/>
+      <c r="CC5" s="209"/>
+      <c r="CD5" s="209"/>
+      <c r="CE5" s="209"/>
+      <c r="CF5" s="209"/>
+      <c r="CG5" s="209"/>
+      <c r="CH5" s="209"/>
+      <c r="CI5" s="209"/>
+      <c r="CJ5" s="209"/>
+      <c r="CK5" s="209"/>
+      <c r="CL5" s="209"/>
+      <c r="CM5" s="209"/>
+      <c r="CN5" s="209"/>
+      <c r="CO5" s="209"/>
+      <c r="CP5" s="209"/>
+      <c r="CQ5" s="209"/>
+      <c r="CR5" s="210"/>
+      <c r="CS5" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="189"/>
-      <c r="CU5" s="190"/>
+      <c r="CT5" s="198"/>
+      <c r="CU5" s="199"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="175"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="210" t="s">
+      <c r="A6" s="202"/>
+      <c r="B6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="194" t="s">
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="181" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="194"/>
-      <c r="P6" s="194"/>
-      <c r="Q6" s="194"/>
-      <c r="R6" s="194"/>
-      <c r="S6" s="194"/>
-      <c r="T6" s="194"/>
-      <c r="U6" s="194"/>
-      <c r="V6" s="194"/>
-      <c r="W6" s="194"/>
-      <c r="X6" s="194"/>
-      <c r="Y6" s="194"/>
-      <c r="Z6" s="194"/>
-      <c r="AA6" s="194"/>
-      <c r="AB6" s="194"/>
-      <c r="AC6" s="194"/>
-      <c r="AD6" s="194"/>
-      <c r="AE6" s="194"/>
-      <c r="AF6" s="194"/>
-      <c r="AG6" s="194"/>
-      <c r="AH6" s="194"/>
-      <c r="AI6" s="194"/>
-      <c r="AJ6" s="194"/>
-      <c r="AK6" s="194"/>
-      <c r="AL6" s="194"/>
-      <c r="AM6" s="194"/>
-      <c r="AN6" s="194"/>
-      <c r="AO6" s="194" t="s">
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="181"/>
+      <c r="P6" s="181"/>
+      <c r="Q6" s="181"/>
+      <c r="R6" s="181"/>
+      <c r="S6" s="181"/>
+      <c r="T6" s="181"/>
+      <c r="U6" s="181"/>
+      <c r="V6" s="181"/>
+      <c r="W6" s="181"/>
+      <c r="X6" s="181"/>
+      <c r="Y6" s="181"/>
+      <c r="Z6" s="181"/>
+      <c r="AA6" s="181"/>
+      <c r="AB6" s="181"/>
+      <c r="AC6" s="181"/>
+      <c r="AD6" s="181"/>
+      <c r="AE6" s="181"/>
+      <c r="AF6" s="181"/>
+      <c r="AG6" s="181"/>
+      <c r="AH6" s="181"/>
+      <c r="AI6" s="181"/>
+      <c r="AJ6" s="181"/>
+      <c r="AK6" s="181"/>
+      <c r="AL6" s="181"/>
+      <c r="AM6" s="181"/>
+      <c r="AN6" s="181"/>
+      <c r="AO6" s="181" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="194"/>
-      <c r="AQ6" s="194"/>
-      <c r="AR6" s="194"/>
-      <c r="AS6" s="194" t="s">
+      <c r="AP6" s="181"/>
+      <c r="AQ6" s="181"/>
+      <c r="AR6" s="181"/>
+      <c r="AS6" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="194"/>
-      <c r="AU6" s="194"/>
-      <c r="AV6" s="194" t="s">
+      <c r="AT6" s="181"/>
+      <c r="AU6" s="181"/>
+      <c r="AV6" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="194"/>
-      <c r="AX6" s="194"/>
-      <c r="AY6" s="194"/>
-      <c r="AZ6" s="194"/>
-      <c r="BA6" s="194"/>
-      <c r="BB6" s="194"/>
-      <c r="BC6" s="198" t="s">
+      <c r="AW6" s="181"/>
+      <c r="AX6" s="181"/>
+      <c r="AY6" s="181"/>
+      <c r="AZ6" s="181"/>
+      <c r="BA6" s="181"/>
+      <c r="BB6" s="181"/>
+      <c r="BC6" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="199"/>
-      <c r="BE6" s="200" t="s">
+      <c r="BD6" s="191"/>
+      <c r="BE6" s="192" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="201"/>
-      <c r="BG6" s="201"/>
-      <c r="BH6" s="201"/>
-      <c r="BI6" s="201"/>
-      <c r="BJ6" s="201"/>
-      <c r="BK6" s="202"/>
-      <c r="BL6" s="203" t="s">
+      <c r="BF6" s="193"/>
+      <c r="BG6" s="193"/>
+      <c r="BH6" s="193"/>
+      <c r="BI6" s="193"/>
+      <c r="BJ6" s="193"/>
+      <c r="BK6" s="194"/>
+      <c r="BL6" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="201"/>
-      <c r="BN6" s="201"/>
-      <c r="BO6" s="201"/>
-      <c r="BP6" s="201"/>
-      <c r="BQ6" s="201"/>
-      <c r="BR6" s="201"/>
-      <c r="BS6" s="201"/>
-      <c r="BT6" s="201"/>
-      <c r="BU6" s="201"/>
-      <c r="BV6" s="201"/>
-      <c r="BW6" s="201"/>
-      <c r="BX6" s="201"/>
-      <c r="BY6" s="201"/>
-      <c r="BZ6" s="201"/>
-      <c r="CA6" s="201"/>
-      <c r="CB6" s="201"/>
-      <c r="CC6" s="201"/>
-      <c r="CD6" s="201"/>
-      <c r="CE6" s="201"/>
-      <c r="CF6" s="201"/>
-      <c r="CG6" s="201"/>
-      <c r="CH6" s="201"/>
-      <c r="CI6" s="201"/>
-      <c r="CJ6" s="201"/>
-      <c r="CK6" s="201"/>
-      <c r="CL6" s="201"/>
-      <c r="CM6" s="201"/>
-      <c r="CN6" s="201"/>
-      <c r="CO6" s="201"/>
-      <c r="CP6" s="201"/>
-      <c r="CQ6" s="191" t="s">
+      <c r="BM6" s="193"/>
+      <c r="BN6" s="193"/>
+      <c r="BO6" s="193"/>
+      <c r="BP6" s="193"/>
+      <c r="BQ6" s="193"/>
+      <c r="BR6" s="193"/>
+      <c r="BS6" s="193"/>
+      <c r="BT6" s="193"/>
+      <c r="BU6" s="193"/>
+      <c r="BV6" s="193"/>
+      <c r="BW6" s="193"/>
+      <c r="BX6" s="193"/>
+      <c r="BY6" s="193"/>
+      <c r="BZ6" s="193"/>
+      <c r="CA6" s="193"/>
+      <c r="CB6" s="193"/>
+      <c r="CC6" s="193"/>
+      <c r="CD6" s="193"/>
+      <c r="CE6" s="193"/>
+      <c r="CF6" s="193"/>
+      <c r="CG6" s="193"/>
+      <c r="CH6" s="193"/>
+      <c r="CI6" s="193"/>
+      <c r="CJ6" s="193"/>
+      <c r="CK6" s="193"/>
+      <c r="CL6" s="193"/>
+      <c r="CM6" s="193"/>
+      <c r="CN6" s="193"/>
+      <c r="CO6" s="193"/>
+      <c r="CP6" s="193"/>
+      <c r="CQ6" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="191"/>
-      <c r="CS6" s="173" t="s">
+      <c r="CR6" s="200"/>
+      <c r="CS6" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="173" t="s">
+      <c r="CT6" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="195" t="s">
+      <c r="CU6" s="187" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="175"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -7848,347 +7848,347 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="186">
+      <c r="J7" s="180">
         <v>42980</v>
       </c>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186">
+      <c r="K7" s="180"/>
+      <c r="L7" s="180">
         <v>43035</v>
       </c>
-      <c r="M7" s="186"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="186"/>
-      <c r="R7" s="186"/>
-      <c r="S7" s="186"/>
-      <c r="T7" s="187">
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="186">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>3</v>
       </c>
-      <c r="U7" s="187"/>
-      <c r="V7" s="186"/>
-      <c r="W7" s="186"/>
-      <c r="X7" s="186"/>
-      <c r="Y7" s="186"/>
-      <c r="Z7" s="186"/>
-      <c r="AA7" s="186"/>
-      <c r="AB7" s="186"/>
-      <c r="AC7" s="186"/>
-      <c r="AD7" s="186"/>
-      <c r="AE7" s="186"/>
-      <c r="AF7" s="186"/>
-      <c r="AG7" s="186"/>
-      <c r="AH7" s="186"/>
-      <c r="AI7" s="186"/>
-      <c r="AJ7" s="186"/>
-      <c r="AK7" s="186"/>
-      <c r="AL7" s="186"/>
-      <c r="AM7" s="186"/>
+      <c r="U7" s="186"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="180"/>
+      <c r="AB7" s="180"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="180"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
+      <c r="AI7" s="180"/>
+      <c r="AJ7" s="180"/>
+      <c r="AK7" s="180"/>
+      <c r="AL7" s="180"/>
+      <c r="AM7" s="180"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="186" t="s">
+      <c r="AO7" s="180" t="s">
         <v>175</v>
       </c>
-      <c r="AP7" s="186"/>
-      <c r="AQ7" s="186"/>
-      <c r="AR7" s="186"/>
-      <c r="AS7" s="187">
+      <c r="AP7" s="180"/>
+      <c r="AQ7" s="180"/>
+      <c r="AR7" s="180"/>
+      <c r="AS7" s="186">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="187"/>
+      <c r="AT7" s="186"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="186" t="s">
+      <c r="AV7" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="AW7" s="186"/>
-      <c r="AX7" s="186"/>
-      <c r="AY7" s="186"/>
-      <c r="AZ7" s="187">
+      <c r="AW7" s="180"/>
+      <c r="AX7" s="180"/>
+      <c r="AY7" s="180"/>
+      <c r="AZ7" s="186">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="187"/>
+      <c r="BA7" s="186"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="198"/>
-      <c r="BD7" s="199"/>
-      <c r="BE7" s="186" t="s">
+      <c r="BC7" s="190"/>
+      <c r="BD7" s="191"/>
+      <c r="BE7" s="180" t="s">
         <v>288</v>
       </c>
-      <c r="BF7" s="186"/>
-      <c r="BG7" s="186" t="s">
+      <c r="BF7" s="180"/>
+      <c r="BG7" s="180" t="s">
         <v>288</v>
       </c>
-      <c r="BH7" s="186"/>
-      <c r="BI7" s="204">
+      <c r="BH7" s="180"/>
+      <c r="BI7" s="184">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>3</v>
       </c>
-      <c r="BJ7" s="205"/>
+      <c r="BJ7" s="185"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="186">
+      <c r="BL7" s="180">
         <v>42980</v>
       </c>
-      <c r="BM7" s="186"/>
-      <c r="BN7" s="186">
+      <c r="BM7" s="180"/>
+      <c r="BN7" s="180">
         <v>42987</v>
       </c>
-      <c r="BO7" s="186"/>
-      <c r="BP7" s="186">
+      <c r="BO7" s="180"/>
+      <c r="BP7" s="180">
         <v>42994</v>
       </c>
-      <c r="BQ7" s="186"/>
-      <c r="BR7" s="186">
+      <c r="BQ7" s="180"/>
+      <c r="BR7" s="180">
         <v>43001</v>
       </c>
-      <c r="BS7" s="186"/>
-      <c r="BT7" s="186">
+      <c r="BS7" s="180"/>
+      <c r="BT7" s="180">
         <v>43022</v>
       </c>
-      <c r="BU7" s="186"/>
-      <c r="BV7" s="186">
+      <c r="BU7" s="180"/>
+      <c r="BV7" s="180">
         <v>43029</v>
       </c>
-      <c r="BW7" s="186"/>
-      <c r="BX7" s="186">
+      <c r="BW7" s="180"/>
+      <c r="BX7" s="180">
         <v>43036</v>
       </c>
-      <c r="BY7" s="186"/>
-      <c r="BZ7" s="186">
+      <c r="BY7" s="180"/>
+      <c r="BZ7" s="180">
         <v>43036</v>
       </c>
-      <c r="CA7" s="186"/>
-      <c r="CB7" s="186"/>
-      <c r="CC7" s="186"/>
-      <c r="CD7" s="186"/>
-      <c r="CE7" s="186"/>
-      <c r="CF7" s="186"/>
-      <c r="CG7" s="186"/>
-      <c r="CH7" s="186"/>
-      <c r="CI7" s="186"/>
-      <c r="CJ7" s="186"/>
-      <c r="CK7" s="186"/>
-      <c r="CL7" s="186"/>
-      <c r="CM7" s="186"/>
-      <c r="CN7" s="187">
+      <c r="CA7" s="180"/>
+      <c r="CB7" s="180"/>
+      <c r="CC7" s="180"/>
+      <c r="CD7" s="180"/>
+      <c r="CE7" s="180"/>
+      <c r="CF7" s="180"/>
+      <c r="CG7" s="180"/>
+      <c r="CH7" s="180"/>
+      <c r="CI7" s="180"/>
+      <c r="CJ7" s="180"/>
+      <c r="CK7" s="180"/>
+      <c r="CL7" s="180"/>
+      <c r="CM7" s="180"/>
+      <c r="CN7" s="186">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>9</v>
       </c>
-      <c r="CO7" s="187"/>
+      <c r="CO7" s="186"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="191"/>
-      <c r="CR7" s="191"/>
-      <c r="CS7" s="173"/>
-      <c r="CT7" s="173"/>
-      <c r="CU7" s="196"/>
+      <c r="CQ7" s="200"/>
+      <c r="CR7" s="200"/>
+      <c r="CS7" s="196"/>
+      <c r="CT7" s="196"/>
+      <c r="CU7" s="188"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="175"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="184" t="s">
+      <c r="A8" s="202"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="211" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184" t="s">
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="185" t="s">
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185" t="s">
+      <c r="K8" s="173"/>
+      <c r="L8" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185" t="s">
+      <c r="M8" s="173"/>
+      <c r="N8" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185" t="s">
+      <c r="O8" s="173"/>
+      <c r="P8" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="185"/>
-      <c r="R8" s="185" t="s">
+      <c r="Q8" s="173"/>
+      <c r="R8" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="185"/>
-      <c r="T8" s="185" t="s">
+      <c r="S8" s="173"/>
+      <c r="T8" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="185"/>
-      <c r="V8" s="185" t="s">
+      <c r="U8" s="173"/>
+      <c r="V8" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="185"/>
-      <c r="X8" s="185" t="s">
+      <c r="W8" s="173"/>
+      <c r="X8" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="185"/>
-      <c r="Z8" s="185" t="s">
+      <c r="Y8" s="173"/>
+      <c r="Z8" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="185"/>
-      <c r="AB8" s="185" t="s">
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="185"/>
-      <c r="AD8" s="185" t="s">
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="185"/>
-      <c r="AF8" s="185" t="s">
+      <c r="AE8" s="173"/>
+      <c r="AF8" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="185"/>
-      <c r="AH8" s="185" t="s">
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="185"/>
-      <c r="AJ8" s="185" t="s">
+      <c r="AI8" s="173"/>
+      <c r="AJ8" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="185"/>
-      <c r="AL8" s="185" t="s">
+      <c r="AK8" s="173"/>
+      <c r="AL8" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="185"/>
+      <c r="AM8" s="173"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="185" t="s">
+      <c r="AO8" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="185"/>
-      <c r="AQ8" s="185" t="s">
+      <c r="AP8" s="173"/>
+      <c r="AQ8" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="185"/>
-      <c r="AS8" s="185" t="s">
+      <c r="AR8" s="173"/>
+      <c r="AS8" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="185"/>
+      <c r="AT8" s="173"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="185" t="s">
+      <c r="AV8" s="173" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="185"/>
-      <c r="AX8" s="185" t="s">
+      <c r="AW8" s="173"/>
+      <c r="AX8" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="185"/>
-      <c r="AZ8" s="185" t="s">
+      <c r="AY8" s="173"/>
+      <c r="AZ8" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="185"/>
+      <c r="BA8" s="173"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="198"/>
-      <c r="BD8" s="199"/>
-      <c r="BE8" s="209" t="s">
+      <c r="BC8" s="190"/>
+      <c r="BD8" s="191"/>
+      <c r="BE8" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="206"/>
-      <c r="BG8" s="206" t="s">
+      <c r="BF8" s="182"/>
+      <c r="BG8" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="206"/>
-      <c r="BI8" s="206" t="s">
+      <c r="BH8" s="182"/>
+      <c r="BI8" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="206"/>
+      <c r="BJ8" s="182"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="207" t="s">
+      <c r="BL8" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="208"/>
-      <c r="BN8" s="207" t="s">
+      <c r="BM8" s="177"/>
+      <c r="BN8" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="208"/>
-      <c r="BP8" s="207" t="s">
+      <c r="BO8" s="177"/>
+      <c r="BP8" s="176" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="208"/>
-      <c r="BR8" s="207" t="s">
+      <c r="BQ8" s="177"/>
+      <c r="BR8" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="208"/>
-      <c r="BT8" s="207" t="s">
+      <c r="BS8" s="177"/>
+      <c r="BT8" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="208"/>
-      <c r="BV8" s="192" t="s">
+      <c r="BU8" s="177"/>
+      <c r="BV8" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="193"/>
-      <c r="BX8" s="192" t="s">
+      <c r="BW8" s="175"/>
+      <c r="BX8" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="193"/>
-      <c r="BZ8" s="192" t="s">
+      <c r="BY8" s="175"/>
+      <c r="BZ8" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="193"/>
-      <c r="CB8" s="192" t="s">
+      <c r="CA8" s="175"/>
+      <c r="CB8" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="193"/>
-      <c r="CD8" s="192" t="s">
+      <c r="CC8" s="175"/>
+      <c r="CD8" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="193"/>
-      <c r="CF8" s="192" t="s">
+      <c r="CE8" s="175"/>
+      <c r="CF8" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="193"/>
-      <c r="CH8" s="192" t="s">
+      <c r="CG8" s="175"/>
+      <c r="CH8" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="193"/>
-      <c r="CJ8" s="192" t="s">
+      <c r="CI8" s="175"/>
+      <c r="CJ8" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="193"/>
-      <c r="CL8" s="192" t="s">
+      <c r="CK8" s="175"/>
+      <c r="CL8" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="193"/>
-      <c r="CN8" s="192" t="s">
+      <c r="CM8" s="175"/>
+      <c r="CN8" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="193"/>
+      <c r="CO8" s="175"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="191"/>
-      <c r="CR8" s="191"/>
-      <c r="CS8" s="173"/>
-      <c r="CT8" s="173"/>
-      <c r="CU8" s="196"/>
+      <c r="CQ8" s="200"/>
+      <c r="CR8" s="200"/>
+      <c r="CS8" s="196"/>
+      <c r="CT8" s="196"/>
+      <c r="CU8" s="188"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="176"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="177"/>
+      <c r="A9" s="203"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -8378,9 +8378,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="173"/>
-      <c r="CT9" s="173"/>
-      <c r="CU9" s="197"/>
+      <c r="CS9" s="196"/>
+      <c r="CT9" s="196"/>
+      <c r="CU9" s="189"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -9929,12 +9929,10 @@
         <f t="shared" si="25"/>
         <v>100</v>
       </c>
-      <c r="BR15" s="107">
-        <v>70</v>
-      </c>
+      <c r="BR15" s="107"/>
       <c r="BS15" s="92">
         <f t="shared" si="26"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="108">
         <v>100</v>
@@ -9943,19 +9941,15 @@
         <f t="shared" si="27"/>
         <v>100</v>
       </c>
-      <c r="BV15" s="107">
-        <v>80</v>
-      </c>
+      <c r="BV15" s="107"/>
       <c r="BW15" s="92">
         <f t="shared" si="28"/>
-        <v>80</v>
-      </c>
-      <c r="BX15" s="107">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BX15" s="107"/>
       <c r="BY15" s="92">
         <f t="shared" si="29"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="BZ15" s="107">
         <v>100</v>
@@ -9964,12 +9958,10 @@
         <f t="shared" si="30"/>
         <v>100</v>
       </c>
-      <c r="CB15" s="107">
-        <v>70</v>
-      </c>
+      <c r="CB15" s="107"/>
       <c r="CC15" s="92">
         <f t="shared" si="31"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="CD15" s="107"/>
       <c r="CE15" s="92" t="str">
@@ -10003,19 +9995,19 @@
       </c>
       <c r="CP15" s="103">
         <f t="shared" si="38"/>
-        <v>42.222222222222221</v>
+        <v>26.111111111111111</v>
       </c>
       <c r="CQ15" s="99">
         <f t="shared" si="39"/>
-        <v>42.222222222222221</v>
+        <v>26.111111111111111</v>
       </c>
       <c r="CR15" s="99">
         <f t="shared" si="40"/>
-        <v>42.22</v>
+        <v>26.11</v>
       </c>
       <c r="CS15" s="104">
         <f t="shared" si="41"/>
-        <v>32.599999999999994</v>
+        <v>22.933999999999997</v>
       </c>
       <c r="CT15" s="104">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14583,12 +14575,10 @@
         <f t="shared" si="25"/>
         <v>100</v>
       </c>
-      <c r="BR32" s="107">
-        <v>70</v>
-      </c>
+      <c r="BR32" s="107"/>
       <c r="BS32" s="92">
         <f t="shared" si="26"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="BT32" s="108">
         <v>100</v>
@@ -14597,19 +14587,15 @@
         <f t="shared" si="27"/>
         <v>100</v>
       </c>
-      <c r="BV32" s="107">
-        <v>80</v>
-      </c>
+      <c r="BV32" s="107"/>
       <c r="BW32" s="92">
         <f t="shared" si="28"/>
-        <v>80</v>
-      </c>
-      <c r="BX32" s="107">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BX32" s="107"/>
       <c r="BY32" s="92">
         <f t="shared" si="29"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="BZ32" s="107">
         <v>100</v>
@@ -14618,12 +14604,10 @@
         <f t="shared" si="30"/>
         <v>100</v>
       </c>
-      <c r="CB32" s="107">
-        <v>70</v>
-      </c>
+      <c r="CB32" s="107"/>
       <c r="CC32" s="92">
         <f t="shared" si="31"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="CD32" s="107"/>
       <c r="CE32" s="92" t="str">
@@ -14657,19 +14641,19 @@
       </c>
       <c r="CP32" s="103">
         <f t="shared" si="38"/>
-        <v>42.222222222222221</v>
+        <v>26.111111111111111</v>
       </c>
       <c r="CQ32" s="99">
         <f t="shared" si="39"/>
-        <v>42.222222222222221</v>
+        <v>26.111111111111111</v>
       </c>
       <c r="CR32" s="99">
         <f t="shared" si="40"/>
-        <v>42.22</v>
+        <v>26.11</v>
       </c>
       <c r="CS32" s="104">
         <f t="shared" si="45"/>
-        <v>31.867999999999999</v>
+        <v>22.201999999999998</v>
       </c>
       <c r="CT32" s="104">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -24365,6 +24349,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="CS6:CS9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:CR5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
@@ -24381,88 +24447,6 @@
     <mergeCell ref="BT8:BU8"/>
     <mergeCell ref="BV8:BW8"/>
     <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="CS6:CS9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:CR5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
@@ -25023,19 +25007,19 @@
       </c>
       <c r="K13" s="52">
         <f>'RAW GRADES'!CP15</f>
-        <v>42.222222222222221</v>
+        <v>26.111111111111111</v>
       </c>
       <c r="L13" s="52">
         <f>'RAW GRADES'!CQ15</f>
-        <v>42.222222222222221</v>
+        <v>26.111111111111111</v>
       </c>
       <c r="M13" s="54">
         <f>'RAW GRADES'!CR15</f>
-        <v>42.22</v>
+        <v>26.11</v>
       </c>
       <c r="N13" s="58">
         <f>'RAW GRADES'!CS15</f>
-        <v>32.599999999999994</v>
+        <v>22.933999999999997</v>
       </c>
       <c r="O13" s="56">
         <f>'RAW GRADES'!CT15</f>
@@ -26128,19 +26112,19 @@
       </c>
       <c r="K30" s="52">
         <f>'RAW GRADES'!CP32</f>
-        <v>42.222222222222221</v>
+        <v>26.111111111111111</v>
       </c>
       <c r="L30" s="52">
         <f>'RAW GRADES'!CQ32</f>
-        <v>42.222222222222221</v>
+        <v>26.111111111111111</v>
       </c>
       <c r="M30" s="54">
         <f>'RAW GRADES'!CR32</f>
-        <v>42.22</v>
+        <v>26.11</v>
       </c>
       <c r="N30" s="58">
         <f>'RAW GRADES'!CS32</f>
-        <v>31.867999999999999</v>
+        <v>22.201999999999998</v>
       </c>
       <c r="O30" s="56">
         <f>'RAW GRADES'!CT32</f>
@@ -28677,106 +28661,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
+      <c r="A3" s="259"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="262" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="229"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
+      <c r="B4" s="262"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="230" t="s">
+      <c r="A5" s="263" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="230"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="229" t="s">
+      <c r="A6" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="229"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
+      <c r="B6" s="262"/>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="231" t="s">
+      <c r="A7" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="231"/>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="264"/>
+      <c r="E7" s="264"/>
+      <c r="F7" s="264"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="232"/>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
+      <c r="A8" s="265"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="228"/>
-      <c r="B9" s="228"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="228"/>
+      <c r="A9" s="259"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="259"/>
+      <c r="D9" s="259"/>
+      <c r="E9" s="259"/>
+      <c r="F9" s="259"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="233"/>
-      <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
+      <c r="A10" s="266"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="234" t="s">
+      <c r="A11" s="267" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="234"/>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="267"/>
+      <c r="F11" s="267"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="232"/>
-      <c r="B12" s="232"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="232"/>
-      <c r="F12" s="232"/>
+      <c r="A12" s="265"/>
+      <c r="B12" s="265"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="265"/>
+      <c r="E12" s="265"/>
+      <c r="F12" s="265"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="235" t="str">
+      <c r="C13" s="268" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
+      <c r="D13" s="268"/>
+      <c r="E13" s="268"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -28784,12 +28768,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="227" t="str">
+      <c r="C14" s="261" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="227"/>
-      <c r="E14" s="227"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="261"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -28797,12 +28781,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="238" t="str">
+      <c r="C15" s="247" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="238"/>
-      <c r="E15" s="238"/>
+      <c r="D15" s="247"/>
+      <c r="E15" s="247"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -28810,12 +28794,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="238" t="str">
+      <c r="C16" s="247" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3A</v>
       </c>
-      <c r="D16" s="238"/>
-      <c r="E16" s="238"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="247"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -28823,12 +28807,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="238" t="str">
+      <c r="C17" s="247" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="238"/>
-      <c r="E17" s="238"/>
+      <c r="D17" s="247"/>
+      <c r="E17" s="247"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -28840,42 +28824,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="239" t="s">
+      <c r="A19" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="242" t="s">
+      <c r="B19" s="251" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="239" t="s">
+      <c r="C19" s="248" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="239" t="s">
+      <c r="D19" s="248" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="244" t="s">
+      <c r="E19" s="253" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="239" t="s">
+      <c r="F19" s="248" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="240"/>
-      <c r="B20" s="243"/>
-      <c r="C20" s="240"/>
-      <c r="D20" s="240"/>
-      <c r="E20" s="245"/>
-      <c r="F20" s="247"/>
+      <c r="A20" s="249"/>
+      <c r="B20" s="252"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="256"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="241"/>
+      <c r="A21" s="250"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="241"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="246"/>
-      <c r="F21" s="248"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="255"/>
+      <c r="F21" s="257"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -30388,14 +30372,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="255" t="s">
+      <c r="A83" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="256"/>
-      <c r="C83" s="256"/>
-      <c r="D83" s="256"/>
-      <c r="E83" s="256"/>
-      <c r="F83" s="257"/>
+      <c r="B83" s="232"/>
+      <c r="C83" s="232"/>
+      <c r="D83" s="232"/>
+      <c r="E83" s="232"/>
+      <c r="F83" s="233"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -30428,11 +30412,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="249">
+      <c r="E87" s="258">
         <f ca="1">NOW()</f>
-        <v>43063.612161574078</v>
-      </c>
-      <c r="F87" s="249"/>
+        <v>43070.558002199075</v>
+      </c>
+      <c r="F87" s="258"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -30442,10 +30426,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="228" t="s">
+      <c r="E88" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="228"/>
+      <c r="F88" s="259"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -30462,8 +30446,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="228"/>
-      <c r="F90" s="228"/>
+      <c r="E90" s="259"/>
+      <c r="F90" s="259"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -30579,14 +30563,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="250" t="s">
+      <c r="A105" s="260" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="250"/>
-      <c r="C105" s="250"/>
-      <c r="D105" s="250"/>
-      <c r="E105" s="250"/>
-      <c r="F105" s="250"/>
+      <c r="B105" s="260"/>
+      <c r="C105" s="260"/>
+      <c r="D105" s="260"/>
+      <c r="E105" s="260"/>
+      <c r="F105" s="260"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -30601,124 +30585,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="268" t="s">
+      <c r="C107" s="244" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="237"/>
-      <c r="E107" s="236" t="s">
+      <c r="D107" s="245"/>
+      <c r="E107" s="246" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="237"/>
+      <c r="F107" s="245"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="264">
+      <c r="C108" s="240">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="265"/>
-      <c r="E108" s="266">
+      <c r="D108" s="241"/>
+      <c r="E108" s="242">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="267"/>
+      <c r="F108" s="243"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="258">
+      <c r="C109" s="234">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="259"/>
-      <c r="E109" s="260">
+      <c r="D109" s="235"/>
+      <c r="E109" s="236">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="261"/>
+      <c r="F109" s="237"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="258">
+      <c r="C110" s="234">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="259"/>
-      <c r="E110" s="260">
+      <c r="D110" s="235"/>
+      <c r="E110" s="236">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="261"/>
+      <c r="F110" s="237"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="258">
+      <c r="C111" s="234">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="259"/>
-      <c r="E111" s="260">
+      <c r="D111" s="235"/>
+      <c r="E111" s="236">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="261"/>
+      <c r="F111" s="237"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="262">
-        <v>0</v>
-      </c>
-      <c r="D112" s="263"/>
-      <c r="E112" s="260">
+      <c r="C112" s="238">
+        <v>0</v>
+      </c>
+      <c r="D112" s="239"/>
+      <c r="E112" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="261"/>
+      <c r="F112" s="237"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="262">
-        <v>0</v>
-      </c>
-      <c r="D113" s="263"/>
-      <c r="E113" s="260">
+      <c r="C113" s="238">
+        <v>0</v>
+      </c>
+      <c r="D113" s="239"/>
+      <c r="E113" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="261"/>
+      <c r="F113" s="237"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="251">
+      <c r="C114" s="227">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="252"/>
-      <c r="E114" s="253">
+      <c r="D114" s="228"/>
+      <c r="E114" s="229">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="254"/>
+      <c r="F114" s="230"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -30886,6 +30870,32 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -30902,32 +30912,6 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
@@ -32189,7 +32173,7 @@
     <row r="6" spans="1:2">
       <c r="A6" s="104">
         <f>'RAW GRADES'!CS15</f>
-        <v>32.599999999999994</v>
+        <v>22.933999999999997</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>198</v>
@@ -32342,7 +32326,7 @@
     <row r="23" spans="1:2">
       <c r="A23" s="104">
         <f>'RAW GRADES'!CS32</f>
-        <v>31.867999999999999</v>
+        <v>22.201999999999998</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>251</v>

--- a/DCIT 65 - CS 3A/LEC AND LAB - CS 3A.xlsx
+++ b/DCIT 65 - CS 3A/LEC AND LAB - CS 3A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -700,9 +700,6 @@
     <t>A.</t>
   </si>
   <si>
-    <t>201501-17</t>
-  </si>
-  <si>
     <t>Capanas</t>
   </si>
   <si>
@@ -770,9 +767,6 @@
   </si>
   <si>
     <t>Omair</t>
-  </si>
-  <si>
-    <t>201501-153</t>
   </si>
   <si>
     <t>Gatil</t>
@@ -968,6 +962,12 @@
   </si>
   <si>
     <t>201501-1882</t>
+  </si>
+  <si>
+    <t>201501-260</t>
+  </si>
+  <si>
+    <t>201501-253</t>
   </si>
 </sst>
 </file>
@@ -2916,11 +2916,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -3356,6 +3351,11 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4859,7 +4859,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -5009,7 +5009,7 @@
         <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E8" s="131" t="s">
         <v>10</v>
@@ -5327,13 +5327,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>206</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>168</v>
@@ -5354,16 +5354,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="E19" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>166</v>
@@ -5381,16 +5381,16 @@
         <v>10</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>166</v>
@@ -5408,16 +5408,16 @@
         <v>11</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>218</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>166</v>
@@ -5438,13 +5438,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>169</v>
@@ -5469,16 +5469,16 @@
         <v>13</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="E23" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>166</v>
@@ -5502,13 +5502,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>191</v>
@@ -5535,13 +5535,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>171</v>
@@ -5568,13 +5568,13 @@
         <v>16</v>
       </c>
       <c r="B26" s="84" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="84" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>228</v>
-      </c>
-      <c r="C26" s="84" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>230</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>171</v>
@@ -5601,13 +5601,13 @@
         <v>17</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>233</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>203</v>
@@ -5634,13 +5634,13 @@
         <v>18</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>236</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>179</v>
@@ -5667,13 +5667,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>173</v>
@@ -5700,13 +5700,13 @@
         <v>20</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>174</v>
@@ -5733,13 +5733,13 @@
         <v>21</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>245</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>191</v>
@@ -5762,13 +5762,13 @@
         <v>22</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>246</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>248</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>199</v>
@@ -5795,16 +5795,16 @@
         <v>23</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>249</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>251</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>166</v>
@@ -5822,13 +5822,13 @@
         <v>24</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>254</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>191</v>
@@ -5849,16 +5849,16 @@
         <v>25</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="E35" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>166</v>
@@ -5876,13 +5876,13 @@
         <v>26</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>260</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>191</v>
@@ -5903,16 +5903,16 @@
         <v>27</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="E37" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>166</v>
@@ -5930,13 +5930,13 @@
         <v>28</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>170</v>
@@ -5957,13 +5957,13 @@
         <v>29</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>270</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>191</v>
@@ -5984,16 +5984,16 @@
         <v>30</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>273</v>
-      </c>
       <c r="E40" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>166</v>
@@ -6011,16 +6011,16 @@
         <v>31</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C41" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>276</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>166</v>
@@ -6038,16 +6038,16 @@
         <v>32</v>
       </c>
       <c r="B42" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="E42" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>280</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>166</v>
@@ -6065,13 +6065,13 @@
         <v>33</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>171</v>
@@ -7342,9 +7342,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M28" sqref="M28"/>
+      <selection pane="topRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7820,7 +7820,9 @@
         <v>43035</v>
       </c>
       <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
+      <c r="N7" s="180">
+        <v>43056</v>
+      </c>
       <c r="O7" s="180"/>
       <c r="P7" s="180"/>
       <c r="Q7" s="180"/>
@@ -7853,7 +7855,7 @@
         <v>0.2</v>
       </c>
       <c r="AO7" s="180" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AP7" s="180"/>
       <c r="AQ7" s="180"/>
@@ -7883,11 +7885,11 @@
       <c r="BC7" s="192"/>
       <c r="BD7" s="193"/>
       <c r="BE7" s="180" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BF7" s="180"/>
       <c r="BG7" s="180" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BH7" s="180"/>
       <c r="BI7" s="198">
@@ -7930,9 +7932,13 @@
         <v>43036</v>
       </c>
       <c r="CA7" s="180"/>
-      <c r="CB7" s="180"/>
+      <c r="CB7" s="180">
+        <v>43050</v>
+      </c>
       <c r="CC7" s="180"/>
-      <c r="CD7" s="180"/>
+      <c r="CD7" s="180">
+        <v>43057</v>
+      </c>
       <c r="CE7" s="180"/>
       <c r="CF7" s="180"/>
       <c r="CG7" s="180"/>
@@ -8372,14 +8378,16 @@
         <f t="shared" ref="F10:F41" si="0">IFERROR((E10*$F$7), " ")</f>
         <v>15.899999999999999</v>
       </c>
-      <c r="G10" s="101"/>
+      <c r="G10" s="101">
+        <v>71</v>
+      </c>
       <c r="H10" s="86">
         <f>(G10/$G$9)*100</f>
-        <v>0</v>
+        <v>88.75</v>
       </c>
       <c r="I10" s="89">
         <f t="shared" ref="I10:I41" si="1">IFERROR((H10*$I$7), "")</f>
-        <v>0</v>
+        <v>26.625</v>
       </c>
       <c r="J10" s="101">
         <v>15</v>
@@ -8483,11 +8491,11 @@
       </c>
       <c r="BC10" s="92">
         <f>IFERROR(SUM(BB10,AU10,AN10,I10,F10),"")</f>
-        <v>49.344444444444441</v>
+        <v>75.969444444444434</v>
       </c>
       <c r="BD10" s="92">
         <f>IFERROR(ROUND(BC10,2),"")</f>
-        <v>49.34</v>
+        <v>75.97</v>
       </c>
       <c r="BE10" s="101">
         <v>83</v>
@@ -8496,10 +8504,12 @@
         <f>IFERROR(((BE10/$BE$9)*100),"")</f>
         <v>83</v>
       </c>
-      <c r="BG10" s="101"/>
+      <c r="BG10" s="101">
+        <v>90</v>
+      </c>
       <c r="BH10" s="86">
         <f>IFERROR(((BG10/$BG$9)*100),"")</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI10" s="101">
         <v>100</v>
@@ -8510,7 +8520,7 @@
       </c>
       <c r="BK10" s="97">
         <f>IFERROR(((SUM(BF10,BH10,BJ10)/$BI$7)*$BK$7),"")</f>
-        <v>30.5</v>
+        <v>45.5</v>
       </c>
       <c r="BL10" s="101">
         <v>100</v>
@@ -8613,23 +8623,23 @@
       </c>
       <c r="CQ10" s="93">
         <f>IFERROR(SUM(CP10,BK10),"")</f>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="CR10" s="93">
         <f>IFERROR(ROUND(CQ10,2),"")</f>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="CS10" s="98">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>66.536000000000001</v>
+        <v>86.188000000000002</v>
       </c>
       <c r="CT10" s="98">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CU10" s="87" t="str">
         <f>IF(CT10&lt;=3,"PASSED","FAILED")</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="11" spans="1:99">
@@ -8656,14 +8666,16 @@
         <f t="shared" si="0"/>
         <v>6.8999999999999995</v>
       </c>
-      <c r="G11" s="101"/>
+      <c r="G11" s="101">
+        <v>47</v>
+      </c>
       <c r="H11" s="86">
         <f t="shared" ref="H11:H70" si="2">(G11/$G$9)*100</f>
-        <v>0</v>
+        <v>58.75</v>
       </c>
       <c r="I11" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.625</v>
       </c>
       <c r="J11" s="102">
         <v>11</v>
@@ -8767,11 +8779,11 @@
       </c>
       <c r="BC11" s="92">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>32.677777777777777</v>
+        <v>50.302777777777777</v>
       </c>
       <c r="BD11" s="92">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>32.68</v>
+        <v>50.3</v>
       </c>
       <c r="BE11" s="102">
         <v>73</v>
@@ -8780,10 +8792,12 @@
         <f t="shared" ref="BF11:BF70" si="20">IFERROR(((BE11/$BE$9)*100),"")</f>
         <v>73</v>
       </c>
-      <c r="BG11" s="102"/>
+      <c r="BG11" s="102">
+        <v>90</v>
+      </c>
       <c r="BH11" s="86">
         <f t="shared" ref="BH11:BH70" si="21">IFERROR(((BG11/$BG$9)*100),"")</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI11" s="101">
         <v>100</v>
@@ -8794,7 +8808,7 @@
       </c>
       <c r="BK11" s="97">
         <f t="shared" ref="BK11:BK70" si="22">IFERROR(((SUM(BF11,BH11,BJ11)/$BI$7)*$BK$7),"")</f>
-        <v>28.833333333333332</v>
+        <v>43.833333333333336</v>
       </c>
       <c r="BL11" s="101">
         <v>100</v>
@@ -8897,23 +8911,23 @@
       </c>
       <c r="CQ11" s="93">
         <f t="shared" ref="CQ11:CQ70" si="39">IFERROR(SUM(CP11,BK11),"")</f>
-        <v>72.583333333333329</v>
+        <v>87.583333333333343</v>
       </c>
       <c r="CR11" s="93">
         <f t="shared" ref="CR11:CR70" si="40">IFERROR(ROUND(CQ11,2),"")</f>
-        <v>72.58</v>
+        <v>87.58</v>
       </c>
       <c r="CS11" s="98">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>56.62</v>
+        <v>72.667999999999992</v>
       </c>
       <c r="CT11" s="98">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CU11" s="87" t="str">
         <f t="shared" ref="CU11:CU70" si="42">IF(CT11&lt;=3,"PASSED","FAILED")</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="12" spans="1:99">
@@ -8940,14 +8954,16 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G12" s="101"/>
+      <c r="G12" s="101">
+        <v>59</v>
+      </c>
       <c r="H12" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>73.75</v>
       </c>
       <c r="I12" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.125</v>
       </c>
       <c r="J12" s="102">
         <v>16</v>
@@ -9051,11 +9067,11 @@
       </c>
       <c r="BC12" s="92">
         <f t="shared" si="18"/>
-        <v>50.666666666666671</v>
+        <v>72.791666666666671</v>
       </c>
       <c r="BD12" s="92">
         <f t="shared" si="19"/>
-        <v>50.67</v>
+        <v>72.790000000000006</v>
       </c>
       <c r="BE12" s="102">
         <v>72</v>
@@ -9064,10 +9080,12 @@
         <f t="shared" si="20"/>
         <v>72</v>
       </c>
-      <c r="BG12" s="102"/>
+      <c r="BG12" s="102">
+        <v>88</v>
+      </c>
       <c r="BH12" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="BI12" s="101">
         <v>100</v>
@@ -9078,7 +9096,7 @@
       </c>
       <c r="BK12" s="97">
         <f t="shared" si="22"/>
-        <v>28.666666666666668</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="BL12" s="101">
         <v>100</v>
@@ -9181,23 +9199,23 @@
       </c>
       <c r="CQ12" s="93">
         <f t="shared" si="39"/>
-        <v>75.416666666666671</v>
+        <v>90.083333333333343</v>
       </c>
       <c r="CR12" s="93">
         <f t="shared" si="40"/>
-        <v>75.42</v>
+        <v>90.08</v>
       </c>
       <c r="CS12" s="98">
         <f t="shared" si="41"/>
-        <v>65.52000000000001</v>
+        <v>83.164000000000001</v>
       </c>
       <c r="CT12" s="98">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU12" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="13" spans="1:99">
@@ -9224,14 +9242,16 @@
         <f t="shared" si="0"/>
         <v>18.599999999999998</v>
       </c>
-      <c r="G13" s="101"/>
+      <c r="G13" s="101">
+        <v>74</v>
+      </c>
       <c r="H13" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>92.5</v>
       </c>
       <c r="I13" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27.75</v>
       </c>
       <c r="J13" s="102">
         <v>11</v>
@@ -9335,11 +9355,11 @@
       </c>
       <c r="BC13" s="92">
         <f t="shared" si="18"/>
-        <v>50.266666666666666</v>
+        <v>78.016666666666666</v>
       </c>
       <c r="BD13" s="92">
         <f t="shared" si="19"/>
-        <v>50.27</v>
+        <v>78.02</v>
       </c>
       <c r="BE13" s="102">
         <v>86</v>
@@ -9348,10 +9368,12 @@
         <f t="shared" si="20"/>
         <v>86</v>
       </c>
-      <c r="BG13" s="102"/>
+      <c r="BG13" s="102">
+        <v>88</v>
+      </c>
       <c r="BH13" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="BI13" s="101">
         <v>100</v>
@@ -9362,7 +9384,7 @@
       </c>
       <c r="BK13" s="97">
         <f t="shared" si="22"/>
-        <v>31</v>
+        <v>45.666666666666664</v>
       </c>
       <c r="BL13" s="101">
         <v>100</v>
@@ -9465,23 +9487,23 @@
       </c>
       <c r="CQ13" s="93">
         <f t="shared" si="39"/>
-        <v>78.75</v>
+        <v>93.416666666666657</v>
       </c>
       <c r="CR13" s="93">
         <f t="shared" si="40"/>
-        <v>78.75</v>
+        <v>93.42</v>
       </c>
       <c r="CS13" s="98">
         <f t="shared" si="41"/>
-        <v>67.358000000000004</v>
+        <v>87.259999999999991</v>
       </c>
       <c r="CT13" s="98">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="CU13" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="14" spans="1:99">
@@ -9508,14 +9530,16 @@
         <f t="shared" si="0"/>
         <v>17.7</v>
       </c>
-      <c r="G14" s="101"/>
+      <c r="G14" s="101">
+        <v>56</v>
+      </c>
       <c r="H14" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I14" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J14" s="102">
         <v>17</v>
@@ -9619,11 +9643,11 @@
       </c>
       <c r="BC14" s="92">
         <f t="shared" si="18"/>
-        <v>49.922222222222217</v>
+        <v>70.922222222222217</v>
       </c>
       <c r="BD14" s="92">
         <f t="shared" si="19"/>
-        <v>49.92</v>
+        <v>70.92</v>
       </c>
       <c r="BE14" s="102">
         <v>97</v>
@@ -9632,10 +9656,12 @@
         <f t="shared" si="20"/>
         <v>97</v>
       </c>
-      <c r="BG14" s="102"/>
+      <c r="BG14" s="102">
+        <v>88</v>
+      </c>
       <c r="BH14" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="BI14" s="101">
         <v>100</v>
@@ -9646,7 +9672,7 @@
       </c>
       <c r="BK14" s="97">
         <f t="shared" si="22"/>
-        <v>32.833333333333336</v>
+        <v>47.5</v>
       </c>
       <c r="BL14" s="101">
         <v>100</v>
@@ -9749,23 +9775,23 @@
       </c>
       <c r="CQ14" s="93">
         <f t="shared" si="39"/>
-        <v>80.333333333333343</v>
+        <v>95</v>
       </c>
       <c r="CR14" s="93">
         <f t="shared" si="40"/>
-        <v>80.33</v>
+        <v>95</v>
       </c>
       <c r="CS14" s="98">
         <f t="shared" si="41"/>
-        <v>68.165999999999997</v>
+        <v>85.367999999999995</v>
       </c>
       <c r="CT14" s="98">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CU14" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="15" spans="1:99">
@@ -10080,14 +10106,16 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G16" s="101"/>
+      <c r="G16" s="101">
+        <v>66</v>
+      </c>
       <c r="H16" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="I16" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.75</v>
       </c>
       <c r="J16" s="102">
         <v>17</v>
@@ -10191,11 +10219,11 @@
       </c>
       <c r="BC16" s="92">
         <f t="shared" si="18"/>
-        <v>49.111111111111114</v>
+        <v>73.861111111111114</v>
       </c>
       <c r="BD16" s="92">
         <f t="shared" si="19"/>
-        <v>49.11</v>
+        <v>73.86</v>
       </c>
       <c r="BE16" s="102">
         <v>72</v>
@@ -10204,10 +10232,12 @@
         <f t="shared" si="20"/>
         <v>72</v>
       </c>
-      <c r="BG16" s="102"/>
+      <c r="BG16" s="102">
+        <v>87</v>
+      </c>
       <c r="BH16" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="BI16" s="101">
         <v>100</v>
@@ -10218,7 +10248,7 @@
       </c>
       <c r="BK16" s="97">
         <f t="shared" si="22"/>
-        <v>28.666666666666668</v>
+        <v>43.166666666666664</v>
       </c>
       <c r="BL16" s="101">
         <v>100</v>
@@ -10321,23 +10351,23 @@
       </c>
       <c r="CQ16" s="93">
         <f t="shared" si="39"/>
-        <v>75.666666666666671</v>
+        <v>90.166666666666657</v>
       </c>
       <c r="CR16" s="93">
         <f t="shared" si="40"/>
-        <v>75.67</v>
+        <v>90.17</v>
       </c>
       <c r="CS16" s="98">
         <f t="shared" si="41"/>
-        <v>65.046000000000006</v>
+        <v>83.646000000000001</v>
       </c>
       <c r="CT16" s="98">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CU16" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="17" spans="1:99">
@@ -10347,7 +10377,7 @@
       </c>
       <c r="B17" s="41" t="str">
         <f>REGISTRATION!B18</f>
-        <v>201501-17</v>
+        <v>201501-260</v>
       </c>
       <c r="C17" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C18," ",REGISTRATION!D18," ",REGISTRATION!E18)</f>
@@ -10364,14 +10394,16 @@
         <f t="shared" si="0"/>
         <v>16.8</v>
       </c>
-      <c r="G17" s="101"/>
+      <c r="G17" s="101">
+        <v>56</v>
+      </c>
       <c r="H17" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I17" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J17" s="102">
         <v>14</v>
@@ -10475,11 +10507,11 @@
       </c>
       <c r="BC17" s="92">
         <f t="shared" si="18"/>
-        <v>46.8</v>
+        <v>67.8</v>
       </c>
       <c r="BD17" s="92">
         <f t="shared" si="19"/>
-        <v>46.8</v>
+        <v>67.8</v>
       </c>
       <c r="BE17" s="102">
         <v>70</v>
@@ -10488,10 +10520,12 @@
         <f t="shared" si="20"/>
         <v>70</v>
       </c>
-      <c r="BG17" s="102"/>
+      <c r="BG17" s="102">
+        <v>88</v>
+      </c>
       <c r="BH17" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="BI17" s="101">
         <v>100</v>
@@ -10502,7 +10536,7 @@
       </c>
       <c r="BK17" s="97">
         <f t="shared" si="22"/>
-        <v>28.333333333333332</v>
+        <v>43</v>
       </c>
       <c r="BL17" s="101">
         <v>100</v>
@@ -10605,23 +10639,23 @@
       </c>
       <c r="CQ17" s="93">
         <f t="shared" si="39"/>
-        <v>73.833333333333329</v>
+        <v>88.5</v>
       </c>
       <c r="CR17" s="93">
         <f t="shared" si="40"/>
-        <v>73.83</v>
+        <v>88.5</v>
       </c>
       <c r="CS17" s="98">
         <f t="shared" si="41"/>
-        <v>63.017999999999994</v>
+        <v>80.22</v>
       </c>
       <c r="CT17" s="98">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU17" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="18" spans="1:99">
@@ -10648,14 +10682,16 @@
         <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="G18" s="101"/>
+      <c r="G18" s="101">
+        <v>32</v>
+      </c>
       <c r="H18" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I18" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J18" s="102">
         <v>13</v>
@@ -10759,11 +10795,11 @@
       </c>
       <c r="BC18" s="92">
         <f t="shared" si="18"/>
-        <v>32.544444444444444</v>
+        <v>44.544444444444444</v>
       </c>
       <c r="BD18" s="92">
         <f t="shared" si="19"/>
-        <v>32.54</v>
+        <v>44.54</v>
       </c>
       <c r="BE18" s="102">
         <v>84</v>
@@ -10772,10 +10808,12 @@
         <f t="shared" si="20"/>
         <v>84</v>
       </c>
-      <c r="BG18" s="102"/>
+      <c r="BG18" s="102">
+        <v>83</v>
+      </c>
       <c r="BH18" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="BI18" s="101">
         <v>100</v>
@@ -10786,7 +10824,7 @@
       </c>
       <c r="BK18" s="97">
         <f t="shared" si="22"/>
-        <v>30.666666666666668</v>
+        <v>44.5</v>
       </c>
       <c r="BL18" s="101">
         <v>100</v>
@@ -10889,23 +10927,23 @@
       </c>
       <c r="CQ18" s="93">
         <f t="shared" si="39"/>
-        <v>74.916666666666671</v>
+        <v>88.75</v>
       </c>
       <c r="CR18" s="93">
         <f t="shared" si="40"/>
-        <v>74.92</v>
+        <v>88.75</v>
       </c>
       <c r="CS18" s="98">
         <f t="shared" si="41"/>
-        <v>57.967999999999996</v>
+        <v>71.066000000000003</v>
       </c>
       <c r="CT18" s="98">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CU18" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="19" spans="1:99">
@@ -10932,14 +10970,16 @@
         <f t="shared" si="0"/>
         <v>11.1</v>
       </c>
-      <c r="G19" s="101"/>
+      <c r="G19" s="101">
+        <v>63</v>
+      </c>
       <c r="H19" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>78.75</v>
       </c>
       <c r="I19" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.625</v>
       </c>
       <c r="J19" s="102">
         <v>13</v>
@@ -11043,11 +11083,11 @@
       </c>
       <c r="BC19" s="92">
         <f t="shared" si="18"/>
-        <v>41.911111111111119</v>
+        <v>65.536111111111111</v>
       </c>
       <c r="BD19" s="92">
         <f t="shared" si="19"/>
-        <v>41.91</v>
+        <v>65.540000000000006</v>
       </c>
       <c r="BE19" s="102">
         <v>80</v>
@@ -11056,10 +11096,12 @@
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
-      <c r="BG19" s="102"/>
+      <c r="BG19" s="102">
+        <v>88</v>
+      </c>
       <c r="BH19" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="BI19" s="101">
         <v>100</v>
@@ -11070,7 +11112,7 @@
       </c>
       <c r="BK19" s="97">
         <f t="shared" si="22"/>
-        <v>30</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="BL19" s="101">
         <v>100</v>
@@ -11173,23 +11215,23 @@
       </c>
       <c r="CQ19" s="93">
         <f t="shared" si="39"/>
-        <v>77.75</v>
+        <v>92.416666666666657</v>
       </c>
       <c r="CR19" s="93">
         <f t="shared" si="40"/>
-        <v>77.75</v>
+        <v>92.42</v>
       </c>
       <c r="CS19" s="98">
         <f t="shared" si="41"/>
-        <v>63.414000000000001</v>
+        <v>81.668000000000006</v>
       </c>
       <c r="CT19" s="98">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU19" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="20" spans="1:99">
@@ -11216,14 +11258,16 @@
         <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
-      <c r="G20" s="101"/>
+      <c r="G20" s="101">
+        <v>65</v>
+      </c>
       <c r="H20" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>81.25</v>
       </c>
       <c r="I20" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.375</v>
       </c>
       <c r="J20" s="102">
         <v>13</v>
@@ -11327,11 +11371,11 @@
       </c>
       <c r="BC20" s="92">
         <f t="shared" si="18"/>
-        <v>43.133333333333333</v>
+        <v>67.50833333333334</v>
       </c>
       <c r="BD20" s="92">
         <f t="shared" si="19"/>
-        <v>43.13</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="BE20" s="102">
         <v>84</v>
@@ -11340,10 +11384,12 @@
         <f t="shared" si="20"/>
         <v>84</v>
       </c>
-      <c r="BG20" s="102"/>
+      <c r="BG20" s="102">
+        <v>65</v>
+      </c>
       <c r="BH20" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BI20" s="101">
         <v>100</v>
@@ -11354,7 +11400,7 @@
       </c>
       <c r="BK20" s="97">
         <f t="shared" si="22"/>
-        <v>30.666666666666668</v>
+        <v>41.5</v>
       </c>
       <c r="BL20" s="101">
         <v>100</v>
@@ -11457,23 +11503,23 @@
       </c>
       <c r="CQ20" s="93">
         <f t="shared" si="39"/>
-        <v>76.666666666666671</v>
+        <v>87.5</v>
       </c>
       <c r="CR20" s="93">
         <f t="shared" si="40"/>
-        <v>76.67</v>
+        <v>87.5</v>
       </c>
       <c r="CS20" s="98">
         <f t="shared" si="41"/>
-        <v>63.254000000000005</v>
+        <v>79.504000000000005</v>
       </c>
       <c r="CT20" s="98">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="CU20" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="21" spans="1:99">
@@ -11500,14 +11546,16 @@
         <f t="shared" si="0"/>
         <v>13.2</v>
       </c>
-      <c r="G21" s="101"/>
+      <c r="G21" s="101">
+        <v>28</v>
+      </c>
       <c r="H21" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I21" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="J21" s="102">
         <v>14</v>
@@ -11611,11 +11659,11 @@
       </c>
       <c r="BC21" s="92">
         <f t="shared" si="18"/>
-        <v>43.422222222222217</v>
+        <v>53.922222222222217</v>
       </c>
       <c r="BD21" s="92">
         <f t="shared" si="19"/>
-        <v>43.42</v>
+        <v>53.92</v>
       </c>
       <c r="BE21" s="102">
         <v>73</v>
@@ -11624,10 +11672,12 @@
         <f t="shared" si="20"/>
         <v>73</v>
       </c>
-      <c r="BG21" s="102"/>
+      <c r="BG21" s="102">
+        <v>90</v>
+      </c>
       <c r="BH21" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI21" s="101">
         <v>100</v>
@@ -11638,7 +11688,7 @@
       </c>
       <c r="BK21" s="97">
         <f t="shared" si="22"/>
-        <v>28.833333333333332</v>
+        <v>43.833333333333336</v>
       </c>
       <c r="BL21" s="101">
         <v>100</v>
@@ -11741,23 +11791,23 @@
       </c>
       <c r="CQ21" s="93">
         <f t="shared" si="39"/>
-        <v>75.833333333333329</v>
+        <v>90.833333333333343</v>
       </c>
       <c r="CR21" s="93">
         <f t="shared" si="40"/>
-        <v>75.83</v>
+        <v>90.83</v>
       </c>
       <c r="CS21" s="98">
         <f t="shared" si="41"/>
-        <v>62.866</v>
+        <v>76.066000000000003</v>
       </c>
       <c r="CT21" s="98">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="CU21" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="22" spans="1:99">
@@ -11784,14 +11834,16 @@
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="G22" s="101"/>
+      <c r="G22" s="101">
+        <v>61</v>
+      </c>
       <c r="H22" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>76.25</v>
       </c>
       <c r="I22" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.875</v>
       </c>
       <c r="J22" s="102">
         <v>13</v>
@@ -11895,11 +11947,11 @@
       </c>
       <c r="BC22" s="92">
         <f t="shared" si="18"/>
-        <v>40.066666666666663</v>
+        <v>62.941666666666663</v>
       </c>
       <c r="BD22" s="92">
         <f t="shared" si="19"/>
-        <v>40.07</v>
+        <v>62.94</v>
       </c>
       <c r="BE22" s="102">
         <v>71</v>
@@ -11908,10 +11960,12 @@
         <f t="shared" si="20"/>
         <v>71</v>
       </c>
-      <c r="BG22" s="102"/>
+      <c r="BG22" s="102">
+        <v>87</v>
+      </c>
       <c r="BH22" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="BI22" s="101">
         <v>100</v>
@@ -11922,7 +11976,7 @@
       </c>
       <c r="BK22" s="97">
         <f t="shared" si="22"/>
-        <v>28.5</v>
+        <v>43</v>
       </c>
       <c r="BL22" s="101">
         <v>100</v>
@@ -12025,23 +12079,23 @@
       </c>
       <c r="CQ22" s="93">
         <f t="shared" si="39"/>
-        <v>74.25</v>
+        <v>88.75</v>
       </c>
       <c r="CR22" s="93">
         <f t="shared" si="40"/>
-        <v>74.25</v>
+        <v>88.75</v>
       </c>
       <c r="CS22" s="98">
         <f t="shared" si="41"/>
-        <v>60.578000000000003</v>
+        <v>78.426000000000002</v>
       </c>
       <c r="CT22" s="98">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="CU22" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="23" spans="1:99">
@@ -12068,14 +12122,16 @@
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="G23" s="101"/>
+      <c r="G23" s="101">
+        <v>54</v>
+      </c>
       <c r="H23" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="I23" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.25</v>
       </c>
       <c r="J23" s="102">
         <v>14</v>
@@ -12179,11 +12235,11 @@
       </c>
       <c r="BC23" s="92">
         <f t="shared" si="18"/>
-        <v>39.711111111111116</v>
+        <v>59.961111111111116</v>
       </c>
       <c r="BD23" s="92">
         <f t="shared" si="19"/>
-        <v>39.71</v>
+        <v>59.96</v>
       </c>
       <c r="BE23" s="102">
         <v>84</v>
@@ -12192,10 +12248,12 @@
         <f t="shared" si="20"/>
         <v>84</v>
       </c>
-      <c r="BG23" s="102"/>
+      <c r="BG23" s="102">
+        <v>84</v>
+      </c>
       <c r="BH23" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="BI23" s="101">
         <v>100</v>
@@ -12206,7 +12264,7 @@
       </c>
       <c r="BK23" s="97">
         <f t="shared" si="22"/>
-        <v>30.666666666666668</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="BL23" s="101">
         <v>100</v>
@@ -12309,23 +12367,23 @@
       </c>
       <c r="CQ23" s="93">
         <f t="shared" si="39"/>
-        <v>76.916666666666671</v>
+        <v>90.916666666666657</v>
       </c>
       <c r="CR23" s="93">
         <f t="shared" si="40"/>
-        <v>76.92</v>
+        <v>90.92</v>
       </c>
       <c r="CS23" s="98">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>62.036000000000001</v>
+        <v>78.536000000000001</v>
       </c>
       <c r="CT23" s="98">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="CU23" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="24" spans="1:99">
@@ -12352,7 +12410,9 @@
         <f t="shared" si="0"/>
         <v>5.3999999999999995</v>
       </c>
-      <c r="G24" s="101"/>
+      <c r="G24" s="101">
+        <v>0</v>
+      </c>
       <c r="H24" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -12617,7 +12677,7 @@
       </c>
       <c r="B25" s="41" t="str">
         <f>REGISTRATION!B26</f>
-        <v>201501-153</v>
+        <v>201501-253</v>
       </c>
       <c r="C25" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C26," ",REGISTRATION!D26," ",REGISTRATION!E26)</f>
@@ -12634,14 +12694,16 @@
         <f t="shared" si="0"/>
         <v>23.7</v>
       </c>
-      <c r="G25" s="101"/>
+      <c r="G25" s="101">
+        <v>78</v>
+      </c>
       <c r="H25" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="I25" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.25</v>
       </c>
       <c r="J25" s="102">
         <v>17</v>
@@ -12745,11 +12807,11 @@
       </c>
       <c r="BC25" s="92">
         <f t="shared" si="18"/>
-        <v>59.144444444444446</v>
+        <v>88.394444444444446</v>
       </c>
       <c r="BD25" s="92">
         <f t="shared" si="19"/>
-        <v>59.14</v>
+        <v>88.39</v>
       </c>
       <c r="BE25" s="102">
         <v>83</v>
@@ -12885,11 +12947,11 @@
       </c>
       <c r="CS25" s="98">
         <f t="shared" si="45"/>
-        <v>80.254000000000005</v>
+        <v>91.954000000000008</v>
       </c>
       <c r="CT25" s="98">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="CU25" s="87" t="str">
         <f t="shared" si="42"/>
@@ -12920,14 +12982,16 @@
         <f t="shared" si="0"/>
         <v>25.8</v>
       </c>
-      <c r="G26" s="101"/>
+      <c r="G26" s="101">
+        <v>76</v>
+      </c>
       <c r="H26" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I26" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="J26" s="102">
         <v>17</v>
@@ -13031,11 +13095,11 @@
       </c>
       <c r="BC26" s="92">
         <f t="shared" si="18"/>
-        <v>61.022222222222226</v>
+        <v>89.522222222222226</v>
       </c>
       <c r="BD26" s="92">
         <f t="shared" si="19"/>
-        <v>61.02</v>
+        <v>89.52</v>
       </c>
       <c r="BE26" s="102">
         <v>97</v>
@@ -13171,11 +13235,11 @@
       </c>
       <c r="CS26" s="98">
         <f t="shared" si="45"/>
-        <v>82.908000000000001</v>
+        <v>94.307999999999993</v>
       </c>
       <c r="CT26" s="98">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="CU26" s="87" t="str">
         <f t="shared" si="42"/>
@@ -13206,14 +13270,16 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G27" s="101"/>
+      <c r="G27" s="101">
+        <v>65</v>
+      </c>
       <c r="H27" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>81.25</v>
       </c>
       <c r="I27" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.375</v>
       </c>
       <c r="J27" s="102">
         <v>14</v>
@@ -13317,11 +13383,11 @@
       </c>
       <c r="BC27" s="92">
         <f t="shared" si="18"/>
-        <v>45.444444444444443</v>
+        <v>69.819444444444443</v>
       </c>
       <c r="BD27" s="92">
         <f t="shared" si="19"/>
-        <v>45.44</v>
+        <v>69.819999999999993</v>
       </c>
       <c r="BE27" s="102">
         <v>83</v>
@@ -13330,10 +13396,12 @@
         <f t="shared" si="20"/>
         <v>83</v>
       </c>
-      <c r="BG27" s="102"/>
+      <c r="BG27" s="102">
+        <v>87</v>
+      </c>
       <c r="BH27" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="BI27" s="101">
         <v>100</v>
@@ -13344,7 +13412,7 @@
       </c>
       <c r="BK27" s="97">
         <f t="shared" si="22"/>
-        <v>30.5</v>
+        <v>45</v>
       </c>
       <c r="BL27" s="101">
         <v>100</v>
@@ -13447,23 +13515,23 @@
       </c>
       <c r="CQ27" s="93">
         <f t="shared" si="39"/>
-        <v>77.75</v>
+        <v>92.25</v>
       </c>
       <c r="CR27" s="93">
         <f t="shared" si="40"/>
-        <v>77.75</v>
+        <v>92.25</v>
       </c>
       <c r="CS27" s="98">
         <f t="shared" si="45"/>
-        <v>64.825999999999993</v>
+        <v>83.277999999999992</v>
       </c>
       <c r="CT27" s="98">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU27" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="28" spans="1:99">
@@ -13490,14 +13558,16 @@
         <f t="shared" si="0"/>
         <v>22.2</v>
       </c>
-      <c r="G28" s="101"/>
+      <c r="G28" s="101">
+        <v>79</v>
+      </c>
       <c r="H28" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>98.75</v>
       </c>
       <c r="I28" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.625</v>
       </c>
       <c r="J28" s="102">
         <v>17</v>
@@ -13601,11 +13671,11 @@
       </c>
       <c r="BC28" s="92">
         <f t="shared" si="18"/>
-        <v>57.422222222222217</v>
+        <v>87.047222222222231</v>
       </c>
       <c r="BD28" s="92">
         <f t="shared" si="19"/>
-        <v>57.42</v>
+        <v>87.05</v>
       </c>
       <c r="BE28" s="102">
         <v>99</v>
@@ -13741,11 +13811,11 @@
       </c>
       <c r="CS28" s="98">
         <f t="shared" si="45"/>
-        <v>82.866</v>
+        <v>94.717999999999989</v>
       </c>
       <c r="CT28" s="98">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="CU28" s="87" t="str">
         <f t="shared" si="42"/>
@@ -13776,14 +13846,16 @@
         <f t="shared" si="0"/>
         <v>18.599999999999998</v>
       </c>
-      <c r="G29" s="101"/>
+      <c r="G29" s="101">
+        <v>70</v>
+      </c>
       <c r="H29" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="I29" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="J29" s="102">
         <v>16</v>
@@ -13887,11 +13959,11 @@
       </c>
       <c r="BC29" s="92">
         <f t="shared" si="18"/>
-        <v>51.48888888888888</v>
+        <v>77.73888888888888</v>
       </c>
       <c r="BD29" s="92">
         <f t="shared" si="19"/>
-        <v>51.49</v>
+        <v>77.739999999999995</v>
       </c>
       <c r="BE29" s="102">
         <v>95</v>
@@ -13900,10 +13972,12 @@
         <f t="shared" si="20"/>
         <v>95</v>
       </c>
-      <c r="BG29" s="102"/>
+      <c r="BG29" s="102">
+        <v>95</v>
+      </c>
       <c r="BH29" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="BI29" s="101">
         <v>100</v>
@@ -13914,7 +13988,7 @@
       </c>
       <c r="BK29" s="97">
         <f t="shared" si="22"/>
-        <v>32.5</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="BL29" s="101">
         <v>100</v>
@@ -14017,23 +14091,23 @@
       </c>
       <c r="CQ29" s="93">
         <f t="shared" si="39"/>
-        <v>79.25</v>
+        <v>95.083333333333343</v>
       </c>
       <c r="CR29" s="93">
         <f t="shared" si="40"/>
-        <v>79.25</v>
+        <v>95.08</v>
       </c>
       <c r="CS29" s="98">
         <f t="shared" si="45"/>
-        <v>68.146000000000001</v>
+        <v>88.143999999999991</v>
       </c>
       <c r="CT29" s="98">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="CU29" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="30" spans="1:99">
@@ -14060,14 +14134,16 @@
         <f t="shared" si="0"/>
         <v>12.9</v>
       </c>
-      <c r="G30" s="101"/>
+      <c r="G30" s="101">
+        <v>70</v>
+      </c>
       <c r="H30" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="I30" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="J30" s="102">
         <v>13</v>
@@ -14171,11 +14247,11 @@
       </c>
       <c r="BC30" s="92">
         <f t="shared" si="18"/>
-        <v>45.455555555555556</v>
+        <v>71.705555555555563</v>
       </c>
       <c r="BD30" s="92">
         <f t="shared" si="19"/>
-        <v>45.46</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="BE30" s="102">
         <v>84</v>
@@ -14184,10 +14260,12 @@
         <f t="shared" si="20"/>
         <v>84</v>
       </c>
-      <c r="BG30" s="102"/>
+      <c r="BG30" s="102">
+        <v>90</v>
+      </c>
       <c r="BH30" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI30" s="101">
         <v>100</v>
@@ -14198,7 +14276,7 @@
       </c>
       <c r="BK30" s="97">
         <f t="shared" si="22"/>
-        <v>30.666666666666668</v>
+        <v>45.666666666666664</v>
       </c>
       <c r="BL30" s="101">
         <v>100</v>
@@ -14301,23 +14379,23 @@
       </c>
       <c r="CQ30" s="93">
         <f t="shared" si="39"/>
-        <v>77.916666666666671</v>
+        <v>92.916666666666657</v>
       </c>
       <c r="CR30" s="93">
         <f t="shared" si="40"/>
-        <v>77.92</v>
+        <v>92.92</v>
       </c>
       <c r="CS30" s="98">
         <f t="shared" si="45"/>
-        <v>64.936000000000007</v>
+        <v>84.436000000000007</v>
       </c>
       <c r="CT30" s="98">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CU30" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="31" spans="1:99">
@@ -14344,14 +14422,16 @@
         <f t="shared" si="0"/>
         <v>6.8999999999999995</v>
       </c>
-      <c r="G31" s="101"/>
+      <c r="G31" s="101">
+        <v>74</v>
+      </c>
       <c r="H31" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>92.5</v>
       </c>
       <c r="I31" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27.75</v>
       </c>
       <c r="J31" s="102">
         <v>14</v>
@@ -14367,7 +14447,9 @@
         <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
-      <c r="N31" s="102"/>
+      <c r="N31" s="102">
+        <v>0</v>
+      </c>
       <c r="O31" s="86">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -14453,11 +14535,11 @@
       </c>
       <c r="BC31" s="92">
         <f t="shared" si="18"/>
-        <v>32.011111111111113</v>
+        <v>59.761111111111113</v>
       </c>
       <c r="BD31" s="92">
         <f t="shared" si="19"/>
-        <v>32.01</v>
+        <v>59.76</v>
       </c>
       <c r="BE31" s="102">
         <v>80</v>
@@ -14466,10 +14548,12 @@
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
-      <c r="BG31" s="102"/>
+      <c r="BG31" s="102">
+        <v>75</v>
+      </c>
       <c r="BH31" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BI31" s="101">
         <v>100</v>
@@ -14480,7 +14564,7 @@
       </c>
       <c r="BK31" s="97">
         <f t="shared" si="22"/>
-        <v>30</v>
+        <v>42.5</v>
       </c>
       <c r="BL31" s="101">
         <v>100</v>
@@ -14583,23 +14667,23 @@
       </c>
       <c r="CQ31" s="93">
         <f t="shared" si="39"/>
-        <v>73.5</v>
+        <v>86</v>
       </c>
       <c r="CR31" s="93">
         <f t="shared" si="40"/>
-        <v>73.5</v>
+        <v>86</v>
       </c>
       <c r="CS31" s="98">
         <f t="shared" si="45"/>
-        <v>56.904000000000003</v>
+        <v>75.504000000000005</v>
       </c>
       <c r="CT31" s="98">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="CU31" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="32" spans="1:99">
@@ -14914,14 +14998,16 @@
         <f t="shared" si="0"/>
         <v>12.6</v>
       </c>
-      <c r="G33" s="101"/>
+      <c r="G33" s="101">
+        <v>74</v>
+      </c>
       <c r="H33" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>92.5</v>
       </c>
       <c r="I33" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27.75</v>
       </c>
       <c r="J33" s="102">
         <v>14</v>
@@ -15025,11 +15111,11 @@
       </c>
       <c r="BC33" s="92">
         <f t="shared" si="18"/>
-        <v>43.966666666666669</v>
+        <v>71.716666666666669</v>
       </c>
       <c r="BD33" s="92">
         <f t="shared" si="19"/>
-        <v>43.97</v>
+        <v>71.72</v>
       </c>
       <c r="BE33" s="102">
         <v>80</v>
@@ -15038,10 +15124,12 @@
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
-      <c r="BG33" s="102"/>
+      <c r="BG33" s="102">
+        <v>85</v>
+      </c>
       <c r="BH33" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="BI33" s="101">
         <v>100</v>
@@ -15052,7 +15140,7 @@
       </c>
       <c r="BK33" s="97">
         <f t="shared" si="22"/>
-        <v>30</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="BL33" s="101">
         <v>100</v>
@@ -15155,23 +15243,23 @@
       </c>
       <c r="CQ33" s="93">
         <f t="shared" si="39"/>
-        <v>76.75</v>
+        <v>90.916666666666657</v>
       </c>
       <c r="CR33" s="93">
         <f t="shared" si="40"/>
-        <v>76.75</v>
+        <v>90.92</v>
       </c>
       <c r="CS33" s="98">
         <f t="shared" si="45"/>
-        <v>63.637999999999998</v>
+        <v>83.240000000000009</v>
       </c>
       <c r="CT33" s="98">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU33" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="34" spans="1:99">
@@ -15198,14 +15286,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G34" s="102"/>
+      <c r="G34" s="102">
+        <v>66</v>
+      </c>
       <c r="H34" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="I34" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.75</v>
       </c>
       <c r="J34" s="102">
         <v>13</v>
@@ -15309,11 +15399,11 @@
       </c>
       <c r="BC34" s="92">
         <f t="shared" si="18"/>
-        <v>36.788888888888884</v>
+        <v>61.538888888888884</v>
       </c>
       <c r="BD34" s="92">
         <f t="shared" si="19"/>
-        <v>36.79</v>
+        <v>61.54</v>
       </c>
       <c r="BE34" s="102">
         <v>71</v>
@@ -15322,10 +15412,12 @@
         <f t="shared" si="20"/>
         <v>71</v>
       </c>
-      <c r="BG34" s="102"/>
+      <c r="BG34" s="102">
+        <v>87</v>
+      </c>
       <c r="BH34" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="BI34" s="101">
         <v>100</v>
@@ -15336,7 +15428,7 @@
       </c>
       <c r="BK34" s="97">
         <f t="shared" si="22"/>
-        <v>28.5</v>
+        <v>43</v>
       </c>
       <c r="BL34" s="101">
         <v>100</v>
@@ -15439,23 +15531,23 @@
       </c>
       <c r="CQ34" s="93">
         <f t="shared" si="39"/>
-        <v>75.5</v>
+        <v>90</v>
       </c>
       <c r="CR34" s="93">
         <f t="shared" si="40"/>
-        <v>75.5</v>
+        <v>90</v>
       </c>
       <c r="CS34" s="98">
         <f t="shared" si="45"/>
-        <v>60.015999999999998</v>
+        <v>78.616</v>
       </c>
       <c r="CT34" s="98">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="CU34" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="35" spans="1:99">
@@ -15482,14 +15574,16 @@
         <f t="shared" si="0"/>
         <v>20.099999999999998</v>
       </c>
-      <c r="G35" s="102"/>
+      <c r="G35" s="102">
+        <v>77</v>
+      </c>
       <c r="H35" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>96.25</v>
       </c>
       <c r="I35" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28.875</v>
       </c>
       <c r="J35" s="102">
         <v>18</v>
@@ -15593,11 +15687,11 @@
       </c>
       <c r="BC35" s="92">
         <f t="shared" si="18"/>
-        <v>55.433333333333337</v>
+        <v>84.308333333333337</v>
       </c>
       <c r="BD35" s="92">
         <f t="shared" si="19"/>
-        <v>55.43</v>
+        <v>84.31</v>
       </c>
       <c r="BE35" s="102">
         <v>99</v>
@@ -15606,10 +15700,12 @@
         <f t="shared" si="20"/>
         <v>99</v>
       </c>
-      <c r="BG35" s="102"/>
+      <c r="BG35" s="102">
+        <v>100</v>
+      </c>
       <c r="BH35" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BI35" s="101">
         <v>100</v>
@@ -15620,7 +15716,7 @@
       </c>
       <c r="BK35" s="97">
         <f t="shared" si="22"/>
-        <v>33.166666666666664</v>
+        <v>49.833333333333336</v>
       </c>
       <c r="BL35" s="101">
         <v>100</v>
@@ -15723,19 +15819,19 @@
       </c>
       <c r="CQ35" s="93">
         <f t="shared" si="39"/>
-        <v>81.166666666666657</v>
+        <v>97.833333333333343</v>
       </c>
       <c r="CR35" s="93">
         <f t="shared" si="40"/>
-        <v>81.17</v>
+        <v>97.83</v>
       </c>
       <c r="CS35" s="98">
         <f t="shared" si="45"/>
-        <v>70.873999999999995</v>
+        <v>92.421999999999997</v>
       </c>
       <c r="CT35" s="98">
         <f>IFERROR(VLOOKUP(CS35,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="CU35" s="87" t="str">
         <f t="shared" si="42"/>
@@ -15766,14 +15862,16 @@
         <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="G36" s="102"/>
+      <c r="G36" s="102">
+        <v>70</v>
+      </c>
       <c r="H36" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="I36" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="J36" s="102">
         <v>13</v>
@@ -15877,11 +15975,11 @@
       </c>
       <c r="BC36" s="92">
         <f t="shared" si="18"/>
-        <v>39.311111111111117</v>
+        <v>65.561111111111117</v>
       </c>
       <c r="BD36" s="92">
         <f t="shared" si="19"/>
-        <v>39.31</v>
+        <v>65.56</v>
       </c>
       <c r="BE36" s="102">
         <v>84</v>
@@ -15890,10 +15988,12 @@
         <f t="shared" si="20"/>
         <v>84</v>
       </c>
-      <c r="BG36" s="102"/>
+      <c r="BG36" s="102">
+        <v>87</v>
+      </c>
       <c r="BH36" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="BI36" s="101">
         <v>100</v>
@@ -15904,7 +16004,7 @@
       </c>
       <c r="BK36" s="97">
         <f t="shared" si="22"/>
-        <v>30.666666666666668</v>
+        <v>45.166666666666664</v>
       </c>
       <c r="BL36" s="101">
         <v>100</v>
@@ -16007,23 +16107,23 @@
       </c>
       <c r="CQ36" s="93">
         <f t="shared" si="39"/>
-        <v>77.666666666666671</v>
+        <v>92.166666666666657</v>
       </c>
       <c r="CR36" s="93">
         <f t="shared" si="40"/>
-        <v>77.67</v>
+        <v>92.17</v>
       </c>
       <c r="CS36" s="98">
         <f t="shared" si="45"/>
-        <v>62.326000000000001</v>
+        <v>81.52600000000001</v>
       </c>
       <c r="CT36" s="98">
         <f>IFERROR(VLOOKUP(CS36,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU36" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="37" spans="1:99">
@@ -16050,14 +16150,16 @@
         <f t="shared" si="0"/>
         <v>16.8</v>
       </c>
-      <c r="G37" s="102"/>
+      <c r="G37" s="102">
+        <v>55</v>
+      </c>
       <c r="H37" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68.75</v>
       </c>
       <c r="I37" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.625</v>
       </c>
       <c r="J37" s="102">
         <v>9</v>
@@ -16161,11 +16263,11 @@
       </c>
       <c r="BC37" s="92">
         <f t="shared" si="18"/>
-        <v>43.833333333333343</v>
+        <v>64.458333333333343</v>
       </c>
       <c r="BD37" s="92">
         <f t="shared" si="19"/>
-        <v>43.83</v>
+        <v>64.459999999999994</v>
       </c>
       <c r="BE37" s="102">
         <v>70</v>
@@ -16174,10 +16276,12 @@
         <f t="shared" si="20"/>
         <v>70</v>
       </c>
-      <c r="BG37" s="102"/>
+      <c r="BG37" s="102">
+        <v>83</v>
+      </c>
       <c r="BH37" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="BI37" s="101">
         <v>100</v>
@@ -16188,7 +16292,7 @@
       </c>
       <c r="BK37" s="97">
         <f t="shared" si="22"/>
-        <v>28.333333333333332</v>
+        <v>42.166666666666664</v>
       </c>
       <c r="BL37" s="101"/>
       <c r="BM37" s="86">
@@ -16289,23 +16393,23 @@
       </c>
       <c r="CQ37" s="93">
         <f t="shared" si="39"/>
-        <v>69.833333333333329</v>
+        <v>83.666666666666657</v>
       </c>
       <c r="CR37" s="93">
         <f t="shared" si="40"/>
-        <v>69.83</v>
+        <v>83.67</v>
       </c>
       <c r="CS37" s="98">
         <f t="shared" si="45"/>
-        <v>59.429999999999993</v>
+        <v>75.98599999999999</v>
       </c>
       <c r="CT37" s="98">
         <f>IFERROR(VLOOKUP(CS37,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="CU37" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="38" spans="1:99">
@@ -16332,14 +16436,16 @@
         <f t="shared" si="0"/>
         <v>19.8</v>
       </c>
-      <c r="G38" s="102"/>
+      <c r="G38" s="102">
+        <v>71</v>
+      </c>
       <c r="H38" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.75</v>
       </c>
       <c r="I38" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.625</v>
       </c>
       <c r="J38" s="102">
         <v>15</v>
@@ -16443,11 +16549,11 @@
       </c>
       <c r="BC38" s="92">
         <f t="shared" si="18"/>
-        <v>54.13333333333334</v>
+        <v>80.75833333333334</v>
       </c>
       <c r="BD38" s="92">
         <f t="shared" si="19"/>
-        <v>54.13</v>
+        <v>80.760000000000005</v>
       </c>
       <c r="BE38" s="102">
         <v>86</v>
@@ -16456,10 +16562,12 @@
         <f t="shared" si="20"/>
         <v>86</v>
       </c>
-      <c r="BG38" s="102"/>
+      <c r="BG38" s="102">
+        <v>97</v>
+      </c>
       <c r="BH38" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="BI38" s="101">
         <v>100</v>
@@ -16470,7 +16578,7 @@
       </c>
       <c r="BK38" s="97">
         <f t="shared" si="22"/>
-        <v>31</v>
+        <v>47.166666666666664</v>
       </c>
       <c r="BL38" s="101">
         <v>100</v>
@@ -16573,23 +16681,23 @@
       </c>
       <c r="CQ38" s="93">
         <f t="shared" si="39"/>
-        <v>78.75</v>
+        <v>94.916666666666657</v>
       </c>
       <c r="CR38" s="93">
         <f t="shared" si="40"/>
-        <v>78.75</v>
+        <v>94.92</v>
       </c>
       <c r="CS38" s="98">
         <f t="shared" si="45"/>
-        <v>68.902000000000001</v>
+        <v>89.256</v>
       </c>
       <c r="CT38" s="98">
         <f>IFERROR(VLOOKUP(CS38,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="CU38" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="39" spans="1:99">
@@ -16616,14 +16724,16 @@
         <f t="shared" si="0"/>
         <v>17.099999999999998</v>
       </c>
-      <c r="G39" s="102"/>
+      <c r="G39" s="102">
+        <v>74</v>
+      </c>
       <c r="H39" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>92.5</v>
       </c>
       <c r="I39" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27.75</v>
       </c>
       <c r="J39" s="102">
         <v>14</v>
@@ -16727,11 +16837,11 @@
       </c>
       <c r="BC39" s="92">
         <f t="shared" si="18"/>
-        <v>49.766666666666666</v>
+        <v>77.516666666666666</v>
       </c>
       <c r="BD39" s="92">
         <f t="shared" si="19"/>
-        <v>49.77</v>
+        <v>77.52</v>
       </c>
       <c r="BE39" s="102">
         <v>80</v>
@@ -16740,10 +16850,12 @@
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
-      <c r="BG39" s="102"/>
+      <c r="BG39" s="102">
+        <v>85</v>
+      </c>
       <c r="BH39" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="BI39" s="101">
         <v>100</v>
@@ -16754,7 +16866,7 @@
       </c>
       <c r="BK39" s="97">
         <f t="shared" si="22"/>
-        <v>30</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="BL39" s="101">
         <v>100</v>
@@ -16857,23 +16969,23 @@
       </c>
       <c r="CQ39" s="93">
         <f t="shared" si="39"/>
-        <v>76.5</v>
+        <v>90.666666666666657</v>
       </c>
       <c r="CR39" s="93">
         <f t="shared" si="40"/>
-        <v>76.5</v>
+        <v>90.67</v>
       </c>
       <c r="CS39" s="98">
         <f t="shared" si="45"/>
-        <v>65.807999999999993</v>
+        <v>85.41</v>
       </c>
       <c r="CT39" s="98">
         <f>IFERROR(VLOOKUP(CS39,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CU39" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="40" spans="1:99">
@@ -16900,14 +17012,16 @@
         <f t="shared" si="0"/>
         <v>5.3999999999999995</v>
       </c>
-      <c r="G40" s="102"/>
+      <c r="G40" s="102">
+        <v>48</v>
+      </c>
       <c r="H40" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I40" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J40" s="102">
         <v>13</v>
@@ -17011,11 +17125,11 @@
       </c>
       <c r="BC40" s="92">
         <f t="shared" si="18"/>
-        <v>32.788888888888884</v>
+        <v>50.788888888888884</v>
       </c>
       <c r="BD40" s="92">
         <f t="shared" si="19"/>
-        <v>32.79</v>
+        <v>50.79</v>
       </c>
       <c r="BE40" s="102">
         <v>72</v>
@@ -17024,10 +17138,12 @@
         <f t="shared" si="20"/>
         <v>72</v>
       </c>
-      <c r="BG40" s="102"/>
+      <c r="BG40" s="102">
+        <v>85</v>
+      </c>
       <c r="BH40" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="BI40" s="101">
         <v>100</v>
@@ -17038,7 +17154,7 @@
       </c>
       <c r="BK40" s="97">
         <f t="shared" si="22"/>
-        <v>28.666666666666668</v>
+        <v>42.833333333333336</v>
       </c>
       <c r="BL40" s="101">
         <v>100</v>
@@ -17141,23 +17257,23 @@
       </c>
       <c r="CQ40" s="93">
         <f t="shared" si="39"/>
-        <v>74.916666666666671</v>
+        <v>89.083333333333343</v>
       </c>
       <c r="CR40" s="93">
         <f t="shared" si="40"/>
-        <v>74.92</v>
+        <v>89.08</v>
       </c>
       <c r="CS40" s="98">
         <f t="shared" si="45"/>
-        <v>58.067999999999998</v>
+        <v>73.76400000000001</v>
       </c>
       <c r="CT40" s="98">
         <f>IFERROR(VLOOKUP(CS40,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="CU40" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="41" spans="1:99">
@@ -17184,14 +17300,16 @@
         <f t="shared" si="0"/>
         <v>19.8</v>
       </c>
-      <c r="G41" s="102"/>
+      <c r="G41" s="102">
+        <v>67</v>
+      </c>
       <c r="H41" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>83.75</v>
       </c>
       <c r="I41" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25.125</v>
       </c>
       <c r="J41" s="102">
         <v>16</v>
@@ -17295,11 +17413,11 @@
       </c>
       <c r="BC41" s="92">
         <f t="shared" si="18"/>
-        <v>53.577777777777783</v>
+        <v>78.702777777777783</v>
       </c>
       <c r="BD41" s="92">
         <f t="shared" si="19"/>
-        <v>53.58</v>
+        <v>78.7</v>
       </c>
       <c r="BE41" s="102">
         <v>95</v>
@@ -17308,10 +17426,12 @@
         <f t="shared" si="20"/>
         <v>95</v>
       </c>
-      <c r="BG41" s="102"/>
+      <c r="BG41" s="102">
+        <v>95</v>
+      </c>
       <c r="BH41" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="BI41" s="101">
         <v>100</v>
@@ -17322,7 +17442,7 @@
       </c>
       <c r="BK41" s="97">
         <f t="shared" si="22"/>
-        <v>32.5</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="BL41" s="101">
         <v>100</v>
@@ -17425,23 +17545,23 @@
       </c>
       <c r="CQ41" s="93">
         <f t="shared" si="39"/>
-        <v>80.5</v>
+        <v>96.333333333333343</v>
       </c>
       <c r="CR41" s="93">
         <f t="shared" si="40"/>
-        <v>80.5</v>
+        <v>96.33</v>
       </c>
       <c r="CS41" s="98">
         <f t="shared" si="45"/>
-        <v>69.731999999999999</v>
+        <v>89.277999999999992</v>
       </c>
       <c r="CT41" s="98">
         <f>IFERROR(VLOOKUP(CS41,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="CU41" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="42" spans="1:99">
@@ -17468,14 +17588,16 @@
         <f t="shared" ref="F42:F70" si="46">IFERROR((E42*$F$7), " ")</f>
         <v>15</v>
       </c>
-      <c r="G42" s="102"/>
+      <c r="G42" s="102">
+        <v>62</v>
+      </c>
       <c r="H42" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="I42" s="89">
         <f t="shared" ref="I42:I70" si="47">IFERROR((H42*$I$7), "")</f>
-        <v>0</v>
+        <v>23.25</v>
       </c>
       <c r="J42" s="102">
         <v>11</v>
@@ -17579,11 +17701,11 @@
       </c>
       <c r="BC42" s="92">
         <f t="shared" si="18"/>
-        <v>43.344444444444449</v>
+        <v>66.594444444444449</v>
       </c>
       <c r="BD42" s="92">
         <f t="shared" si="19"/>
-        <v>43.34</v>
+        <v>66.59</v>
       </c>
       <c r="BE42" s="102">
         <v>83</v>
@@ -17592,10 +17714,12 @@
         <f t="shared" si="20"/>
         <v>83</v>
       </c>
-      <c r="BG42" s="102"/>
+      <c r="BG42" s="102">
+        <v>85</v>
+      </c>
       <c r="BH42" s="86">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="BI42" s="101">
         <v>100</v>
@@ -17606,7 +17730,7 @@
       </c>
       <c r="BK42" s="97">
         <f t="shared" si="22"/>
-        <v>30.5</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="BL42" s="101">
         <v>100</v>
@@ -17709,23 +17833,23 @@
       </c>
       <c r="CQ42" s="93">
         <f t="shared" si="39"/>
-        <v>77.5</v>
+        <v>91.666666666666657</v>
       </c>
       <c r="CR42" s="93">
         <f t="shared" si="40"/>
-        <v>77.5</v>
+        <v>91.67</v>
       </c>
       <c r="CS42" s="98">
         <f t="shared" si="45"/>
-        <v>63.835999999999999</v>
+        <v>81.638000000000005</v>
       </c>
       <c r="CT42" s="98">
         <f>IFERROR(VLOOKUP(CS42,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU42" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="43" spans="1:99">
@@ -24980,7 +25104,7 @@
       </c>
       <c r="D8" s="83">
         <f>'RAW GRADES'!I10</f>
-        <v>0</v>
+        <v>26.625</v>
       </c>
       <c r="E8" s="52">
         <f>'RAW GRADES'!AN10</f>
@@ -24996,15 +25120,15 @@
       </c>
       <c r="H8" s="53">
         <f>'RAW GRADES'!BC10</f>
-        <v>49.344444444444441</v>
+        <v>75.969444444444434</v>
       </c>
       <c r="I8" s="53">
         <f>'RAW GRADES'!BD10</f>
-        <v>49.34</v>
+        <v>75.97</v>
       </c>
       <c r="J8" s="52">
         <f>'RAW GRADES'!BK10</f>
-        <v>30.5</v>
+        <v>45.5</v>
       </c>
       <c r="K8" s="52">
         <f>'RAW GRADES'!CP10</f>
@@ -25012,23 +25136,23 @@
       </c>
       <c r="L8" s="52">
         <f>'RAW GRADES'!CQ10</f>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="M8" s="54">
         <f>'RAW GRADES'!CR10</f>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="N8" s="55">
         <f>'RAW GRADES'!CS10</f>
-        <v>66.536000000000001</v>
+        <v>86.188000000000002</v>
       </c>
       <c r="O8" s="56">
         <f>'RAW GRADES'!CT10</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P8" s="59" t="str">
         <f>IF(O8&gt;3,"FAILED","PASSED")</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -25045,7 +25169,7 @@
       </c>
       <c r="D9" s="83">
         <f>'RAW GRADES'!I11</f>
-        <v>0</v>
+        <v>17.625</v>
       </c>
       <c r="E9" s="52">
         <f>'RAW GRADES'!AN11</f>
@@ -25061,15 +25185,15 @@
       </c>
       <c r="H9" s="53">
         <f>'RAW GRADES'!BC11</f>
-        <v>32.677777777777777</v>
+        <v>50.302777777777777</v>
       </c>
       <c r="I9" s="53">
         <f>'RAW GRADES'!BD11</f>
-        <v>32.68</v>
+        <v>50.3</v>
       </c>
       <c r="J9" s="52">
         <f>'RAW GRADES'!BK11</f>
-        <v>28.833333333333332</v>
+        <v>43.833333333333336</v>
       </c>
       <c r="K9" s="52">
         <f>'RAW GRADES'!CP11</f>
@@ -25077,23 +25201,23 @@
       </c>
       <c r="L9" s="52">
         <f>'RAW GRADES'!CQ11</f>
-        <v>72.583333333333329</v>
+        <v>87.583333333333343</v>
       </c>
       <c r="M9" s="54">
         <f>'RAW GRADES'!CR11</f>
-        <v>72.58</v>
+        <v>87.58</v>
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>56.62</v>
+        <v>72.667999999999992</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P9" s="59" t="str">
         <f>IF(O9&gt;3,"FAILED","PASSED")</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -25110,7 +25234,7 @@
       </c>
       <c r="D10" s="83">
         <f>'RAW GRADES'!I12</f>
-        <v>0</v>
+        <v>22.125</v>
       </c>
       <c r="E10" s="52">
         <f>'RAW GRADES'!AN12</f>
@@ -25126,15 +25250,15 @@
       </c>
       <c r="H10" s="53">
         <f>'RAW GRADES'!BC12</f>
-        <v>50.666666666666671</v>
+        <v>72.791666666666671</v>
       </c>
       <c r="I10" s="53">
         <f>'RAW GRADES'!BD12</f>
-        <v>50.67</v>
+        <v>72.790000000000006</v>
       </c>
       <c r="J10" s="52">
         <f>'RAW GRADES'!BK12</f>
-        <v>28.666666666666668</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="K10" s="52">
         <f>'RAW GRADES'!CP12</f>
@@ -25142,23 +25266,23 @@
       </c>
       <c r="L10" s="52">
         <f>'RAW GRADES'!CQ12</f>
-        <v>75.416666666666671</v>
+        <v>90.083333333333343</v>
       </c>
       <c r="M10" s="54">
         <f>'RAW GRADES'!CR12</f>
-        <v>75.42</v>
+        <v>90.08</v>
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>65.52000000000001</v>
+        <v>83.164000000000001</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P10" s="59" t="str">
         <f t="shared" ref="P10:P68" si="0">IF(O10&gt;3,"FAILED","PASSED")</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -25175,7 +25299,7 @@
       </c>
       <c r="D11" s="83">
         <f>'RAW GRADES'!I13</f>
-        <v>0</v>
+        <v>27.75</v>
       </c>
       <c r="E11" s="52">
         <f>'RAW GRADES'!AN13</f>
@@ -25191,15 +25315,15 @@
       </c>
       <c r="H11" s="53">
         <f>'RAW GRADES'!BC13</f>
-        <v>50.266666666666666</v>
+        <v>78.016666666666666</v>
       </c>
       <c r="I11" s="53">
         <f>'RAW GRADES'!BD13</f>
-        <v>50.27</v>
+        <v>78.02</v>
       </c>
       <c r="J11" s="52">
         <f>'RAW GRADES'!BK13</f>
-        <v>31</v>
+        <v>45.666666666666664</v>
       </c>
       <c r="K11" s="52">
         <f>'RAW GRADES'!CP13</f>
@@ -25207,23 +25331,23 @@
       </c>
       <c r="L11" s="52">
         <f>'RAW GRADES'!CQ13</f>
-        <v>78.75</v>
+        <v>93.416666666666657</v>
       </c>
       <c r="M11" s="54">
         <f>'RAW GRADES'!CR13</f>
-        <v>78.75</v>
+        <v>93.42</v>
       </c>
       <c r="N11" s="58">
         <f>'RAW GRADES'!CS13</f>
-        <v>67.358000000000004</v>
+        <v>87.259999999999991</v>
       </c>
       <c r="O11" s="56">
         <f>'RAW GRADES'!CT13</f>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="P11" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -25240,7 +25364,7 @@
       </c>
       <c r="D12" s="83">
         <f>'RAW GRADES'!I14</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E12" s="52">
         <f>'RAW GRADES'!AN14</f>
@@ -25256,15 +25380,15 @@
       </c>
       <c r="H12" s="53">
         <f>'RAW GRADES'!BC14</f>
-        <v>49.922222222222217</v>
+        <v>70.922222222222217</v>
       </c>
       <c r="I12" s="53">
         <f>'RAW GRADES'!BD14</f>
-        <v>49.92</v>
+        <v>70.92</v>
       </c>
       <c r="J12" s="52">
         <f>'RAW GRADES'!BK14</f>
-        <v>32.833333333333336</v>
+        <v>47.5</v>
       </c>
       <c r="K12" s="52">
         <f>'RAW GRADES'!CP14</f>
@@ -25272,23 +25396,23 @@
       </c>
       <c r="L12" s="52">
         <f>'RAW GRADES'!CQ14</f>
-        <v>80.333333333333343</v>
+        <v>95</v>
       </c>
       <c r="M12" s="54">
         <f>'RAW GRADES'!CR14</f>
-        <v>80.33</v>
+        <v>95</v>
       </c>
       <c r="N12" s="58">
         <f>'RAW GRADES'!CS14</f>
-        <v>68.165999999999997</v>
+        <v>85.367999999999995</v>
       </c>
       <c r="O12" s="56">
         <f>'RAW GRADES'!CT14</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P12" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -25370,7 +25494,7 @@
       </c>
       <c r="D14" s="83">
         <f>'RAW GRADES'!I16</f>
-        <v>0</v>
+        <v>24.75</v>
       </c>
       <c r="E14" s="52">
         <f>'RAW GRADES'!AN16</f>
@@ -25386,15 +25510,15 @@
       </c>
       <c r="H14" s="53">
         <f>'RAW GRADES'!BC16</f>
-        <v>49.111111111111114</v>
+        <v>73.861111111111114</v>
       </c>
       <c r="I14" s="53">
         <f>'RAW GRADES'!BD16</f>
-        <v>49.11</v>
+        <v>73.86</v>
       </c>
       <c r="J14" s="52">
         <f>'RAW GRADES'!BK16</f>
-        <v>28.666666666666668</v>
+        <v>43.166666666666664</v>
       </c>
       <c r="K14" s="52">
         <f>'RAW GRADES'!CP16</f>
@@ -25402,23 +25526,23 @@
       </c>
       <c r="L14" s="52">
         <f>'RAW GRADES'!CQ16</f>
-        <v>75.666666666666671</v>
+        <v>90.166666666666657</v>
       </c>
       <c r="M14" s="54">
         <f>'RAW GRADES'!CR16</f>
-        <v>75.67</v>
+        <v>90.17</v>
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>65.046000000000006</v>
+        <v>83.646000000000001</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P14" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -25435,7 +25559,7 @@
       </c>
       <c r="D15" s="83">
         <f>'RAW GRADES'!I17</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E15" s="52">
         <f>'RAW GRADES'!AN17</f>
@@ -25451,15 +25575,15 @@
       </c>
       <c r="H15" s="53">
         <f>'RAW GRADES'!BC17</f>
-        <v>46.8</v>
+        <v>67.8</v>
       </c>
       <c r="I15" s="53">
         <f>'RAW GRADES'!BD17</f>
-        <v>46.8</v>
+        <v>67.8</v>
       </c>
       <c r="J15" s="52">
         <f>'RAW GRADES'!BK17</f>
-        <v>28.333333333333332</v>
+        <v>43</v>
       </c>
       <c r="K15" s="52">
         <f>'RAW GRADES'!CP17</f>
@@ -25467,23 +25591,23 @@
       </c>
       <c r="L15" s="52">
         <f>'RAW GRADES'!CQ17</f>
-        <v>73.833333333333329</v>
+        <v>88.5</v>
       </c>
       <c r="M15" s="54">
         <f>'RAW GRADES'!CR17</f>
-        <v>73.83</v>
+        <v>88.5</v>
       </c>
       <c r="N15" s="58">
         <f>'RAW GRADES'!CS17</f>
-        <v>63.017999999999994</v>
+        <v>80.22</v>
       </c>
       <c r="O15" s="56">
         <f>'RAW GRADES'!CT17</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P15" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -25500,7 +25624,7 @@
       </c>
       <c r="D16" s="83">
         <f>'RAW GRADES'!I18</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E16" s="52">
         <f>'RAW GRADES'!AN18</f>
@@ -25516,15 +25640,15 @@
       </c>
       <c r="H16" s="53">
         <f>'RAW GRADES'!BC18</f>
-        <v>32.544444444444444</v>
+        <v>44.544444444444444</v>
       </c>
       <c r="I16" s="53">
         <f>'RAW GRADES'!BD18</f>
-        <v>32.54</v>
+        <v>44.54</v>
       </c>
       <c r="J16" s="52">
         <f>'RAW GRADES'!BK18</f>
-        <v>30.666666666666668</v>
+        <v>44.5</v>
       </c>
       <c r="K16" s="52">
         <f>'RAW GRADES'!CP18</f>
@@ -25532,23 +25656,23 @@
       </c>
       <c r="L16" s="52">
         <f>'RAW GRADES'!CQ18</f>
-        <v>74.916666666666671</v>
+        <v>88.75</v>
       </c>
       <c r="M16" s="54">
         <f>'RAW GRADES'!CR18</f>
-        <v>74.92</v>
+        <v>88.75</v>
       </c>
       <c r="N16" s="58">
         <f>'RAW GRADES'!CS18</f>
-        <v>57.967999999999996</v>
+        <v>71.066000000000003</v>
       </c>
       <c r="O16" s="56">
         <f>'RAW GRADES'!CT18</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P16" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -25565,7 +25689,7 @@
       </c>
       <c r="D17" s="83">
         <f>'RAW GRADES'!I19</f>
-        <v>0</v>
+        <v>23.625</v>
       </c>
       <c r="E17" s="52">
         <f>'RAW GRADES'!AN19</f>
@@ -25581,15 +25705,15 @@
       </c>
       <c r="H17" s="53">
         <f>'RAW GRADES'!BC19</f>
-        <v>41.911111111111119</v>
+        <v>65.536111111111111</v>
       </c>
       <c r="I17" s="53">
         <f>'RAW GRADES'!BD19</f>
-        <v>41.91</v>
+        <v>65.540000000000006</v>
       </c>
       <c r="J17" s="52">
         <f>'RAW GRADES'!BK19</f>
-        <v>30</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="K17" s="52">
         <f>'RAW GRADES'!CP19</f>
@@ -25597,23 +25721,23 @@
       </c>
       <c r="L17" s="52">
         <f>'RAW GRADES'!CQ19</f>
-        <v>77.75</v>
+        <v>92.416666666666657</v>
       </c>
       <c r="M17" s="54">
         <f>'RAW GRADES'!CR19</f>
-        <v>77.75</v>
+        <v>92.42</v>
       </c>
       <c r="N17" s="58">
         <f>'RAW GRADES'!CS19</f>
-        <v>63.414000000000001</v>
+        <v>81.668000000000006</v>
       </c>
       <c r="O17" s="56">
         <f>'RAW GRADES'!CT19</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P17" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -25630,7 +25754,7 @@
       </c>
       <c r="D18" s="83">
         <f>'RAW GRADES'!I20</f>
-        <v>0</v>
+        <v>24.375</v>
       </c>
       <c r="E18" s="52">
         <f>'RAW GRADES'!AN20</f>
@@ -25646,15 +25770,15 @@
       </c>
       <c r="H18" s="53">
         <f>'RAW GRADES'!BC20</f>
-        <v>43.133333333333333</v>
+        <v>67.50833333333334</v>
       </c>
       <c r="I18" s="53">
         <f>'RAW GRADES'!BD20</f>
-        <v>43.13</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="J18" s="52">
         <f>'RAW GRADES'!BK20</f>
-        <v>30.666666666666668</v>
+        <v>41.5</v>
       </c>
       <c r="K18" s="52">
         <f>'RAW GRADES'!CP20</f>
@@ -25662,23 +25786,23 @@
       </c>
       <c r="L18" s="52">
         <f>'RAW GRADES'!CQ20</f>
-        <v>76.666666666666671</v>
+        <v>87.5</v>
       </c>
       <c r="M18" s="54">
         <f>'RAW GRADES'!CR20</f>
-        <v>76.67</v>
+        <v>87.5</v>
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>63.254000000000005</v>
+        <v>79.504000000000005</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P18" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -25695,7 +25819,7 @@
       </c>
       <c r="D19" s="83">
         <f>'RAW GRADES'!I21</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E19" s="52">
         <f>'RAW GRADES'!AN21</f>
@@ -25711,15 +25835,15 @@
       </c>
       <c r="H19" s="53">
         <f>'RAW GRADES'!BC21</f>
-        <v>43.422222222222217</v>
+        <v>53.922222222222217</v>
       </c>
       <c r="I19" s="53">
         <f>'RAW GRADES'!BD21</f>
-        <v>43.42</v>
+        <v>53.92</v>
       </c>
       <c r="J19" s="52">
         <f>'RAW GRADES'!BK21</f>
-        <v>28.833333333333332</v>
+        <v>43.833333333333336</v>
       </c>
       <c r="K19" s="52">
         <f>'RAW GRADES'!CP21</f>
@@ -25727,23 +25851,23 @@
       </c>
       <c r="L19" s="52">
         <f>'RAW GRADES'!CQ21</f>
-        <v>75.833333333333329</v>
+        <v>90.833333333333343</v>
       </c>
       <c r="M19" s="54">
         <f>'RAW GRADES'!CR21</f>
-        <v>75.83</v>
+        <v>90.83</v>
       </c>
       <c r="N19" s="58">
         <f>'RAW GRADES'!CS21</f>
-        <v>62.866</v>
+        <v>76.066000000000003</v>
       </c>
       <c r="O19" s="56">
         <f>'RAW GRADES'!CT21</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P19" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -25760,7 +25884,7 @@
       </c>
       <c r="D20" s="83">
         <f>'RAW GRADES'!I22</f>
-        <v>0</v>
+        <v>22.875</v>
       </c>
       <c r="E20" s="52">
         <f>'RAW GRADES'!AN22</f>
@@ -25776,15 +25900,15 @@
       </c>
       <c r="H20" s="53">
         <f>'RAW GRADES'!BC22</f>
-        <v>40.066666666666663</v>
+        <v>62.941666666666663</v>
       </c>
       <c r="I20" s="53">
         <f>'RAW GRADES'!BD22</f>
-        <v>40.07</v>
+        <v>62.94</v>
       </c>
       <c r="J20" s="52">
         <f>'RAW GRADES'!BK22</f>
-        <v>28.5</v>
+        <v>43</v>
       </c>
       <c r="K20" s="52">
         <f>'RAW GRADES'!CP22</f>
@@ -25792,23 +25916,23 @@
       </c>
       <c r="L20" s="52">
         <f>'RAW GRADES'!CQ22</f>
-        <v>74.25</v>
+        <v>88.75</v>
       </c>
       <c r="M20" s="54">
         <f>'RAW GRADES'!CR22</f>
-        <v>74.25</v>
+        <v>88.75</v>
       </c>
       <c r="N20" s="58">
         <f>'RAW GRADES'!CS22</f>
-        <v>60.578000000000003</v>
+        <v>78.426000000000002</v>
       </c>
       <c r="O20" s="56">
         <f>'RAW GRADES'!CT22</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P20" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -25825,7 +25949,7 @@
       </c>
       <c r="D21" s="83">
         <f>'RAW GRADES'!I23</f>
-        <v>0</v>
+        <v>20.25</v>
       </c>
       <c r="E21" s="52">
         <f>'RAW GRADES'!AN23</f>
@@ -25841,15 +25965,15 @@
       </c>
       <c r="H21" s="53">
         <f>'RAW GRADES'!BC23</f>
-        <v>39.711111111111116</v>
+        <v>59.961111111111116</v>
       </c>
       <c r="I21" s="53">
         <f>'RAW GRADES'!BD23</f>
-        <v>39.71</v>
+        <v>59.96</v>
       </c>
       <c r="J21" s="52">
         <f>'RAW GRADES'!BK23</f>
-        <v>30.666666666666668</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="K21" s="52">
         <f>'RAW GRADES'!CP23</f>
@@ -25857,23 +25981,23 @@
       </c>
       <c r="L21" s="52">
         <f>'RAW GRADES'!CQ23</f>
-        <v>76.916666666666671</v>
+        <v>90.916666666666657</v>
       </c>
       <c r="M21" s="54">
         <f>'RAW GRADES'!CR23</f>
-        <v>76.92</v>
+        <v>90.92</v>
       </c>
       <c r="N21" s="58">
         <f>'RAW GRADES'!CS23</f>
-        <v>62.036000000000001</v>
+        <v>78.536000000000001</v>
       </c>
       <c r="O21" s="56">
         <f>'RAW GRADES'!CT23</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P21" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -25955,7 +26079,7 @@
       </c>
       <c r="D23" s="83">
         <f>'RAW GRADES'!I25</f>
-        <v>0</v>
+        <v>29.25</v>
       </c>
       <c r="E23" s="52">
         <f>'RAW GRADES'!AN25</f>
@@ -25971,11 +26095,11 @@
       </c>
       <c r="H23" s="53">
         <f>'RAW GRADES'!BC25</f>
-        <v>59.144444444444446</v>
+        <v>88.394444444444446</v>
       </c>
       <c r="I23" s="53">
         <f>'RAW GRADES'!BD25</f>
-        <v>59.14</v>
+        <v>88.39</v>
       </c>
       <c r="J23" s="52">
         <f>'RAW GRADES'!BK25</f>
@@ -25995,11 +26119,11 @@
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>80.254000000000005</v>
+        <v>91.954000000000008</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="P23" s="59" t="str">
         <f t="shared" si="0"/>
@@ -26020,7 +26144,7 @@
       </c>
       <c r="D24" s="83">
         <f>'RAW GRADES'!I26</f>
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="E24" s="52">
         <f>'RAW GRADES'!AN26</f>
@@ -26036,11 +26160,11 @@
       </c>
       <c r="H24" s="53">
         <f>'RAW GRADES'!BC26</f>
-        <v>61.022222222222226</v>
+        <v>89.522222222222226</v>
       </c>
       <c r="I24" s="53">
         <f>'RAW GRADES'!BD26</f>
-        <v>61.02</v>
+        <v>89.52</v>
       </c>
       <c r="J24" s="52">
         <f>'RAW GRADES'!BK26</f>
@@ -26060,11 +26184,11 @@
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>82.908000000000001</v>
+        <v>94.307999999999993</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="P24" s="59" t="str">
         <f t="shared" si="0"/>
@@ -26085,7 +26209,7 @@
       </c>
       <c r="D25" s="83">
         <f>'RAW GRADES'!I27</f>
-        <v>0</v>
+        <v>24.375</v>
       </c>
       <c r="E25" s="52">
         <f>'RAW GRADES'!AN27</f>
@@ -26101,15 +26225,15 @@
       </c>
       <c r="H25" s="53">
         <f>'RAW GRADES'!BC27</f>
-        <v>45.444444444444443</v>
+        <v>69.819444444444443</v>
       </c>
       <c r="I25" s="53">
         <f>'RAW GRADES'!BD27</f>
-        <v>45.44</v>
+        <v>69.819999999999993</v>
       </c>
       <c r="J25" s="52">
         <f>'RAW GRADES'!BK27</f>
-        <v>30.5</v>
+        <v>45</v>
       </c>
       <c r="K25" s="52">
         <f>'RAW GRADES'!CP27</f>
@@ -26117,23 +26241,23 @@
       </c>
       <c r="L25" s="52">
         <f>'RAW GRADES'!CQ27</f>
-        <v>77.75</v>
+        <v>92.25</v>
       </c>
       <c r="M25" s="54">
         <f>'RAW GRADES'!CR27</f>
-        <v>77.75</v>
+        <v>92.25</v>
       </c>
       <c r="N25" s="58">
         <f>'RAW GRADES'!CS27</f>
-        <v>64.825999999999993</v>
+        <v>83.277999999999992</v>
       </c>
       <c r="O25" s="56">
         <f>'RAW GRADES'!CT27</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P25" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -26150,7 +26274,7 @@
       </c>
       <c r="D26" s="83">
         <f>'RAW GRADES'!I28</f>
-        <v>0</v>
+        <v>29.625</v>
       </c>
       <c r="E26" s="52">
         <f>'RAW GRADES'!AN28</f>
@@ -26166,11 +26290,11 @@
       </c>
       <c r="H26" s="53">
         <f>'RAW GRADES'!BC28</f>
-        <v>57.422222222222217</v>
+        <v>87.047222222222231</v>
       </c>
       <c r="I26" s="53">
         <f>'RAW GRADES'!BD28</f>
-        <v>57.42</v>
+        <v>87.05</v>
       </c>
       <c r="J26" s="52">
         <f>'RAW GRADES'!BK28</f>
@@ -26190,11 +26314,11 @@
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>82.866</v>
+        <v>94.717999999999989</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="P26" s="59" t="str">
         <f t="shared" si="0"/>
@@ -26215,7 +26339,7 @@
       </c>
       <c r="D27" s="83">
         <f>'RAW GRADES'!I29</f>
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="E27" s="52">
         <f>'RAW GRADES'!AN29</f>
@@ -26231,15 +26355,15 @@
       </c>
       <c r="H27" s="53">
         <f>'RAW GRADES'!BC29</f>
-        <v>51.48888888888888</v>
+        <v>77.73888888888888</v>
       </c>
       <c r="I27" s="53">
         <f>'RAW GRADES'!BD29</f>
-        <v>51.49</v>
+        <v>77.739999999999995</v>
       </c>
       <c r="J27" s="52">
         <f>'RAW GRADES'!BK29</f>
-        <v>32.5</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="K27" s="52">
         <f>'RAW GRADES'!CP29</f>
@@ -26247,23 +26371,23 @@
       </c>
       <c r="L27" s="52">
         <f>'RAW GRADES'!CQ29</f>
-        <v>79.25</v>
+        <v>95.083333333333343</v>
       </c>
       <c r="M27" s="54">
         <f>'RAW GRADES'!CR29</f>
-        <v>79.25</v>
+        <v>95.08</v>
       </c>
       <c r="N27" s="58">
         <f>'RAW GRADES'!CS29</f>
-        <v>68.146000000000001</v>
+        <v>88.143999999999991</v>
       </c>
       <c r="O27" s="56">
         <f>'RAW GRADES'!CT29</f>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="P27" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -26280,7 +26404,7 @@
       </c>
       <c r="D28" s="83">
         <f>'RAW GRADES'!I30</f>
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="E28" s="52">
         <f>'RAW GRADES'!AN30</f>
@@ -26296,15 +26420,15 @@
       </c>
       <c r="H28" s="53">
         <f>'RAW GRADES'!BC30</f>
-        <v>45.455555555555556</v>
+        <v>71.705555555555563</v>
       </c>
       <c r="I28" s="53">
         <f>'RAW GRADES'!BD30</f>
-        <v>45.46</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="J28" s="52">
         <f>'RAW GRADES'!BK30</f>
-        <v>30.666666666666668</v>
+        <v>45.666666666666664</v>
       </c>
       <c r="K28" s="52">
         <f>'RAW GRADES'!CP30</f>
@@ -26312,23 +26436,23 @@
       </c>
       <c r="L28" s="52">
         <f>'RAW GRADES'!CQ30</f>
-        <v>77.916666666666671</v>
+        <v>92.916666666666657</v>
       </c>
       <c r="M28" s="54">
         <f>'RAW GRADES'!CR30</f>
-        <v>77.92</v>
+        <v>92.92</v>
       </c>
       <c r="N28" s="58">
         <f>'RAW GRADES'!CS30</f>
-        <v>64.936000000000007</v>
+        <v>84.436000000000007</v>
       </c>
       <c r="O28" s="56">
         <f>'RAW GRADES'!CT30</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P28" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -26345,7 +26469,7 @@
       </c>
       <c r="D29" s="83">
         <f>'RAW GRADES'!I31</f>
-        <v>0</v>
+        <v>27.75</v>
       </c>
       <c r="E29" s="52">
         <f>'RAW GRADES'!AN31</f>
@@ -26361,15 +26485,15 @@
       </c>
       <c r="H29" s="53">
         <f>'RAW GRADES'!BC31</f>
-        <v>32.011111111111113</v>
+        <v>59.761111111111113</v>
       </c>
       <c r="I29" s="53">
         <f>'RAW GRADES'!BD31</f>
-        <v>32.01</v>
+        <v>59.76</v>
       </c>
       <c r="J29" s="52">
         <f>'RAW GRADES'!BK31</f>
-        <v>30</v>
+        <v>42.5</v>
       </c>
       <c r="K29" s="52">
         <f>'RAW GRADES'!CP31</f>
@@ -26377,23 +26501,23 @@
       </c>
       <c r="L29" s="52">
         <f>'RAW GRADES'!CQ31</f>
-        <v>73.5</v>
+        <v>86</v>
       </c>
       <c r="M29" s="54">
         <f>'RAW GRADES'!CR31</f>
-        <v>73.5</v>
+        <v>86</v>
       </c>
       <c r="N29" s="58">
         <f>'RAW GRADES'!CS31</f>
-        <v>56.904000000000003</v>
+        <v>75.504000000000005</v>
       </c>
       <c r="O29" s="56">
         <f>'RAW GRADES'!CT31</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P29" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -26475,7 +26599,7 @@
       </c>
       <c r="D31" s="83">
         <f>'RAW GRADES'!I33</f>
-        <v>0</v>
+        <v>27.75</v>
       </c>
       <c r="E31" s="52">
         <f>'RAW GRADES'!AN33</f>
@@ -26491,15 +26615,15 @@
       </c>
       <c r="H31" s="53">
         <f>'RAW GRADES'!BC33</f>
-        <v>43.966666666666669</v>
+        <v>71.716666666666669</v>
       </c>
       <c r="I31" s="53">
         <f>'RAW GRADES'!BD33</f>
-        <v>43.97</v>
+        <v>71.72</v>
       </c>
       <c r="J31" s="52">
         <f>'RAW GRADES'!BK33</f>
-        <v>30</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="K31" s="52">
         <f>'RAW GRADES'!CP33</f>
@@ -26507,23 +26631,23 @@
       </c>
       <c r="L31" s="52">
         <f>'RAW GRADES'!CQ33</f>
-        <v>76.75</v>
+        <v>90.916666666666657</v>
       </c>
       <c r="M31" s="54">
         <f>'RAW GRADES'!CR33</f>
-        <v>76.75</v>
+        <v>90.92</v>
       </c>
       <c r="N31" s="58">
         <f>'RAW GRADES'!CS33</f>
-        <v>63.637999999999998</v>
+        <v>83.240000000000009</v>
       </c>
       <c r="O31" s="56">
         <f>'RAW GRADES'!CT33</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P31" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -26540,7 +26664,7 @@
       </c>
       <c r="D32" s="83">
         <f>'RAW GRADES'!I34</f>
-        <v>0</v>
+        <v>24.75</v>
       </c>
       <c r="E32" s="52">
         <f>'RAW GRADES'!AN34</f>
@@ -26556,15 +26680,15 @@
       </c>
       <c r="H32" s="53">
         <f>'RAW GRADES'!BC34</f>
-        <v>36.788888888888884</v>
+        <v>61.538888888888884</v>
       </c>
       <c r="I32" s="53">
         <f>'RAW GRADES'!BD34</f>
-        <v>36.79</v>
+        <v>61.54</v>
       </c>
       <c r="J32" s="52">
         <f>'RAW GRADES'!BK34</f>
-        <v>28.5</v>
+        <v>43</v>
       </c>
       <c r="K32" s="52">
         <f>'RAW GRADES'!CP34</f>
@@ -26572,23 +26696,23 @@
       </c>
       <c r="L32" s="52">
         <f>'RAW GRADES'!CQ34</f>
-        <v>75.5</v>
+        <v>90</v>
       </c>
       <c r="M32" s="54">
         <f>'RAW GRADES'!CR34</f>
-        <v>75.5</v>
+        <v>90</v>
       </c>
       <c r="N32" s="58">
         <f>'RAW GRADES'!CS34</f>
-        <v>60.015999999999998</v>
+        <v>78.616</v>
       </c>
       <c r="O32" s="56">
         <f>'RAW GRADES'!CT34</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P32" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -26605,7 +26729,7 @@
       </c>
       <c r="D33" s="83">
         <f>'RAW GRADES'!I35</f>
-        <v>0</v>
+        <v>28.875</v>
       </c>
       <c r="E33" s="52">
         <f>'RAW GRADES'!AN35</f>
@@ -26621,15 +26745,15 @@
       </c>
       <c r="H33" s="53">
         <f>'RAW GRADES'!BC35</f>
-        <v>55.433333333333337</v>
+        <v>84.308333333333337</v>
       </c>
       <c r="I33" s="53">
         <f>'RAW GRADES'!BD35</f>
-        <v>55.43</v>
+        <v>84.31</v>
       </c>
       <c r="J33" s="52">
         <f>'RAW GRADES'!BK35</f>
-        <v>33.166666666666664</v>
+        <v>49.833333333333336</v>
       </c>
       <c r="K33" s="52">
         <f>'RAW GRADES'!CP35</f>
@@ -26637,19 +26761,19 @@
       </c>
       <c r="L33" s="52">
         <f>'RAW GRADES'!CQ35</f>
-        <v>81.166666666666657</v>
+        <v>97.833333333333343</v>
       </c>
       <c r="M33" s="54">
         <f>'RAW GRADES'!CR35</f>
-        <v>81.17</v>
+        <v>97.83</v>
       </c>
       <c r="N33" s="58">
         <f>'RAW GRADES'!CS35</f>
-        <v>70.873999999999995</v>
+        <v>92.421999999999997</v>
       </c>
       <c r="O33" s="56">
         <f>'RAW GRADES'!CT35</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="P33" s="59" t="str">
         <f t="shared" si="0"/>
@@ -26670,7 +26794,7 @@
       </c>
       <c r="D34" s="83">
         <f>'RAW GRADES'!I36</f>
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="E34" s="52">
         <f>'RAW GRADES'!AN36</f>
@@ -26686,15 +26810,15 @@
       </c>
       <c r="H34" s="53">
         <f>'RAW GRADES'!BC36</f>
-        <v>39.311111111111117</v>
+        <v>65.561111111111117</v>
       </c>
       <c r="I34" s="53">
         <f>'RAW GRADES'!BD36</f>
-        <v>39.31</v>
+        <v>65.56</v>
       </c>
       <c r="J34" s="52">
         <f>'RAW GRADES'!BK36</f>
-        <v>30.666666666666668</v>
+        <v>45.166666666666664</v>
       </c>
       <c r="K34" s="52">
         <f>'RAW GRADES'!CP36</f>
@@ -26702,23 +26826,23 @@
       </c>
       <c r="L34" s="52">
         <f>'RAW GRADES'!CQ36</f>
-        <v>77.666666666666671</v>
+        <v>92.166666666666657</v>
       </c>
       <c r="M34" s="54">
         <f>'RAW GRADES'!CR36</f>
-        <v>77.67</v>
+        <v>92.17</v>
       </c>
       <c r="N34" s="58">
         <f>'RAW GRADES'!CS36</f>
-        <v>62.326000000000001</v>
+        <v>81.52600000000001</v>
       </c>
       <c r="O34" s="56">
         <f>'RAW GRADES'!CT36</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P34" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -26735,7 +26859,7 @@
       </c>
       <c r="D35" s="83">
         <f>'RAW GRADES'!I37</f>
-        <v>0</v>
+        <v>20.625</v>
       </c>
       <c r="E35" s="52">
         <f>'RAW GRADES'!AN37</f>
@@ -26751,15 +26875,15 @@
       </c>
       <c r="H35" s="53">
         <f>'RAW GRADES'!BC37</f>
-        <v>43.833333333333343</v>
+        <v>64.458333333333343</v>
       </c>
       <c r="I35" s="53">
         <f>'RAW GRADES'!BD37</f>
-        <v>43.83</v>
+        <v>64.459999999999994</v>
       </c>
       <c r="J35" s="52">
         <f>'RAW GRADES'!BK37</f>
-        <v>28.333333333333332</v>
+        <v>42.166666666666664</v>
       </c>
       <c r="K35" s="52">
         <f>'RAW GRADES'!CP37</f>
@@ -26767,23 +26891,23 @@
       </c>
       <c r="L35" s="52">
         <f>'RAW GRADES'!CQ37</f>
-        <v>69.833333333333329</v>
+        <v>83.666666666666657</v>
       </c>
       <c r="M35" s="54">
         <f>'RAW GRADES'!CR37</f>
-        <v>69.83</v>
+        <v>83.67</v>
       </c>
       <c r="N35" s="58">
         <f>'RAW GRADES'!CS37</f>
-        <v>59.429999999999993</v>
+        <v>75.98599999999999</v>
       </c>
       <c r="O35" s="56">
         <f>'RAW GRADES'!CT37</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P35" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -26800,7 +26924,7 @@
       </c>
       <c r="D36" s="83">
         <f>'RAW GRADES'!I38</f>
-        <v>0</v>
+        <v>26.625</v>
       </c>
       <c r="E36" s="52">
         <f>'RAW GRADES'!AN38</f>
@@ -26816,15 +26940,15 @@
       </c>
       <c r="H36" s="53">
         <f>'RAW GRADES'!BC38</f>
-        <v>54.13333333333334</v>
+        <v>80.75833333333334</v>
       </c>
       <c r="I36" s="53">
         <f>'RAW GRADES'!BD38</f>
-        <v>54.13</v>
+        <v>80.760000000000005</v>
       </c>
       <c r="J36" s="52">
         <f>'RAW GRADES'!BK38</f>
-        <v>31</v>
+        <v>47.166666666666664</v>
       </c>
       <c r="K36" s="52">
         <f>'RAW GRADES'!CP38</f>
@@ -26832,23 +26956,23 @@
       </c>
       <c r="L36" s="52">
         <f>'RAW GRADES'!CQ38</f>
-        <v>78.75</v>
+        <v>94.916666666666657</v>
       </c>
       <c r="M36" s="54">
         <f>'RAW GRADES'!CR38</f>
-        <v>78.75</v>
+        <v>94.92</v>
       </c>
       <c r="N36" s="58">
         <f>'RAW GRADES'!CS38</f>
-        <v>68.902000000000001</v>
+        <v>89.256</v>
       </c>
       <c r="O36" s="56">
         <f>'RAW GRADES'!CT38</f>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="P36" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -26865,7 +26989,7 @@
       </c>
       <c r="D37" s="83">
         <f>'RAW GRADES'!I39</f>
-        <v>0</v>
+        <v>27.75</v>
       </c>
       <c r="E37" s="52">
         <f>'RAW GRADES'!AN39</f>
@@ -26881,15 +27005,15 @@
       </c>
       <c r="H37" s="53">
         <f>'RAW GRADES'!BC39</f>
-        <v>49.766666666666666</v>
+        <v>77.516666666666666</v>
       </c>
       <c r="I37" s="53">
         <f>'RAW GRADES'!BD39</f>
-        <v>49.77</v>
+        <v>77.52</v>
       </c>
       <c r="J37" s="52">
         <f>'RAW GRADES'!BK39</f>
-        <v>30</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="K37" s="52">
         <f>'RAW GRADES'!CP39</f>
@@ -26897,23 +27021,23 @@
       </c>
       <c r="L37" s="52">
         <f>'RAW GRADES'!CQ39</f>
-        <v>76.5</v>
+        <v>90.666666666666657</v>
       </c>
       <c r="M37" s="54">
         <f>'RAW GRADES'!CR39</f>
-        <v>76.5</v>
+        <v>90.67</v>
       </c>
       <c r="N37" s="58">
         <f>'RAW GRADES'!CS39</f>
-        <v>65.807999999999993</v>
+        <v>85.41</v>
       </c>
       <c r="O37" s="56">
         <f>'RAW GRADES'!CT39</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P37" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -26930,7 +27054,7 @@
       </c>
       <c r="D38" s="83">
         <f>'RAW GRADES'!I40</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E38" s="52">
         <f>'RAW GRADES'!AN40</f>
@@ -26946,15 +27070,15 @@
       </c>
       <c r="H38" s="53">
         <f>'RAW GRADES'!BC40</f>
-        <v>32.788888888888884</v>
+        <v>50.788888888888884</v>
       </c>
       <c r="I38" s="53">
         <f>'RAW GRADES'!BD40</f>
-        <v>32.79</v>
+        <v>50.79</v>
       </c>
       <c r="J38" s="52">
         <f>'RAW GRADES'!BK40</f>
-        <v>28.666666666666668</v>
+        <v>42.833333333333336</v>
       </c>
       <c r="K38" s="52">
         <f>'RAW GRADES'!CP40</f>
@@ -26962,23 +27086,23 @@
       </c>
       <c r="L38" s="52">
         <f>'RAW GRADES'!CQ40</f>
-        <v>74.916666666666671</v>
+        <v>89.083333333333343</v>
       </c>
       <c r="M38" s="54">
         <f>'RAW GRADES'!CR40</f>
-        <v>74.92</v>
+        <v>89.08</v>
       </c>
       <c r="N38" s="58">
         <f>'RAW GRADES'!CS40</f>
-        <v>58.067999999999998</v>
+        <v>73.76400000000001</v>
       </c>
       <c r="O38" s="56">
         <f>'RAW GRADES'!CT40</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P38" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -26995,7 +27119,7 @@
       </c>
       <c r="D39" s="83">
         <f>'RAW GRADES'!I41</f>
-        <v>0</v>
+        <v>25.125</v>
       </c>
       <c r="E39" s="52">
         <f>'RAW GRADES'!AN41</f>
@@ -27011,15 +27135,15 @@
       </c>
       <c r="H39" s="53">
         <f>'RAW GRADES'!BC41</f>
-        <v>53.577777777777783</v>
+        <v>78.702777777777783</v>
       </c>
       <c r="I39" s="53">
         <f>'RAW GRADES'!BD41</f>
-        <v>53.58</v>
+        <v>78.7</v>
       </c>
       <c r="J39" s="52">
         <f>'RAW GRADES'!BK41</f>
-        <v>32.5</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="K39" s="52">
         <f>'RAW GRADES'!CP41</f>
@@ -27027,23 +27151,23 @@
       </c>
       <c r="L39" s="52">
         <f>'RAW GRADES'!CQ41</f>
-        <v>80.5</v>
+        <v>96.333333333333343</v>
       </c>
       <c r="M39" s="54">
         <f>'RAW GRADES'!CR41</f>
-        <v>80.5</v>
+        <v>96.33</v>
       </c>
       <c r="N39" s="58">
         <f>'RAW GRADES'!CS41</f>
-        <v>69.731999999999999</v>
+        <v>89.277999999999992</v>
       </c>
       <c r="O39" s="56">
         <f>'RAW GRADES'!CT41</f>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="P39" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -27060,7 +27184,7 @@
       </c>
       <c r="D40" s="83">
         <f>'RAW GRADES'!I42</f>
-        <v>0</v>
+        <v>23.25</v>
       </c>
       <c r="E40" s="52">
         <f>'RAW GRADES'!AN42</f>
@@ -27076,15 +27200,15 @@
       </c>
       <c r="H40" s="53">
         <f>'RAW GRADES'!BC42</f>
-        <v>43.344444444444449</v>
+        <v>66.594444444444449</v>
       </c>
       <c r="I40" s="53">
         <f>'RAW GRADES'!BD42</f>
-        <v>43.34</v>
+        <v>66.59</v>
       </c>
       <c r="J40" s="52">
         <f>'RAW GRADES'!BK42</f>
-        <v>30.5</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="K40" s="52">
         <f>'RAW GRADES'!CP42</f>
@@ -27092,23 +27216,23 @@
       </c>
       <c r="L40" s="52">
         <f>'RAW GRADES'!CQ42</f>
-        <v>77.5</v>
+        <v>91.666666666666657</v>
       </c>
       <c r="M40" s="54">
         <f>'RAW GRADES'!CR42</f>
-        <v>77.5</v>
+        <v>91.67</v>
       </c>
       <c r="N40" s="58">
         <f>'RAW GRADES'!CS42</f>
-        <v>63.835999999999999</v>
+        <v>81.638000000000005</v>
       </c>
       <c r="O40" s="56">
         <f>'RAW GRADES'!CT42</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P40" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -28958,8 +29082,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29201,15 +29325,15 @@
       </c>
       <c r="D22" s="68">
         <f>'DEPT CHAIR'!O8</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" s="69" t="str">
         <f>IF(D22&lt;=3,"3","0")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="70" t="str">
         <f>'DEPT CHAIR'!P8</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18">
@@ -29226,15 +29350,15 @@
       </c>
       <c r="D23" s="68">
         <f>'DEPT CHAIR'!O9</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" s="69" t="str">
         <f t="shared" ref="E23:E54" si="0">IF(D23&lt;=3,"3","0")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="70" t="str">
         <f>'DEPT CHAIR'!P9</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18">
@@ -29251,15 +29375,15 @@
       </c>
       <c r="D24" s="68">
         <f>'DEPT CHAIR'!O10</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E24" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="70" t="str">
         <f>'DEPT CHAIR'!P10</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18">
@@ -29276,15 +29400,15 @@
       </c>
       <c r="D25" s="68">
         <f>'DEPT CHAIR'!O11</f>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="E25" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="70" t="str">
         <f>'DEPT CHAIR'!P11</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18">
@@ -29301,15 +29425,15 @@
       </c>
       <c r="D26" s="68">
         <f>'DEPT CHAIR'!O12</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="70" t="str">
         <f>'DEPT CHAIR'!P12</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18">
@@ -29351,15 +29475,15 @@
       </c>
       <c r="D28" s="68">
         <f>'DEPT CHAIR'!O14</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28" s="70" t="str">
         <f>'DEPT CHAIR'!P14</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18">
@@ -29372,19 +29496,19 @@
       </c>
       <c r="C29" s="67" t="str">
         <f>REGISTRATION!B18</f>
-        <v>201501-17</v>
+        <v>201501-260</v>
       </c>
       <c r="D29" s="68">
         <f>'DEPT CHAIR'!O15</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E29" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" s="70" t="str">
         <f>'DEPT CHAIR'!P15</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18">
@@ -29401,15 +29525,15 @@
       </c>
       <c r="D30" s="68">
         <f>'DEPT CHAIR'!O16</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30" s="70" t="str">
         <f>'DEPT CHAIR'!P16</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18">
@@ -29426,15 +29550,15 @@
       </c>
       <c r="D31" s="68">
         <f>'DEPT CHAIR'!O17</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E31" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="70" t="str">
         <f>'DEPT CHAIR'!P17</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18">
@@ -29451,15 +29575,15 @@
       </c>
       <c r="D32" s="68">
         <f>'DEPT CHAIR'!O18</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E32" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" s="70" t="str">
         <f>'DEPT CHAIR'!P18</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18">
@@ -29476,15 +29600,15 @@
       </c>
       <c r="D33" s="68">
         <f>'DEPT CHAIR'!O19</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="E33" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33" s="70" t="str">
         <f>'DEPT CHAIR'!P19</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18">
@@ -29501,15 +29625,15 @@
       </c>
       <c r="D34" s="68">
         <f>'DEPT CHAIR'!O20</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E34" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="70" t="str">
         <f>'DEPT CHAIR'!P20</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18">
@@ -29526,15 +29650,15 @@
       </c>
       <c r="D35" s="68">
         <f>'DEPT CHAIR'!O21</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E35" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35" s="70" t="str">
         <f>'DEPT CHAIR'!P21</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18">
@@ -29572,11 +29696,11 @@
       </c>
       <c r="C37" s="67" t="str">
         <f>REGISTRATION!B26</f>
-        <v>201501-153</v>
+        <v>201501-253</v>
       </c>
       <c r="D37" s="68">
         <f>'DEPT CHAIR'!O23</f>
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="E37" s="69" t="str">
         <f t="shared" si="0"/>
@@ -29601,7 +29725,7 @@
       </c>
       <c r="D38" s="68">
         <f>'DEPT CHAIR'!O24</f>
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="E38" s="69" t="str">
         <f t="shared" si="0"/>
@@ -29626,15 +29750,15 @@
       </c>
       <c r="D39" s="68">
         <f>'DEPT CHAIR'!O25</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E39" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39" s="70" t="str">
         <f>'DEPT CHAIR'!P25</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18">
@@ -29651,7 +29775,7 @@
       </c>
       <c r="D40" s="68">
         <f>'DEPT CHAIR'!O26</f>
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="E40" s="69" t="str">
         <f t="shared" si="0"/>
@@ -29676,15 +29800,15 @@
       </c>
       <c r="D41" s="68">
         <f>'DEPT CHAIR'!O27</f>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="E41" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" s="70" t="str">
         <f>'DEPT CHAIR'!P27</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18">
@@ -29701,15 +29825,15 @@
       </c>
       <c r="D42" s="68">
         <f>'DEPT CHAIR'!O28</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E42" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42" s="70" t="str">
         <f>'DEPT CHAIR'!P28</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18">
@@ -29726,15 +29850,15 @@
       </c>
       <c r="D43" s="68">
         <f>'DEPT CHAIR'!O29</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="E43" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F43" s="70" t="str">
         <f>'DEPT CHAIR'!P29</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18">
@@ -29776,15 +29900,15 @@
       </c>
       <c r="D45" s="68">
         <f>'DEPT CHAIR'!O31</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E45" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" s="70" t="str">
         <f>'DEPT CHAIR'!P31</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18">
@@ -29801,15 +29925,15 @@
       </c>
       <c r="D46" s="68">
         <f>'DEPT CHAIR'!O32</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E46" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F46" s="70" t="str">
         <f>'DEPT CHAIR'!P32</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18">
@@ -29826,7 +29950,7 @@
       </c>
       <c r="D47" s="68">
         <f>'DEPT CHAIR'!O33</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E47" s="69" t="str">
         <f t="shared" si="0"/>
@@ -29851,15 +29975,15 @@
       </c>
       <c r="D48" s="68">
         <f>'DEPT CHAIR'!O34</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E48" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48" s="70" t="str">
         <f>'DEPT CHAIR'!P34</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18">
@@ -29876,15 +30000,15 @@
       </c>
       <c r="D49" s="68">
         <f>'DEPT CHAIR'!O35</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="E49" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F49" s="70" t="str">
         <f>'DEPT CHAIR'!P35</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18">
@@ -29901,15 +30025,15 @@
       </c>
       <c r="D50" s="68">
         <f>'DEPT CHAIR'!O36</f>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="E50" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F50" s="70" t="str">
         <f>'DEPT CHAIR'!P36</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18">
@@ -29926,15 +30050,15 @@
       </c>
       <c r="D51" s="68">
         <f>'DEPT CHAIR'!O37</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E51" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F51" s="70" t="str">
         <f>'DEPT CHAIR'!P37</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18">
@@ -29951,15 +30075,15 @@
       </c>
       <c r="D52" s="68">
         <f>'DEPT CHAIR'!O38</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="E52" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52" s="70" t="str">
         <f>'DEPT CHAIR'!P38</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18">
@@ -29976,15 +30100,15 @@
       </c>
       <c r="D53" s="68">
         <f>'DEPT CHAIR'!O39</f>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="E53" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F53" s="70" t="str">
         <f>'DEPT CHAIR'!P39</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18.75" thickBot="1">
@@ -30001,15 +30125,15 @@
       </c>
       <c r="D54" s="68">
         <f>'DEPT CHAIR'!O40</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E54" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F54" s="70" t="str">
         <f>'DEPT CHAIR'!P40</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="19.5" thickBot="1">
@@ -30055,7 +30179,7 @@
       <c r="D59" s="60"/>
       <c r="E59" s="243">
         <f ca="1">NOW()</f>
-        <v>43077.513166203702</v>
+        <v>43080.330528935185</v>
       </c>
       <c r="F59" s="243"/>
     </row>
@@ -30241,12 +30365,12 @@
       </c>
       <c r="C80" s="258">
         <f>COUNTIF($D$22:$D$54,"=1.0")+COUNTIF($D$22:$D$54,"=1.25")+(COUNTIF($D$22:$D$54,"=1.50")+COUNTIF($D$22:$D$54,"=1.75"))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D80" s="259"/>
       <c r="E80" s="260">
         <f>(C80/$C$86)*100</f>
-        <v>0</v>
+        <v>24.242424242424242</v>
       </c>
       <c r="F80" s="261"/>
     </row>
@@ -30257,12 +30381,12 @@
       </c>
       <c r="C81" s="252">
         <f>COUNTIF($D$22:$D$54,"=2.0")+COUNTIF($D$22:$D$54,"=2.25")+(COUNTIF($D$22:$D$54,"=2.50")+COUNTIF($D$22:$D$54,"=2.75"))</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D81" s="253"/>
       <c r="E81" s="254">
         <f>(C81/$C$86)*100</f>
-        <v>9.0909090909090917</v>
+        <v>60.606060606060609</v>
       </c>
       <c r="F81" s="255"/>
     </row>
@@ -30273,12 +30397,12 @@
       </c>
       <c r="C82" s="252">
         <f>COUNTIF($D$22:$D$54,"=3.0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" s="253"/>
       <c r="E82" s="254">
         <f t="shared" ref="E82:E85" si="1">(C82/$C$86)*100</f>
-        <v>9.0909090909090917</v>
+        <v>12.121212121212121</v>
       </c>
       <c r="F82" s="255"/>
     </row>
@@ -30289,12 +30413,12 @@
       </c>
       <c r="C83" s="252">
         <f>COUNTIF($D$22:$D$54,"=5.0")</f>
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D83" s="253"/>
       <c r="E83" s="254">
         <f t="shared" si="1"/>
-        <v>81.818181818181827</v>
+        <v>3.0303030303030303</v>
       </c>
       <c r="F83" s="255"/>
     </row>
@@ -30340,7 +30464,7 @@
       <c r="D86" s="246"/>
       <c r="E86" s="247">
         <f>SUM(E80:F85)</f>
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="F86" s="248"/>
     </row>
@@ -30554,7 +30678,7 @@
     <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F54">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30887,7 +31011,7 @@
       </c>
       <c r="B11" s="105" t="str">
         <f>'SEMESTRAL GRADE'!C29</f>
-        <v>201501-17</v>
+        <v>201501-260</v>
       </c>
       <c r="C11" s="107" t="str">
         <f>'SEMESTRAL GRADE'!B29</f>
@@ -31111,7 +31235,7 @@
       </c>
       <c r="B19" s="105" t="str">
         <f>'SEMESTRAL GRADE'!C37</f>
-        <v>201501-153</v>
+        <v>201501-253</v>
       </c>
       <c r="C19" s="107" t="str">
         <f>'SEMESTRAL GRADE'!B37</f>
@@ -31768,7 +31892,7 @@
     <row r="1" spans="1:2">
       <c r="A1" s="98">
         <f>'RAW GRADES'!CS10</f>
-        <v>66.536000000000001</v>
+        <v>86.188000000000002</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>177</v>
@@ -31777,7 +31901,7 @@
     <row r="2" spans="1:2">
       <c r="A2" s="98">
         <f>'RAW GRADES'!CS11</f>
-        <v>56.62</v>
+        <v>72.667999999999992</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>181</v>
@@ -31786,7 +31910,7 @@
     <row r="3" spans="1:2">
       <c r="A3" s="98">
         <f>'RAW GRADES'!CS12</f>
-        <v>65.52000000000001</v>
+        <v>83.164000000000001</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>185</v>
@@ -31795,7 +31919,7 @@
     <row r="4" spans="1:2">
       <c r="A4" s="98">
         <f>'RAW GRADES'!CS13</f>
-        <v>67.358000000000004</v>
+        <v>87.259999999999991</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>189</v>
@@ -31804,7 +31928,7 @@
     <row r="5" spans="1:2">
       <c r="A5" s="98">
         <f>'RAW GRADES'!CS14</f>
-        <v>68.165999999999997</v>
+        <v>85.367999999999995</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>193</v>
@@ -31822,7 +31946,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="98">
         <f>'RAW GRADES'!CS16</f>
-        <v>65.046000000000006</v>
+        <v>83.646000000000001</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>201</v>
@@ -31831,64 +31955,64 @@
     <row r="8" spans="1:2">
       <c r="A8" s="98">
         <f>'RAW GRADES'!CS17</f>
-        <v>63.017999999999994</v>
+        <v>80.22</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="98">
         <f>'RAW GRADES'!CS18</f>
-        <v>57.967999999999996</v>
+        <v>71.066000000000003</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="98">
         <f>'RAW GRADES'!CS19</f>
-        <v>63.414000000000001</v>
+        <v>81.668000000000006</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="98">
         <f>'RAW GRADES'!CS20</f>
-        <v>63.254000000000005</v>
+        <v>79.504000000000005</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="98">
         <f>'RAW GRADES'!CS21</f>
-        <v>62.866</v>
+        <v>76.066000000000003</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="98">
         <f>'RAW GRADES'!CS22</f>
-        <v>60.578000000000003</v>
+        <v>78.426000000000002</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="98">
         <f>'RAW GRADES'!CS23</f>
-        <v>62.036000000000001</v>
+        <v>78.536000000000001</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -31897,70 +32021,70 @@
         <v>11.028</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="98">
         <f>'RAW GRADES'!CS25</f>
-        <v>80.254000000000005</v>
+        <v>91.954000000000008</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="98">
         <f>'RAW GRADES'!CS26</f>
-        <v>82.908000000000001</v>
+        <v>94.307999999999993</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="98">
         <f>'RAW GRADES'!CS27</f>
-        <v>64.825999999999993</v>
+        <v>83.277999999999992</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="98">
         <f>'RAW GRADES'!CS28</f>
-        <v>82.866</v>
+        <v>94.717999999999989</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="98">
         <f>'RAW GRADES'!CS29</f>
-        <v>68.146000000000001</v>
+        <v>88.143999999999991</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="98">
         <f>'RAW GRADES'!CS30</f>
-        <v>64.936000000000007</v>
+        <v>84.436000000000007</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="98">
         <f>'RAW GRADES'!CS31</f>
-        <v>56.904000000000003</v>
+        <v>75.504000000000005</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -31969,317 +32093,317 @@
         <v>70.486000000000004</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="98">
         <f>'RAW GRADES'!CS33</f>
-        <v>63.637999999999998</v>
+        <v>83.240000000000009</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="98">
         <f>'RAW GRADES'!CS34</f>
-        <v>60.015999999999998</v>
+        <v>78.616</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="98">
         <f>'RAW GRADES'!CS35</f>
-        <v>70.873999999999995</v>
+        <v>92.421999999999997</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="98">
         <f>'RAW GRADES'!CS36</f>
-        <v>62.326000000000001</v>
+        <v>81.52600000000001</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="98">
         <f>'RAW GRADES'!CS37</f>
-        <v>59.429999999999993</v>
+        <v>75.98599999999999</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="98">
         <f>'RAW GRADES'!CS38</f>
-        <v>68.902000000000001</v>
+        <v>89.256</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="98">
         <f>'RAW GRADES'!CS39</f>
-        <v>65.807999999999993</v>
+        <v>85.41</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="98">
         <f>'RAW GRADES'!CS40</f>
-        <v>58.067999999999998</v>
+        <v>73.76400000000001</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="98">
         <f>'RAW GRADES'!CS41</f>
-        <v>69.731999999999999</v>
+        <v>89.277999999999992</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="98">
         <f>'RAW GRADES'!CS42</f>
-        <v>63.835999999999999</v>
+        <v>81.638000000000005</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B17:B33">
-    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B33">
-    <cfRule type="cellIs" dxfId="43" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="43" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B21">
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B21">
-    <cfRule type="cellIs" dxfId="41" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B28">
-    <cfRule type="cellIs" dxfId="40" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="40" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B28">
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B28">
-    <cfRule type="cellIs" dxfId="38" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B28">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B27">
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B27">
-    <cfRule type="cellIs" dxfId="35" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B21">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B21">
-    <cfRule type="cellIs" dxfId="33" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27">
-    <cfRule type="cellIs" dxfId="32" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27">
-    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27">
-    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B27">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B27">
-    <cfRule type="cellIs" dxfId="25" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B21">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B21">
-    <cfRule type="cellIs" dxfId="23" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27">
-    <cfRule type="cellIs" dxfId="22" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27">
-    <cfRule type="cellIs" dxfId="20" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27">
-    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B33">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B33">
-    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B7">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B7">
-    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B33">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B33">
-    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B7">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B7">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DCIT 65 - CS 3A/LEC AND LAB - CS 3A.xlsx
+++ b/DCIT 65 - CS 3A/LEC AND LAB - CS 3A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -865,9 +865,6 @@
     <t>Paul Cedrick</t>
   </si>
   <si>
-    <t>201501-800</t>
-  </si>
-  <si>
     <t>Quimado</t>
   </si>
   <si>
@@ -968,6 +965,9 @@
   </si>
   <si>
     <t>201501-253</t>
+  </si>
+  <si>
+    <t>201501-820</t>
   </si>
 </sst>
 </file>
@@ -2355,37 +2355,99 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2425,104 +2487,137 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2563,101 +2658,6 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2716,102 +2716,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2885,6 +2789,102 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4848,7 +4848,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4859,8 +4859,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4881,82 +4881,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="154"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="121" t="s">
+      <c r="A6" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="158"/>
+      <c r="C6" s="159" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="122" t="s">
+      <c r="D6" s="159"/>
+      <c r="E6" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="122"/>
+      <c r="F6" s="160"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -4964,28 +4964,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="123" t="s">
+      <c r="J6" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="123"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="126"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="127"/>
+      <c r="F7" s="165"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -4993,28 +4993,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="127" t="s">
+      <c r="J7" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="127"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="130"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E8" s="131" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="131"/>
+      <c r="F8" s="147"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -5022,45 +5022,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="131" t="s">
+      <c r="J8" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="131"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="138" t="s">
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="138" t="s">
+      <c r="G9" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141" t="s">
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="142"/>
-      <c r="L9" s="141" t="s">
+      <c r="K9" s="138"/>
+      <c r="L9" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="142"/>
+      <c r="M9" s="138"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="134"/>
-      <c r="B10" s="136"/>
+      <c r="A10" s="150"/>
+      <c r="B10" s="152"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -5070,14 +5070,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -5098,19 +5098,19 @@
       <c r="F11" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="148"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="150"/>
-      <c r="O11" s="161" t="s">
+      <c r="G11" s="140"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="142"/>
+      <c r="O11" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="163"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="131"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -5131,21 +5131,21 @@
       <c r="F12" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="159" t="s">
+      <c r="P12" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="159"/>
-      <c r="R12" s="159"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -5166,21 +5166,21 @@
       <c r="F13" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="159" t="s">
+      <c r="P13" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="Q13" s="159"/>
-      <c r="R13" s="159"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="124"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -5201,21 +5201,21 @@
       <c r="F14" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="147"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="156" t="s">
+      <c r="P14" s="121" t="s">
         <v>163</v>
       </c>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="123"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -5236,21 +5236,21 @@
       <c r="F15" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="147"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="156" t="s">
+      <c r="P15" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="158"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="123"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -5271,21 +5271,21 @@
       <c r="F16" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="147"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="164" t="s">
+      <c r="P16" s="132" t="s">
         <v>167</v>
       </c>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="166"/>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="134"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -5306,28 +5306,28 @@
       <c r="F17" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="156" t="s">
+      <c r="P17" s="121" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="158"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
         <v>8</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>204</v>
@@ -5341,13 +5341,13 @@
       <c r="F18" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="147"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -5368,13 +5368,13 @@
       <c r="F19" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="127"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -5395,13 +5395,13 @@
       <c r="F20" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="127"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -5422,13 +5422,13 @@
       <c r="F21" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="147"/>
-      <c r="M21" s="147"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="127"/>
       <c r="P21" s="94" t="s">
         <v>143</v>
       </c>
@@ -5450,13 +5450,13 @@
         <v>169</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="127"/>
+      <c r="M22" s="127"/>
       <c r="P22" s="95">
         <v>0</v>
       </c>
@@ -5483,13 +5483,13 @@
       <c r="F23" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="127"/>
       <c r="P23" s="96">
         <v>70</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>225</v>
@@ -5516,13 +5516,13 @@
       <c r="F24" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="127"/>
       <c r="P24" s="96">
         <v>73.34</v>
       </c>
@@ -5535,13 +5535,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C25" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>171</v>
@@ -5549,13 +5549,13 @@
       <c r="F25" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="147"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="127"/>
       <c r="P25" s="96">
         <v>76.680000000000007</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C26" s="84" t="s">
         <v>227</v>
@@ -5582,13 +5582,13 @@
       <c r="F26" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="147"/>
-      <c r="M26" s="147"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="127"/>
       <c r="P26" s="96">
         <v>80.02</v>
       </c>
@@ -5615,13 +5615,13 @@
       <c r="F27" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="147"/>
-      <c r="M27" s="147"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="127"/>
       <c r="P27" s="96">
         <v>83.36</v>
       </c>
@@ -5648,13 +5648,13 @@
       <c r="F28" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="127"/>
       <c r="P28" s="96">
         <v>86.7</v>
       </c>
@@ -5681,13 +5681,13 @@
       <c r="F29" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="127"/>
       <c r="P29" s="96">
         <v>90.04</v>
       </c>
@@ -5714,13 +5714,13 @@
       <c r="F30" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="147"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="127"/>
       <c r="P30" s="96">
         <v>93.38</v>
       </c>
@@ -5747,13 +5747,13 @@
       <c r="F31" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="147"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="127"/>
       <c r="P31" s="95"/>
       <c r="Q31" s="95"/>
     </row>
@@ -5776,13 +5776,13 @@
       <c r="F32" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="127"/>
       <c r="P32" s="95">
         <v>96.72</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>248</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>249</v>
@@ -5809,13 +5809,13 @@
       <c r="F33" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="127"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -5836,13 +5836,13 @@
       <c r="F34" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="147"/>
-      <c r="M34" s="147"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="135"/>
+      <c r="K34" s="136"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="127"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -5863,13 +5863,13 @@
       <c r="F35" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="147"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="127"/>
+      <c r="M35" s="127"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -5890,53 +5890,53 @@
       <c r="F36" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="147"/>
-      <c r="M36" s="147"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="136"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="127"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
         <v>27</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="D37" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="E37" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>262</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="153"/>
-      <c r="L37" s="147"/>
-      <c r="M37" s="147"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="127"/>
+      <c r="M37" s="127"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
         <v>28</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="D38" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>265</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>170</v>
@@ -5944,26 +5944,26 @@
       <c r="F38" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="153"/>
-      <c r="K38" s="153"/>
-      <c r="L38" s="147"/>
-      <c r="M38" s="147"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="126"/>
+      <c r="K38" s="126"/>
+      <c r="L38" s="127"/>
+      <c r="M38" s="127"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
         <v>29</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="D39" s="15" t="s">
         <v>267</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>268</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>191</v>
@@ -5971,26 +5971,26 @@
       <c r="F39" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="153"/>
-      <c r="K39" s="153"/>
-      <c r="L39" s="147"/>
-      <c r="M39" s="147"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="126"/>
+      <c r="K39" s="126"/>
+      <c r="L39" s="127"/>
+      <c r="M39" s="127"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
         <v>30</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="D40" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>271</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>224</v>
@@ -5998,80 +5998,80 @@
       <c r="F40" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="153"/>
-      <c r="K40" s="153"/>
-      <c r="L40" s="147"/>
-      <c r="M40" s="147"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="126"/>
+      <c r="K40" s="126"/>
+      <c r="L40" s="127"/>
+      <c r="M40" s="127"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
         <v>31</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C41" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="E41" s="15" t="s">
         <v>273</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>274</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="153"/>
-      <c r="L41" s="147"/>
-      <c r="M41" s="147"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="126"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="127"/>
+      <c r="M41" s="127"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
         <v>32</v>
       </c>
       <c r="B42" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="D42" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="E42" s="15" t="s">
         <v>277</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>278</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="153"/>
-      <c r="K42" s="153"/>
-      <c r="L42" s="147"/>
-      <c r="M42" s="147"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="127"/>
+      <c r="M42" s="127"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
         <v>33</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="D43" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>281</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>171</v>
@@ -6079,13 +6079,13 @@
       <c r="F43" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G43" s="144"/>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="153"/>
-      <c r="K43" s="153"/>
-      <c r="L43" s="147"/>
-      <c r="M43" s="147"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="127"/>
+      <c r="M43" s="127"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -6096,13 +6096,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="144"/>
-      <c r="H44" s="144"/>
-      <c r="I44" s="144"/>
-      <c r="J44" s="153"/>
-      <c r="K44" s="153"/>
-      <c r="L44" s="147"/>
-      <c r="M44" s="147"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="126"/>
+      <c r="K44" s="126"/>
+      <c r="L44" s="127"/>
+      <c r="M44" s="127"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -6113,13 +6113,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="153"/>
-      <c r="K45" s="153"/>
-      <c r="L45" s="147"/>
-      <c r="M45" s="147"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="126"/>
+      <c r="L45" s="127"/>
+      <c r="M45" s="127"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -6130,13 +6130,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="144"/>
-      <c r="J46" s="153"/>
-      <c r="K46" s="153"/>
-      <c r="L46" s="147"/>
-      <c r="M46" s="147"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="126"/>
+      <c r="L46" s="127"/>
+      <c r="M46" s="127"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -6147,13 +6147,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
-      <c r="J47" s="153"/>
-      <c r="K47" s="153"/>
-      <c r="L47" s="147"/>
-      <c r="M47" s="147"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="126"/>
+      <c r="K47" s="126"/>
+      <c r="L47" s="127"/>
+      <c r="M47" s="127"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -6164,13 +6164,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="153"/>
-      <c r="K48" s="153"/>
-      <c r="L48" s="147"/>
-      <c r="M48" s="147"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="126"/>
+      <c r="K48" s="126"/>
+      <c r="L48" s="127"/>
+      <c r="M48" s="127"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -6181,13 +6181,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="144"/>
-      <c r="I49" s="144"/>
-      <c r="J49" s="153"/>
-      <c r="K49" s="153"/>
-      <c r="L49" s="147"/>
-      <c r="M49" s="147"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="126"/>
+      <c r="K49" s="126"/>
+      <c r="L49" s="127"/>
+      <c r="M49" s="127"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -6198,13 +6198,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="153"/>
-      <c r="K50" s="153"/>
-      <c r="L50" s="147"/>
-      <c r="M50" s="147"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="126"/>
+      <c r="K50" s="126"/>
+      <c r="L50" s="127"/>
+      <c r="M50" s="127"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -6215,13 +6215,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="144"/>
-      <c r="H51" s="144"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="153"/>
-      <c r="K51" s="153"/>
-      <c r="L51" s="147"/>
-      <c r="M51" s="147"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="126"/>
+      <c r="K51" s="126"/>
+      <c r="L51" s="127"/>
+      <c r="M51" s="127"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -6232,13 +6232,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="144"/>
-      <c r="I52" s="144"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="153"/>
-      <c r="L52" s="147"/>
-      <c r="M52" s="147"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="126"/>
+      <c r="K52" s="126"/>
+      <c r="L52" s="127"/>
+      <c r="M52" s="127"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -6249,13 +6249,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="144"/>
-      <c r="I53" s="144"/>
-      <c r="J53" s="153"/>
-      <c r="K53" s="153"/>
-      <c r="L53" s="147"/>
-      <c r="M53" s="147"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="126"/>
+      <c r="K53" s="126"/>
+      <c r="L53" s="127"/>
+      <c r="M53" s="127"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -6266,13 +6266,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="144"/>
-      <c r="H54" s="144"/>
-      <c r="I54" s="144"/>
-      <c r="J54" s="153"/>
-      <c r="K54" s="153"/>
-      <c r="L54" s="147"/>
-      <c r="M54" s="147"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
+      <c r="J54" s="126"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="127"/>
+      <c r="M54" s="127"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -6283,13 +6283,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="144"/>
-      <c r="H55" s="144"/>
-      <c r="I55" s="144"/>
-      <c r="J55" s="153"/>
-      <c r="K55" s="153"/>
-      <c r="L55" s="147"/>
-      <c r="M55" s="147"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="126"/>
+      <c r="K55" s="126"/>
+      <c r="L55" s="127"/>
+      <c r="M55" s="127"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -6300,13 +6300,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="144"/>
-      <c r="H56" s="144"/>
-      <c r="I56" s="144"/>
-      <c r="J56" s="153"/>
-      <c r="K56" s="153"/>
-      <c r="L56" s="147"/>
-      <c r="M56" s="147"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="126"/>
+      <c r="L56" s="127"/>
+      <c r="M56" s="127"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -6317,13 +6317,13 @@
       <c r="D57" s="84"/>
       <c r="E57" s="84"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="144"/>
-      <c r="I57" s="144"/>
-      <c r="J57" s="153"/>
-      <c r="K57" s="153"/>
-      <c r="L57" s="147"/>
-      <c r="M57" s="147"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="126"/>
+      <c r="K57" s="126"/>
+      <c r="L57" s="127"/>
+      <c r="M57" s="127"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -6334,13 +6334,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="144"/>
-      <c r="H58" s="144"/>
-      <c r="I58" s="144"/>
-      <c r="J58" s="153"/>
-      <c r="K58" s="153"/>
-      <c r="L58" s="147"/>
-      <c r="M58" s="147"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
+      <c r="J58" s="126"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="127"/>
+      <c r="M58" s="127"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -6351,13 +6351,13 @@
       <c r="D59" s="84"/>
       <c r="E59" s="84"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="144"/>
-      <c r="H59" s="144"/>
-      <c r="I59" s="144"/>
-      <c r="J59" s="153"/>
-      <c r="K59" s="153"/>
-      <c r="L59" s="147"/>
-      <c r="M59" s="147"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="125"/>
+      <c r="I59" s="125"/>
+      <c r="J59" s="126"/>
+      <c r="K59" s="126"/>
+      <c r="L59" s="127"/>
+      <c r="M59" s="127"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -6368,13 +6368,13 @@
       <c r="D60" s="84"/>
       <c r="E60" s="84"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="144"/>
-      <c r="H60" s="144"/>
-      <c r="I60" s="144"/>
-      <c r="J60" s="153"/>
-      <c r="K60" s="153"/>
-      <c r="L60" s="147"/>
-      <c r="M60" s="147"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="127"/>
+      <c r="M60" s="127"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -6385,13 +6385,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="144"/>
-      <c r="H61" s="144"/>
-      <c r="I61" s="144"/>
-      <c r="J61" s="153"/>
-      <c r="K61" s="153"/>
-      <c r="L61" s="147"/>
-      <c r="M61" s="147"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
+      <c r="J61" s="126"/>
+      <c r="K61" s="126"/>
+      <c r="L61" s="127"/>
+      <c r="M61" s="127"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -6402,13 +6402,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="144"/>
-      <c r="H62" s="144"/>
-      <c r="I62" s="144"/>
-      <c r="J62" s="153"/>
-      <c r="K62" s="153"/>
-      <c r="L62" s="147"/>
-      <c r="M62" s="147"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="126"/>
+      <c r="K62" s="126"/>
+      <c r="L62" s="127"/>
+      <c r="M62" s="127"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -6419,13 +6419,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="144"/>
-      <c r="H63" s="144"/>
-      <c r="I63" s="144"/>
-      <c r="J63" s="153"/>
-      <c r="K63" s="153"/>
-      <c r="L63" s="147"/>
-      <c r="M63" s="147"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="125"/>
+      <c r="J63" s="126"/>
+      <c r="K63" s="126"/>
+      <c r="L63" s="127"/>
+      <c r="M63" s="127"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -6436,13 +6436,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="144"/>
-      <c r="H64" s="144"/>
-      <c r="I64" s="144"/>
-      <c r="J64" s="153"/>
-      <c r="K64" s="153"/>
-      <c r="L64" s="147"/>
-      <c r="M64" s="147"/>
+      <c r="G64" s="125"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="125"/>
+      <c r="J64" s="126"/>
+      <c r="K64" s="126"/>
+      <c r="L64" s="127"/>
+      <c r="M64" s="127"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -6453,13 +6453,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="144"/>
-      <c r="H65" s="144"/>
-      <c r="I65" s="144"/>
-      <c r="J65" s="153"/>
-      <c r="K65" s="153"/>
-      <c r="L65" s="147"/>
-      <c r="M65" s="147"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="125"/>
+      <c r="J65" s="126"/>
+      <c r="K65" s="126"/>
+      <c r="L65" s="127"/>
+      <c r="M65" s="127"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -6470,13 +6470,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="144"/>
-      <c r="H66" s="144"/>
-      <c r="I66" s="144"/>
-      <c r="J66" s="153"/>
-      <c r="K66" s="153"/>
-      <c r="L66" s="147"/>
-      <c r="M66" s="147"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="125"/>
+      <c r="I66" s="125"/>
+      <c r="J66" s="126"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="127"/>
+      <c r="M66" s="127"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -6487,13 +6487,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="84"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="144"/>
-      <c r="H67" s="144"/>
-      <c r="I67" s="144"/>
-      <c r="J67" s="153"/>
-      <c r="K67" s="153"/>
-      <c r="L67" s="147"/>
-      <c r="M67" s="147"/>
+      <c r="G67" s="125"/>
+      <c r="H67" s="125"/>
+      <c r="I67" s="125"/>
+      <c r="J67" s="126"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="127"/>
+      <c r="M67" s="127"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -6504,13 +6504,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="144"/>
-      <c r="H68" s="144"/>
-      <c r="I68" s="144"/>
-      <c r="J68" s="153"/>
-      <c r="K68" s="153"/>
-      <c r="L68" s="147"/>
-      <c r="M68" s="147"/>
+      <c r="G68" s="125"/>
+      <c r="H68" s="125"/>
+      <c r="I68" s="125"/>
+      <c r="J68" s="126"/>
+      <c r="K68" s="126"/>
+      <c r="L68" s="127"/>
+      <c r="M68" s="127"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -6521,13 +6521,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="144"/>
-      <c r="H69" s="144"/>
-      <c r="I69" s="144"/>
-      <c r="J69" s="153"/>
-      <c r="K69" s="153"/>
-      <c r="L69" s="147"/>
-      <c r="M69" s="147"/>
+      <c r="G69" s="125"/>
+      <c r="H69" s="125"/>
+      <c r="I69" s="125"/>
+      <c r="J69" s="126"/>
+      <c r="K69" s="126"/>
+      <c r="L69" s="127"/>
+      <c r="M69" s="127"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -6538,13 +6538,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="144"/>
-      <c r="H70" s="144"/>
-      <c r="I70" s="144"/>
-      <c r="J70" s="153"/>
-      <c r="K70" s="153"/>
-      <c r="L70" s="147"/>
-      <c r="M70" s="147"/>
+      <c r="G70" s="125"/>
+      <c r="H70" s="125"/>
+      <c r="I70" s="125"/>
+      <c r="J70" s="126"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="127"/>
+      <c r="M70" s="127"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -6555,13 +6555,13 @@
       <c r="D71" s="84"/>
       <c r="E71" s="84"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="144"/>
-      <c r="H71" s="144"/>
-      <c r="I71" s="144"/>
-      <c r="J71" s="153"/>
-      <c r="K71" s="153"/>
-      <c r="L71" s="147"/>
-      <c r="M71" s="147"/>
+      <c r="G71" s="125"/>
+      <c r="H71" s="125"/>
+      <c r="I71" s="125"/>
+      <c r="J71" s="126"/>
+      <c r="K71" s="126"/>
+      <c r="L71" s="127"/>
+      <c r="M71" s="127"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -6569,6 +6569,195 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -6593,195 +6782,6 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:B71">
     <cfRule type="cellIs" dxfId="154" priority="115" stopIfTrue="1" operator="equal">
@@ -7342,9 +7342,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D21" sqref="D21"/>
+      <selection pane="topRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7358,452 +7358,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="160"/>
-      <c r="AH2" s="160"/>
-      <c r="AI2" s="160"/>
-      <c r="AJ2" s="160"/>
-      <c r="AK2" s="160"/>
-      <c r="AL2" s="160"/>
-      <c r="AM2" s="160"/>
-      <c r="AN2" s="160"/>
-      <c r="AO2" s="160"/>
-      <c r="AP2" s="160"/>
-      <c r="AQ2" s="160"/>
-      <c r="AR2" s="160"/>
-      <c r="AS2" s="160"/>
-      <c r="AT2" s="160"/>
-      <c r="AU2" s="160"/>
-      <c r="AV2" s="160"/>
-      <c r="AW2" s="160"/>
-      <c r="AX2" s="160"/>
-      <c r="AY2" s="160"/>
-      <c r="AZ2" s="160"/>
-      <c r="BA2" s="160"/>
-      <c r="BB2" s="160"/>
-      <c r="BC2" s="160"/>
-      <c r="BD2" s="160"/>
-      <c r="BE2" s="160"/>
-      <c r="BF2" s="160"/>
-      <c r="BG2" s="160"/>
-      <c r="BH2" s="160"/>
-      <c r="BI2" s="160"/>
-      <c r="BJ2" s="160"/>
-      <c r="BK2" s="160"/>
-      <c r="BL2" s="160"/>
-      <c r="BM2" s="160"/>
-      <c r="BN2" s="160"/>
-      <c r="BO2" s="160"/>
-      <c r="BP2" s="160"/>
-      <c r="BQ2" s="160"/>
-      <c r="BR2" s="160"/>
-      <c r="BS2" s="160"/>
-      <c r="BT2" s="160"/>
-      <c r="BU2" s="160"/>
-      <c r="BV2" s="160"/>
-      <c r="BW2" s="160"/>
-      <c r="BX2" s="160"/>
-      <c r="BY2" s="160"/>
-      <c r="BZ2" s="160"/>
-      <c r="CA2" s="160"/>
-      <c r="CB2" s="160"/>
-      <c r="CC2" s="160"/>
-      <c r="CD2" s="160"/>
-      <c r="CE2" s="160"/>
-      <c r="CF2" s="160"/>
-      <c r="CG2" s="160"/>
-      <c r="CH2" s="160"/>
-      <c r="CI2" s="160"/>
-      <c r="CJ2" s="160"/>
-      <c r="CK2" s="160"/>
-      <c r="CL2" s="160"/>
-      <c r="CM2" s="160"/>
-      <c r="CN2" s="160"/>
-      <c r="CO2" s="160"/>
-      <c r="CP2" s="160"/>
-      <c r="CQ2" s="160"/>
-      <c r="CR2" s="160"/>
-      <c r="CS2" s="160"/>
-      <c r="CT2" s="160"/>
-      <c r="CU2" s="160"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="128"/>
+      <c r="AS2" s="128"/>
+      <c r="AT2" s="128"/>
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="128"/>
+      <c r="AX2" s="128"/>
+      <c r="AY2" s="128"/>
+      <c r="AZ2" s="128"/>
+      <c r="BA2" s="128"/>
+      <c r="BB2" s="128"/>
+      <c r="BC2" s="128"/>
+      <c r="BD2" s="128"/>
+      <c r="BE2" s="128"/>
+      <c r="BF2" s="128"/>
+      <c r="BG2" s="128"/>
+      <c r="BH2" s="128"/>
+      <c r="BI2" s="128"/>
+      <c r="BJ2" s="128"/>
+      <c r="BK2" s="128"/>
+      <c r="BL2" s="128"/>
+      <c r="BM2" s="128"/>
+      <c r="BN2" s="128"/>
+      <c r="BO2" s="128"/>
+      <c r="BP2" s="128"/>
+      <c r="BQ2" s="128"/>
+      <c r="BR2" s="128"/>
+      <c r="BS2" s="128"/>
+      <c r="BT2" s="128"/>
+      <c r="BU2" s="128"/>
+      <c r="BV2" s="128"/>
+      <c r="BW2" s="128"/>
+      <c r="BX2" s="128"/>
+      <c r="BY2" s="128"/>
+      <c r="BZ2" s="128"/>
+      <c r="CA2" s="128"/>
+      <c r="CB2" s="128"/>
+      <c r="CC2" s="128"/>
+      <c r="CD2" s="128"/>
+      <c r="CE2" s="128"/>
+      <c r="CF2" s="128"/>
+      <c r="CG2" s="128"/>
+      <c r="CH2" s="128"/>
+      <c r="CI2" s="128"/>
+      <c r="CJ2" s="128"/>
+      <c r="CK2" s="128"/>
+      <c r="CL2" s="128"/>
+      <c r="CM2" s="128"/>
+      <c r="CN2" s="128"/>
+      <c r="CO2" s="128"/>
+      <c r="CP2" s="128"/>
+      <c r="CQ2" s="128"/>
+      <c r="CR2" s="128"/>
+      <c r="CS2" s="128"/>
+      <c r="CT2" s="128"/>
+      <c r="CU2" s="128"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="160"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="160"/>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="160"/>
-      <c r="AJ3" s="160"/>
-      <c r="AK3" s="160"/>
-      <c r="AL3" s="160"/>
-      <c r="AM3" s="160"/>
-      <c r="AN3" s="160"/>
-      <c r="AO3" s="160"/>
-      <c r="AP3" s="160"/>
-      <c r="AQ3" s="160"/>
-      <c r="AR3" s="160"/>
-      <c r="AS3" s="160"/>
-      <c r="AT3" s="160"/>
-      <c r="AU3" s="160"/>
-      <c r="AV3" s="160"/>
-      <c r="AW3" s="160"/>
-      <c r="AX3" s="160"/>
-      <c r="AY3" s="160"/>
-      <c r="AZ3" s="160"/>
-      <c r="BA3" s="160"/>
-      <c r="BB3" s="160"/>
-      <c r="BC3" s="160"/>
-      <c r="BD3" s="160"/>
-      <c r="BE3" s="160"/>
-      <c r="BF3" s="160"/>
-      <c r="BG3" s="160"/>
-      <c r="BH3" s="160"/>
-      <c r="BI3" s="160"/>
-      <c r="BJ3" s="160"/>
-      <c r="BK3" s="160"/>
-      <c r="BL3" s="160"/>
-      <c r="BM3" s="160"/>
-      <c r="BN3" s="160"/>
-      <c r="BO3" s="160"/>
-      <c r="BP3" s="160"/>
-      <c r="BQ3" s="160"/>
-      <c r="BR3" s="160"/>
-      <c r="BS3" s="160"/>
-      <c r="BT3" s="160"/>
-      <c r="BU3" s="160"/>
-      <c r="BV3" s="160"/>
-      <c r="BW3" s="160"/>
-      <c r="BX3" s="160"/>
-      <c r="BY3" s="160"/>
-      <c r="BZ3" s="160"/>
-      <c r="CA3" s="160"/>
-      <c r="CB3" s="160"/>
-      <c r="CC3" s="160"/>
-      <c r="CD3" s="160"/>
-      <c r="CE3" s="160"/>
-      <c r="CF3" s="160"/>
-      <c r="CG3" s="160"/>
-      <c r="CH3" s="160"/>
-      <c r="CI3" s="160"/>
-      <c r="CJ3" s="160"/>
-      <c r="CK3" s="160"/>
-      <c r="CL3" s="160"/>
-      <c r="CM3" s="160"/>
-      <c r="CN3" s="160"/>
-      <c r="CO3" s="160"/>
-      <c r="CP3" s="160"/>
-      <c r="CQ3" s="160"/>
-      <c r="CR3" s="160"/>
-      <c r="CS3" s="160"/>
-      <c r="CT3" s="160"/>
-      <c r="CU3" s="160"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="128"/>
+      <c r="AL3" s="128"/>
+      <c r="AM3" s="128"/>
+      <c r="AN3" s="128"/>
+      <c r="AO3" s="128"/>
+      <c r="AP3" s="128"/>
+      <c r="AQ3" s="128"/>
+      <c r="AR3" s="128"/>
+      <c r="AS3" s="128"/>
+      <c r="AT3" s="128"/>
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="128"/>
+      <c r="BC3" s="128"/>
+      <c r="BD3" s="128"/>
+      <c r="BE3" s="128"/>
+      <c r="BF3" s="128"/>
+      <c r="BG3" s="128"/>
+      <c r="BH3" s="128"/>
+      <c r="BI3" s="128"/>
+      <c r="BJ3" s="128"/>
+      <c r="BK3" s="128"/>
+      <c r="BL3" s="128"/>
+      <c r="BM3" s="128"/>
+      <c r="BN3" s="128"/>
+      <c r="BO3" s="128"/>
+      <c r="BP3" s="128"/>
+      <c r="BQ3" s="128"/>
+      <c r="BR3" s="128"/>
+      <c r="BS3" s="128"/>
+      <c r="BT3" s="128"/>
+      <c r="BU3" s="128"/>
+      <c r="BV3" s="128"/>
+      <c r="BW3" s="128"/>
+      <c r="BX3" s="128"/>
+      <c r="BY3" s="128"/>
+      <c r="BZ3" s="128"/>
+      <c r="CA3" s="128"/>
+      <c r="CB3" s="128"/>
+      <c r="CC3" s="128"/>
+      <c r="CD3" s="128"/>
+      <c r="CE3" s="128"/>
+      <c r="CF3" s="128"/>
+      <c r="CG3" s="128"/>
+      <c r="CH3" s="128"/>
+      <c r="CI3" s="128"/>
+      <c r="CJ3" s="128"/>
+      <c r="CK3" s="128"/>
+      <c r="CL3" s="128"/>
+      <c r="CM3" s="128"/>
+      <c r="CN3" s="128"/>
+      <c r="CO3" s="128"/>
+      <c r="CP3" s="128"/>
+      <c r="CQ3" s="128"/>
+      <c r="CR3" s="128"/>
+      <c r="CS3" s="128"/>
+      <c r="CT3" s="128"/>
+      <c r="CU3" s="128"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="172" t="s">
+      <c r="D5" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="173"/>
-      <c r="U5" s="173"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="173"/>
-      <c r="Z5" s="173"/>
-      <c r="AA5" s="173"/>
-      <c r="AB5" s="173"/>
-      <c r="AC5" s="173"/>
-      <c r="AD5" s="173"/>
-      <c r="AE5" s="173"/>
-      <c r="AF5" s="173"/>
-      <c r="AG5" s="173"/>
-      <c r="AH5" s="173"/>
-      <c r="AI5" s="173"/>
-      <c r="AJ5" s="173"/>
-      <c r="AK5" s="173"/>
-      <c r="AL5" s="173"/>
-      <c r="AM5" s="173"/>
-      <c r="AN5" s="173"/>
-      <c r="AO5" s="173"/>
-      <c r="AP5" s="173"/>
-      <c r="AQ5" s="173"/>
-      <c r="AR5" s="173"/>
-      <c r="AS5" s="173"/>
-      <c r="AT5" s="173"/>
-      <c r="AU5" s="173"/>
-      <c r="AV5" s="173"/>
-      <c r="AW5" s="173"/>
-      <c r="AX5" s="173"/>
-      <c r="AY5" s="173"/>
-      <c r="AZ5" s="173"/>
-      <c r="BA5" s="173"/>
-      <c r="BB5" s="173"/>
-      <c r="BC5" s="173"/>
-      <c r="BD5" s="174"/>
-      <c r="BE5" s="175" t="s">
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="200"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="200"/>
+      <c r="R5" s="200"/>
+      <c r="S5" s="200"/>
+      <c r="T5" s="200"/>
+      <c r="U5" s="200"/>
+      <c r="V5" s="200"/>
+      <c r="W5" s="200"/>
+      <c r="X5" s="200"/>
+      <c r="Y5" s="200"/>
+      <c r="Z5" s="200"/>
+      <c r="AA5" s="200"/>
+      <c r="AB5" s="200"/>
+      <c r="AC5" s="200"/>
+      <c r="AD5" s="200"/>
+      <c r="AE5" s="200"/>
+      <c r="AF5" s="200"/>
+      <c r="AG5" s="200"/>
+      <c r="AH5" s="200"/>
+      <c r="AI5" s="200"/>
+      <c r="AJ5" s="200"/>
+      <c r="AK5" s="200"/>
+      <c r="AL5" s="200"/>
+      <c r="AM5" s="200"/>
+      <c r="AN5" s="200"/>
+      <c r="AO5" s="200"/>
+      <c r="AP5" s="200"/>
+      <c r="AQ5" s="200"/>
+      <c r="AR5" s="200"/>
+      <c r="AS5" s="200"/>
+      <c r="AT5" s="200"/>
+      <c r="AU5" s="200"/>
+      <c r="AV5" s="200"/>
+      <c r="AW5" s="200"/>
+      <c r="AX5" s="200"/>
+      <c r="AY5" s="200"/>
+      <c r="AZ5" s="200"/>
+      <c r="BA5" s="200"/>
+      <c r="BB5" s="200"/>
+      <c r="BC5" s="200"/>
+      <c r="BD5" s="201"/>
+      <c r="BE5" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="176"/>
-      <c r="BG5" s="176"/>
-      <c r="BH5" s="176"/>
-      <c r="BI5" s="176"/>
-      <c r="BJ5" s="176"/>
-      <c r="BK5" s="176"/>
-      <c r="BL5" s="176"/>
-      <c r="BM5" s="176"/>
-      <c r="BN5" s="176"/>
-      <c r="BO5" s="176"/>
-      <c r="BP5" s="176"/>
-      <c r="BQ5" s="176"/>
-      <c r="BR5" s="176"/>
-      <c r="BS5" s="176"/>
-      <c r="BT5" s="176"/>
-      <c r="BU5" s="176"/>
-      <c r="BV5" s="176"/>
-      <c r="BW5" s="176"/>
-      <c r="BX5" s="176"/>
-      <c r="BY5" s="176"/>
-      <c r="BZ5" s="176"/>
-      <c r="CA5" s="176"/>
-      <c r="CB5" s="176"/>
-      <c r="CC5" s="176"/>
-      <c r="CD5" s="176"/>
-      <c r="CE5" s="176"/>
-      <c r="CF5" s="176"/>
-      <c r="CG5" s="176"/>
-      <c r="CH5" s="176"/>
-      <c r="CI5" s="176"/>
-      <c r="CJ5" s="176"/>
-      <c r="CK5" s="176"/>
-      <c r="CL5" s="176"/>
-      <c r="CM5" s="176"/>
-      <c r="CN5" s="176"/>
-      <c r="CO5" s="176"/>
-      <c r="CP5" s="176"/>
-      <c r="CQ5" s="176"/>
-      <c r="CR5" s="177"/>
-      <c r="CS5" s="182" t="s">
+      <c r="BF5" s="203"/>
+      <c r="BG5" s="203"/>
+      <c r="BH5" s="203"/>
+      <c r="BI5" s="203"/>
+      <c r="BJ5" s="203"/>
+      <c r="BK5" s="203"/>
+      <c r="BL5" s="203"/>
+      <c r="BM5" s="203"/>
+      <c r="BN5" s="203"/>
+      <c r="BO5" s="203"/>
+      <c r="BP5" s="203"/>
+      <c r="BQ5" s="203"/>
+      <c r="BR5" s="203"/>
+      <c r="BS5" s="203"/>
+      <c r="BT5" s="203"/>
+      <c r="BU5" s="203"/>
+      <c r="BV5" s="203"/>
+      <c r="BW5" s="203"/>
+      <c r="BX5" s="203"/>
+      <c r="BY5" s="203"/>
+      <c r="BZ5" s="203"/>
+      <c r="CA5" s="203"/>
+      <c r="CB5" s="203"/>
+      <c r="CC5" s="203"/>
+      <c r="CD5" s="203"/>
+      <c r="CE5" s="203"/>
+      <c r="CF5" s="203"/>
+      <c r="CG5" s="203"/>
+      <c r="CH5" s="203"/>
+      <c r="CI5" s="203"/>
+      <c r="CJ5" s="203"/>
+      <c r="CK5" s="203"/>
+      <c r="CL5" s="203"/>
+      <c r="CM5" s="203"/>
+      <c r="CN5" s="203"/>
+      <c r="CO5" s="203"/>
+      <c r="CP5" s="203"/>
+      <c r="CQ5" s="203"/>
+      <c r="CR5" s="204"/>
+      <c r="CS5" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="183"/>
-      <c r="CU5" s="184"/>
+      <c r="CT5" s="192"/>
+      <c r="CU5" s="193"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="169"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="204" t="s">
+      <c r="A6" s="196"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="205"/>
-      <c r="I6" s="205"/>
-      <c r="J6" s="188" t="s">
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="175" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="188"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="188"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="188"/>
-      <c r="S6" s="188"/>
-      <c r="T6" s="188"/>
-      <c r="U6" s="188"/>
-      <c r="V6" s="188"/>
-      <c r="W6" s="188"/>
-      <c r="X6" s="188"/>
-      <c r="Y6" s="188"/>
-      <c r="Z6" s="188"/>
-      <c r="AA6" s="188"/>
-      <c r="AB6" s="188"/>
-      <c r="AC6" s="188"/>
-      <c r="AD6" s="188"/>
-      <c r="AE6" s="188"/>
-      <c r="AF6" s="188"/>
-      <c r="AG6" s="188"/>
-      <c r="AH6" s="188"/>
-      <c r="AI6" s="188"/>
-      <c r="AJ6" s="188"/>
-      <c r="AK6" s="188"/>
-      <c r="AL6" s="188"/>
-      <c r="AM6" s="188"/>
-      <c r="AN6" s="188"/>
-      <c r="AO6" s="188" t="s">
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="175"/>
+      <c r="R6" s="175"/>
+      <c r="S6" s="175"/>
+      <c r="T6" s="175"/>
+      <c r="U6" s="175"/>
+      <c r="V6" s="175"/>
+      <c r="W6" s="175"/>
+      <c r="X6" s="175"/>
+      <c r="Y6" s="175"/>
+      <c r="Z6" s="175"/>
+      <c r="AA6" s="175"/>
+      <c r="AB6" s="175"/>
+      <c r="AC6" s="175"/>
+      <c r="AD6" s="175"/>
+      <c r="AE6" s="175"/>
+      <c r="AF6" s="175"/>
+      <c r="AG6" s="175"/>
+      <c r="AH6" s="175"/>
+      <c r="AI6" s="175"/>
+      <c r="AJ6" s="175"/>
+      <c r="AK6" s="175"/>
+      <c r="AL6" s="175"/>
+      <c r="AM6" s="175"/>
+      <c r="AN6" s="175"/>
+      <c r="AO6" s="175" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="188"/>
-      <c r="AQ6" s="188"/>
-      <c r="AR6" s="188"/>
-      <c r="AS6" s="188" t="s">
+      <c r="AP6" s="175"/>
+      <c r="AQ6" s="175"/>
+      <c r="AR6" s="175"/>
+      <c r="AS6" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="188"/>
-      <c r="AU6" s="188"/>
-      <c r="AV6" s="188" t="s">
+      <c r="AT6" s="175"/>
+      <c r="AU6" s="175"/>
+      <c r="AV6" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="188"/>
-      <c r="AX6" s="188"/>
-      <c r="AY6" s="188"/>
-      <c r="AZ6" s="188"/>
-      <c r="BA6" s="188"/>
-      <c r="BB6" s="188"/>
-      <c r="BC6" s="192" t="s">
+      <c r="AW6" s="175"/>
+      <c r="AX6" s="175"/>
+      <c r="AY6" s="175"/>
+      <c r="AZ6" s="175"/>
+      <c r="BA6" s="175"/>
+      <c r="BB6" s="175"/>
+      <c r="BC6" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="193"/>
-      <c r="BE6" s="194" t="s">
+      <c r="BD6" s="185"/>
+      <c r="BE6" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="195"/>
-      <c r="BG6" s="195"/>
-      <c r="BH6" s="195"/>
-      <c r="BI6" s="195"/>
-      <c r="BJ6" s="195"/>
-      <c r="BK6" s="196"/>
-      <c r="BL6" s="197" t="s">
+      <c r="BF6" s="187"/>
+      <c r="BG6" s="187"/>
+      <c r="BH6" s="187"/>
+      <c r="BI6" s="187"/>
+      <c r="BJ6" s="187"/>
+      <c r="BK6" s="188"/>
+      <c r="BL6" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="195"/>
-      <c r="BN6" s="195"/>
-      <c r="BO6" s="195"/>
-      <c r="BP6" s="195"/>
-      <c r="BQ6" s="195"/>
-      <c r="BR6" s="195"/>
-      <c r="BS6" s="195"/>
-      <c r="BT6" s="195"/>
-      <c r="BU6" s="195"/>
-      <c r="BV6" s="195"/>
-      <c r="BW6" s="195"/>
-      <c r="BX6" s="195"/>
-      <c r="BY6" s="195"/>
-      <c r="BZ6" s="195"/>
-      <c r="CA6" s="195"/>
-      <c r="CB6" s="195"/>
-      <c r="CC6" s="195"/>
-      <c r="CD6" s="195"/>
-      <c r="CE6" s="195"/>
-      <c r="CF6" s="195"/>
-      <c r="CG6" s="195"/>
-      <c r="CH6" s="195"/>
-      <c r="CI6" s="195"/>
-      <c r="CJ6" s="195"/>
-      <c r="CK6" s="195"/>
-      <c r="CL6" s="195"/>
-      <c r="CM6" s="195"/>
-      <c r="CN6" s="195"/>
-      <c r="CO6" s="195"/>
-      <c r="CP6" s="195"/>
-      <c r="CQ6" s="185" t="s">
+      <c r="BM6" s="187"/>
+      <c r="BN6" s="187"/>
+      <c r="BO6" s="187"/>
+      <c r="BP6" s="187"/>
+      <c r="BQ6" s="187"/>
+      <c r="BR6" s="187"/>
+      <c r="BS6" s="187"/>
+      <c r="BT6" s="187"/>
+      <c r="BU6" s="187"/>
+      <c r="BV6" s="187"/>
+      <c r="BW6" s="187"/>
+      <c r="BX6" s="187"/>
+      <c r="BY6" s="187"/>
+      <c r="BZ6" s="187"/>
+      <c r="CA6" s="187"/>
+      <c r="CB6" s="187"/>
+      <c r="CC6" s="187"/>
+      <c r="CD6" s="187"/>
+      <c r="CE6" s="187"/>
+      <c r="CF6" s="187"/>
+      <c r="CG6" s="187"/>
+      <c r="CH6" s="187"/>
+      <c r="CI6" s="187"/>
+      <c r="CJ6" s="187"/>
+      <c r="CK6" s="187"/>
+      <c r="CL6" s="187"/>
+      <c r="CM6" s="187"/>
+      <c r="CN6" s="187"/>
+      <c r="CO6" s="187"/>
+      <c r="CP6" s="187"/>
+      <c r="CQ6" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="185"/>
-      <c r="CS6" s="167" t="s">
+      <c r="CR6" s="194"/>
+      <c r="CS6" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="167" t="s">
+      <c r="CT6" s="190" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="189" t="s">
+      <c r="CU6" s="181" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
       <c r="E7" s="118"/>
       <c r="F7" s="117">
         <v>0.3</v>
@@ -7812,353 +7812,353 @@
       <c r="I7" s="118">
         <v>0.3</v>
       </c>
-      <c r="J7" s="180">
+      <c r="J7" s="174">
         <v>42980</v>
       </c>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180">
+      <c r="K7" s="174"/>
+      <c r="L7" s="174">
         <v>43035</v>
       </c>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180">
+      <c r="M7" s="174"/>
+      <c r="N7" s="174">
         <v>43056</v>
       </c>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="181">
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="180">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>3</v>
       </c>
-      <c r="U7" s="181"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="180"/>
-      <c r="Z7" s="180"/>
-      <c r="AA7" s="180"/>
-      <c r="AB7" s="180"/>
-      <c r="AC7" s="180"/>
-      <c r="AD7" s="180"/>
-      <c r="AE7" s="180"/>
-      <c r="AF7" s="180"/>
-      <c r="AG7" s="180"/>
-      <c r="AH7" s="180"/>
-      <c r="AI7" s="180"/>
-      <c r="AJ7" s="180"/>
-      <c r="AK7" s="180"/>
-      <c r="AL7" s="180"/>
-      <c r="AM7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="174"/>
+      <c r="W7" s="174"/>
+      <c r="X7" s="174"/>
+      <c r="Y7" s="174"/>
+      <c r="Z7" s="174"/>
+      <c r="AA7" s="174"/>
+      <c r="AB7" s="174"/>
+      <c r="AC7" s="174"/>
+      <c r="AD7" s="174"/>
+      <c r="AE7" s="174"/>
+      <c r="AF7" s="174"/>
+      <c r="AG7" s="174"/>
+      <c r="AH7" s="174"/>
+      <c r="AI7" s="174"/>
+      <c r="AJ7" s="174"/>
+      <c r="AK7" s="174"/>
+      <c r="AL7" s="174"/>
+      <c r="AM7" s="174"/>
       <c r="AN7" s="91">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="180" t="s">
-        <v>288</v>
-      </c>
-      <c r="AP7" s="180"/>
-      <c r="AQ7" s="180"/>
-      <c r="AR7" s="180"/>
-      <c r="AS7" s="181">
+      <c r="AO7" s="174" t="s">
+        <v>287</v>
+      </c>
+      <c r="AP7" s="174"/>
+      <c r="AQ7" s="174"/>
+      <c r="AR7" s="174"/>
+      <c r="AS7" s="180">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="181"/>
+      <c r="AT7" s="180"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="180" t="s">
+      <c r="AV7" s="174" t="s">
         <v>175</v>
       </c>
-      <c r="AW7" s="180"/>
-      <c r="AX7" s="180"/>
-      <c r="AY7" s="180"/>
-      <c r="AZ7" s="181">
+      <c r="AW7" s="174"/>
+      <c r="AX7" s="174"/>
+      <c r="AY7" s="174"/>
+      <c r="AZ7" s="180">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="181"/>
+      <c r="BA7" s="180"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="192"/>
-      <c r="BD7" s="193"/>
-      <c r="BE7" s="180" t="s">
+      <c r="BC7" s="184"/>
+      <c r="BD7" s="185"/>
+      <c r="BE7" s="174" t="s">
+        <v>288</v>
+      </c>
+      <c r="BF7" s="174"/>
+      <c r="BG7" s="174" t="s">
         <v>289</v>
       </c>
-      <c r="BF7" s="180"/>
-      <c r="BG7" s="180" t="s">
-        <v>290</v>
-      </c>
-      <c r="BH7" s="180"/>
-      <c r="BI7" s="198">
+      <c r="BH7" s="174"/>
+      <c r="BI7" s="178">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>3</v>
       </c>
-      <c r="BJ7" s="199"/>
+      <c r="BJ7" s="179"/>
       <c r="BK7" s="99">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="180">
+      <c r="BL7" s="174">
         <v>42980</v>
       </c>
-      <c r="BM7" s="180"/>
-      <c r="BN7" s="180">
+      <c r="BM7" s="174"/>
+      <c r="BN7" s="174">
         <v>42987</v>
       </c>
-      <c r="BO7" s="180"/>
-      <c r="BP7" s="180">
+      <c r="BO7" s="174"/>
+      <c r="BP7" s="174">
         <v>42994</v>
       </c>
-      <c r="BQ7" s="180"/>
-      <c r="BR7" s="180">
+      <c r="BQ7" s="174"/>
+      <c r="BR7" s="174">
         <v>43001</v>
       </c>
-      <c r="BS7" s="180"/>
-      <c r="BT7" s="180">
+      <c r="BS7" s="174"/>
+      <c r="BT7" s="174">
         <v>43022</v>
       </c>
-      <c r="BU7" s="180"/>
-      <c r="BV7" s="180">
+      <c r="BU7" s="174"/>
+      <c r="BV7" s="174">
         <v>43029</v>
       </c>
-      <c r="BW7" s="180"/>
-      <c r="BX7" s="180">
+      <c r="BW7" s="174"/>
+      <c r="BX7" s="174">
         <v>43036</v>
       </c>
-      <c r="BY7" s="180"/>
-      <c r="BZ7" s="180">
+      <c r="BY7" s="174"/>
+      <c r="BZ7" s="174">
         <v>43036</v>
       </c>
-      <c r="CA7" s="180"/>
-      <c r="CB7" s="180">
+      <c r="CA7" s="174"/>
+      <c r="CB7" s="174">
         <v>43050</v>
       </c>
-      <c r="CC7" s="180"/>
-      <c r="CD7" s="180">
+      <c r="CC7" s="174"/>
+      <c r="CD7" s="174">
         <v>43057</v>
       </c>
-      <c r="CE7" s="180"/>
-      <c r="CF7" s="180"/>
-      <c r="CG7" s="180"/>
-      <c r="CH7" s="180"/>
-      <c r="CI7" s="180"/>
-      <c r="CJ7" s="180"/>
-      <c r="CK7" s="180"/>
-      <c r="CL7" s="180"/>
-      <c r="CM7" s="180"/>
-      <c r="CN7" s="181">
+      <c r="CE7" s="174"/>
+      <c r="CF7" s="174"/>
+      <c r="CG7" s="174"/>
+      <c r="CH7" s="174"/>
+      <c r="CI7" s="174"/>
+      <c r="CJ7" s="174"/>
+      <c r="CK7" s="174"/>
+      <c r="CL7" s="174"/>
+      <c r="CM7" s="174"/>
+      <c r="CN7" s="180">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>10</v>
       </c>
-      <c r="CO7" s="181"/>
+      <c r="CO7" s="180"/>
       <c r="CP7" s="100">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="185"/>
-      <c r="CR7" s="185"/>
-      <c r="CS7" s="167"/>
-      <c r="CT7" s="167"/>
-      <c r="CU7" s="190"/>
+      <c r="CQ7" s="194"/>
+      <c r="CR7" s="194"/>
+      <c r="CS7" s="190"/>
+      <c r="CT7" s="190"/>
+      <c r="CU7" s="182"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="169"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="178" t="s">
+      <c r="A8" s="196"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="205" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178" t="s">
+      <c r="E8" s="205"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="205" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="179" t="s">
+      <c r="H8" s="205"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179" t="s">
+      <c r="K8" s="167"/>
+      <c r="L8" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179" t="s">
+      <c r="M8" s="167"/>
+      <c r="N8" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="179"/>
-      <c r="P8" s="179" t="s">
+      <c r="O8" s="167"/>
+      <c r="P8" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="179"/>
-      <c r="R8" s="179" t="s">
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="179"/>
-      <c r="T8" s="179" t="s">
+      <c r="S8" s="167"/>
+      <c r="T8" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="179"/>
-      <c r="V8" s="179" t="s">
+      <c r="U8" s="167"/>
+      <c r="V8" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="179"/>
-      <c r="X8" s="179" t="s">
+      <c r="W8" s="167"/>
+      <c r="X8" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="179"/>
-      <c r="Z8" s="179" t="s">
+      <c r="Y8" s="167"/>
+      <c r="Z8" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="179"/>
-      <c r="AB8" s="179" t="s">
+      <c r="AA8" s="167"/>
+      <c r="AB8" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="179"/>
-      <c r="AD8" s="179" t="s">
+      <c r="AC8" s="167"/>
+      <c r="AD8" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="179"/>
-      <c r="AF8" s="179" t="s">
+      <c r="AE8" s="167"/>
+      <c r="AF8" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="179"/>
-      <c r="AH8" s="179" t="s">
+      <c r="AG8" s="167"/>
+      <c r="AH8" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="179"/>
-      <c r="AJ8" s="179" t="s">
+      <c r="AI8" s="167"/>
+      <c r="AJ8" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="179"/>
-      <c r="AL8" s="179" t="s">
+      <c r="AK8" s="167"/>
+      <c r="AL8" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="179"/>
+      <c r="AM8" s="167"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="179" t="s">
+      <c r="AO8" s="167" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="179"/>
-      <c r="AQ8" s="179" t="s">
+      <c r="AP8" s="167"/>
+      <c r="AQ8" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="179"/>
-      <c r="AS8" s="179" t="s">
+      <c r="AR8" s="167"/>
+      <c r="AS8" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="179"/>
+      <c r="AT8" s="167"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="179" t="s">
+      <c r="AV8" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="179"/>
-      <c r="AX8" s="179" t="s">
+      <c r="AW8" s="167"/>
+      <c r="AX8" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="179"/>
-      <c r="AZ8" s="179" t="s">
+      <c r="AY8" s="167"/>
+      <c r="AZ8" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="179"/>
+      <c r="BA8" s="167"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="192"/>
-      <c r="BD8" s="193"/>
-      <c r="BE8" s="203" t="s">
+      <c r="BC8" s="184"/>
+      <c r="BD8" s="185"/>
+      <c r="BE8" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="200"/>
-      <c r="BG8" s="200" t="s">
+      <c r="BF8" s="176"/>
+      <c r="BG8" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="200"/>
-      <c r="BI8" s="200" t="s">
+      <c r="BH8" s="176"/>
+      <c r="BI8" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="200"/>
+      <c r="BJ8" s="176"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="201" t="s">
+      <c r="BL8" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="202"/>
-      <c r="BN8" s="201" t="s">
+      <c r="BM8" s="171"/>
+      <c r="BN8" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="202"/>
-      <c r="BP8" s="201" t="s">
+      <c r="BO8" s="171"/>
+      <c r="BP8" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="202"/>
-      <c r="BR8" s="201" t="s">
+      <c r="BQ8" s="171"/>
+      <c r="BR8" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="202"/>
-      <c r="BT8" s="201" t="s">
+      <c r="BS8" s="171"/>
+      <c r="BT8" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="202"/>
-      <c r="BV8" s="186" t="s">
+      <c r="BU8" s="171"/>
+      <c r="BV8" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="187"/>
-      <c r="BX8" s="186" t="s">
+      <c r="BW8" s="169"/>
+      <c r="BX8" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="187"/>
-      <c r="BZ8" s="186" t="s">
+      <c r="BY8" s="169"/>
+      <c r="BZ8" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="187"/>
-      <c r="CB8" s="186" t="s">
+      <c r="CA8" s="169"/>
+      <c r="CB8" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="187"/>
-      <c r="CD8" s="186" t="s">
+      <c r="CC8" s="169"/>
+      <c r="CD8" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="187"/>
-      <c r="CF8" s="186" t="s">
+      <c r="CE8" s="169"/>
+      <c r="CF8" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="187"/>
-      <c r="CH8" s="186" t="s">
+      <c r="CG8" s="169"/>
+      <c r="CH8" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="187"/>
-      <c r="CJ8" s="186" t="s">
+      <c r="CI8" s="169"/>
+      <c r="CJ8" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="187"/>
-      <c r="CL8" s="186" t="s">
+      <c r="CK8" s="169"/>
+      <c r="CL8" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="187"/>
-      <c r="CN8" s="186" t="s">
+      <c r="CM8" s="169"/>
+      <c r="CN8" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="187"/>
+      <c r="CO8" s="169"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="185"/>
-      <c r="CR8" s="185"/>
-      <c r="CS8" s="167"/>
-      <c r="CT8" s="167"/>
-      <c r="CU8" s="190"/>
+      <c r="CQ8" s="194"/>
+      <c r="CR8" s="194"/>
+      <c r="CS8" s="190"/>
+      <c r="CT8" s="190"/>
+      <c r="CU8" s="182"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="170"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
+      <c r="A9" s="197"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -8350,9 +8350,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="167"/>
-      <c r="CT9" s="167"/>
-      <c r="CU9" s="191"/>
+      <c r="CS9" s="190"/>
+      <c r="CT9" s="190"/>
+      <c r="CU9" s="183"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -11248,15 +11248,15 @@
         <v>Daganio Junelle L.</v>
       </c>
       <c r="D20" s="102">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E20" s="86">
         <f t="shared" si="43"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F20" s="89">
         <f t="shared" si="0"/>
-        <v>10.799999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="G20" s="101">
         <v>65</v>
@@ -11371,11 +11371,11 @@
       </c>
       <c r="BC20" s="92">
         <f t="shared" si="18"/>
-        <v>67.50833333333334</v>
+        <v>68.408333333333331</v>
       </c>
       <c r="BD20" s="92">
         <f t="shared" si="19"/>
-        <v>67.510000000000005</v>
+        <v>68.41</v>
       </c>
       <c r="BE20" s="102">
         <v>84</v>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="CS20" s="98">
         <f t="shared" si="41"/>
-        <v>79.504000000000005</v>
+        <v>79.864000000000004</v>
       </c>
       <c r="CT20" s="98">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12123,15 +12123,15 @@
         <v>6.6</v>
       </c>
       <c r="G23" s="101">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H23" s="86">
         <f t="shared" si="2"/>
-        <v>67.5</v>
+        <v>72.5</v>
       </c>
       <c r="I23" s="89">
         <f t="shared" si="1"/>
-        <v>20.25</v>
+        <v>21.75</v>
       </c>
       <c r="J23" s="102">
         <v>14</v>
@@ -12235,11 +12235,11 @@
       </c>
       <c r="BC23" s="92">
         <f t="shared" si="18"/>
-        <v>59.961111111111116</v>
+        <v>61.461111111111116</v>
       </c>
       <c r="BD23" s="92">
         <f t="shared" si="19"/>
-        <v>59.96</v>
+        <v>61.46</v>
       </c>
       <c r="BE23" s="102">
         <v>84</v>
@@ -12375,7 +12375,7 @@
       </c>
       <c r="CS23" s="98">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>78.536000000000001</v>
+        <v>79.135999999999996</v>
       </c>
       <c r="CT23" s="98">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12684,26 +12684,26 @@
         <v>Gatil Carla Mae V</v>
       </c>
       <c r="D25" s="102">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E25" s="86">
         <f t="shared" si="43"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F25" s="89">
         <f t="shared" si="0"/>
-        <v>23.7</v>
+        <v>25.5</v>
       </c>
       <c r="G25" s="101">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H25" s="86">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>100</v>
       </c>
       <c r="I25" s="89">
         <f t="shared" si="1"/>
-        <v>29.25</v>
+        <v>30</v>
       </c>
       <c r="J25" s="102">
         <v>17</v>
@@ -12807,11 +12807,11 @@
       </c>
       <c r="BC25" s="92">
         <f t="shared" si="18"/>
-        <v>88.394444444444446</v>
+        <v>90.944444444444443</v>
       </c>
       <c r="BD25" s="92">
         <f t="shared" si="19"/>
-        <v>88.39</v>
+        <v>90.94</v>
       </c>
       <c r="BE25" s="102">
         <v>83</v>
@@ -12947,7 +12947,7 @@
       </c>
       <c r="CS25" s="98">
         <f t="shared" si="45"/>
-        <v>91.954000000000008</v>
+        <v>92.97399999999999</v>
       </c>
       <c r="CT25" s="98">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12983,15 +12983,15 @@
         <v>25.8</v>
       </c>
       <c r="G26" s="101">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H26" s="86">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I26" s="89">
         <f t="shared" si="1"/>
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="J26" s="102">
         <v>17</v>
@@ -13001,11 +13001,11 @@
         <v>85</v>
       </c>
       <c r="L26" s="102">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M26" s="86">
         <f t="shared" si="4"/>
-        <v>63.333333333333329</v>
+        <v>80</v>
       </c>
       <c r="N26" s="102">
         <v>12</v>
@@ -13049,7 +13049,7 @@
       <c r="AM26" s="88"/>
       <c r="AN26" s="89">
         <f t="shared" si="9"/>
-        <v>15.222222222222221</v>
+        <v>16.333333333333336</v>
       </c>
       <c r="AO26" s="102">
         <v>100</v>
@@ -13095,11 +13095,11 @@
       </c>
       <c r="BC26" s="92">
         <f t="shared" si="18"/>
-        <v>89.522222222222226</v>
+        <v>92.13333333333334</v>
       </c>
       <c r="BD26" s="92">
         <f t="shared" si="19"/>
-        <v>89.52</v>
+        <v>92.13</v>
       </c>
       <c r="BE26" s="102">
         <v>97</v>
@@ -13235,7 +13235,7 @@
       </c>
       <c r="CS26" s="98">
         <f t="shared" si="45"/>
-        <v>94.307999999999993</v>
+        <v>95.352000000000004</v>
       </c>
       <c r="CT26" s="98">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13548,26 +13548,26 @@
         <v>Hayag Erwin O</v>
       </c>
       <c r="D28" s="102">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E28" s="86">
         <f t="shared" si="43"/>
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F28" s="89">
         <f t="shared" si="0"/>
-        <v>22.2</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="G28" s="101">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" s="86">
         <f t="shared" si="2"/>
-        <v>98.75</v>
+        <v>100</v>
       </c>
       <c r="I28" s="89">
         <f t="shared" si="1"/>
-        <v>29.625</v>
+        <v>30</v>
       </c>
       <c r="J28" s="102">
         <v>17</v>
@@ -13671,11 +13671,11 @@
       </c>
       <c r="BC28" s="92">
         <f t="shared" si="18"/>
-        <v>87.047222222222231</v>
+        <v>94.022222222222226</v>
       </c>
       <c r="BD28" s="92">
         <f t="shared" si="19"/>
-        <v>87.05</v>
+        <v>94.02</v>
       </c>
       <c r="BE28" s="102">
         <v>99</v>
@@ -13811,11 +13811,11 @@
       </c>
       <c r="CS28" s="98">
         <f t="shared" si="45"/>
-        <v>94.717999999999989</v>
+        <v>97.506</v>
       </c>
       <c r="CT28" s="98">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="CU28" s="87" t="str">
         <f t="shared" si="42"/>
@@ -13847,15 +13847,15 @@
         <v>18.599999999999998</v>
       </c>
       <c r="G29" s="101">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H29" s="86">
         <f t="shared" si="2"/>
-        <v>87.5</v>
+        <v>92.5</v>
       </c>
       <c r="I29" s="89">
         <f t="shared" si="1"/>
-        <v>26.25</v>
+        <v>27.75</v>
       </c>
       <c r="J29" s="102">
         <v>16</v>
@@ -13959,11 +13959,11 @@
       </c>
       <c r="BC29" s="92">
         <f t="shared" si="18"/>
-        <v>77.73888888888888</v>
+        <v>79.23888888888888</v>
       </c>
       <c r="BD29" s="92">
         <f t="shared" si="19"/>
-        <v>77.739999999999995</v>
+        <v>79.239999999999995</v>
       </c>
       <c r="BE29" s="102">
         <v>95</v>
@@ -14099,7 +14099,7 @@
       </c>
       <c r="CS29" s="98">
         <f t="shared" si="45"/>
-        <v>88.143999999999991</v>
+        <v>88.744</v>
       </c>
       <c r="CT29" s="98">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15564,26 +15564,26 @@
         <v>Paulme Paul Cedrick D.</v>
       </c>
       <c r="D35" s="102">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" s="86">
         <f t="shared" si="43"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F35" s="89">
         <f t="shared" si="0"/>
-        <v>20.099999999999998</v>
+        <v>20.7</v>
       </c>
       <c r="G35" s="102">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H35" s="86">
         <f t="shared" si="2"/>
-        <v>96.25</v>
+        <v>100</v>
       </c>
       <c r="I35" s="89">
         <f t="shared" si="1"/>
-        <v>28.875</v>
+        <v>30</v>
       </c>
       <c r="J35" s="102">
         <v>18</v>
@@ -15687,11 +15687,11 @@
       </c>
       <c r="BC35" s="92">
         <f t="shared" si="18"/>
-        <v>84.308333333333337</v>
+        <v>86.033333333333346</v>
       </c>
       <c r="BD35" s="92">
         <f t="shared" si="19"/>
-        <v>84.31</v>
+        <v>86.03</v>
       </c>
       <c r="BE35" s="102">
         <v>99</v>
@@ -15827,7 +15827,7 @@
       </c>
       <c r="CS35" s="98">
         <f t="shared" si="45"/>
-        <v>92.421999999999997</v>
+        <v>93.109999999999985</v>
       </c>
       <c r="CT35" s="98">
         <f>IFERROR(VLOOKUP(CS35,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="B36" s="41" t="str">
         <f>REGISTRATION!B37</f>
-        <v>201501-800</v>
+        <v>201501-820</v>
       </c>
       <c r="C36" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C37," ",REGISTRATION!D37," ",REGISTRATION!E37)</f>
@@ -24799,6 +24799,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="CS6:CS9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:CR5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
@@ -24815,88 +24897,6 @@
     <mergeCell ref="BT8:BU8"/>
     <mergeCell ref="BV8:BW8"/>
     <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="CS6:CS9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:CR5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
@@ -25750,7 +25750,7 @@
       </c>
       <c r="C18" s="57">
         <f>'RAW GRADES'!F20</f>
-        <v>10.799999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="D18" s="83">
         <f>'RAW GRADES'!I20</f>
@@ -25770,11 +25770,11 @@
       </c>
       <c r="H18" s="53">
         <f>'RAW GRADES'!BC20</f>
-        <v>67.50833333333334</v>
+        <v>68.408333333333331</v>
       </c>
       <c r="I18" s="53">
         <f>'RAW GRADES'!BD20</f>
-        <v>67.510000000000005</v>
+        <v>68.41</v>
       </c>
       <c r="J18" s="52">
         <f>'RAW GRADES'!BK20</f>
@@ -25794,7 +25794,7 @@
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>79.504000000000005</v>
+        <v>79.864000000000004</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
@@ -25949,7 +25949,7 @@
       </c>
       <c r="D21" s="83">
         <f>'RAW GRADES'!I23</f>
-        <v>20.25</v>
+        <v>21.75</v>
       </c>
       <c r="E21" s="52">
         <f>'RAW GRADES'!AN23</f>
@@ -25965,11 +25965,11 @@
       </c>
       <c r="H21" s="53">
         <f>'RAW GRADES'!BC23</f>
-        <v>59.961111111111116</v>
+        <v>61.461111111111116</v>
       </c>
       <c r="I21" s="53">
         <f>'RAW GRADES'!BD23</f>
-        <v>59.96</v>
+        <v>61.46</v>
       </c>
       <c r="J21" s="52">
         <f>'RAW GRADES'!BK23</f>
@@ -25989,7 +25989,7 @@
       </c>
       <c r="N21" s="58">
         <f>'RAW GRADES'!CS23</f>
-        <v>78.536000000000001</v>
+        <v>79.135999999999996</v>
       </c>
       <c r="O21" s="56">
         <f>'RAW GRADES'!CT23</f>
@@ -26075,11 +26075,11 @@
       </c>
       <c r="C23" s="57">
         <f>'RAW GRADES'!F25</f>
-        <v>23.7</v>
+        <v>25.5</v>
       </c>
       <c r="D23" s="83">
         <f>'RAW GRADES'!I25</f>
-        <v>29.25</v>
+        <v>30</v>
       </c>
       <c r="E23" s="52">
         <f>'RAW GRADES'!AN25</f>
@@ -26095,11 +26095,11 @@
       </c>
       <c r="H23" s="53">
         <f>'RAW GRADES'!BC25</f>
-        <v>88.394444444444446</v>
+        <v>90.944444444444443</v>
       </c>
       <c r="I23" s="53">
         <f>'RAW GRADES'!BD25</f>
-        <v>88.39</v>
+        <v>90.94</v>
       </c>
       <c r="J23" s="52">
         <f>'RAW GRADES'!BK25</f>
@@ -26119,7 +26119,7 @@
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>91.954000000000008</v>
+        <v>92.97399999999999</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
@@ -26144,11 +26144,11 @@
       </c>
       <c r="D24" s="83">
         <f>'RAW GRADES'!I26</f>
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="E24" s="52">
         <f>'RAW GRADES'!AN26</f>
-        <v>15.222222222222221</v>
+        <v>16.333333333333336</v>
       </c>
       <c r="F24" s="52">
         <f>'RAW GRADES'!AU26</f>
@@ -26160,11 +26160,11 @@
       </c>
       <c r="H24" s="53">
         <f>'RAW GRADES'!BC26</f>
-        <v>89.522222222222226</v>
+        <v>92.13333333333334</v>
       </c>
       <c r="I24" s="53">
         <f>'RAW GRADES'!BD26</f>
-        <v>89.52</v>
+        <v>92.13</v>
       </c>
       <c r="J24" s="52">
         <f>'RAW GRADES'!BK26</f>
@@ -26184,7 +26184,7 @@
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>94.307999999999993</v>
+        <v>95.352000000000004</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
@@ -26270,11 +26270,11 @@
       </c>
       <c r="C26" s="57">
         <f>'RAW GRADES'!F28</f>
-        <v>22.2</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="D26" s="83">
         <f>'RAW GRADES'!I28</f>
-        <v>29.625</v>
+        <v>30</v>
       </c>
       <c r="E26" s="52">
         <f>'RAW GRADES'!AN28</f>
@@ -26290,11 +26290,11 @@
       </c>
       <c r="H26" s="53">
         <f>'RAW GRADES'!BC28</f>
-        <v>87.047222222222231</v>
+        <v>94.022222222222226</v>
       </c>
       <c r="I26" s="53">
         <f>'RAW GRADES'!BD28</f>
-        <v>87.05</v>
+        <v>94.02</v>
       </c>
       <c r="J26" s="52">
         <f>'RAW GRADES'!BK28</f>
@@ -26314,11 +26314,11 @@
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>94.717999999999989</v>
+        <v>97.506</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="P26" s="59" t="str">
         <f t="shared" si="0"/>
@@ -26339,7 +26339,7 @@
       </c>
       <c r="D27" s="83">
         <f>'RAW GRADES'!I29</f>
-        <v>26.25</v>
+        <v>27.75</v>
       </c>
       <c r="E27" s="52">
         <f>'RAW GRADES'!AN29</f>
@@ -26355,11 +26355,11 @@
       </c>
       <c r="H27" s="53">
         <f>'RAW GRADES'!BC29</f>
-        <v>77.73888888888888</v>
+        <v>79.23888888888888</v>
       </c>
       <c r="I27" s="53">
         <f>'RAW GRADES'!BD29</f>
-        <v>77.739999999999995</v>
+        <v>79.239999999999995</v>
       </c>
       <c r="J27" s="52">
         <f>'RAW GRADES'!BK29</f>
@@ -26379,7 +26379,7 @@
       </c>
       <c r="N27" s="58">
         <f>'RAW GRADES'!CS29</f>
-        <v>88.143999999999991</v>
+        <v>88.744</v>
       </c>
       <c r="O27" s="56">
         <f>'RAW GRADES'!CT29</f>
@@ -26725,11 +26725,11 @@
       </c>
       <c r="C33" s="57">
         <f>'RAW GRADES'!F35</f>
-        <v>20.099999999999998</v>
+        <v>20.7</v>
       </c>
       <c r="D33" s="83">
         <f>'RAW GRADES'!I35</f>
-        <v>28.875</v>
+        <v>30</v>
       </c>
       <c r="E33" s="52">
         <f>'RAW GRADES'!AN35</f>
@@ -26745,11 +26745,11 @@
       </c>
       <c r="H33" s="53">
         <f>'RAW GRADES'!BC35</f>
-        <v>84.308333333333337</v>
+        <v>86.033333333333346</v>
       </c>
       <c r="I33" s="53">
         <f>'RAW GRADES'!BD35</f>
-        <v>84.31</v>
+        <v>86.03</v>
       </c>
       <c r="J33" s="52">
         <f>'RAW GRADES'!BK35</f>
@@ -26769,7 +26769,7 @@
       </c>
       <c r="N33" s="58">
         <f>'RAW GRADES'!CS35</f>
-        <v>92.421999999999997</v>
+        <v>93.109999999999985</v>
       </c>
       <c r="O33" s="56">
         <f>'RAW GRADES'!CT35</f>
@@ -29083,7 +29083,7 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29111,106 +29111,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="222"/>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
+      <c r="A3" s="253"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="223" t="s">
+      <c r="A4" s="256" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="223"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="223"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="224" t="s">
+      <c r="A5" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="224"/>
-      <c r="C5" s="224"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="224"/>
-      <c r="F5" s="224"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="223" t="s">
+      <c r="A6" s="256" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="223"/>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
+      <c r="B6" s="256"/>
+      <c r="C6" s="256"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="225" t="s">
+      <c r="A7" s="258" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="225"/>
-      <c r="C7" s="225"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
+      <c r="B7" s="258"/>
+      <c r="C7" s="258"/>
+      <c r="D7" s="258"/>
+      <c r="E7" s="258"/>
+      <c r="F7" s="258"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="226"/>
-      <c r="B8" s="226"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="226"/>
+      <c r="A8" s="259"/>
+      <c r="B8" s="259"/>
+      <c r="C8" s="259"/>
+      <c r="D8" s="259"/>
+      <c r="E8" s="259"/>
+      <c r="F8" s="259"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="222"/>
-      <c r="B9" s="222"/>
-      <c r="C9" s="222"/>
-      <c r="D9" s="222"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="222"/>
+      <c r="A9" s="253"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="253"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="227"/>
-      <c r="B10" s="227"/>
-      <c r="C10" s="227"/>
-      <c r="D10" s="227"/>
-      <c r="E10" s="227"/>
-      <c r="F10" s="227"/>
+      <c r="A10" s="260"/>
+      <c r="B10" s="260"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="260"/>
+      <c r="E10" s="260"/>
+      <c r="F10" s="260"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="228" t="s">
+      <c r="A11" s="261" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="228"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
+      <c r="B11" s="261"/>
+      <c r="C11" s="261"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="261"/>
+      <c r="F11" s="261"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="226"/>
-      <c r="B12" s="226"/>
-      <c r="C12" s="226"/>
-      <c r="D12" s="226"/>
-      <c r="E12" s="226"/>
-      <c r="F12" s="226"/>
+      <c r="A12" s="259"/>
+      <c r="B12" s="259"/>
+      <c r="C12" s="259"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="259"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="229" t="str">
+      <c r="C13" s="262" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="229"/>
-      <c r="E13" s="229"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="262"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -29218,12 +29218,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="221" t="str">
+      <c r="C14" s="255" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="221"/>
-      <c r="E14" s="221"/>
+      <c r="D14" s="255"/>
+      <c r="E14" s="255"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -29231,12 +29231,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="232" t="str">
+      <c r="C15" s="241" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="232"/>
-      <c r="E15" s="232"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -29244,12 +29244,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="232" t="str">
+      <c r="C16" s="241" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3A</v>
       </c>
-      <c r="D16" s="232"/>
-      <c r="E16" s="232"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -29257,12 +29257,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="232" t="str">
+      <c r="C17" s="241" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="232"/>
-      <c r="E17" s="232"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -29274,42 +29274,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="233" t="s">
+      <c r="A19" s="242" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="236" t="s">
+      <c r="B19" s="245" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="233" t="s">
+      <c r="C19" s="242" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="233" t="s">
+      <c r="D19" s="242" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="238" t="s">
+      <c r="E19" s="247" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="233" t="s">
+      <c r="F19" s="242" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="234"/>
-      <c r="B20" s="237"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="239"/>
-      <c r="F20" s="241"/>
+      <c r="A20" s="243"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="243"/>
+      <c r="D20" s="243"/>
+      <c r="E20" s="248"/>
+      <c r="F20" s="250"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="235"/>
+      <c r="A21" s="244"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="235"/>
-      <c r="D21" s="235"/>
-      <c r="E21" s="240"/>
-      <c r="F21" s="242"/>
+      <c r="C21" s="244"/>
+      <c r="D21" s="244"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="251"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -29775,7 +29775,7 @@
       </c>
       <c r="D40" s="68">
         <f>'DEPT CHAIR'!O26</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="E40" s="69" t="str">
         <f t="shared" si="0"/>
@@ -29971,7 +29971,7 @@
       </c>
       <c r="C48" s="67" t="str">
         <f>REGISTRATION!B37</f>
-        <v>201501-800</v>
+        <v>201501-820</v>
       </c>
       <c r="D48" s="68">
         <f>'DEPT CHAIR'!O34</f>
@@ -30137,14 +30137,14 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A55" s="249" t="s">
+      <c r="A55" s="225" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="250"/>
-      <c r="C55" s="250"/>
-      <c r="D55" s="250"/>
-      <c r="E55" s="250"/>
-      <c r="F55" s="251"/>
+      <c r="B55" s="226"/>
+      <c r="C55" s="226"/>
+      <c r="D55" s="226"/>
+      <c r="E55" s="226"/>
+      <c r="F55" s="227"/>
     </row>
     <row r="56" spans="1:6" ht="15.75">
       <c r="A56" s="62"/>
@@ -30177,11 +30177,11 @@
       </c>
       <c r="C59" s="60"/>
       <c r="D59" s="60"/>
-      <c r="E59" s="243">
+      <c r="E59" s="252">
         <f ca="1">NOW()</f>
-        <v>43080.330528935185</v>
-      </c>
-      <c r="F59" s="243"/>
+        <v>43080.66135451389</v>
+      </c>
+      <c r="F59" s="252"/>
     </row>
     <row r="60" spans="1:6" ht="15.75">
       <c r="A60" s="60"/>
@@ -30191,10 +30191,10 @@
       </c>
       <c r="C60" s="73"/>
       <c r="D60" s="73"/>
-      <c r="E60" s="222" t="s">
+      <c r="E60" s="253" t="s">
         <v>121</v>
       </c>
-      <c r="F60" s="222"/>
+      <c r="F60" s="253"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="60"/>
@@ -30211,8 +30211,8 @@
       <c r="B62" s="74"/>
       <c r="C62" s="74"/>
       <c r="D62" s="74"/>
-      <c r="E62" s="222"/>
-      <c r="F62" s="222"/>
+      <c r="E62" s="253"/>
+      <c r="F62" s="253"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="60"/>
@@ -30327,14 +30327,14 @@
       <c r="F76" s="60"/>
     </row>
     <row r="77" spans="1:6" ht="15.75">
-      <c r="A77" s="244" t="s">
+      <c r="A77" s="254" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="244"/>
-      <c r="C77" s="244"/>
-      <c r="D77" s="244"/>
-      <c r="E77" s="244"/>
-      <c r="F77" s="244"/>
+      <c r="B77" s="254"/>
+      <c r="C77" s="254"/>
+      <c r="D77" s="254"/>
+      <c r="E77" s="254"/>
+      <c r="F77" s="254"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1">
       <c r="A78" s="60"/>
@@ -30349,124 +30349,124 @@
       <c r="B79" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C79" s="262" t="s">
+      <c r="C79" s="238" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="231"/>
-      <c r="E79" s="230" t="s">
+      <c r="D79" s="239"/>
+      <c r="E79" s="240" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="231"/>
+      <c r="F79" s="239"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="60"/>
       <c r="B80" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="C80" s="258">
+      <c r="C80" s="234">
         <f>COUNTIF($D$22:$D$54,"=1.0")+COUNTIF($D$22:$D$54,"=1.25")+(COUNTIF($D$22:$D$54,"=1.50")+COUNTIF($D$22:$D$54,"=1.75"))</f>
         <v>8</v>
       </c>
-      <c r="D80" s="259"/>
-      <c r="E80" s="260">
+      <c r="D80" s="235"/>
+      <c r="E80" s="236">
         <f>(C80/$C$86)*100</f>
         <v>24.242424242424242</v>
       </c>
-      <c r="F80" s="261"/>
+      <c r="F80" s="237"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="60"/>
       <c r="B81" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C81" s="252">
+      <c r="C81" s="228">
         <f>COUNTIF($D$22:$D$54,"=2.0")+COUNTIF($D$22:$D$54,"=2.25")+(COUNTIF($D$22:$D$54,"=2.50")+COUNTIF($D$22:$D$54,"=2.75"))</f>
         <v>20</v>
       </c>
-      <c r="D81" s="253"/>
-      <c r="E81" s="254">
+      <c r="D81" s="229"/>
+      <c r="E81" s="230">
         <f>(C81/$C$86)*100</f>
         <v>60.606060606060609</v>
       </c>
-      <c r="F81" s="255"/>
+      <c r="F81" s="231"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="60"/>
       <c r="B82" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="C82" s="252">
+      <c r="C82" s="228">
         <f>COUNTIF($D$22:$D$54,"=3.0")</f>
         <v>4</v>
       </c>
-      <c r="D82" s="253"/>
-      <c r="E82" s="254">
+      <c r="D82" s="229"/>
+      <c r="E82" s="230">
         <f t="shared" ref="E82:E85" si="1">(C82/$C$86)*100</f>
         <v>12.121212121212121</v>
       </c>
-      <c r="F82" s="255"/>
+      <c r="F82" s="231"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="60"/>
       <c r="B83" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="252">
+      <c r="C83" s="228">
         <f>COUNTIF($D$22:$D$54,"=5.0")</f>
         <v>1</v>
       </c>
-      <c r="D83" s="253"/>
-      <c r="E83" s="254">
+      <c r="D83" s="229"/>
+      <c r="E83" s="230">
         <f t="shared" si="1"/>
         <v>3.0303030303030303</v>
       </c>
-      <c r="F83" s="255"/>
+      <c r="F83" s="231"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="60"/>
       <c r="B84" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="C84" s="256">
-        <v>0</v>
-      </c>
-      <c r="D84" s="257"/>
-      <c r="E84" s="254">
+      <c r="C84" s="232">
+        <v>0</v>
+      </c>
+      <c r="D84" s="233"/>
+      <c r="E84" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F84" s="255"/>
+      <c r="F84" s="231"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="60"/>
       <c r="B85" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="C85" s="256">
-        <v>0</v>
-      </c>
-      <c r="D85" s="257"/>
-      <c r="E85" s="254">
+      <c r="C85" s="232">
+        <v>0</v>
+      </c>
+      <c r="D85" s="233"/>
+      <c r="E85" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F85" s="255"/>
+      <c r="F85" s="231"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" thickBot="1">
       <c r="A86" s="60"/>
       <c r="B86" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="C86" s="245">
+      <c r="C86" s="221">
         <f>SUM(C80:D85)</f>
         <v>33</v>
       </c>
-      <c r="D86" s="246"/>
-      <c r="E86" s="247">
+      <c r="D86" s="222"/>
+      <c r="E86" s="223">
         <f>SUM(E80:F85)</f>
         <v>100</v>
       </c>
-      <c r="F86" s="248"/>
+      <c r="F86" s="224"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="60"/>
@@ -30634,6 +30634,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="A77:F77"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="A55:F55"/>
@@ -30650,32 +30676,6 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="E82:F82"/>
     <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F54">
     <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
@@ -31543,7 +31543,7 @@
       </c>
       <c r="B30" s="105" t="str">
         <f>'SEMESTRAL GRADE'!C48</f>
-        <v>201501-800</v>
+        <v>201501-820</v>
       </c>
       <c r="C30" s="107" t="str">
         <f>'SEMESTRAL GRADE'!B48</f>
@@ -31982,7 +31982,7 @@
     <row r="11" spans="1:2">
       <c r="A11" s="98">
         <f>'RAW GRADES'!CS20</f>
-        <v>79.504000000000005</v>
+        <v>79.864000000000004</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>215</v>
@@ -32009,7 +32009,7 @@
     <row r="14" spans="1:2">
       <c r="A14" s="98">
         <f>'RAW GRADES'!CS23</f>
-        <v>78.536000000000001</v>
+        <v>79.135999999999996</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>225</v>
@@ -32021,13 +32021,13 @@
         <v>11.028</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="98">
         <f>'RAW GRADES'!CS25</f>
-        <v>91.954000000000008</v>
+        <v>92.97399999999999</v>
       </c>
       <c r="B16" s="84" t="s">
         <v>227</v>
@@ -32036,7 +32036,7 @@
     <row r="17" spans="1:2">
       <c r="A17" s="98">
         <f>'RAW GRADES'!CS26</f>
-        <v>94.307999999999993</v>
+        <v>95.352000000000004</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>230</v>
@@ -32054,7 +32054,7 @@
     <row r="19" spans="1:2">
       <c r="A19" s="98">
         <f>'RAW GRADES'!CS28</f>
-        <v>94.717999999999989</v>
+        <v>97.506</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>236</v>
@@ -32063,7 +32063,7 @@
     <row r="20" spans="1:2">
       <c r="A20" s="98">
         <f>'RAW GRADES'!CS29</f>
-        <v>88.143999999999991</v>
+        <v>88.744</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>239</v>
@@ -32117,7 +32117,7 @@
     <row r="26" spans="1:2">
       <c r="A26" s="98">
         <f>'RAW GRADES'!CS35</f>
-        <v>92.421999999999997</v>
+        <v>93.109999999999985</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>257</v>
@@ -32129,7 +32129,7 @@
         <v>81.52600000000001</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -32138,7 +32138,7 @@
         <v>75.98599999999999</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -32147,7 +32147,7 @@
         <v>89.256</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -32156,7 +32156,7 @@
         <v>85.41</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -32165,7 +32165,7 @@
         <v>73.76400000000001</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -32174,7 +32174,7 @@
         <v>89.277999999999992</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -32183,7 +32183,7 @@
         <v>81.638000000000005</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/DCIT 65 - CS 3A/LEC AND LAB - CS 3A.xlsx
+++ b/DCIT 65 - CS 3A/LEC AND LAB - CS 3A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -428,9 +428,6 @@
   </si>
   <si>
     <t>Curriculum Year:</t>
-  </si>
-  <si>
-    <t>FIRST YEAR</t>
   </si>
   <si>
     <t>Semester/Summer,AY</t>
@@ -968,6 +965,9 @@
   </si>
   <si>
     <t>201501-820</t>
+  </si>
+  <si>
+    <t>THIRD YEAR</t>
   </si>
 </sst>
 </file>
@@ -4859,8 +4859,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
       <c r="A4" s="120" t="s">
-        <v>114</v>
+        <v>293</v>
       </c>
       <c r="B4" s="120"/>
       <c r="C4" s="120"/>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="B6" s="158"/>
       <c r="C6" s="159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="159"/>
       <c r="E6" s="160" t="s">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B7" s="164"/>
       <c r="C7" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -5006,10 +5006,10 @@
       </c>
       <c r="B8" s="146"/>
       <c r="C8" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E8" s="147" t="s">
         <v>10</v>
@@ -5084,19 +5084,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>179</v>
-      </c>
       <c r="F11" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G11" s="140"/>
       <c r="H11" s="141"/>
@@ -5117,19 +5117,19 @@
         <v>2</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="F12" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G12" s="125"/>
       <c r="H12" s="125"/>
@@ -5142,7 +5142,7 @@
         <v>24</v>
       </c>
       <c r="P12" s="124" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="124"/>
       <c r="R12" s="124"/>
@@ -5152,19 +5152,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>187</v>
-      </c>
       <c r="F13" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G13" s="125"/>
       <c r="H13" s="125"/>
@@ -5177,7 +5177,7 @@
         <v>25</v>
       </c>
       <c r="P13" s="124" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="124"/>
       <c r="R13" s="124"/>
@@ -5187,19 +5187,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>191</v>
-      </c>
       <c r="F14" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G14" s="125"/>
       <c r="H14" s="125"/>
@@ -5212,7 +5212,7 @@
         <v>26</v>
       </c>
       <c r="P14" s="121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="122"/>
       <c r="R14" s="123"/>
@@ -5222,19 +5222,19 @@
         <v>5</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="F15" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G15" s="125"/>
       <c r="H15" s="125"/>
@@ -5247,7 +5247,7 @@
         <v>27</v>
       </c>
       <c r="P15" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q15" s="122"/>
       <c r="R15" s="123"/>
@@ -5257,19 +5257,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>199</v>
-      </c>
       <c r="F16" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G16" s="125"/>
       <c r="H16" s="125"/>
@@ -5282,7 +5282,7 @@
         <v>29</v>
       </c>
       <c r="P16" s="132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="133"/>
       <c r="R16" s="134"/>
@@ -5292,19 +5292,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>203</v>
-      </c>
       <c r="F17" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G17" s="125"/>
       <c r="H17" s="125"/>
@@ -5317,7 +5317,7 @@
         <v>28</v>
       </c>
       <c r="P17" s="121" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="122"/>
       <c r="R17" s="123"/>
@@ -5327,19 +5327,19 @@
         <v>8</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>205</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G18" s="125"/>
       <c r="H18" s="125"/>
@@ -5354,19 +5354,19 @@
         <v>9</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="E19" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>209</v>
-      </c>
       <c r="F19" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G19" s="125"/>
       <c r="H19" s="125"/>
@@ -5381,19 +5381,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>213</v>
-      </c>
       <c r="F20" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G20" s="125"/>
       <c r="H20" s="125"/>
@@ -5408,19 +5408,19 @@
         <v>11</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="F21" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G21" s="125"/>
       <c r="H21" s="125"/>
@@ -5430,7 +5430,7 @@
       <c r="L21" s="127"/>
       <c r="M21" s="127"/>
       <c r="P21" s="94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -5438,16 +5438,16 @@
         <v>12</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>220</v>
-      </c>
       <c r="E22" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="125"/>
@@ -5469,19 +5469,19 @@
         <v>13</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="E23" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="F23" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G23" s="125"/>
       <c r="H23" s="125"/>
@@ -5502,19 +5502,19 @@
         <v>14</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>226</v>
-      </c>
       <c r="E24" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G24" s="125"/>
       <c r="H24" s="125"/>
@@ -5535,19 +5535,19 @@
         <v>15</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C25" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>282</v>
-      </c>
       <c r="E25" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G25" s="125"/>
       <c r="H25" s="125"/>
@@ -5568,19 +5568,19 @@
         <v>16</v>
       </c>
       <c r="B26" s="84" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C26" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="E26" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G26" s="125"/>
       <c r="H26" s="125"/>
@@ -5601,19 +5601,19 @@
         <v>17</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="D27" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>231</v>
-      </c>
       <c r="E27" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G27" s="125"/>
       <c r="H27" s="125"/>
@@ -5634,19 +5634,19 @@
         <v>18</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="D28" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>234</v>
-      </c>
       <c r="E28" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G28" s="125"/>
       <c r="H28" s="125"/>
@@ -5667,19 +5667,19 @@
         <v>19</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="D29" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>237</v>
-      </c>
       <c r="E29" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G29" s="125"/>
       <c r="H29" s="125"/>
@@ -5700,19 +5700,19 @@
         <v>20</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="D30" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>240</v>
-      </c>
       <c r="E30" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G30" s="125"/>
       <c r="H30" s="125"/>
@@ -5733,19 +5733,19 @@
         <v>21</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="D31" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="E31" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G31" s="125"/>
       <c r="H31" s="125"/>
@@ -5762,19 +5762,19 @@
         <v>22</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="D32" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="E32" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G32" s="125"/>
       <c r="H32" s="125"/>
@@ -5795,19 +5795,19 @@
         <v>23</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="D33" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>249</v>
-      </c>
       <c r="F33" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G33" s="125"/>
       <c r="H33" s="125"/>
@@ -5822,19 +5822,19 @@
         <v>24</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="D34" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>252</v>
-      </c>
       <c r="E34" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G34" s="125"/>
       <c r="H34" s="125"/>
@@ -5849,19 +5849,19 @@
         <v>25</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="D35" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>255</v>
-      </c>
       <c r="E35" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G35" s="125"/>
       <c r="H35" s="125"/>
@@ -5876,19 +5876,19 @@
         <v>26</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="D36" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>258</v>
-      </c>
       <c r="E36" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G36" s="125"/>
       <c r="H36" s="125"/>
@@ -5903,19 +5903,19 @@
         <v>27</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C37" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="E37" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>261</v>
-      </c>
       <c r="F37" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G37" s="125"/>
       <c r="H37" s="125"/>
@@ -5930,19 +5930,19 @@
         <v>28</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="D38" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>264</v>
-      </c>
       <c r="E38" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G38" s="125"/>
       <c r="H38" s="125"/>
@@ -5957,19 +5957,19 @@
         <v>29</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="D39" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>267</v>
-      </c>
       <c r="E39" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G39" s="125"/>
       <c r="H39" s="125"/>
@@ -5984,19 +5984,19 @@
         <v>30</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="D40" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>270</v>
-      </c>
       <c r="E40" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G40" s="125"/>
       <c r="H40" s="125"/>
@@ -6011,19 +6011,19 @@
         <v>31</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C41" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="E41" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>273</v>
-      </c>
       <c r="F41" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G41" s="125"/>
       <c r="H41" s="125"/>
@@ -6038,19 +6038,19 @@
         <v>32</v>
       </c>
       <c r="B42" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="D42" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="E42" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>277</v>
-      </c>
       <c r="F42" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G42" s="125"/>
       <c r="H42" s="125"/>
@@ -6065,19 +6065,19 @@
         <v>33</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="D43" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>280</v>
-      </c>
       <c r="E43" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G43" s="125"/>
       <c r="H43" s="125"/>
@@ -6564,7 +6564,6 @@
       <c r="M71" s="127"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <sortState ref="B11:E33">
     <sortCondition ref="C11:C33"/>
   </sortState>
@@ -7333,7 +7332,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Input" prompt="Academic Year&#10;(YYYY-YYYY)" sqref="P12:R13"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7342,9 +7341,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D26" sqref="D26"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7688,7 +7687,7 @@
       <c r="H6" s="173"/>
       <c r="I6" s="173"/>
       <c r="J6" s="175" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K6" s="175"/>
       <c r="L6" s="175"/>
@@ -7721,7 +7720,7 @@
       <c r="AM6" s="175"/>
       <c r="AN6" s="175"/>
       <c r="AO6" s="175" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AP6" s="175"/>
       <c r="AQ6" s="175"/>
@@ -7855,7 +7854,7 @@
         <v>0.2</v>
       </c>
       <c r="AO7" s="174" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AP7" s="174"/>
       <c r="AQ7" s="174"/>
@@ -7869,7 +7868,7 @@
         <v>0.1</v>
       </c>
       <c r="AV7" s="174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AW7" s="174"/>
       <c r="AX7" s="174"/>
@@ -7885,11 +7884,11 @@
       <c r="BC7" s="184"/>
       <c r="BD7" s="185"/>
       <c r="BE7" s="174" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BF7" s="174"/>
       <c r="BG7" s="174" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BH7" s="174"/>
       <c r="BI7" s="178">
@@ -7967,12 +7966,12 @@
       <c r="B8" s="198"/>
       <c r="C8" s="198"/>
       <c r="D8" s="205" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="205"/>
       <c r="F8" s="205"/>
       <c r="G8" s="205" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H8" s="205"/>
       <c r="I8" s="205"/>
@@ -10096,15 +10095,15 @@
         <v>Cantal Kristin A.</v>
       </c>
       <c r="D16" s="102">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E16" s="86">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F16" s="89">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>22.2</v>
       </c>
       <c r="G16" s="101">
         <v>66</v>
@@ -10219,11 +10218,11 @@
       </c>
       <c r="BC16" s="92">
         <f t="shared" si="18"/>
-        <v>73.861111111111114</v>
+        <v>81.061111111111117</v>
       </c>
       <c r="BD16" s="92">
         <f t="shared" si="19"/>
-        <v>73.86</v>
+        <v>81.06</v>
       </c>
       <c r="BE16" s="102">
         <v>72</v>
@@ -10359,7 +10358,7 @@
       </c>
       <c r="CS16" s="98">
         <f t="shared" si="41"/>
-        <v>83.646000000000001</v>
+        <v>86.525999999999996</v>
       </c>
       <c r="CT16" s="98">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -17290,26 +17289,26 @@
         <v>Versoza Kenneth H</v>
       </c>
       <c r="D41" s="102">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E41" s="86">
         <f t="shared" si="43"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F41" s="89">
         <f t="shared" si="0"/>
-        <v>19.8</v>
+        <v>22.8</v>
       </c>
       <c r="G41" s="102">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H41" s="86">
         <f t="shared" si="2"/>
-        <v>83.75</v>
+        <v>90</v>
       </c>
       <c r="I41" s="89">
         <f t="shared" si="1"/>
-        <v>25.125</v>
+        <v>27</v>
       </c>
       <c r="J41" s="102">
         <v>16</v>
@@ -17413,11 +17412,11 @@
       </c>
       <c r="BC41" s="92">
         <f t="shared" si="18"/>
-        <v>78.702777777777783</v>
+        <v>83.577777777777783</v>
       </c>
       <c r="BD41" s="92">
         <f t="shared" si="19"/>
-        <v>78.7</v>
+        <v>83.58</v>
       </c>
       <c r="BE41" s="102">
         <v>95</v>
@@ -17553,11 +17552,11 @@
       </c>
       <c r="CS41" s="98">
         <f t="shared" si="45"/>
-        <v>89.277999999999992</v>
+        <v>91.22999999999999</v>
       </c>
       <c r="CT41" s="98">
         <f>IFERROR(VLOOKUP(CS41,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="CU41" s="87" t="str">
         <f t="shared" si="42"/>
@@ -24912,7 +24911,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Grading System" prompt="Number of Quizzes" sqref="AN7"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24921,8 +24920,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:P68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+      <selection sqref="A1:P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25010,7 +25009,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>21</v>
@@ -25490,7 +25489,7 @@
       </c>
       <c r="C14" s="57">
         <f>'RAW GRADES'!F16</f>
-        <v>15</v>
+        <v>22.2</v>
       </c>
       <c r="D14" s="83">
         <f>'RAW GRADES'!I16</f>
@@ -25510,11 +25509,11 @@
       </c>
       <c r="H14" s="53">
         <f>'RAW GRADES'!BC16</f>
-        <v>73.861111111111114</v>
+        <v>81.061111111111117</v>
       </c>
       <c r="I14" s="53">
         <f>'RAW GRADES'!BD16</f>
-        <v>73.86</v>
+        <v>81.06</v>
       </c>
       <c r="J14" s="52">
         <f>'RAW GRADES'!BK16</f>
@@ -25534,7 +25533,7 @@
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>83.646000000000001</v>
+        <v>86.525999999999996</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
@@ -27115,11 +27114,11 @@
       </c>
       <c r="C39" s="57">
         <f>'RAW GRADES'!F41</f>
-        <v>19.8</v>
+        <v>22.8</v>
       </c>
       <c r="D39" s="83">
         <f>'RAW GRADES'!I41</f>
-        <v>25.125</v>
+        <v>27</v>
       </c>
       <c r="E39" s="52">
         <f>'RAW GRADES'!AN41</f>
@@ -27135,11 +27134,11 @@
       </c>
       <c r="H39" s="53">
         <f>'RAW GRADES'!BC41</f>
-        <v>78.702777777777783</v>
+        <v>83.577777777777783</v>
       </c>
       <c r="I39" s="53">
         <f>'RAW GRADES'!BD41</f>
-        <v>78.7</v>
+        <v>83.58</v>
       </c>
       <c r="J39" s="52">
         <f>'RAW GRADES'!BK41</f>
@@ -27159,11 +27158,11 @@
       </c>
       <c r="N39" s="58">
         <f>'RAW GRADES'!CS41</f>
-        <v>89.277999999999992</v>
+        <v>91.22999999999999</v>
       </c>
       <c r="O39" s="56">
         <f>'RAW GRADES'!CT41</f>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="P39" s="59" t="str">
         <f t="shared" si="0"/>
@@ -29074,6 +29073,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="72" orientation="landscape" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29082,8 +29082,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29233,7 +29233,7 @@
       </c>
       <c r="C15" s="241" t="str">
         <f>REGISTRATION!A4</f>
-        <v>FIRST YEAR</v>
+        <v>THIRD YEAR</v>
       </c>
       <c r="D15" s="241"/>
       <c r="E15" s="241"/>
@@ -29255,7 +29255,7 @@
     <row r="17" spans="1:6">
       <c r="A17" s="60"/>
       <c r="B17" s="62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="241" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
@@ -29284,10 +29284,10 @@
         <v>31</v>
       </c>
       <c r="D19" s="242" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="247" t="s">
         <v>116</v>
-      </c>
-      <c r="E19" s="247" t="s">
-        <v>117</v>
       </c>
       <c r="F19" s="242" t="s">
         <v>95</v>
@@ -29304,7 +29304,7 @@
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
       <c r="A21" s="244"/>
       <c r="B21" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="244"/>
       <c r="D21" s="244"/>
@@ -30100,7 +30100,7 @@
       </c>
       <c r="D53" s="68">
         <f>'DEPT CHAIR'!O39</f>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="E53" s="69" t="str">
         <f t="shared" si="0"/>
@@ -30138,7 +30138,7 @@
     </row>
     <row r="55" spans="1:6" ht="19.5" thickBot="1">
       <c r="A55" s="225" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55" s="226"/>
       <c r="C55" s="226"/>
@@ -30173,13 +30173,13 @@
     <row r="59" spans="1:6" ht="16.5" thickBot="1">
       <c r="A59" s="60"/>
       <c r="B59" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C59" s="60"/>
       <c r="D59" s="60"/>
       <c r="E59" s="252">
         <f ca="1">NOW()</f>
-        <v>43080.66135451389</v>
+        <v>43081.87773078704</v>
       </c>
       <c r="F59" s="252"/>
     </row>
@@ -30192,14 +30192,14 @@
       <c r="C60" s="73"/>
       <c r="D60" s="73"/>
       <c r="E60" s="253" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F60" s="253"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="60"/>
       <c r="B61" s="74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" s="74"/>
       <c r="D61" s="74"/>
@@ -30328,7 +30328,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75">
       <c r="A77" s="254" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B77" s="254"/>
       <c r="C77" s="254"/>
@@ -30347,21 +30347,21 @@
     <row r="79" spans="1:6" ht="16.5" thickBot="1">
       <c r="A79" s="60"/>
       <c r="B79" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="238" t="s">
         <v>137</v>
-      </c>
-      <c r="C79" s="238" t="s">
-        <v>138</v>
       </c>
       <c r="D79" s="239"/>
       <c r="E79" s="240" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F79" s="239"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="60"/>
       <c r="B80" s="80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C80" s="234">
         <f>COUNTIF($D$22:$D$54,"=1.0")+COUNTIF($D$22:$D$54,"=1.25")+(COUNTIF($D$22:$D$54,"=1.50")+COUNTIF($D$22:$D$54,"=1.75"))</f>
@@ -30377,7 +30377,7 @@
     <row r="81" spans="1:6">
       <c r="A81" s="60"/>
       <c r="B81" s="81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C81" s="228">
         <f>COUNTIF($D$22:$D$54,"=2.0")+COUNTIF($D$22:$D$54,"=2.25")+(COUNTIF($D$22:$D$54,"=2.50")+COUNTIF($D$22:$D$54,"=2.75"))</f>
@@ -30393,7 +30393,7 @@
     <row r="82" spans="1:6">
       <c r="A82" s="60"/>
       <c r="B82" s="81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C82" s="228">
         <f>COUNTIF($D$22:$D$54,"=3.0")</f>
@@ -30409,7 +30409,7 @@
     <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="60"/>
       <c r="B83" s="81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="228">
         <f>COUNTIF($D$22:$D$54,"=5.0")</f>
@@ -30425,7 +30425,7 @@
     <row r="84" spans="1:6">
       <c r="A84" s="60"/>
       <c r="B84" s="81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C84" s="232">
         <v>0</v>
@@ -30440,7 +30440,7 @@
     <row r="85" spans="1:6">
       <c r="A85" s="60"/>
       <c r="B85" s="81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C85" s="232">
         <v>0</v>
@@ -30455,7 +30455,7 @@
     <row r="86" spans="1:6" ht="16.5" thickBot="1">
       <c r="A86" s="60"/>
       <c r="B86" s="82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86" s="221">
         <f>SUM(C80:D85)</f>
@@ -30495,12 +30495,12 @@
     <row r="90" spans="1:6" ht="15.75">
       <c r="A90" s="60"/>
       <c r="B90" s="77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C90" s="60"/>
       <c r="D90" s="60"/>
       <c r="E90" s="77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F90" s="60"/>
     </row>
@@ -30515,12 +30515,12 @@
     <row r="92" spans="1:6">
       <c r="A92" s="60"/>
       <c r="B92" s="74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
       <c r="E92" s="74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F92" s="60"/>
     </row>
@@ -30546,7 +30546,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
       <c r="E94" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F94" s="60"/>
     </row>
@@ -30585,7 +30585,7 @@
     <row r="99" spans="1:7" ht="15.75">
       <c r="A99" s="60"/>
       <c r="B99" s="77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C99" s="60"/>
       <c r="D99" s="60"/>
@@ -30604,7 +30604,7 @@
     <row r="101" spans="1:7">
       <c r="A101" s="60"/>
       <c r="B101" s="74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C101" s="60"/>
       <c r="D101" s="60"/>
@@ -30625,7 +30625,7 @@
     <row r="103" spans="1:7">
       <c r="A103" s="60"/>
       <c r="B103" s="74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C103" s="60"/>
       <c r="D103" s="60"/>
@@ -30683,10 +30683,14 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="58" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="72" max="16383" man="1"/>
+  </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="B82:B83" numberStoredAsText="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -30707,7 +30711,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" thickBot="1">
       <c r="A1" s="266" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="267"/>
       <c r="C1" s="267"/>
@@ -30732,25 +30736,25 @@
       <c r="B2" s="41"/>
       <c r="C2" s="107"/>
       <c r="D2" s="263" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="264"/>
       <c r="F2" s="264"/>
       <c r="G2" s="265"/>
       <c r="H2" s="263" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I2" s="264"/>
       <c r="J2" s="264"/>
       <c r="K2" s="265"/>
       <c r="L2" s="263" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M2" s="264"/>
       <c r="N2" s="264"/>
       <c r="O2" s="265"/>
       <c r="P2" s="263" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q2" s="264"/>
       <c r="R2" s="265"/>
@@ -30761,52 +30765,52 @@
         <v>90</v>
       </c>
       <c r="C3" s="107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="F3" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="G3" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="109" t="s">
-        <v>152</v>
-      </c>
       <c r="H3" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="J3" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="106" t="s">
+      <c r="K3" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="K3" s="109" t="s">
-        <v>152</v>
-      </c>
       <c r="L3" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="M3" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="106" t="s">
+      <c r="N3" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="N3" s="106" t="s">
+      <c r="O3" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="O3" s="109" t="s">
-        <v>152</v>
-      </c>
       <c r="P3" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q3" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="106" t="s">
+      <c r="R3" s="109" t="s">
         <v>155</v>
-      </c>
-      <c r="R3" s="109" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -31872,7 +31876,7 @@
     <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31895,7 +31899,7 @@
         <v>86.188000000000002</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -31904,7 +31908,7 @@
         <v>72.667999999999992</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -31913,7 +31917,7 @@
         <v>83.164000000000001</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -31922,7 +31926,7 @@
         <v>87.259999999999991</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -31931,7 +31935,7 @@
         <v>85.367999999999995</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -31940,16 +31944,16 @@
         <v>70.414000000000001</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="98">
         <f>'RAW GRADES'!CS16</f>
-        <v>83.646000000000001</v>
+        <v>86.525999999999996</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -31958,7 +31962,7 @@
         <v>80.22</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -31967,7 +31971,7 @@
         <v>71.066000000000003</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -31976,7 +31980,7 @@
         <v>81.668000000000006</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -31985,7 +31989,7 @@
         <v>79.864000000000004</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -31994,7 +31998,7 @@
         <v>76.066000000000003</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -32003,7 +32007,7 @@
         <v>78.426000000000002</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -32012,7 +32016,7 @@
         <v>79.135999999999996</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -32021,7 +32025,7 @@
         <v>11.028</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -32030,7 +32034,7 @@
         <v>92.97399999999999</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -32039,7 +32043,7 @@
         <v>95.352000000000004</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -32048,7 +32052,7 @@
         <v>83.277999999999992</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -32057,7 +32061,7 @@
         <v>97.506</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -32066,7 +32070,7 @@
         <v>88.744</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -32075,7 +32079,7 @@
         <v>84.436000000000007</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -32084,7 +32088,7 @@
         <v>75.504000000000005</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -32093,7 +32097,7 @@
         <v>70.486000000000004</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -32102,7 +32106,7 @@
         <v>83.240000000000009</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -32111,7 +32115,7 @@
         <v>78.616</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -32120,7 +32124,7 @@
         <v>93.109999999999985</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -32129,7 +32133,7 @@
         <v>81.52600000000001</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -32138,7 +32142,7 @@
         <v>75.98599999999999</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -32147,7 +32151,7 @@
         <v>89.256</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -32156,7 +32160,7 @@
         <v>85.41</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -32165,16 +32169,16 @@
         <v>73.76400000000001</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="98">
         <f>'RAW GRADES'!CS41</f>
-        <v>89.277999999999992</v>
+        <v>91.22999999999999</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -32183,7 +32187,7 @@
         <v>81.638000000000005</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/DCIT 65 - CS 3A/LEC AND LAB - CS 3A.xlsx
+++ b/DCIT 65 - CS 3A/LEC AND LAB - CS 3A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -2355,99 +2355,37 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2487,137 +2425,104 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2658,6 +2563,101 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2716,6 +2716,102 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2789,102 +2885,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4848,7 +4848,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4859,7 +4859,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
@@ -4881,82 +4881,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="128"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="155" t="s">
         <v>293</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="119"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="159" t="s">
+      <c r="A6" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="120"/>
+      <c r="C6" s="121" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="159"/>
-      <c r="E6" s="160" t="s">
+      <c r="D6" s="121"/>
+      <c r="E6" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="160"/>
+      <c r="F6" s="122"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -4964,28 +4964,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="161" t="s">
+      <c r="J6" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="161"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="164"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="3" t="s">
         <v>158</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="165"/>
+      <c r="F7" s="127"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -4993,28 +4993,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="165" t="s">
+      <c r="J7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="165"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="146"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="147" t="s">
+      <c r="E8" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="147"/>
+      <c r="F8" s="131"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -5022,45 +5022,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="147" t="s">
+      <c r="J8" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="147"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="153" t="s">
+      <c r="C9" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="154" t="s">
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="154" t="s">
+      <c r="G9" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="137" t="s">
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="138"/>
-      <c r="L9" s="137" t="s">
+      <c r="K9" s="142"/>
+      <c r="L9" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="138"/>
+      <c r="M9" s="142"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="150"/>
-      <c r="B10" s="152"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -5070,14 +5070,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -5098,19 +5098,19 @@
       <c r="F11" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G11" s="140"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="142"/>
-      <c r="O11" s="129" t="s">
+      <c r="G11" s="148"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="150"/>
+      <c r="O11" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="131"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="163"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -5131,21 +5131,21 @@
       <c r="F12" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="127"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="147"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="124" t="s">
+      <c r="P12" s="159" t="s">
         <v>161</v>
       </c>
-      <c r="Q12" s="124"/>
-      <c r="R12" s="124"/>
+      <c r="Q12" s="159"/>
+      <c r="R12" s="159"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -5166,21 +5166,21 @@
       <c r="F13" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="147"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="124" t="s">
+      <c r="P13" s="159" t="s">
         <v>171</v>
       </c>
-      <c r="Q13" s="124"/>
-      <c r="R13" s="124"/>
+      <c r="Q13" s="159"/>
+      <c r="R13" s="159"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -5201,21 +5201,21 @@
       <c r="F14" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="121" t="s">
+      <c r="P14" s="156" t="s">
         <v>162</v>
       </c>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="123"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="158"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -5236,21 +5236,21 @@
       <c r="F15" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="121" t="s">
+      <c r="P15" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="123"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="158"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -5271,21 +5271,21 @@
       <c r="F16" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="132" t="s">
+      <c r="P16" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="Q16" s="133"/>
-      <c r="R16" s="134"/>
+      <c r="Q16" s="165"/>
+      <c r="R16" s="166"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -5306,21 +5306,21 @@
       <c r="F17" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="121" t="s">
+      <c r="P17" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="123"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="158"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -5341,13 +5341,13 @@
       <c r="F18" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -5368,13 +5368,13 @@
       <c r="F19" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="127"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="147"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -5395,13 +5395,13 @@
       <c r="F20" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -5422,13 +5422,13 @@
       <c r="F21" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="127"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="147"/>
       <c r="P21" s="94" t="s">
         <v>142</v>
       </c>
@@ -5450,13 +5450,13 @@
         <v>168</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="147"/>
       <c r="P22" s="95">
         <v>0</v>
       </c>
@@ -5483,13 +5483,13 @@
       <c r="F23" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="147"/>
       <c r="P23" s="96">
         <v>70</v>
       </c>
@@ -5516,13 +5516,13 @@
       <c r="F24" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="147"/>
       <c r="P24" s="96">
         <v>73.34</v>
       </c>
@@ -5549,13 +5549,13 @@
       <c r="F25" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="127"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
       <c r="P25" s="96">
         <v>76.680000000000007</v>
       </c>
@@ -5582,13 +5582,13 @@
       <c r="F26" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="147"/>
+      <c r="M26" s="147"/>
       <c r="P26" s="96">
         <v>80.02</v>
       </c>
@@ -5615,13 +5615,13 @@
       <c r="F27" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="127"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="147"/>
       <c r="P27" s="96">
         <v>83.36</v>
       </c>
@@ -5648,13 +5648,13 @@
       <c r="F28" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="147"/>
       <c r="P28" s="96">
         <v>86.7</v>
       </c>
@@ -5681,13 +5681,13 @@
       <c r="F29" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="147"/>
       <c r="P29" s="96">
         <v>90.04</v>
       </c>
@@ -5714,13 +5714,13 @@
       <c r="F30" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="127"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="147"/>
       <c r="P30" s="96">
         <v>93.38</v>
       </c>
@@ -5747,13 +5747,13 @@
       <c r="F31" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="147"/>
       <c r="P31" s="95"/>
       <c r="Q31" s="95"/>
     </row>
@@ -5776,13 +5776,13 @@
       <c r="F32" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
       <c r="P32" s="95">
         <v>96.72</v>
       </c>
@@ -5809,13 +5809,13 @@
       <c r="F33" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="127"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="147"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -5836,13 +5836,13 @@
       <c r="F34" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="135"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="127"/>
-      <c r="M34" s="127"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="147"/>
+      <c r="M34" s="147"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -5863,13 +5863,13 @@
       <c r="F35" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="127"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="147"/>
+      <c r="M35" s="147"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -5890,13 +5890,13 @@
       <c r="F36" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="135"/>
-      <c r="K36" s="136"/>
-      <c r="L36" s="127"/>
-      <c r="M36" s="127"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="147"/>
+      <c r="M36" s="147"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -5917,13 +5917,13 @@
       <c r="F37" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="127"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="147"/>
+      <c r="M37" s="147"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -5944,13 +5944,13 @@
       <c r="F38" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G38" s="125"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="125"/>
-      <c r="J38" s="126"/>
-      <c r="K38" s="126"/>
-      <c r="L38" s="127"/>
-      <c r="M38" s="127"/>
+      <c r="G38" s="144"/>
+      <c r="H38" s="144"/>
+      <c r="I38" s="144"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="153"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -5971,13 +5971,13 @@
       <c r="F39" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G39" s="125"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="126"/>
-      <c r="K39" s="126"/>
-      <c r="L39" s="127"/>
-      <c r="M39" s="127"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="144"/>
+      <c r="I39" s="144"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="147"/>
+      <c r="M39" s="147"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -5998,13 +5998,13 @@
       <c r="F40" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="126"/>
-      <c r="K40" s="126"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="127"/>
+      <c r="G40" s="144"/>
+      <c r="H40" s="144"/>
+      <c r="I40" s="144"/>
+      <c r="J40" s="153"/>
+      <c r="K40" s="153"/>
+      <c r="L40" s="147"/>
+      <c r="M40" s="147"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -6025,13 +6025,13 @@
       <c r="F41" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G41" s="125"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="127"/>
-      <c r="M41" s="127"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="153"/>
+      <c r="K41" s="153"/>
+      <c r="L41" s="147"/>
+      <c r="M41" s="147"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -6052,13 +6052,13 @@
       <c r="F42" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="127"/>
-      <c r="M42" s="127"/>
+      <c r="G42" s="144"/>
+      <c r="H42" s="144"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="153"/>
+      <c r="L42" s="147"/>
+      <c r="M42" s="147"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -6079,13 +6079,13 @@
       <c r="F43" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G43" s="125"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="126"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="127"/>
-      <c r="M43" s="127"/>
+      <c r="G43" s="144"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="153"/>
+      <c r="K43" s="153"/>
+      <c r="L43" s="147"/>
+      <c r="M43" s="147"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -6096,13 +6096,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="126"/>
-      <c r="K44" s="126"/>
-      <c r="L44" s="127"/>
-      <c r="M44" s="127"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="153"/>
+      <c r="K44" s="153"/>
+      <c r="L44" s="147"/>
+      <c r="M44" s="147"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -6113,13 +6113,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="126"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="127"/>
-      <c r="M45" s="127"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="153"/>
+      <c r="L45" s="147"/>
+      <c r="M45" s="147"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -6130,13 +6130,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="126"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="127"/>
-      <c r="M46" s="127"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="153"/>
+      <c r="K46" s="153"/>
+      <c r="L46" s="147"/>
+      <c r="M46" s="147"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -6147,13 +6147,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="126"/>
-      <c r="K47" s="126"/>
-      <c r="L47" s="127"/>
-      <c r="M47" s="127"/>
+      <c r="G47" s="144"/>
+      <c r="H47" s="144"/>
+      <c r="I47" s="144"/>
+      <c r="J47" s="153"/>
+      <c r="K47" s="153"/>
+      <c r="L47" s="147"/>
+      <c r="M47" s="147"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -6164,13 +6164,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="125"/>
-      <c r="J48" s="126"/>
-      <c r="K48" s="126"/>
-      <c r="L48" s="127"/>
-      <c r="M48" s="127"/>
+      <c r="G48" s="144"/>
+      <c r="H48" s="144"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="153"/>
+      <c r="K48" s="153"/>
+      <c r="L48" s="147"/>
+      <c r="M48" s="147"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -6181,13 +6181,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="125"/>
-      <c r="I49" s="125"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="127"/>
-      <c r="M49" s="127"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="144"/>
+      <c r="I49" s="144"/>
+      <c r="J49" s="153"/>
+      <c r="K49" s="153"/>
+      <c r="L49" s="147"/>
+      <c r="M49" s="147"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -6198,13 +6198,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="127"/>
-      <c r="M50" s="127"/>
+      <c r="G50" s="144"/>
+      <c r="H50" s="144"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="153"/>
+      <c r="K50" s="153"/>
+      <c r="L50" s="147"/>
+      <c r="M50" s="147"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -6215,13 +6215,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="125"/>
-      <c r="H51" s="125"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="127"/>
-      <c r="M51" s="127"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="144"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="153"/>
+      <c r="K51" s="153"/>
+      <c r="L51" s="147"/>
+      <c r="M51" s="147"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -6232,13 +6232,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="127"/>
-      <c r="M52" s="127"/>
+      <c r="G52" s="144"/>
+      <c r="H52" s="144"/>
+      <c r="I52" s="144"/>
+      <c r="J52" s="153"/>
+      <c r="K52" s="153"/>
+      <c r="L52" s="147"/>
+      <c r="M52" s="147"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -6249,13 +6249,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="125"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="126"/>
-      <c r="K53" s="126"/>
-      <c r="L53" s="127"/>
-      <c r="M53" s="127"/>
+      <c r="G53" s="144"/>
+      <c r="H53" s="144"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="153"/>
+      <c r="K53" s="153"/>
+      <c r="L53" s="147"/>
+      <c r="M53" s="147"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -6266,13 +6266,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
-      <c r="J54" s="126"/>
-      <c r="K54" s="126"/>
-      <c r="L54" s="127"/>
-      <c r="M54" s="127"/>
+      <c r="G54" s="144"/>
+      <c r="H54" s="144"/>
+      <c r="I54" s="144"/>
+      <c r="J54" s="153"/>
+      <c r="K54" s="153"/>
+      <c r="L54" s="147"/>
+      <c r="M54" s="147"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -6283,13 +6283,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="125"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="125"/>
-      <c r="J55" s="126"/>
-      <c r="K55" s="126"/>
-      <c r="L55" s="127"/>
-      <c r="M55" s="127"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="144"/>
+      <c r="I55" s="144"/>
+      <c r="J55" s="153"/>
+      <c r="K55" s="153"/>
+      <c r="L55" s="147"/>
+      <c r="M55" s="147"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -6300,13 +6300,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="127"/>
-      <c r="M56" s="127"/>
+      <c r="G56" s="144"/>
+      <c r="H56" s="144"/>
+      <c r="I56" s="144"/>
+      <c r="J56" s="153"/>
+      <c r="K56" s="153"/>
+      <c r="L56" s="147"/>
+      <c r="M56" s="147"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -6317,13 +6317,13 @@
       <c r="D57" s="84"/>
       <c r="E57" s="84"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="125"/>
-      <c r="H57" s="125"/>
-      <c r="I57" s="125"/>
-      <c r="J57" s="126"/>
-      <c r="K57" s="126"/>
-      <c r="L57" s="127"/>
-      <c r="M57" s="127"/>
+      <c r="G57" s="144"/>
+      <c r="H57" s="144"/>
+      <c r="I57" s="144"/>
+      <c r="J57" s="153"/>
+      <c r="K57" s="153"/>
+      <c r="L57" s="147"/>
+      <c r="M57" s="147"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -6334,13 +6334,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
-      <c r="J58" s="126"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="127"/>
-      <c r="M58" s="127"/>
+      <c r="G58" s="144"/>
+      <c r="H58" s="144"/>
+      <c r="I58" s="144"/>
+      <c r="J58" s="153"/>
+      <c r="K58" s="153"/>
+      <c r="L58" s="147"/>
+      <c r="M58" s="147"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -6351,13 +6351,13 @@
       <c r="D59" s="84"/>
       <c r="E59" s="84"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="125"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="125"/>
-      <c r="J59" s="126"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="127"/>
-      <c r="M59" s="127"/>
+      <c r="G59" s="144"/>
+      <c r="H59" s="144"/>
+      <c r="I59" s="144"/>
+      <c r="J59" s="153"/>
+      <c r="K59" s="153"/>
+      <c r="L59" s="147"/>
+      <c r="M59" s="147"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -6368,13 +6368,13 @@
       <c r="D60" s="84"/>
       <c r="E60" s="84"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="125"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="125"/>
-      <c r="J60" s="126"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="127"/>
-      <c r="M60" s="127"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="153"/>
+      <c r="K60" s="153"/>
+      <c r="L60" s="147"/>
+      <c r="M60" s="147"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -6385,13 +6385,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="125"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="125"/>
-      <c r="J61" s="126"/>
-      <c r="K61" s="126"/>
-      <c r="L61" s="127"/>
-      <c r="M61" s="127"/>
+      <c r="G61" s="144"/>
+      <c r="H61" s="144"/>
+      <c r="I61" s="144"/>
+      <c r="J61" s="153"/>
+      <c r="K61" s="153"/>
+      <c r="L61" s="147"/>
+      <c r="M61" s="147"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -6402,13 +6402,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="125"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="125"/>
-      <c r="J62" s="126"/>
-      <c r="K62" s="126"/>
-      <c r="L62" s="127"/>
-      <c r="M62" s="127"/>
+      <c r="G62" s="144"/>
+      <c r="H62" s="144"/>
+      <c r="I62" s="144"/>
+      <c r="J62" s="153"/>
+      <c r="K62" s="153"/>
+      <c r="L62" s="147"/>
+      <c r="M62" s="147"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -6419,13 +6419,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="125"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="125"/>
-      <c r="J63" s="126"/>
-      <c r="K63" s="126"/>
-      <c r="L63" s="127"/>
-      <c r="M63" s="127"/>
+      <c r="G63" s="144"/>
+      <c r="H63" s="144"/>
+      <c r="I63" s="144"/>
+      <c r="J63" s="153"/>
+      <c r="K63" s="153"/>
+      <c r="L63" s="147"/>
+      <c r="M63" s="147"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -6436,13 +6436,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="125"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="125"/>
-      <c r="J64" s="126"/>
-      <c r="K64" s="126"/>
-      <c r="L64" s="127"/>
-      <c r="M64" s="127"/>
+      <c r="G64" s="144"/>
+      <c r="H64" s="144"/>
+      <c r="I64" s="144"/>
+      <c r="J64" s="153"/>
+      <c r="K64" s="153"/>
+      <c r="L64" s="147"/>
+      <c r="M64" s="147"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -6453,13 +6453,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="125"/>
-      <c r="J65" s="126"/>
-      <c r="K65" s="126"/>
-      <c r="L65" s="127"/>
-      <c r="M65" s="127"/>
+      <c r="G65" s="144"/>
+      <c r="H65" s="144"/>
+      <c r="I65" s="144"/>
+      <c r="J65" s="153"/>
+      <c r="K65" s="153"/>
+      <c r="L65" s="147"/>
+      <c r="M65" s="147"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -6470,13 +6470,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="125"/>
-      <c r="J66" s="126"/>
-      <c r="K66" s="126"/>
-      <c r="L66" s="127"/>
-      <c r="M66" s="127"/>
+      <c r="G66" s="144"/>
+      <c r="H66" s="144"/>
+      <c r="I66" s="144"/>
+      <c r="J66" s="153"/>
+      <c r="K66" s="153"/>
+      <c r="L66" s="147"/>
+      <c r="M66" s="147"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -6487,13 +6487,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="84"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="125"/>
-      <c r="H67" s="125"/>
-      <c r="I67" s="125"/>
-      <c r="J67" s="126"/>
-      <c r="K67" s="126"/>
-      <c r="L67" s="127"/>
-      <c r="M67" s="127"/>
+      <c r="G67" s="144"/>
+      <c r="H67" s="144"/>
+      <c r="I67" s="144"/>
+      <c r="J67" s="153"/>
+      <c r="K67" s="153"/>
+      <c r="L67" s="147"/>
+      <c r="M67" s="147"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -6504,13 +6504,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="125"/>
-      <c r="H68" s="125"/>
-      <c r="I68" s="125"/>
-      <c r="J68" s="126"/>
-      <c r="K68" s="126"/>
-      <c r="L68" s="127"/>
-      <c r="M68" s="127"/>
+      <c r="G68" s="144"/>
+      <c r="H68" s="144"/>
+      <c r="I68" s="144"/>
+      <c r="J68" s="153"/>
+      <c r="K68" s="153"/>
+      <c r="L68" s="147"/>
+      <c r="M68" s="147"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -6521,13 +6521,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="125"/>
-      <c r="H69" s="125"/>
-      <c r="I69" s="125"/>
-      <c r="J69" s="126"/>
-      <c r="K69" s="126"/>
-      <c r="L69" s="127"/>
-      <c r="M69" s="127"/>
+      <c r="G69" s="144"/>
+      <c r="H69" s="144"/>
+      <c r="I69" s="144"/>
+      <c r="J69" s="153"/>
+      <c r="K69" s="153"/>
+      <c r="L69" s="147"/>
+      <c r="M69" s="147"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -6538,13 +6538,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="125"/>
-      <c r="H70" s="125"/>
-      <c r="I70" s="125"/>
-      <c r="J70" s="126"/>
-      <c r="K70" s="126"/>
-      <c r="L70" s="127"/>
-      <c r="M70" s="127"/>
+      <c r="G70" s="144"/>
+      <c r="H70" s="144"/>
+      <c r="I70" s="144"/>
+      <c r="J70" s="153"/>
+      <c r="K70" s="153"/>
+      <c r="L70" s="147"/>
+      <c r="M70" s="147"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -6555,208 +6555,19 @@
       <c r="D71" s="84"/>
       <c r="E71" s="84"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="125"/>
-      <c r="H71" s="125"/>
-      <c r="I71" s="125"/>
-      <c r="J71" s="126"/>
-      <c r="K71" s="126"/>
-      <c r="L71" s="127"/>
-      <c r="M71" s="127"/>
+      <c r="G71" s="144"/>
+      <c r="H71" s="144"/>
+      <c r="I71" s="144"/>
+      <c r="J71" s="153"/>
+      <c r="K71" s="153"/>
+      <c r="L71" s="147"/>
+      <c r="M71" s="147"/>
     </row>
   </sheetData>
   <sortState ref="B11:E33">
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -6781,6 +6592,195 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:B71">
     <cfRule type="cellIs" dxfId="154" priority="115" stopIfTrue="1" operator="equal">
@@ -7357,452 +7357,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="160" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="128"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="128"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="128"/>
-      <c r="AS2" s="128"/>
-      <c r="AT2" s="128"/>
-      <c r="AU2" s="128"/>
-      <c r="AV2" s="128"/>
-      <c r="AW2" s="128"/>
-      <c r="AX2" s="128"/>
-      <c r="AY2" s="128"/>
-      <c r="AZ2" s="128"/>
-      <c r="BA2" s="128"/>
-      <c r="BB2" s="128"/>
-      <c r="BC2" s="128"/>
-      <c r="BD2" s="128"/>
-      <c r="BE2" s="128"/>
-      <c r="BF2" s="128"/>
-      <c r="BG2" s="128"/>
-      <c r="BH2" s="128"/>
-      <c r="BI2" s="128"/>
-      <c r="BJ2" s="128"/>
-      <c r="BK2" s="128"/>
-      <c r="BL2" s="128"/>
-      <c r="BM2" s="128"/>
-      <c r="BN2" s="128"/>
-      <c r="BO2" s="128"/>
-      <c r="BP2" s="128"/>
-      <c r="BQ2" s="128"/>
-      <c r="BR2" s="128"/>
-      <c r="BS2" s="128"/>
-      <c r="BT2" s="128"/>
-      <c r="BU2" s="128"/>
-      <c r="BV2" s="128"/>
-      <c r="BW2" s="128"/>
-      <c r="BX2" s="128"/>
-      <c r="BY2" s="128"/>
-      <c r="BZ2" s="128"/>
-      <c r="CA2" s="128"/>
-      <c r="CB2" s="128"/>
-      <c r="CC2" s="128"/>
-      <c r="CD2" s="128"/>
-      <c r="CE2" s="128"/>
-      <c r="CF2" s="128"/>
-      <c r="CG2" s="128"/>
-      <c r="CH2" s="128"/>
-      <c r="CI2" s="128"/>
-      <c r="CJ2" s="128"/>
-      <c r="CK2" s="128"/>
-      <c r="CL2" s="128"/>
-      <c r="CM2" s="128"/>
-      <c r="CN2" s="128"/>
-      <c r="CO2" s="128"/>
-      <c r="CP2" s="128"/>
-      <c r="CQ2" s="128"/>
-      <c r="CR2" s="128"/>
-      <c r="CS2" s="128"/>
-      <c r="CT2" s="128"/>
-      <c r="CU2" s="128"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="160"/>
+      <c r="AH2" s="160"/>
+      <c r="AI2" s="160"/>
+      <c r="AJ2" s="160"/>
+      <c r="AK2" s="160"/>
+      <c r="AL2" s="160"/>
+      <c r="AM2" s="160"/>
+      <c r="AN2" s="160"/>
+      <c r="AO2" s="160"/>
+      <c r="AP2" s="160"/>
+      <c r="AQ2" s="160"/>
+      <c r="AR2" s="160"/>
+      <c r="AS2" s="160"/>
+      <c r="AT2" s="160"/>
+      <c r="AU2" s="160"/>
+      <c r="AV2" s="160"/>
+      <c r="AW2" s="160"/>
+      <c r="AX2" s="160"/>
+      <c r="AY2" s="160"/>
+      <c r="AZ2" s="160"/>
+      <c r="BA2" s="160"/>
+      <c r="BB2" s="160"/>
+      <c r="BC2" s="160"/>
+      <c r="BD2" s="160"/>
+      <c r="BE2" s="160"/>
+      <c r="BF2" s="160"/>
+      <c r="BG2" s="160"/>
+      <c r="BH2" s="160"/>
+      <c r="BI2" s="160"/>
+      <c r="BJ2" s="160"/>
+      <c r="BK2" s="160"/>
+      <c r="BL2" s="160"/>
+      <c r="BM2" s="160"/>
+      <c r="BN2" s="160"/>
+      <c r="BO2" s="160"/>
+      <c r="BP2" s="160"/>
+      <c r="BQ2" s="160"/>
+      <c r="BR2" s="160"/>
+      <c r="BS2" s="160"/>
+      <c r="BT2" s="160"/>
+      <c r="BU2" s="160"/>
+      <c r="BV2" s="160"/>
+      <c r="BW2" s="160"/>
+      <c r="BX2" s="160"/>
+      <c r="BY2" s="160"/>
+      <c r="BZ2" s="160"/>
+      <c r="CA2" s="160"/>
+      <c r="CB2" s="160"/>
+      <c r="CC2" s="160"/>
+      <c r="CD2" s="160"/>
+      <c r="CE2" s="160"/>
+      <c r="CF2" s="160"/>
+      <c r="CG2" s="160"/>
+      <c r="CH2" s="160"/>
+      <c r="CI2" s="160"/>
+      <c r="CJ2" s="160"/>
+      <c r="CK2" s="160"/>
+      <c r="CL2" s="160"/>
+      <c r="CM2" s="160"/>
+      <c r="CN2" s="160"/>
+      <c r="CO2" s="160"/>
+      <c r="CP2" s="160"/>
+      <c r="CQ2" s="160"/>
+      <c r="CR2" s="160"/>
+      <c r="CS2" s="160"/>
+      <c r="CT2" s="160"/>
+      <c r="CU2" s="160"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="128"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="128"/>
-      <c r="AI3" s="128"/>
-      <c r="AJ3" s="128"/>
-      <c r="AK3" s="128"/>
-      <c r="AL3" s="128"/>
-      <c r="AM3" s="128"/>
-      <c r="AN3" s="128"/>
-      <c r="AO3" s="128"/>
-      <c r="AP3" s="128"/>
-      <c r="AQ3" s="128"/>
-      <c r="AR3" s="128"/>
-      <c r="AS3" s="128"/>
-      <c r="AT3" s="128"/>
-      <c r="AU3" s="128"/>
-      <c r="AV3" s="128"/>
-      <c r="AW3" s="128"/>
-      <c r="AX3" s="128"/>
-      <c r="AY3" s="128"/>
-      <c r="AZ3" s="128"/>
-      <c r="BA3" s="128"/>
-      <c r="BB3" s="128"/>
-      <c r="BC3" s="128"/>
-      <c r="BD3" s="128"/>
-      <c r="BE3" s="128"/>
-      <c r="BF3" s="128"/>
-      <c r="BG3" s="128"/>
-      <c r="BH3" s="128"/>
-      <c r="BI3" s="128"/>
-      <c r="BJ3" s="128"/>
-      <c r="BK3" s="128"/>
-      <c r="BL3" s="128"/>
-      <c r="BM3" s="128"/>
-      <c r="BN3" s="128"/>
-      <c r="BO3" s="128"/>
-      <c r="BP3" s="128"/>
-      <c r="BQ3" s="128"/>
-      <c r="BR3" s="128"/>
-      <c r="BS3" s="128"/>
-      <c r="BT3" s="128"/>
-      <c r="BU3" s="128"/>
-      <c r="BV3" s="128"/>
-      <c r="BW3" s="128"/>
-      <c r="BX3" s="128"/>
-      <c r="BY3" s="128"/>
-      <c r="BZ3" s="128"/>
-      <c r="CA3" s="128"/>
-      <c r="CB3" s="128"/>
-      <c r="CC3" s="128"/>
-      <c r="CD3" s="128"/>
-      <c r="CE3" s="128"/>
-      <c r="CF3" s="128"/>
-      <c r="CG3" s="128"/>
-      <c r="CH3" s="128"/>
-      <c r="CI3" s="128"/>
-      <c r="CJ3" s="128"/>
-      <c r="CK3" s="128"/>
-      <c r="CL3" s="128"/>
-      <c r="CM3" s="128"/>
-      <c r="CN3" s="128"/>
-      <c r="CO3" s="128"/>
-      <c r="CP3" s="128"/>
-      <c r="CQ3" s="128"/>
-      <c r="CR3" s="128"/>
-      <c r="CS3" s="128"/>
-      <c r="CT3" s="128"/>
-      <c r="CU3" s="128"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="160"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="160"/>
+      <c r="AH3" s="160"/>
+      <c r="AI3" s="160"/>
+      <c r="AJ3" s="160"/>
+      <c r="AK3" s="160"/>
+      <c r="AL3" s="160"/>
+      <c r="AM3" s="160"/>
+      <c r="AN3" s="160"/>
+      <c r="AO3" s="160"/>
+      <c r="AP3" s="160"/>
+      <c r="AQ3" s="160"/>
+      <c r="AR3" s="160"/>
+      <c r="AS3" s="160"/>
+      <c r="AT3" s="160"/>
+      <c r="AU3" s="160"/>
+      <c r="AV3" s="160"/>
+      <c r="AW3" s="160"/>
+      <c r="AX3" s="160"/>
+      <c r="AY3" s="160"/>
+      <c r="AZ3" s="160"/>
+      <c r="BA3" s="160"/>
+      <c r="BB3" s="160"/>
+      <c r="BC3" s="160"/>
+      <c r="BD3" s="160"/>
+      <c r="BE3" s="160"/>
+      <c r="BF3" s="160"/>
+      <c r="BG3" s="160"/>
+      <c r="BH3" s="160"/>
+      <c r="BI3" s="160"/>
+      <c r="BJ3" s="160"/>
+      <c r="BK3" s="160"/>
+      <c r="BL3" s="160"/>
+      <c r="BM3" s="160"/>
+      <c r="BN3" s="160"/>
+      <c r="BO3" s="160"/>
+      <c r="BP3" s="160"/>
+      <c r="BQ3" s="160"/>
+      <c r="BR3" s="160"/>
+      <c r="BS3" s="160"/>
+      <c r="BT3" s="160"/>
+      <c r="BU3" s="160"/>
+      <c r="BV3" s="160"/>
+      <c r="BW3" s="160"/>
+      <c r="BX3" s="160"/>
+      <c r="BY3" s="160"/>
+      <c r="BZ3" s="160"/>
+      <c r="CA3" s="160"/>
+      <c r="CB3" s="160"/>
+      <c r="CC3" s="160"/>
+      <c r="CD3" s="160"/>
+      <c r="CE3" s="160"/>
+      <c r="CF3" s="160"/>
+      <c r="CG3" s="160"/>
+      <c r="CH3" s="160"/>
+      <c r="CI3" s="160"/>
+      <c r="CJ3" s="160"/>
+      <c r="CK3" s="160"/>
+      <c r="CL3" s="160"/>
+      <c r="CM3" s="160"/>
+      <c r="CN3" s="160"/>
+      <c r="CO3" s="160"/>
+      <c r="CP3" s="160"/>
+      <c r="CQ3" s="160"/>
+      <c r="CR3" s="160"/>
+      <c r="CS3" s="160"/>
+      <c r="CT3" s="160"/>
+      <c r="CU3" s="160"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="198" t="s">
+      <c r="C5" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="199" t="s">
+      <c r="D5" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="200"/>
-      <c r="J5" s="200"/>
-      <c r="K5" s="200"/>
-      <c r="L5" s="200"/>
-      <c r="M5" s="200"/>
-      <c r="N5" s="200"/>
-      <c r="O5" s="200"/>
-      <c r="P5" s="200"/>
-      <c r="Q5" s="200"/>
-      <c r="R5" s="200"/>
-      <c r="S5" s="200"/>
-      <c r="T5" s="200"/>
-      <c r="U5" s="200"/>
-      <c r="V5" s="200"/>
-      <c r="W5" s="200"/>
-      <c r="X5" s="200"/>
-      <c r="Y5" s="200"/>
-      <c r="Z5" s="200"/>
-      <c r="AA5" s="200"/>
-      <c r="AB5" s="200"/>
-      <c r="AC5" s="200"/>
-      <c r="AD5" s="200"/>
-      <c r="AE5" s="200"/>
-      <c r="AF5" s="200"/>
-      <c r="AG5" s="200"/>
-      <c r="AH5" s="200"/>
-      <c r="AI5" s="200"/>
-      <c r="AJ5" s="200"/>
-      <c r="AK5" s="200"/>
-      <c r="AL5" s="200"/>
-      <c r="AM5" s="200"/>
-      <c r="AN5" s="200"/>
-      <c r="AO5" s="200"/>
-      <c r="AP5" s="200"/>
-      <c r="AQ5" s="200"/>
-      <c r="AR5" s="200"/>
-      <c r="AS5" s="200"/>
-      <c r="AT5" s="200"/>
-      <c r="AU5" s="200"/>
-      <c r="AV5" s="200"/>
-      <c r="AW5" s="200"/>
-      <c r="AX5" s="200"/>
-      <c r="AY5" s="200"/>
-      <c r="AZ5" s="200"/>
-      <c r="BA5" s="200"/>
-      <c r="BB5" s="200"/>
-      <c r="BC5" s="200"/>
-      <c r="BD5" s="201"/>
-      <c r="BE5" s="202" t="s">
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="173"/>
+      <c r="Z5" s="173"/>
+      <c r="AA5" s="173"/>
+      <c r="AB5" s="173"/>
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="173"/>
+      <c r="AE5" s="173"/>
+      <c r="AF5" s="173"/>
+      <c r="AG5" s="173"/>
+      <c r="AH5" s="173"/>
+      <c r="AI5" s="173"/>
+      <c r="AJ5" s="173"/>
+      <c r="AK5" s="173"/>
+      <c r="AL5" s="173"/>
+      <c r="AM5" s="173"/>
+      <c r="AN5" s="173"/>
+      <c r="AO5" s="173"/>
+      <c r="AP5" s="173"/>
+      <c r="AQ5" s="173"/>
+      <c r="AR5" s="173"/>
+      <c r="AS5" s="173"/>
+      <c r="AT5" s="173"/>
+      <c r="AU5" s="173"/>
+      <c r="AV5" s="173"/>
+      <c r="AW5" s="173"/>
+      <c r="AX5" s="173"/>
+      <c r="AY5" s="173"/>
+      <c r="AZ5" s="173"/>
+      <c r="BA5" s="173"/>
+      <c r="BB5" s="173"/>
+      <c r="BC5" s="173"/>
+      <c r="BD5" s="174"/>
+      <c r="BE5" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="203"/>
-      <c r="BG5" s="203"/>
-      <c r="BH5" s="203"/>
-      <c r="BI5" s="203"/>
-      <c r="BJ5" s="203"/>
-      <c r="BK5" s="203"/>
-      <c r="BL5" s="203"/>
-      <c r="BM5" s="203"/>
-      <c r="BN5" s="203"/>
-      <c r="BO5" s="203"/>
-      <c r="BP5" s="203"/>
-      <c r="BQ5" s="203"/>
-      <c r="BR5" s="203"/>
-      <c r="BS5" s="203"/>
-      <c r="BT5" s="203"/>
-      <c r="BU5" s="203"/>
-      <c r="BV5" s="203"/>
-      <c r="BW5" s="203"/>
-      <c r="BX5" s="203"/>
-      <c r="BY5" s="203"/>
-      <c r="BZ5" s="203"/>
-      <c r="CA5" s="203"/>
-      <c r="CB5" s="203"/>
-      <c r="CC5" s="203"/>
-      <c r="CD5" s="203"/>
-      <c r="CE5" s="203"/>
-      <c r="CF5" s="203"/>
-      <c r="CG5" s="203"/>
-      <c r="CH5" s="203"/>
-      <c r="CI5" s="203"/>
-      <c r="CJ5" s="203"/>
-      <c r="CK5" s="203"/>
-      <c r="CL5" s="203"/>
-      <c r="CM5" s="203"/>
-      <c r="CN5" s="203"/>
-      <c r="CO5" s="203"/>
-      <c r="CP5" s="203"/>
-      <c r="CQ5" s="203"/>
-      <c r="CR5" s="204"/>
-      <c r="CS5" s="191" t="s">
+      <c r="BF5" s="176"/>
+      <c r="BG5" s="176"/>
+      <c r="BH5" s="176"/>
+      <c r="BI5" s="176"/>
+      <c r="BJ5" s="176"/>
+      <c r="BK5" s="176"/>
+      <c r="BL5" s="176"/>
+      <c r="BM5" s="176"/>
+      <c r="BN5" s="176"/>
+      <c r="BO5" s="176"/>
+      <c r="BP5" s="176"/>
+      <c r="BQ5" s="176"/>
+      <c r="BR5" s="176"/>
+      <c r="BS5" s="176"/>
+      <c r="BT5" s="176"/>
+      <c r="BU5" s="176"/>
+      <c r="BV5" s="176"/>
+      <c r="BW5" s="176"/>
+      <c r="BX5" s="176"/>
+      <c r="BY5" s="176"/>
+      <c r="BZ5" s="176"/>
+      <c r="CA5" s="176"/>
+      <c r="CB5" s="176"/>
+      <c r="CC5" s="176"/>
+      <c r="CD5" s="176"/>
+      <c r="CE5" s="176"/>
+      <c r="CF5" s="176"/>
+      <c r="CG5" s="176"/>
+      <c r="CH5" s="176"/>
+      <c r="CI5" s="176"/>
+      <c r="CJ5" s="176"/>
+      <c r="CK5" s="176"/>
+      <c r="CL5" s="176"/>
+      <c r="CM5" s="176"/>
+      <c r="CN5" s="176"/>
+      <c r="CO5" s="176"/>
+      <c r="CP5" s="176"/>
+      <c r="CQ5" s="176"/>
+      <c r="CR5" s="177"/>
+      <c r="CS5" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="192"/>
-      <c r="CU5" s="193"/>
+      <c r="CT5" s="183"/>
+      <c r="CU5" s="184"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="196"/>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="172" t="s">
+      <c r="A6" s="169"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="175" t="s">
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="205"/>
+      <c r="I6" s="205"/>
+      <c r="J6" s="188" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="175"/>
-      <c r="L6" s="175"/>
-      <c r="M6" s="175"/>
-      <c r="N6" s="175"/>
-      <c r="O6" s="175"/>
-      <c r="P6" s="175"/>
-      <c r="Q6" s="175"/>
-      <c r="R6" s="175"/>
-      <c r="S6" s="175"/>
-      <c r="T6" s="175"/>
-      <c r="U6" s="175"/>
-      <c r="V6" s="175"/>
-      <c r="W6" s="175"/>
-      <c r="X6" s="175"/>
-      <c r="Y6" s="175"/>
-      <c r="Z6" s="175"/>
-      <c r="AA6" s="175"/>
-      <c r="AB6" s="175"/>
-      <c r="AC6" s="175"/>
-      <c r="AD6" s="175"/>
-      <c r="AE6" s="175"/>
-      <c r="AF6" s="175"/>
-      <c r="AG6" s="175"/>
-      <c r="AH6" s="175"/>
-      <c r="AI6" s="175"/>
-      <c r="AJ6" s="175"/>
-      <c r="AK6" s="175"/>
-      <c r="AL6" s="175"/>
-      <c r="AM6" s="175"/>
-      <c r="AN6" s="175"/>
-      <c r="AO6" s="175" t="s">
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="188"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
+      <c r="T6" s="188"/>
+      <c r="U6" s="188"/>
+      <c r="V6" s="188"/>
+      <c r="W6" s="188"/>
+      <c r="X6" s="188"/>
+      <c r="Y6" s="188"/>
+      <c r="Z6" s="188"/>
+      <c r="AA6" s="188"/>
+      <c r="AB6" s="188"/>
+      <c r="AC6" s="188"/>
+      <c r="AD6" s="188"/>
+      <c r="AE6" s="188"/>
+      <c r="AF6" s="188"/>
+      <c r="AG6" s="188"/>
+      <c r="AH6" s="188"/>
+      <c r="AI6" s="188"/>
+      <c r="AJ6" s="188"/>
+      <c r="AK6" s="188"/>
+      <c r="AL6" s="188"/>
+      <c r="AM6" s="188"/>
+      <c r="AN6" s="188"/>
+      <c r="AO6" s="188" t="s">
         <v>140</v>
       </c>
-      <c r="AP6" s="175"/>
-      <c r="AQ6" s="175"/>
-      <c r="AR6" s="175"/>
-      <c r="AS6" s="175" t="s">
+      <c r="AP6" s="188"/>
+      <c r="AQ6" s="188"/>
+      <c r="AR6" s="188"/>
+      <c r="AS6" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="175"/>
-      <c r="AU6" s="175"/>
-      <c r="AV6" s="175" t="s">
+      <c r="AT6" s="188"/>
+      <c r="AU6" s="188"/>
+      <c r="AV6" s="188" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="175"/>
-      <c r="AX6" s="175"/>
-      <c r="AY6" s="175"/>
-      <c r="AZ6" s="175"/>
-      <c r="BA6" s="175"/>
-      <c r="BB6" s="175"/>
-      <c r="BC6" s="184" t="s">
+      <c r="AW6" s="188"/>
+      <c r="AX6" s="188"/>
+      <c r="AY6" s="188"/>
+      <c r="AZ6" s="188"/>
+      <c r="BA6" s="188"/>
+      <c r="BB6" s="188"/>
+      <c r="BC6" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="185"/>
-      <c r="BE6" s="186" t="s">
+      <c r="BD6" s="193"/>
+      <c r="BE6" s="194" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="187"/>
-      <c r="BG6" s="187"/>
-      <c r="BH6" s="187"/>
-      <c r="BI6" s="187"/>
-      <c r="BJ6" s="187"/>
-      <c r="BK6" s="188"/>
-      <c r="BL6" s="189" t="s">
+      <c r="BF6" s="195"/>
+      <c r="BG6" s="195"/>
+      <c r="BH6" s="195"/>
+      <c r="BI6" s="195"/>
+      <c r="BJ6" s="195"/>
+      <c r="BK6" s="196"/>
+      <c r="BL6" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="187"/>
-      <c r="BN6" s="187"/>
-      <c r="BO6" s="187"/>
-      <c r="BP6" s="187"/>
-      <c r="BQ6" s="187"/>
-      <c r="BR6" s="187"/>
-      <c r="BS6" s="187"/>
-      <c r="BT6" s="187"/>
-      <c r="BU6" s="187"/>
-      <c r="BV6" s="187"/>
-      <c r="BW6" s="187"/>
-      <c r="BX6" s="187"/>
-      <c r="BY6" s="187"/>
-      <c r="BZ6" s="187"/>
-      <c r="CA6" s="187"/>
-      <c r="CB6" s="187"/>
-      <c r="CC6" s="187"/>
-      <c r="CD6" s="187"/>
-      <c r="CE6" s="187"/>
-      <c r="CF6" s="187"/>
-      <c r="CG6" s="187"/>
-      <c r="CH6" s="187"/>
-      <c r="CI6" s="187"/>
-      <c r="CJ6" s="187"/>
-      <c r="CK6" s="187"/>
-      <c r="CL6" s="187"/>
-      <c r="CM6" s="187"/>
-      <c r="CN6" s="187"/>
-      <c r="CO6" s="187"/>
-      <c r="CP6" s="187"/>
-      <c r="CQ6" s="194" t="s">
+      <c r="BM6" s="195"/>
+      <c r="BN6" s="195"/>
+      <c r="BO6" s="195"/>
+      <c r="BP6" s="195"/>
+      <c r="BQ6" s="195"/>
+      <c r="BR6" s="195"/>
+      <c r="BS6" s="195"/>
+      <c r="BT6" s="195"/>
+      <c r="BU6" s="195"/>
+      <c r="BV6" s="195"/>
+      <c r="BW6" s="195"/>
+      <c r="BX6" s="195"/>
+      <c r="BY6" s="195"/>
+      <c r="BZ6" s="195"/>
+      <c r="CA6" s="195"/>
+      <c r="CB6" s="195"/>
+      <c r="CC6" s="195"/>
+      <c r="CD6" s="195"/>
+      <c r="CE6" s="195"/>
+      <c r="CF6" s="195"/>
+      <c r="CG6" s="195"/>
+      <c r="CH6" s="195"/>
+      <c r="CI6" s="195"/>
+      <c r="CJ6" s="195"/>
+      <c r="CK6" s="195"/>
+      <c r="CL6" s="195"/>
+      <c r="CM6" s="195"/>
+      <c r="CN6" s="195"/>
+      <c r="CO6" s="195"/>
+      <c r="CP6" s="195"/>
+      <c r="CQ6" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="194"/>
-      <c r="CS6" s="190" t="s">
+      <c r="CR6" s="185"/>
+      <c r="CS6" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="190" t="s">
+      <c r="CT6" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="181" t="s">
+      <c r="CU6" s="189" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="196"/>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
       <c r="E7" s="118"/>
       <c r="F7" s="117">
         <v>0.3</v>
@@ -7811,353 +7811,353 @@
       <c r="I7" s="118">
         <v>0.3</v>
       </c>
-      <c r="J7" s="174">
+      <c r="J7" s="180">
         <v>42980</v>
       </c>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174">
+      <c r="K7" s="180"/>
+      <c r="L7" s="180">
         <v>43035</v>
       </c>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174">
+      <c r="M7" s="180"/>
+      <c r="N7" s="180">
         <v>43056</v>
       </c>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="174"/>
-      <c r="S7" s="174"/>
-      <c r="T7" s="180">
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="181">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>3</v>
       </c>
-      <c r="U7" s="180"/>
-      <c r="V7" s="174"/>
-      <c r="W7" s="174"/>
-      <c r="X7" s="174"/>
-      <c r="Y7" s="174"/>
-      <c r="Z7" s="174"/>
-      <c r="AA7" s="174"/>
-      <c r="AB7" s="174"/>
-      <c r="AC7" s="174"/>
-      <c r="AD7" s="174"/>
-      <c r="AE7" s="174"/>
-      <c r="AF7" s="174"/>
-      <c r="AG7" s="174"/>
-      <c r="AH7" s="174"/>
-      <c r="AI7" s="174"/>
-      <c r="AJ7" s="174"/>
-      <c r="AK7" s="174"/>
-      <c r="AL7" s="174"/>
-      <c r="AM7" s="174"/>
+      <c r="U7" s="181"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="180"/>
+      <c r="AB7" s="180"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="180"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
+      <c r="AI7" s="180"/>
+      <c r="AJ7" s="180"/>
+      <c r="AK7" s="180"/>
+      <c r="AL7" s="180"/>
+      <c r="AM7" s="180"/>
       <c r="AN7" s="91">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="174" t="s">
+      <c r="AO7" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="AP7" s="174"/>
-      <c r="AQ7" s="174"/>
-      <c r="AR7" s="174"/>
-      <c r="AS7" s="180">
+      <c r="AP7" s="180"/>
+      <c r="AQ7" s="180"/>
+      <c r="AR7" s="180"/>
+      <c r="AS7" s="181">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="180"/>
+      <c r="AT7" s="181"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="174" t="s">
+      <c r="AV7" s="180" t="s">
         <v>174</v>
       </c>
-      <c r="AW7" s="174"/>
-      <c r="AX7" s="174"/>
-      <c r="AY7" s="174"/>
-      <c r="AZ7" s="180">
+      <c r="AW7" s="180"/>
+      <c r="AX7" s="180"/>
+      <c r="AY7" s="180"/>
+      <c r="AZ7" s="181">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="180"/>
+      <c r="BA7" s="181"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="184"/>
-      <c r="BD7" s="185"/>
-      <c r="BE7" s="174" t="s">
+      <c r="BC7" s="192"/>
+      <c r="BD7" s="193"/>
+      <c r="BE7" s="180" t="s">
         <v>287</v>
       </c>
-      <c r="BF7" s="174"/>
-      <c r="BG7" s="174" t="s">
+      <c r="BF7" s="180"/>
+      <c r="BG7" s="180" t="s">
         <v>288</v>
       </c>
-      <c r="BH7" s="174"/>
-      <c r="BI7" s="178">
+      <c r="BH7" s="180"/>
+      <c r="BI7" s="198">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>3</v>
       </c>
-      <c r="BJ7" s="179"/>
+      <c r="BJ7" s="199"/>
       <c r="BK7" s="99">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="174">
+      <c r="BL7" s="180">
         <v>42980</v>
       </c>
-      <c r="BM7" s="174"/>
-      <c r="BN7" s="174">
+      <c r="BM7" s="180"/>
+      <c r="BN7" s="180">
         <v>42987</v>
       </c>
-      <c r="BO7" s="174"/>
-      <c r="BP7" s="174">
+      <c r="BO7" s="180"/>
+      <c r="BP7" s="180">
         <v>42994</v>
       </c>
-      <c r="BQ7" s="174"/>
-      <c r="BR7" s="174">
+      <c r="BQ7" s="180"/>
+      <c r="BR7" s="180">
         <v>43001</v>
       </c>
-      <c r="BS7" s="174"/>
-      <c r="BT7" s="174">
+      <c r="BS7" s="180"/>
+      <c r="BT7" s="180">
         <v>43022</v>
       </c>
-      <c r="BU7" s="174"/>
-      <c r="BV7" s="174">
+      <c r="BU7" s="180"/>
+      <c r="BV7" s="180">
         <v>43029</v>
       </c>
-      <c r="BW7" s="174"/>
-      <c r="BX7" s="174">
+      <c r="BW7" s="180"/>
+      <c r="BX7" s="180">
         <v>43036</v>
       </c>
-      <c r="BY7" s="174"/>
-      <c r="BZ7" s="174">
+      <c r="BY7" s="180"/>
+      <c r="BZ7" s="180">
         <v>43036</v>
       </c>
-      <c r="CA7" s="174"/>
-      <c r="CB7" s="174">
+      <c r="CA7" s="180"/>
+      <c r="CB7" s="180">
         <v>43050</v>
       </c>
-      <c r="CC7" s="174"/>
-      <c r="CD7" s="174">
+      <c r="CC7" s="180"/>
+      <c r="CD7" s="180">
         <v>43057</v>
       </c>
-      <c r="CE7" s="174"/>
-      <c r="CF7" s="174"/>
-      <c r="CG7" s="174"/>
-      <c r="CH7" s="174"/>
-      <c r="CI7" s="174"/>
-      <c r="CJ7" s="174"/>
-      <c r="CK7" s="174"/>
-      <c r="CL7" s="174"/>
-      <c r="CM7" s="174"/>
-      <c r="CN7" s="180">
+      <c r="CE7" s="180"/>
+      <c r="CF7" s="180"/>
+      <c r="CG7" s="180"/>
+      <c r="CH7" s="180"/>
+      <c r="CI7" s="180"/>
+      <c r="CJ7" s="180"/>
+      <c r="CK7" s="180"/>
+      <c r="CL7" s="180"/>
+      <c r="CM7" s="180"/>
+      <c r="CN7" s="181">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>10</v>
       </c>
-      <c r="CO7" s="180"/>
+      <c r="CO7" s="181"/>
       <c r="CP7" s="100">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="194"/>
-      <c r="CR7" s="194"/>
-      <c r="CS7" s="190"/>
-      <c r="CT7" s="190"/>
-      <c r="CU7" s="182"/>
+      <c r="CQ7" s="185"/>
+      <c r="CR7" s="185"/>
+      <c r="CS7" s="167"/>
+      <c r="CT7" s="167"/>
+      <c r="CU7" s="190"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="196"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="205" t="s">
+      <c r="A8" s="169"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="205" t="s">
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="205"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="167" t="s">
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167" t="s">
+      <c r="K8" s="179"/>
+      <c r="L8" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167" t="s">
+      <c r="M8" s="179"/>
+      <c r="N8" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="167"/>
-      <c r="P8" s="167" t="s">
+      <c r="O8" s="179"/>
+      <c r="P8" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="167"/>
-      <c r="R8" s="167" t="s">
+      <c r="Q8" s="179"/>
+      <c r="R8" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="167"/>
-      <c r="T8" s="167" t="s">
+      <c r="S8" s="179"/>
+      <c r="T8" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="167"/>
-      <c r="V8" s="167" t="s">
+      <c r="U8" s="179"/>
+      <c r="V8" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="167"/>
-      <c r="X8" s="167" t="s">
+      <c r="W8" s="179"/>
+      <c r="X8" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="167"/>
-      <c r="Z8" s="167" t="s">
+      <c r="Y8" s="179"/>
+      <c r="Z8" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="167"/>
-      <c r="AB8" s="167" t="s">
+      <c r="AA8" s="179"/>
+      <c r="AB8" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="167"/>
-      <c r="AD8" s="167" t="s">
+      <c r="AC8" s="179"/>
+      <c r="AD8" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="167"/>
-      <c r="AF8" s="167" t="s">
+      <c r="AE8" s="179"/>
+      <c r="AF8" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="167"/>
-      <c r="AH8" s="167" t="s">
+      <c r="AG8" s="179"/>
+      <c r="AH8" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="167"/>
-      <c r="AJ8" s="167" t="s">
+      <c r="AI8" s="179"/>
+      <c r="AJ8" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="167"/>
-      <c r="AL8" s="167" t="s">
+      <c r="AK8" s="179"/>
+      <c r="AL8" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="167"/>
+      <c r="AM8" s="179"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="167" t="s">
+      <c r="AO8" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="167"/>
-      <c r="AQ8" s="167" t="s">
+      <c r="AP8" s="179"/>
+      <c r="AQ8" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="167"/>
-      <c r="AS8" s="167" t="s">
+      <c r="AR8" s="179"/>
+      <c r="AS8" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="167"/>
+      <c r="AT8" s="179"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="167" t="s">
+      <c r="AV8" s="179" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="167"/>
-      <c r="AX8" s="167" t="s">
+      <c r="AW8" s="179"/>
+      <c r="AX8" s="179" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="167"/>
-      <c r="AZ8" s="167" t="s">
+      <c r="AY8" s="179"/>
+      <c r="AZ8" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="167"/>
+      <c r="BA8" s="179"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="184"/>
-      <c r="BD8" s="185"/>
-      <c r="BE8" s="177" t="s">
+      <c r="BC8" s="192"/>
+      <c r="BD8" s="193"/>
+      <c r="BE8" s="203" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="176"/>
-      <c r="BG8" s="176" t="s">
+      <c r="BF8" s="200"/>
+      <c r="BG8" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="176"/>
-      <c r="BI8" s="176" t="s">
+      <c r="BH8" s="200"/>
+      <c r="BI8" s="200" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="176"/>
+      <c r="BJ8" s="200"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="170" t="s">
+      <c r="BL8" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="171"/>
-      <c r="BN8" s="170" t="s">
+      <c r="BM8" s="202"/>
+      <c r="BN8" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="171"/>
-      <c r="BP8" s="170" t="s">
+      <c r="BO8" s="202"/>
+      <c r="BP8" s="201" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="171"/>
-      <c r="BR8" s="170" t="s">
+      <c r="BQ8" s="202"/>
+      <c r="BR8" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="171"/>
-      <c r="BT8" s="170" t="s">
+      <c r="BS8" s="202"/>
+      <c r="BT8" s="201" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="171"/>
-      <c r="BV8" s="168" t="s">
+      <c r="BU8" s="202"/>
+      <c r="BV8" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="169"/>
-      <c r="BX8" s="168" t="s">
+      <c r="BW8" s="187"/>
+      <c r="BX8" s="186" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="169"/>
-      <c r="BZ8" s="168" t="s">
+      <c r="BY8" s="187"/>
+      <c r="BZ8" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="169"/>
-      <c r="CB8" s="168" t="s">
+      <c r="CA8" s="187"/>
+      <c r="CB8" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="169"/>
-      <c r="CD8" s="168" t="s">
+      <c r="CC8" s="187"/>
+      <c r="CD8" s="186" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="169"/>
-      <c r="CF8" s="168" t="s">
+      <c r="CE8" s="187"/>
+      <c r="CF8" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="169"/>
-      <c r="CH8" s="168" t="s">
+      <c r="CG8" s="187"/>
+      <c r="CH8" s="186" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="169"/>
-      <c r="CJ8" s="168" t="s">
+      <c r="CI8" s="187"/>
+      <c r="CJ8" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="169"/>
-      <c r="CL8" s="168" t="s">
+      <c r="CK8" s="187"/>
+      <c r="CL8" s="186" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="169"/>
-      <c r="CN8" s="168" t="s">
+      <c r="CM8" s="187"/>
+      <c r="CN8" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="169"/>
+      <c r="CO8" s="187"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="194"/>
-      <c r="CR8" s="194"/>
-      <c r="CS8" s="190"/>
-      <c r="CT8" s="190"/>
-      <c r="CU8" s="182"/>
+      <c r="CQ8" s="185"/>
+      <c r="CR8" s="185"/>
+      <c r="CS8" s="167"/>
+      <c r="CT8" s="167"/>
+      <c r="CU8" s="190"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="197"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
+      <c r="A9" s="170"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -8349,9 +8349,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="190"/>
-      <c r="CT9" s="190"/>
-      <c r="CU9" s="183"/>
+      <c r="CS9" s="167"/>
+      <c r="CT9" s="167"/>
+      <c r="CU9" s="191"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -24798,6 +24798,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A2:CU3"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
     <mergeCell ref="CS6:CS9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
@@ -24814,88 +24896,6 @@
     <mergeCell ref="BG7:BH7"/>
     <mergeCell ref="CF7:CG7"/>
     <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A2:CU3"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CF8:CG8"/>
-    <mergeCell ref="CH8:CI8"/>
-    <mergeCell ref="CJ8:CK8"/>
-    <mergeCell ref="CL8:CM8"/>
-    <mergeCell ref="BP8:BQ8"/>
-    <mergeCell ref="BR8:BS8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BV8:BW8"/>
-    <mergeCell ref="BX8:BY8"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
@@ -24920,7 +24920,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:P68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
       <selection sqref="A1:P40"/>
     </sheetView>
   </sheetViews>
@@ -29073,7 +29073,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="72" orientation="landscape" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="256" scale="85" orientation="landscape" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29111,106 +29111,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="253"/>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
+      <c r="A3" s="222"/>
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="256" t="s">
+      <c r="A4" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
+      <c r="B4" s="223"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="224" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="224"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="256" t="s">
+      <c r="A6" s="223" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="256"/>
-      <c r="C6" s="256"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="258" t="s">
+      <c r="A7" s="225" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="258"/>
-      <c r="D7" s="258"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="258"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="259"/>
-      <c r="B8" s="259"/>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="259"/>
-      <c r="F8" s="259"/>
+      <c r="A8" s="226"/>
+      <c r="B8" s="226"/>
+      <c r="C8" s="226"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="253"/>
-      <c r="B9" s="253"/>
-      <c r="C9" s="253"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="253"/>
-      <c r="F9" s="253"/>
+      <c r="A9" s="222"/>
+      <c r="B9" s="222"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="222"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="260"/>
-      <c r="B10" s="260"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="260"/>
+      <c r="A10" s="227"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="227"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="227"/>
+      <c r="F10" s="227"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="261" t="s">
+      <c r="A11" s="228" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="261"/>
-      <c r="C11" s="261"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="261"/>
-      <c r="F11" s="261"/>
+      <c r="B11" s="228"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="228"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="259"/>
-      <c r="B12" s="259"/>
-      <c r="C12" s="259"/>
-      <c r="D12" s="259"/>
-      <c r="E12" s="259"/>
-      <c r="F12" s="259"/>
+      <c r="A12" s="226"/>
+      <c r="B12" s="226"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="226"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="226"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="262" t="str">
+      <c r="C13" s="229" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="262"/>
-      <c r="E13" s="262"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="229"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -29218,12 +29218,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="255" t="str">
+      <c r="C14" s="221" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="255"/>
-      <c r="E14" s="255"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="221"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -29231,12 +29231,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="241" t="str">
+      <c r="C15" s="232" t="str">
         <f>REGISTRATION!A4</f>
         <v>THIRD YEAR</v>
       </c>
-      <c r="D15" s="241"/>
-      <c r="E15" s="241"/>
+      <c r="D15" s="232"/>
+      <c r="E15" s="232"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -29244,12 +29244,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="241" t="str">
+      <c r="C16" s="232" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3A</v>
       </c>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
+      <c r="D16" s="232"/>
+      <c r="E16" s="232"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -29257,12 +29257,12 @@
       <c r="B17" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="241" t="str">
+      <c r="C17" s="232" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="241"/>
-      <c r="E17" s="241"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="232"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -29274,42 +29274,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="242" t="s">
+      <c r="A19" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="245" t="s">
+      <c r="B19" s="236" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="242" t="s">
+      <c r="C19" s="233" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="242" t="s">
+      <c r="D19" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="247" t="s">
+      <c r="E19" s="238" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="242" t="s">
+      <c r="F19" s="233" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="243"/>
-      <c r="B20" s="246"/>
-      <c r="C20" s="243"/>
-      <c r="D20" s="243"/>
-      <c r="E20" s="248"/>
-      <c r="F20" s="250"/>
+      <c r="A20" s="234"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="234"/>
+      <c r="D20" s="234"/>
+      <c r="E20" s="239"/>
+      <c r="F20" s="241"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="244"/>
+      <c r="A21" s="235"/>
       <c r="B21" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="244"/>
-      <c r="D21" s="244"/>
-      <c r="E21" s="249"/>
-      <c r="F21" s="251"/>
+      <c r="C21" s="235"/>
+      <c r="D21" s="235"/>
+      <c r="E21" s="240"/>
+      <c r="F21" s="242"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -30137,14 +30137,14 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A55" s="225" t="s">
+      <c r="A55" s="249" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="226"/>
-      <c r="C55" s="226"/>
-      <c r="D55" s="226"/>
-      <c r="E55" s="226"/>
-      <c r="F55" s="227"/>
+      <c r="B55" s="250"/>
+      <c r="C55" s="250"/>
+      <c r="D55" s="250"/>
+      <c r="E55" s="250"/>
+      <c r="F55" s="251"/>
     </row>
     <row r="56" spans="1:6" ht="15.75">
       <c r="A56" s="62"/>
@@ -30177,11 +30177,11 @@
       </c>
       <c r="C59" s="60"/>
       <c r="D59" s="60"/>
-      <c r="E59" s="252">
+      <c r="E59" s="243">
         <f ca="1">NOW()</f>
-        <v>43081.87773078704</v>
-      </c>
-      <c r="F59" s="252"/>
+        <v>43082.761145370372</v>
+      </c>
+      <c r="F59" s="243"/>
     </row>
     <row r="60" spans="1:6" ht="15.75">
       <c r="A60" s="60"/>
@@ -30191,10 +30191,10 @@
       </c>
       <c r="C60" s="73"/>
       <c r="D60" s="73"/>
-      <c r="E60" s="253" t="s">
+      <c r="E60" s="222" t="s">
         <v>120</v>
       </c>
-      <c r="F60" s="253"/>
+      <c r="F60" s="222"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="60"/>
@@ -30211,8 +30211,8 @@
       <c r="B62" s="74"/>
       <c r="C62" s="74"/>
       <c r="D62" s="74"/>
-      <c r="E62" s="253"/>
-      <c r="F62" s="253"/>
+      <c r="E62" s="222"/>
+      <c r="F62" s="222"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="60"/>
@@ -30327,14 +30327,14 @@
       <c r="F76" s="60"/>
     </row>
     <row r="77" spans="1:6" ht="15.75">
-      <c r="A77" s="254" t="s">
+      <c r="A77" s="244" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="254"/>
-      <c r="C77" s="254"/>
-      <c r="D77" s="254"/>
-      <c r="E77" s="254"/>
-      <c r="F77" s="254"/>
+      <c r="B77" s="244"/>
+      <c r="C77" s="244"/>
+      <c r="D77" s="244"/>
+      <c r="E77" s="244"/>
+      <c r="F77" s="244"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1">
       <c r="A78" s="60"/>
@@ -30349,124 +30349,124 @@
       <c r="B79" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="C79" s="238" t="s">
+      <c r="C79" s="262" t="s">
         <v>137</v>
       </c>
-      <c r="D79" s="239"/>
-      <c r="E79" s="240" t="s">
+      <c r="D79" s="231"/>
+      <c r="E79" s="230" t="s">
         <v>138</v>
       </c>
-      <c r="F79" s="239"/>
+      <c r="F79" s="231"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="60"/>
       <c r="B80" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C80" s="234">
+      <c r="C80" s="258">
         <f>COUNTIF($D$22:$D$54,"=1.0")+COUNTIF($D$22:$D$54,"=1.25")+(COUNTIF($D$22:$D$54,"=1.50")+COUNTIF($D$22:$D$54,"=1.75"))</f>
         <v>8</v>
       </c>
-      <c r="D80" s="235"/>
-      <c r="E80" s="236">
+      <c r="D80" s="259"/>
+      <c r="E80" s="260">
         <f>(C80/$C$86)*100</f>
         <v>24.242424242424242</v>
       </c>
-      <c r="F80" s="237"/>
+      <c r="F80" s="261"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="60"/>
       <c r="B81" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="C81" s="228">
+      <c r="C81" s="252">
         <f>COUNTIF($D$22:$D$54,"=2.0")+COUNTIF($D$22:$D$54,"=2.25")+(COUNTIF($D$22:$D$54,"=2.50")+COUNTIF($D$22:$D$54,"=2.75"))</f>
         <v>20</v>
       </c>
-      <c r="D81" s="229"/>
-      <c r="E81" s="230">
+      <c r="D81" s="253"/>
+      <c r="E81" s="254">
         <f>(C81/$C$86)*100</f>
         <v>60.606060606060609</v>
       </c>
-      <c r="F81" s="231"/>
+      <c r="F81" s="255"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="60"/>
       <c r="B82" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C82" s="228">
+      <c r="C82" s="252">
         <f>COUNTIF($D$22:$D$54,"=3.0")</f>
         <v>4</v>
       </c>
-      <c r="D82" s="229"/>
-      <c r="E82" s="230">
+      <c r="D82" s="253"/>
+      <c r="E82" s="254">
         <f t="shared" ref="E82:E85" si="1">(C82/$C$86)*100</f>
         <v>12.121212121212121</v>
       </c>
-      <c r="F82" s="231"/>
+      <c r="F82" s="255"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="60"/>
       <c r="B83" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="228">
+      <c r="C83" s="252">
         <f>COUNTIF($D$22:$D$54,"=5.0")</f>
         <v>1</v>
       </c>
-      <c r="D83" s="229"/>
-      <c r="E83" s="230">
+      <c r="D83" s="253"/>
+      <c r="E83" s="254">
         <f t="shared" si="1"/>
         <v>3.0303030303030303</v>
       </c>
-      <c r="F83" s="231"/>
+      <c r="F83" s="255"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="60"/>
       <c r="B84" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C84" s="232">
-        <v>0</v>
-      </c>
-      <c r="D84" s="233"/>
-      <c r="E84" s="230">
+      <c r="C84" s="256">
+        <v>0</v>
+      </c>
+      <c r="D84" s="257"/>
+      <c r="E84" s="254">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F84" s="231"/>
+      <c r="F84" s="255"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="60"/>
       <c r="B85" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="C85" s="232">
-        <v>0</v>
-      </c>
-      <c r="D85" s="233"/>
-      <c r="E85" s="230">
+      <c r="C85" s="256">
+        <v>0</v>
+      </c>
+      <c r="D85" s="257"/>
+      <c r="E85" s="254">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F85" s="231"/>
+      <c r="F85" s="255"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" thickBot="1">
       <c r="A86" s="60"/>
       <c r="B86" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="221">
+      <c r="C86" s="245">
         <f>SUM(C80:D85)</f>
         <v>33</v>
       </c>
-      <c r="D86" s="222"/>
-      <c r="E86" s="223">
+      <c r="D86" s="246"/>
+      <c r="E86" s="247">
         <f>SUM(E80:F85)</f>
         <v>100</v>
       </c>
-      <c r="F86" s="224"/>
+      <c r="F86" s="248"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="60"/>
@@ -30634,32 +30634,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="A77:F77"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="A55:F55"/>
@@ -30676,6 +30650,32 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="E82:F82"/>
     <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F54">
     <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
@@ -30683,7 +30683,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="58" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="58" orientation="portrait" horizontalDpi="4294967294" verticalDpi="360" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="72" max="16383" man="1"/>
   </rowBreaks>

--- a/DCIT 65 - CS 3A/LEC AND LAB - CS 3A.xlsx
+++ b/DCIT 65 - CS 3A/LEC AND LAB - CS 3A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -586,9 +586,6 @@
     <t>BSCS</t>
   </si>
   <si>
-    <t>Renen Paul A. Viado</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -969,6 +966,9 @@
   <si>
     <t>THIRD YEAR</t>
   </si>
+  <si>
+    <t>Renen Paul M. Viado</t>
+  </si>
 </sst>
 </file>
 
@@ -978,7 +978,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1205,6 +1205,12 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1950,7 +1956,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2355,37 +2361,99 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2425,104 +2493,137 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2563,101 +2664,6 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2716,102 +2722,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2887,6 +2797,102 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2904,6 +2910,10 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4848,7 +4858,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4860,7 +4870,7 @@
   <dimension ref="A2:R71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M4"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4881,82 +4891,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="155" t="s">
-        <v>293</v>
-      </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
+      <c r="A4" s="120" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="154"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="121" t="s">
+      <c r="A6" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="158"/>
+      <c r="C6" s="159" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="122" t="s">
+      <c r="D6" s="159"/>
+      <c r="E6" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="122"/>
+      <c r="F6" s="160"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -4964,28 +4974,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="123" t="s">
+      <c r="J6" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="123"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="126"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="3" t="s">
         <v>158</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="127"/>
+      <c r="F7" s="165"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -4993,28 +5003,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="127" t="s">
+      <c r="J7" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="127"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="130"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" s="131" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="131"/>
+      <c r="F8" s="147"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -5022,45 +5032,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="131" t="s">
+      <c r="J8" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="131"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="138" t="s">
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="138" t="s">
+      <c r="G9" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141" t="s">
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="142"/>
-      <c r="L9" s="141" t="s">
+      <c r="K9" s="138"/>
+      <c r="L9" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="142"/>
+      <c r="M9" s="138"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="134"/>
-      <c r="B10" s="136"/>
+      <c r="A10" s="150"/>
+      <c r="B10" s="152"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -5070,365 +5080,365 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
         <v>1</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>178</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G11" s="148"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="150"/>
-      <c r="O11" s="161" t="s">
+      <c r="G11" s="140"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="142"/>
+      <c r="O11" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="163"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="131"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
         <v>2</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>182</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="159" t="s">
+      <c r="P12" s="124" t="s">
         <v>161</v>
       </c>
-      <c r="Q12" s="159"/>
-      <c r="R12" s="159"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
         <v>3</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>186</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="159" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q13" s="159"/>
-      <c r="R13" s="159"/>
+      <c r="P13" s="124" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="124"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
         <v>4</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="147"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="156" t="s">
+      <c r="P14" s="121" t="s">
         <v>162</v>
       </c>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="123"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
         <v>5</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>194</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="147"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="156" t="s">
+      <c r="P15" s="121" t="s">
         <v>163</v>
       </c>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="158"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="123"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
         <v>6</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>198</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="147"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="166"/>
+      <c r="P16" s="132" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="134"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
         <v>7</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="156" t="s">
+      <c r="P17" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="158"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
         <v>8</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="147"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
         <v>9</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="E19" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="127"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
         <v>10</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>211</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>212</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="127"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
         <v>11</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>215</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>216</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="147"/>
-      <c r="M21" s="147"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="127"/>
       <c r="P21" s="94" t="s">
         <v>142</v>
       </c>
@@ -5438,25 +5448,25 @@
         <v>12</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>219</v>
-      </c>
       <c r="E22" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="127"/>
+      <c r="M22" s="127"/>
       <c r="P22" s="95">
         <v>0</v>
       </c>
@@ -5469,27 +5479,27 @@
         <v>13</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="E23" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>223</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="127"/>
       <c r="P23" s="96">
         <v>70</v>
       </c>
@@ -5502,27 +5512,27 @@
         <v>14</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>225</v>
-      </c>
       <c r="E24" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="127"/>
       <c r="P24" s="96">
         <v>73.34</v>
       </c>
@@ -5535,27 +5545,27 @@
         <v>15</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C25" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>281</v>
-      </c>
       <c r="E25" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="147"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="127"/>
       <c r="P25" s="96">
         <v>76.680000000000007</v>
       </c>
@@ -5568,27 +5578,27 @@
         <v>16</v>
       </c>
       <c r="B26" s="84" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C26" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>227</v>
-      </c>
       <c r="E26" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="147"/>
-      <c r="M26" s="147"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="127"/>
       <c r="P26" s="96">
         <v>80.02</v>
       </c>
@@ -5601,27 +5611,27 @@
         <v>17</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="D27" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>230</v>
-      </c>
       <c r="E27" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="147"/>
-      <c r="M27" s="147"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="127"/>
       <c r="P27" s="96">
         <v>83.36</v>
       </c>
@@ -5634,27 +5644,27 @@
         <v>18</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="D28" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>233</v>
-      </c>
       <c r="E28" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="127"/>
       <c r="P28" s="96">
         <v>86.7</v>
       </c>
@@ -5667,27 +5677,27 @@
         <v>19</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="D29" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>236</v>
-      </c>
       <c r="E29" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="127"/>
       <c r="P29" s="96">
         <v>90.04</v>
       </c>
@@ -5700,27 +5710,27 @@
         <v>20</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="D30" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>239</v>
-      </c>
       <c r="E30" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="147"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="127"/>
       <c r="P30" s="96">
         <v>93.38</v>
       </c>
@@ -5733,27 +5743,27 @@
         <v>21</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="D31" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>242</v>
-      </c>
       <c r="E31" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="147"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="127"/>
       <c r="P31" s="95"/>
       <c r="Q31" s="95"/>
     </row>
@@ -5762,27 +5772,27 @@
         <v>22</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="D32" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>245</v>
-      </c>
       <c r="E32" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="127"/>
       <c r="P32" s="95">
         <v>96.72</v>
       </c>
@@ -5795,297 +5805,297 @@
         <v>23</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="D33" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>247</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>248</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="127"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
         <v>24</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="D34" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>251</v>
-      </c>
       <c r="E34" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="147"/>
-      <c r="M34" s="147"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="135"/>
+      <c r="K34" s="136"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="127"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
         <v>25</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="D35" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>254</v>
-      </c>
       <c r="E35" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="147"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="127"/>
+      <c r="M35" s="127"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
         <v>26</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="D36" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="E36" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="147"/>
-      <c r="M36" s="147"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="136"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="127"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
         <v>27</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C37" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="E37" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>260</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="153"/>
-      <c r="L37" s="147"/>
-      <c r="M37" s="147"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="127"/>
+      <c r="M37" s="127"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
         <v>28</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="D38" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="E38" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="153"/>
-      <c r="K38" s="153"/>
-      <c r="L38" s="147"/>
-      <c r="M38" s="147"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="126"/>
+      <c r="K38" s="126"/>
+      <c r="L38" s="127"/>
+      <c r="M38" s="127"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
         <v>29</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="D39" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>266</v>
-      </c>
       <c r="E39" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="153"/>
-      <c r="K39" s="153"/>
-      <c r="L39" s="147"/>
-      <c r="M39" s="147"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="126"/>
+      <c r="K39" s="126"/>
+      <c r="L39" s="127"/>
+      <c r="M39" s="127"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
         <v>30</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="D40" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>269</v>
-      </c>
       <c r="E40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="153"/>
-      <c r="K40" s="153"/>
-      <c r="L40" s="147"/>
-      <c r="M40" s="147"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="126"/>
+      <c r="K40" s="126"/>
+      <c r="L40" s="127"/>
+      <c r="M40" s="127"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
         <v>31</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C41" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="E41" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>272</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="153"/>
-      <c r="L41" s="147"/>
-      <c r="M41" s="147"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="126"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="127"/>
+      <c r="M41" s="127"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
         <v>32</v>
       </c>
       <c r="B42" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="D42" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="E42" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>276</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="153"/>
-      <c r="K42" s="153"/>
-      <c r="L42" s="147"/>
-      <c r="M42" s="147"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="127"/>
+      <c r="M42" s="127"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
         <v>33</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="D43" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>279</v>
-      </c>
       <c r="E43" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G43" s="144"/>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="153"/>
-      <c r="K43" s="153"/>
-      <c r="L43" s="147"/>
-      <c r="M43" s="147"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="127"/>
+      <c r="M43" s="127"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -6096,13 +6106,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="144"/>
-      <c r="H44" s="144"/>
-      <c r="I44" s="144"/>
-      <c r="J44" s="153"/>
-      <c r="K44" s="153"/>
-      <c r="L44" s="147"/>
-      <c r="M44" s="147"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="126"/>
+      <c r="K44" s="126"/>
+      <c r="L44" s="127"/>
+      <c r="M44" s="127"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -6113,13 +6123,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="153"/>
-      <c r="K45" s="153"/>
-      <c r="L45" s="147"/>
-      <c r="M45" s="147"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="126"/>
+      <c r="L45" s="127"/>
+      <c r="M45" s="127"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -6130,13 +6140,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="144"/>
-      <c r="J46" s="153"/>
-      <c r="K46" s="153"/>
-      <c r="L46" s="147"/>
-      <c r="M46" s="147"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="126"/>
+      <c r="L46" s="127"/>
+      <c r="M46" s="127"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -6147,13 +6157,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
-      <c r="J47" s="153"/>
-      <c r="K47" s="153"/>
-      <c r="L47" s="147"/>
-      <c r="M47" s="147"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="126"/>
+      <c r="K47" s="126"/>
+      <c r="L47" s="127"/>
+      <c r="M47" s="127"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -6164,13 +6174,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="153"/>
-      <c r="K48" s="153"/>
-      <c r="L48" s="147"/>
-      <c r="M48" s="147"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="126"/>
+      <c r="K48" s="126"/>
+      <c r="L48" s="127"/>
+      <c r="M48" s="127"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -6181,13 +6191,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="144"/>
-      <c r="I49" s="144"/>
-      <c r="J49" s="153"/>
-      <c r="K49" s="153"/>
-      <c r="L49" s="147"/>
-      <c r="M49" s="147"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="126"/>
+      <c r="K49" s="126"/>
+      <c r="L49" s="127"/>
+      <c r="M49" s="127"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -6198,13 +6208,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="153"/>
-      <c r="K50" s="153"/>
-      <c r="L50" s="147"/>
-      <c r="M50" s="147"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="126"/>
+      <c r="K50" s="126"/>
+      <c r="L50" s="127"/>
+      <c r="M50" s="127"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -6215,13 +6225,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="144"/>
-      <c r="H51" s="144"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="153"/>
-      <c r="K51" s="153"/>
-      <c r="L51" s="147"/>
-      <c r="M51" s="147"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="126"/>
+      <c r="K51" s="126"/>
+      <c r="L51" s="127"/>
+      <c r="M51" s="127"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -6232,13 +6242,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="144"/>
-      <c r="I52" s="144"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="153"/>
-      <c r="L52" s="147"/>
-      <c r="M52" s="147"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="126"/>
+      <c r="K52" s="126"/>
+      <c r="L52" s="127"/>
+      <c r="M52" s="127"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -6249,13 +6259,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="144"/>
-      <c r="I53" s="144"/>
-      <c r="J53" s="153"/>
-      <c r="K53" s="153"/>
-      <c r="L53" s="147"/>
-      <c r="M53" s="147"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="126"/>
+      <c r="K53" s="126"/>
+      <c r="L53" s="127"/>
+      <c r="M53" s="127"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -6266,13 +6276,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="144"/>
-      <c r="H54" s="144"/>
-      <c r="I54" s="144"/>
-      <c r="J54" s="153"/>
-      <c r="K54" s="153"/>
-      <c r="L54" s="147"/>
-      <c r="M54" s="147"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
+      <c r="J54" s="126"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="127"/>
+      <c r="M54" s="127"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -6283,13 +6293,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="144"/>
-      <c r="H55" s="144"/>
-      <c r="I55" s="144"/>
-      <c r="J55" s="153"/>
-      <c r="K55" s="153"/>
-      <c r="L55" s="147"/>
-      <c r="M55" s="147"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="126"/>
+      <c r="K55" s="126"/>
+      <c r="L55" s="127"/>
+      <c r="M55" s="127"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -6300,13 +6310,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="144"/>
-      <c r="H56" s="144"/>
-      <c r="I56" s="144"/>
-      <c r="J56" s="153"/>
-      <c r="K56" s="153"/>
-      <c r="L56" s="147"/>
-      <c r="M56" s="147"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="126"/>
+      <c r="L56" s="127"/>
+      <c r="M56" s="127"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -6317,13 +6327,13 @@
       <c r="D57" s="84"/>
       <c r="E57" s="84"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="144"/>
-      <c r="I57" s="144"/>
-      <c r="J57" s="153"/>
-      <c r="K57" s="153"/>
-      <c r="L57" s="147"/>
-      <c r="M57" s="147"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="126"/>
+      <c r="K57" s="126"/>
+      <c r="L57" s="127"/>
+      <c r="M57" s="127"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -6334,13 +6344,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="144"/>
-      <c r="H58" s="144"/>
-      <c r="I58" s="144"/>
-      <c r="J58" s="153"/>
-      <c r="K58" s="153"/>
-      <c r="L58" s="147"/>
-      <c r="M58" s="147"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
+      <c r="J58" s="126"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="127"/>
+      <c r="M58" s="127"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -6351,13 +6361,13 @@
       <c r="D59" s="84"/>
       <c r="E59" s="84"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="144"/>
-      <c r="H59" s="144"/>
-      <c r="I59" s="144"/>
-      <c r="J59" s="153"/>
-      <c r="K59" s="153"/>
-      <c r="L59" s="147"/>
-      <c r="M59" s="147"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="125"/>
+      <c r="I59" s="125"/>
+      <c r="J59" s="126"/>
+      <c r="K59" s="126"/>
+      <c r="L59" s="127"/>
+      <c r="M59" s="127"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -6368,13 +6378,13 @@
       <c r="D60" s="84"/>
       <c r="E60" s="84"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="144"/>
-      <c r="H60" s="144"/>
-      <c r="I60" s="144"/>
-      <c r="J60" s="153"/>
-      <c r="K60" s="153"/>
-      <c r="L60" s="147"/>
-      <c r="M60" s="147"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="127"/>
+      <c r="M60" s="127"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -6385,13 +6395,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="144"/>
-      <c r="H61" s="144"/>
-      <c r="I61" s="144"/>
-      <c r="J61" s="153"/>
-      <c r="K61" s="153"/>
-      <c r="L61" s="147"/>
-      <c r="M61" s="147"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
+      <c r="J61" s="126"/>
+      <c r="K61" s="126"/>
+      <c r="L61" s="127"/>
+      <c r="M61" s="127"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -6402,13 +6412,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="144"/>
-      <c r="H62" s="144"/>
-      <c r="I62" s="144"/>
-      <c r="J62" s="153"/>
-      <c r="K62" s="153"/>
-      <c r="L62" s="147"/>
-      <c r="M62" s="147"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="126"/>
+      <c r="K62" s="126"/>
+      <c r="L62" s="127"/>
+      <c r="M62" s="127"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -6419,13 +6429,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="144"/>
-      <c r="H63" s="144"/>
-      <c r="I63" s="144"/>
-      <c r="J63" s="153"/>
-      <c r="K63" s="153"/>
-      <c r="L63" s="147"/>
-      <c r="M63" s="147"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="125"/>
+      <c r="J63" s="126"/>
+      <c r="K63" s="126"/>
+      <c r="L63" s="127"/>
+      <c r="M63" s="127"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -6436,13 +6446,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="144"/>
-      <c r="H64" s="144"/>
-      <c r="I64" s="144"/>
-      <c r="J64" s="153"/>
-      <c r="K64" s="153"/>
-      <c r="L64" s="147"/>
-      <c r="M64" s="147"/>
+      <c r="G64" s="125"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="125"/>
+      <c r="J64" s="126"/>
+      <c r="K64" s="126"/>
+      <c r="L64" s="127"/>
+      <c r="M64" s="127"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -6453,13 +6463,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="144"/>
-      <c r="H65" s="144"/>
-      <c r="I65" s="144"/>
-      <c r="J65" s="153"/>
-      <c r="K65" s="153"/>
-      <c r="L65" s="147"/>
-      <c r="M65" s="147"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="125"/>
+      <c r="J65" s="126"/>
+      <c r="K65" s="126"/>
+      <c r="L65" s="127"/>
+      <c r="M65" s="127"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -6470,13 +6480,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="144"/>
-      <c r="H66" s="144"/>
-      <c r="I66" s="144"/>
-      <c r="J66" s="153"/>
-      <c r="K66" s="153"/>
-      <c r="L66" s="147"/>
-      <c r="M66" s="147"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="125"/>
+      <c r="I66" s="125"/>
+      <c r="J66" s="126"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="127"/>
+      <c r="M66" s="127"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -6487,13 +6497,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="84"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="144"/>
-      <c r="H67" s="144"/>
-      <c r="I67" s="144"/>
-      <c r="J67" s="153"/>
-      <c r="K67" s="153"/>
-      <c r="L67" s="147"/>
-      <c r="M67" s="147"/>
+      <c r="G67" s="125"/>
+      <c r="H67" s="125"/>
+      <c r="I67" s="125"/>
+      <c r="J67" s="126"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="127"/>
+      <c r="M67" s="127"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -6504,13 +6514,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="144"/>
-      <c r="H68" s="144"/>
-      <c r="I68" s="144"/>
-      <c r="J68" s="153"/>
-      <c r="K68" s="153"/>
-      <c r="L68" s="147"/>
-      <c r="M68" s="147"/>
+      <c r="G68" s="125"/>
+      <c r="H68" s="125"/>
+      <c r="I68" s="125"/>
+      <c r="J68" s="126"/>
+      <c r="K68" s="126"/>
+      <c r="L68" s="127"/>
+      <c r="M68" s="127"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -6521,13 +6531,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="144"/>
-      <c r="H69" s="144"/>
-      <c r="I69" s="144"/>
-      <c r="J69" s="153"/>
-      <c r="K69" s="153"/>
-      <c r="L69" s="147"/>
-      <c r="M69" s="147"/>
+      <c r="G69" s="125"/>
+      <c r="H69" s="125"/>
+      <c r="I69" s="125"/>
+      <c r="J69" s="126"/>
+      <c r="K69" s="126"/>
+      <c r="L69" s="127"/>
+      <c r="M69" s="127"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -6538,13 +6548,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="144"/>
-      <c r="H70" s="144"/>
-      <c r="I70" s="144"/>
-      <c r="J70" s="153"/>
-      <c r="K70" s="153"/>
-      <c r="L70" s="147"/>
-      <c r="M70" s="147"/>
+      <c r="G70" s="125"/>
+      <c r="H70" s="125"/>
+      <c r="I70" s="125"/>
+      <c r="J70" s="126"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="127"/>
+      <c r="M70" s="127"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -6555,19 +6565,208 @@
       <c r="D71" s="84"/>
       <c r="E71" s="84"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="144"/>
-      <c r="H71" s="144"/>
-      <c r="I71" s="144"/>
-      <c r="J71" s="153"/>
-      <c r="K71" s="153"/>
-      <c r="L71" s="147"/>
-      <c r="M71" s="147"/>
+      <c r="G71" s="125"/>
+      <c r="H71" s="125"/>
+      <c r="I71" s="125"/>
+      <c r="J71" s="126"/>
+      <c r="K71" s="126"/>
+      <c r="L71" s="127"/>
+      <c r="M71" s="127"/>
     </row>
   </sheetData>
   <sortState ref="B11:E33">
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -6592,195 +6791,6 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:B71">
     <cfRule type="cellIs" dxfId="154" priority="115" stopIfTrue="1" operator="equal">
@@ -7357,452 +7367,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="160"/>
-      <c r="AH2" s="160"/>
-      <c r="AI2" s="160"/>
-      <c r="AJ2" s="160"/>
-      <c r="AK2" s="160"/>
-      <c r="AL2" s="160"/>
-      <c r="AM2" s="160"/>
-      <c r="AN2" s="160"/>
-      <c r="AO2" s="160"/>
-      <c r="AP2" s="160"/>
-      <c r="AQ2" s="160"/>
-      <c r="AR2" s="160"/>
-      <c r="AS2" s="160"/>
-      <c r="AT2" s="160"/>
-      <c r="AU2" s="160"/>
-      <c r="AV2" s="160"/>
-      <c r="AW2" s="160"/>
-      <c r="AX2" s="160"/>
-      <c r="AY2" s="160"/>
-      <c r="AZ2" s="160"/>
-      <c r="BA2" s="160"/>
-      <c r="BB2" s="160"/>
-      <c r="BC2" s="160"/>
-      <c r="BD2" s="160"/>
-      <c r="BE2" s="160"/>
-      <c r="BF2" s="160"/>
-      <c r="BG2" s="160"/>
-      <c r="BH2" s="160"/>
-      <c r="BI2" s="160"/>
-      <c r="BJ2" s="160"/>
-      <c r="BK2" s="160"/>
-      <c r="BL2" s="160"/>
-      <c r="BM2" s="160"/>
-      <c r="BN2" s="160"/>
-      <c r="BO2" s="160"/>
-      <c r="BP2" s="160"/>
-      <c r="BQ2" s="160"/>
-      <c r="BR2" s="160"/>
-      <c r="BS2" s="160"/>
-      <c r="BT2" s="160"/>
-      <c r="BU2" s="160"/>
-      <c r="BV2" s="160"/>
-      <c r="BW2" s="160"/>
-      <c r="BX2" s="160"/>
-      <c r="BY2" s="160"/>
-      <c r="BZ2" s="160"/>
-      <c r="CA2" s="160"/>
-      <c r="CB2" s="160"/>
-      <c r="CC2" s="160"/>
-      <c r="CD2" s="160"/>
-      <c r="CE2" s="160"/>
-      <c r="CF2" s="160"/>
-      <c r="CG2" s="160"/>
-      <c r="CH2" s="160"/>
-      <c r="CI2" s="160"/>
-      <c r="CJ2" s="160"/>
-      <c r="CK2" s="160"/>
-      <c r="CL2" s="160"/>
-      <c r="CM2" s="160"/>
-      <c r="CN2" s="160"/>
-      <c r="CO2" s="160"/>
-      <c r="CP2" s="160"/>
-      <c r="CQ2" s="160"/>
-      <c r="CR2" s="160"/>
-      <c r="CS2" s="160"/>
-      <c r="CT2" s="160"/>
-      <c r="CU2" s="160"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="128"/>
+      <c r="AS2" s="128"/>
+      <c r="AT2" s="128"/>
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="128"/>
+      <c r="AX2" s="128"/>
+      <c r="AY2" s="128"/>
+      <c r="AZ2" s="128"/>
+      <c r="BA2" s="128"/>
+      <c r="BB2" s="128"/>
+      <c r="BC2" s="128"/>
+      <c r="BD2" s="128"/>
+      <c r="BE2" s="128"/>
+      <c r="BF2" s="128"/>
+      <c r="BG2" s="128"/>
+      <c r="BH2" s="128"/>
+      <c r="BI2" s="128"/>
+      <c r="BJ2" s="128"/>
+      <c r="BK2" s="128"/>
+      <c r="BL2" s="128"/>
+      <c r="BM2" s="128"/>
+      <c r="BN2" s="128"/>
+      <c r="BO2" s="128"/>
+      <c r="BP2" s="128"/>
+      <c r="BQ2" s="128"/>
+      <c r="BR2" s="128"/>
+      <c r="BS2" s="128"/>
+      <c r="BT2" s="128"/>
+      <c r="BU2" s="128"/>
+      <c r="BV2" s="128"/>
+      <c r="BW2" s="128"/>
+      <c r="BX2" s="128"/>
+      <c r="BY2" s="128"/>
+      <c r="BZ2" s="128"/>
+      <c r="CA2" s="128"/>
+      <c r="CB2" s="128"/>
+      <c r="CC2" s="128"/>
+      <c r="CD2" s="128"/>
+      <c r="CE2" s="128"/>
+      <c r="CF2" s="128"/>
+      <c r="CG2" s="128"/>
+      <c r="CH2" s="128"/>
+      <c r="CI2" s="128"/>
+      <c r="CJ2" s="128"/>
+      <c r="CK2" s="128"/>
+      <c r="CL2" s="128"/>
+      <c r="CM2" s="128"/>
+      <c r="CN2" s="128"/>
+      <c r="CO2" s="128"/>
+      <c r="CP2" s="128"/>
+      <c r="CQ2" s="128"/>
+      <c r="CR2" s="128"/>
+      <c r="CS2" s="128"/>
+      <c r="CT2" s="128"/>
+      <c r="CU2" s="128"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="160"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="160"/>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="160"/>
-      <c r="AJ3" s="160"/>
-      <c r="AK3" s="160"/>
-      <c r="AL3" s="160"/>
-      <c r="AM3" s="160"/>
-      <c r="AN3" s="160"/>
-      <c r="AO3" s="160"/>
-      <c r="AP3" s="160"/>
-      <c r="AQ3" s="160"/>
-      <c r="AR3" s="160"/>
-      <c r="AS3" s="160"/>
-      <c r="AT3" s="160"/>
-      <c r="AU3" s="160"/>
-      <c r="AV3" s="160"/>
-      <c r="AW3" s="160"/>
-      <c r="AX3" s="160"/>
-      <c r="AY3" s="160"/>
-      <c r="AZ3" s="160"/>
-      <c r="BA3" s="160"/>
-      <c r="BB3" s="160"/>
-      <c r="BC3" s="160"/>
-      <c r="BD3" s="160"/>
-      <c r="BE3" s="160"/>
-      <c r="BF3" s="160"/>
-      <c r="BG3" s="160"/>
-      <c r="BH3" s="160"/>
-      <c r="BI3" s="160"/>
-      <c r="BJ3" s="160"/>
-      <c r="BK3" s="160"/>
-      <c r="BL3" s="160"/>
-      <c r="BM3" s="160"/>
-      <c r="BN3" s="160"/>
-      <c r="BO3" s="160"/>
-      <c r="BP3" s="160"/>
-      <c r="BQ3" s="160"/>
-      <c r="BR3" s="160"/>
-      <c r="BS3" s="160"/>
-      <c r="BT3" s="160"/>
-      <c r="BU3" s="160"/>
-      <c r="BV3" s="160"/>
-      <c r="BW3" s="160"/>
-      <c r="BX3" s="160"/>
-      <c r="BY3" s="160"/>
-      <c r="BZ3" s="160"/>
-      <c r="CA3" s="160"/>
-      <c r="CB3" s="160"/>
-      <c r="CC3" s="160"/>
-      <c r="CD3" s="160"/>
-      <c r="CE3" s="160"/>
-      <c r="CF3" s="160"/>
-      <c r="CG3" s="160"/>
-      <c r="CH3" s="160"/>
-      <c r="CI3" s="160"/>
-      <c r="CJ3" s="160"/>
-      <c r="CK3" s="160"/>
-      <c r="CL3" s="160"/>
-      <c r="CM3" s="160"/>
-      <c r="CN3" s="160"/>
-      <c r="CO3" s="160"/>
-      <c r="CP3" s="160"/>
-      <c r="CQ3" s="160"/>
-      <c r="CR3" s="160"/>
-      <c r="CS3" s="160"/>
-      <c r="CT3" s="160"/>
-      <c r="CU3" s="160"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="128"/>
+      <c r="AL3" s="128"/>
+      <c r="AM3" s="128"/>
+      <c r="AN3" s="128"/>
+      <c r="AO3" s="128"/>
+      <c r="AP3" s="128"/>
+      <c r="AQ3" s="128"/>
+      <c r="AR3" s="128"/>
+      <c r="AS3" s="128"/>
+      <c r="AT3" s="128"/>
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="128"/>
+      <c r="BC3" s="128"/>
+      <c r="BD3" s="128"/>
+      <c r="BE3" s="128"/>
+      <c r="BF3" s="128"/>
+      <c r="BG3" s="128"/>
+      <c r="BH3" s="128"/>
+      <c r="BI3" s="128"/>
+      <c r="BJ3" s="128"/>
+      <c r="BK3" s="128"/>
+      <c r="BL3" s="128"/>
+      <c r="BM3" s="128"/>
+      <c r="BN3" s="128"/>
+      <c r="BO3" s="128"/>
+      <c r="BP3" s="128"/>
+      <c r="BQ3" s="128"/>
+      <c r="BR3" s="128"/>
+      <c r="BS3" s="128"/>
+      <c r="BT3" s="128"/>
+      <c r="BU3" s="128"/>
+      <c r="BV3" s="128"/>
+      <c r="BW3" s="128"/>
+      <c r="BX3" s="128"/>
+      <c r="BY3" s="128"/>
+      <c r="BZ3" s="128"/>
+      <c r="CA3" s="128"/>
+      <c r="CB3" s="128"/>
+      <c r="CC3" s="128"/>
+      <c r="CD3" s="128"/>
+      <c r="CE3" s="128"/>
+      <c r="CF3" s="128"/>
+      <c r="CG3" s="128"/>
+      <c r="CH3" s="128"/>
+      <c r="CI3" s="128"/>
+      <c r="CJ3" s="128"/>
+      <c r="CK3" s="128"/>
+      <c r="CL3" s="128"/>
+      <c r="CM3" s="128"/>
+      <c r="CN3" s="128"/>
+      <c r="CO3" s="128"/>
+      <c r="CP3" s="128"/>
+      <c r="CQ3" s="128"/>
+      <c r="CR3" s="128"/>
+      <c r="CS3" s="128"/>
+      <c r="CT3" s="128"/>
+      <c r="CU3" s="128"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="172" t="s">
+      <c r="D5" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="173"/>
-      <c r="U5" s="173"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="173"/>
-      <c r="Z5" s="173"/>
-      <c r="AA5" s="173"/>
-      <c r="AB5" s="173"/>
-      <c r="AC5" s="173"/>
-      <c r="AD5" s="173"/>
-      <c r="AE5" s="173"/>
-      <c r="AF5" s="173"/>
-      <c r="AG5" s="173"/>
-      <c r="AH5" s="173"/>
-      <c r="AI5" s="173"/>
-      <c r="AJ5" s="173"/>
-      <c r="AK5" s="173"/>
-      <c r="AL5" s="173"/>
-      <c r="AM5" s="173"/>
-      <c r="AN5" s="173"/>
-      <c r="AO5" s="173"/>
-      <c r="AP5" s="173"/>
-      <c r="AQ5" s="173"/>
-      <c r="AR5" s="173"/>
-      <c r="AS5" s="173"/>
-      <c r="AT5" s="173"/>
-      <c r="AU5" s="173"/>
-      <c r="AV5" s="173"/>
-      <c r="AW5" s="173"/>
-      <c r="AX5" s="173"/>
-      <c r="AY5" s="173"/>
-      <c r="AZ5" s="173"/>
-      <c r="BA5" s="173"/>
-      <c r="BB5" s="173"/>
-      <c r="BC5" s="173"/>
-      <c r="BD5" s="174"/>
-      <c r="BE5" s="175" t="s">
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="200"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="200"/>
+      <c r="R5" s="200"/>
+      <c r="S5" s="200"/>
+      <c r="T5" s="200"/>
+      <c r="U5" s="200"/>
+      <c r="V5" s="200"/>
+      <c r="W5" s="200"/>
+      <c r="X5" s="200"/>
+      <c r="Y5" s="200"/>
+      <c r="Z5" s="200"/>
+      <c r="AA5" s="200"/>
+      <c r="AB5" s="200"/>
+      <c r="AC5" s="200"/>
+      <c r="AD5" s="200"/>
+      <c r="AE5" s="200"/>
+      <c r="AF5" s="200"/>
+      <c r="AG5" s="200"/>
+      <c r="AH5" s="200"/>
+      <c r="AI5" s="200"/>
+      <c r="AJ5" s="200"/>
+      <c r="AK5" s="200"/>
+      <c r="AL5" s="200"/>
+      <c r="AM5" s="200"/>
+      <c r="AN5" s="200"/>
+      <c r="AO5" s="200"/>
+      <c r="AP5" s="200"/>
+      <c r="AQ5" s="200"/>
+      <c r="AR5" s="200"/>
+      <c r="AS5" s="200"/>
+      <c r="AT5" s="200"/>
+      <c r="AU5" s="200"/>
+      <c r="AV5" s="200"/>
+      <c r="AW5" s="200"/>
+      <c r="AX5" s="200"/>
+      <c r="AY5" s="200"/>
+      <c r="AZ5" s="200"/>
+      <c r="BA5" s="200"/>
+      <c r="BB5" s="200"/>
+      <c r="BC5" s="200"/>
+      <c r="BD5" s="201"/>
+      <c r="BE5" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="176"/>
-      <c r="BG5" s="176"/>
-      <c r="BH5" s="176"/>
-      <c r="BI5" s="176"/>
-      <c r="BJ5" s="176"/>
-      <c r="BK5" s="176"/>
-      <c r="BL5" s="176"/>
-      <c r="BM5" s="176"/>
-      <c r="BN5" s="176"/>
-      <c r="BO5" s="176"/>
-      <c r="BP5" s="176"/>
-      <c r="BQ5" s="176"/>
-      <c r="BR5" s="176"/>
-      <c r="BS5" s="176"/>
-      <c r="BT5" s="176"/>
-      <c r="BU5" s="176"/>
-      <c r="BV5" s="176"/>
-      <c r="BW5" s="176"/>
-      <c r="BX5" s="176"/>
-      <c r="BY5" s="176"/>
-      <c r="BZ5" s="176"/>
-      <c r="CA5" s="176"/>
-      <c r="CB5" s="176"/>
-      <c r="CC5" s="176"/>
-      <c r="CD5" s="176"/>
-      <c r="CE5" s="176"/>
-      <c r="CF5" s="176"/>
-      <c r="CG5" s="176"/>
-      <c r="CH5" s="176"/>
-      <c r="CI5" s="176"/>
-      <c r="CJ5" s="176"/>
-      <c r="CK5" s="176"/>
-      <c r="CL5" s="176"/>
-      <c r="CM5" s="176"/>
-      <c r="CN5" s="176"/>
-      <c r="CO5" s="176"/>
-      <c r="CP5" s="176"/>
-      <c r="CQ5" s="176"/>
-      <c r="CR5" s="177"/>
-      <c r="CS5" s="182" t="s">
+      <c r="BF5" s="203"/>
+      <c r="BG5" s="203"/>
+      <c r="BH5" s="203"/>
+      <c r="BI5" s="203"/>
+      <c r="BJ5" s="203"/>
+      <c r="BK5" s="203"/>
+      <c r="BL5" s="203"/>
+      <c r="BM5" s="203"/>
+      <c r="BN5" s="203"/>
+      <c r="BO5" s="203"/>
+      <c r="BP5" s="203"/>
+      <c r="BQ5" s="203"/>
+      <c r="BR5" s="203"/>
+      <c r="BS5" s="203"/>
+      <c r="BT5" s="203"/>
+      <c r="BU5" s="203"/>
+      <c r="BV5" s="203"/>
+      <c r="BW5" s="203"/>
+      <c r="BX5" s="203"/>
+      <c r="BY5" s="203"/>
+      <c r="BZ5" s="203"/>
+      <c r="CA5" s="203"/>
+      <c r="CB5" s="203"/>
+      <c r="CC5" s="203"/>
+      <c r="CD5" s="203"/>
+      <c r="CE5" s="203"/>
+      <c r="CF5" s="203"/>
+      <c r="CG5" s="203"/>
+      <c r="CH5" s="203"/>
+      <c r="CI5" s="203"/>
+      <c r="CJ5" s="203"/>
+      <c r="CK5" s="203"/>
+      <c r="CL5" s="203"/>
+      <c r="CM5" s="203"/>
+      <c r="CN5" s="203"/>
+      <c r="CO5" s="203"/>
+      <c r="CP5" s="203"/>
+      <c r="CQ5" s="203"/>
+      <c r="CR5" s="204"/>
+      <c r="CS5" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="183"/>
-      <c r="CU5" s="184"/>
+      <c r="CT5" s="192"/>
+      <c r="CU5" s="193"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="169"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="204" t="s">
+      <c r="A6" s="196"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="205"/>
-      <c r="I6" s="205"/>
-      <c r="J6" s="188" t="s">
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="175" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="188"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="188"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="188"/>
-      <c r="S6" s="188"/>
-      <c r="T6" s="188"/>
-      <c r="U6" s="188"/>
-      <c r="V6" s="188"/>
-      <c r="W6" s="188"/>
-      <c r="X6" s="188"/>
-      <c r="Y6" s="188"/>
-      <c r="Z6" s="188"/>
-      <c r="AA6" s="188"/>
-      <c r="AB6" s="188"/>
-      <c r="AC6" s="188"/>
-      <c r="AD6" s="188"/>
-      <c r="AE6" s="188"/>
-      <c r="AF6" s="188"/>
-      <c r="AG6" s="188"/>
-      <c r="AH6" s="188"/>
-      <c r="AI6" s="188"/>
-      <c r="AJ6" s="188"/>
-      <c r="AK6" s="188"/>
-      <c r="AL6" s="188"/>
-      <c r="AM6" s="188"/>
-      <c r="AN6" s="188"/>
-      <c r="AO6" s="188" t="s">
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="175"/>
+      <c r="R6" s="175"/>
+      <c r="S6" s="175"/>
+      <c r="T6" s="175"/>
+      <c r="U6" s="175"/>
+      <c r="V6" s="175"/>
+      <c r="W6" s="175"/>
+      <c r="X6" s="175"/>
+      <c r="Y6" s="175"/>
+      <c r="Z6" s="175"/>
+      <c r="AA6" s="175"/>
+      <c r="AB6" s="175"/>
+      <c r="AC6" s="175"/>
+      <c r="AD6" s="175"/>
+      <c r="AE6" s="175"/>
+      <c r="AF6" s="175"/>
+      <c r="AG6" s="175"/>
+      <c r="AH6" s="175"/>
+      <c r="AI6" s="175"/>
+      <c r="AJ6" s="175"/>
+      <c r="AK6" s="175"/>
+      <c r="AL6" s="175"/>
+      <c r="AM6" s="175"/>
+      <c r="AN6" s="175"/>
+      <c r="AO6" s="175" t="s">
         <v>140</v>
       </c>
-      <c r="AP6" s="188"/>
-      <c r="AQ6" s="188"/>
-      <c r="AR6" s="188"/>
-      <c r="AS6" s="188" t="s">
+      <c r="AP6" s="175"/>
+      <c r="AQ6" s="175"/>
+      <c r="AR6" s="175"/>
+      <c r="AS6" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="188"/>
-      <c r="AU6" s="188"/>
-      <c r="AV6" s="188" t="s">
+      <c r="AT6" s="175"/>
+      <c r="AU6" s="175"/>
+      <c r="AV6" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="188"/>
-      <c r="AX6" s="188"/>
-      <c r="AY6" s="188"/>
-      <c r="AZ6" s="188"/>
-      <c r="BA6" s="188"/>
-      <c r="BB6" s="188"/>
-      <c r="BC6" s="192" t="s">
+      <c r="AW6" s="175"/>
+      <c r="AX6" s="175"/>
+      <c r="AY6" s="175"/>
+      <c r="AZ6" s="175"/>
+      <c r="BA6" s="175"/>
+      <c r="BB6" s="175"/>
+      <c r="BC6" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="193"/>
-      <c r="BE6" s="194" t="s">
+      <c r="BD6" s="185"/>
+      <c r="BE6" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="195"/>
-      <c r="BG6" s="195"/>
-      <c r="BH6" s="195"/>
-      <c r="BI6" s="195"/>
-      <c r="BJ6" s="195"/>
-      <c r="BK6" s="196"/>
-      <c r="BL6" s="197" t="s">
+      <c r="BF6" s="187"/>
+      <c r="BG6" s="187"/>
+      <c r="BH6" s="187"/>
+      <c r="BI6" s="187"/>
+      <c r="BJ6" s="187"/>
+      <c r="BK6" s="188"/>
+      <c r="BL6" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="195"/>
-      <c r="BN6" s="195"/>
-      <c r="BO6" s="195"/>
-      <c r="BP6" s="195"/>
-      <c r="BQ6" s="195"/>
-      <c r="BR6" s="195"/>
-      <c r="BS6" s="195"/>
-      <c r="BT6" s="195"/>
-      <c r="BU6" s="195"/>
-      <c r="BV6" s="195"/>
-      <c r="BW6" s="195"/>
-      <c r="BX6" s="195"/>
-      <c r="BY6" s="195"/>
-      <c r="BZ6" s="195"/>
-      <c r="CA6" s="195"/>
-      <c r="CB6" s="195"/>
-      <c r="CC6" s="195"/>
-      <c r="CD6" s="195"/>
-      <c r="CE6" s="195"/>
-      <c r="CF6" s="195"/>
-      <c r="CG6" s="195"/>
-      <c r="CH6" s="195"/>
-      <c r="CI6" s="195"/>
-      <c r="CJ6" s="195"/>
-      <c r="CK6" s="195"/>
-      <c r="CL6" s="195"/>
-      <c r="CM6" s="195"/>
-      <c r="CN6" s="195"/>
-      <c r="CO6" s="195"/>
-      <c r="CP6" s="195"/>
-      <c r="CQ6" s="185" t="s">
+      <c r="BM6" s="187"/>
+      <c r="BN6" s="187"/>
+      <c r="BO6" s="187"/>
+      <c r="BP6" s="187"/>
+      <c r="BQ6" s="187"/>
+      <c r="BR6" s="187"/>
+      <c r="BS6" s="187"/>
+      <c r="BT6" s="187"/>
+      <c r="BU6" s="187"/>
+      <c r="BV6" s="187"/>
+      <c r="BW6" s="187"/>
+      <c r="BX6" s="187"/>
+      <c r="BY6" s="187"/>
+      <c r="BZ6" s="187"/>
+      <c r="CA6" s="187"/>
+      <c r="CB6" s="187"/>
+      <c r="CC6" s="187"/>
+      <c r="CD6" s="187"/>
+      <c r="CE6" s="187"/>
+      <c r="CF6" s="187"/>
+      <c r="CG6" s="187"/>
+      <c r="CH6" s="187"/>
+      <c r="CI6" s="187"/>
+      <c r="CJ6" s="187"/>
+      <c r="CK6" s="187"/>
+      <c r="CL6" s="187"/>
+      <c r="CM6" s="187"/>
+      <c r="CN6" s="187"/>
+      <c r="CO6" s="187"/>
+      <c r="CP6" s="187"/>
+      <c r="CQ6" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="185"/>
-      <c r="CS6" s="167" t="s">
+      <c r="CR6" s="194"/>
+      <c r="CS6" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="167" t="s">
+      <c r="CT6" s="190" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="189" t="s">
+      <c r="CU6" s="181" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
       <c r="E7" s="118"/>
       <c r="F7" s="117">
         <v>0.3</v>
@@ -7811,353 +7821,353 @@
       <c r="I7" s="118">
         <v>0.3</v>
       </c>
-      <c r="J7" s="180">
+      <c r="J7" s="174">
         <v>42980</v>
       </c>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180">
+      <c r="K7" s="174"/>
+      <c r="L7" s="174">
         <v>43035</v>
       </c>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180">
+      <c r="M7" s="174"/>
+      <c r="N7" s="174">
         <v>43056</v>
       </c>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="181">
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="180">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>3</v>
       </c>
-      <c r="U7" s="181"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="180"/>
-      <c r="Z7" s="180"/>
-      <c r="AA7" s="180"/>
-      <c r="AB7" s="180"/>
-      <c r="AC7" s="180"/>
-      <c r="AD7" s="180"/>
-      <c r="AE7" s="180"/>
-      <c r="AF7" s="180"/>
-      <c r="AG7" s="180"/>
-      <c r="AH7" s="180"/>
-      <c r="AI7" s="180"/>
-      <c r="AJ7" s="180"/>
-      <c r="AK7" s="180"/>
-      <c r="AL7" s="180"/>
-      <c r="AM7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="174"/>
+      <c r="W7" s="174"/>
+      <c r="X7" s="174"/>
+      <c r="Y7" s="174"/>
+      <c r="Z7" s="174"/>
+      <c r="AA7" s="174"/>
+      <c r="AB7" s="174"/>
+      <c r="AC7" s="174"/>
+      <c r="AD7" s="174"/>
+      <c r="AE7" s="174"/>
+      <c r="AF7" s="174"/>
+      <c r="AG7" s="174"/>
+      <c r="AH7" s="174"/>
+      <c r="AI7" s="174"/>
+      <c r="AJ7" s="174"/>
+      <c r="AK7" s="174"/>
+      <c r="AL7" s="174"/>
+      <c r="AM7" s="174"/>
       <c r="AN7" s="91">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="180" t="s">
-        <v>286</v>
-      </c>
-      <c r="AP7" s="180"/>
-      <c r="AQ7" s="180"/>
-      <c r="AR7" s="180"/>
-      <c r="AS7" s="181">
+      <c r="AO7" s="174" t="s">
+        <v>285</v>
+      </c>
+      <c r="AP7" s="174"/>
+      <c r="AQ7" s="174"/>
+      <c r="AR7" s="174"/>
+      <c r="AS7" s="180">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="181"/>
+      <c r="AT7" s="180"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="180" t="s">
-        <v>174</v>
-      </c>
-      <c r="AW7" s="180"/>
-      <c r="AX7" s="180"/>
-      <c r="AY7" s="180"/>
-      <c r="AZ7" s="181">
+      <c r="AV7" s="174" t="s">
+        <v>173</v>
+      </c>
+      <c r="AW7" s="174"/>
+      <c r="AX7" s="174"/>
+      <c r="AY7" s="174"/>
+      <c r="AZ7" s="180">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="181"/>
+      <c r="BA7" s="180"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="192"/>
-      <c r="BD7" s="193"/>
-      <c r="BE7" s="180" t="s">
+      <c r="BC7" s="184"/>
+      <c r="BD7" s="185"/>
+      <c r="BE7" s="174" t="s">
+        <v>286</v>
+      </c>
+      <c r="BF7" s="174"/>
+      <c r="BG7" s="174" t="s">
         <v>287</v>
       </c>
-      <c r="BF7" s="180"/>
-      <c r="BG7" s="180" t="s">
-        <v>288</v>
-      </c>
-      <c r="BH7" s="180"/>
-      <c r="BI7" s="198">
+      <c r="BH7" s="174"/>
+      <c r="BI7" s="178">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>3</v>
       </c>
-      <c r="BJ7" s="199"/>
+      <c r="BJ7" s="179"/>
       <c r="BK7" s="99">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="180">
+      <c r="BL7" s="174">
         <v>42980</v>
       </c>
-      <c r="BM7" s="180"/>
-      <c r="BN7" s="180">
+      <c r="BM7" s="174"/>
+      <c r="BN7" s="174">
         <v>42987</v>
       </c>
-      <c r="BO7" s="180"/>
-      <c r="BP7" s="180">
+      <c r="BO7" s="174"/>
+      <c r="BP7" s="174">
         <v>42994</v>
       </c>
-      <c r="BQ7" s="180"/>
-      <c r="BR7" s="180">
+      <c r="BQ7" s="174"/>
+      <c r="BR7" s="174">
         <v>43001</v>
       </c>
-      <c r="BS7" s="180"/>
-      <c r="BT7" s="180">
+      <c r="BS7" s="174"/>
+      <c r="BT7" s="174">
         <v>43022</v>
       </c>
-      <c r="BU7" s="180"/>
-      <c r="BV7" s="180">
+      <c r="BU7" s="174"/>
+      <c r="BV7" s="174">
         <v>43029</v>
       </c>
-      <c r="BW7" s="180"/>
-      <c r="BX7" s="180">
+      <c r="BW7" s="174"/>
+      <c r="BX7" s="174">
         <v>43036</v>
       </c>
-      <c r="BY7" s="180"/>
-      <c r="BZ7" s="180">
+      <c r="BY7" s="174"/>
+      <c r="BZ7" s="174">
         <v>43036</v>
       </c>
-      <c r="CA7" s="180"/>
-      <c r="CB7" s="180">
+      <c r="CA7" s="174"/>
+      <c r="CB7" s="174">
         <v>43050</v>
       </c>
-      <c r="CC7" s="180"/>
-      <c r="CD7" s="180">
+      <c r="CC7" s="174"/>
+      <c r="CD7" s="174">
         <v>43057</v>
       </c>
-      <c r="CE7" s="180"/>
-      <c r="CF7" s="180"/>
-      <c r="CG7" s="180"/>
-      <c r="CH7" s="180"/>
-      <c r="CI7" s="180"/>
-      <c r="CJ7" s="180"/>
-      <c r="CK7" s="180"/>
-      <c r="CL7" s="180"/>
-      <c r="CM7" s="180"/>
-      <c r="CN7" s="181">
+      <c r="CE7" s="174"/>
+      <c r="CF7" s="174"/>
+      <c r="CG7" s="174"/>
+      <c r="CH7" s="174"/>
+      <c r="CI7" s="174"/>
+      <c r="CJ7" s="174"/>
+      <c r="CK7" s="174"/>
+      <c r="CL7" s="174"/>
+      <c r="CM7" s="174"/>
+      <c r="CN7" s="180">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>10</v>
       </c>
-      <c r="CO7" s="181"/>
+      <c r="CO7" s="180"/>
       <c r="CP7" s="100">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="185"/>
-      <c r="CR7" s="185"/>
-      <c r="CS7" s="167"/>
-      <c r="CT7" s="167"/>
-      <c r="CU7" s="190"/>
+      <c r="CQ7" s="194"/>
+      <c r="CR7" s="194"/>
+      <c r="CS7" s="190"/>
+      <c r="CT7" s="190"/>
+      <c r="CU7" s="182"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="169"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="178" t="s">
+      <c r="A8" s="196"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="205" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178" t="s">
+      <c r="E8" s="205"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="205" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="179" t="s">
+      <c r="H8" s="205"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179" t="s">
+      <c r="K8" s="167"/>
+      <c r="L8" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179" t="s">
+      <c r="M8" s="167"/>
+      <c r="N8" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="179"/>
-      <c r="P8" s="179" t="s">
+      <c r="O8" s="167"/>
+      <c r="P8" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="179"/>
-      <c r="R8" s="179" t="s">
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="179"/>
-      <c r="T8" s="179" t="s">
+      <c r="S8" s="167"/>
+      <c r="T8" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="179"/>
-      <c r="V8" s="179" t="s">
+      <c r="U8" s="167"/>
+      <c r="V8" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="179"/>
-      <c r="X8" s="179" t="s">
+      <c r="W8" s="167"/>
+      <c r="X8" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="179"/>
-      <c r="Z8" s="179" t="s">
+      <c r="Y8" s="167"/>
+      <c r="Z8" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="179"/>
-      <c r="AB8" s="179" t="s">
+      <c r="AA8" s="167"/>
+      <c r="AB8" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="179"/>
-      <c r="AD8" s="179" t="s">
+      <c r="AC8" s="167"/>
+      <c r="AD8" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="179"/>
-      <c r="AF8" s="179" t="s">
+      <c r="AE8" s="167"/>
+      <c r="AF8" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="179"/>
-      <c r="AH8" s="179" t="s">
+      <c r="AG8" s="167"/>
+      <c r="AH8" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="179"/>
-      <c r="AJ8" s="179" t="s">
+      <c r="AI8" s="167"/>
+      <c r="AJ8" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="179"/>
-      <c r="AL8" s="179" t="s">
+      <c r="AK8" s="167"/>
+      <c r="AL8" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="179"/>
+      <c r="AM8" s="167"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="179" t="s">
+      <c r="AO8" s="167" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="179"/>
-      <c r="AQ8" s="179" t="s">
+      <c r="AP8" s="167"/>
+      <c r="AQ8" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="179"/>
-      <c r="AS8" s="179" t="s">
+      <c r="AR8" s="167"/>
+      <c r="AS8" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="179"/>
+      <c r="AT8" s="167"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="179" t="s">
+      <c r="AV8" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="179"/>
-      <c r="AX8" s="179" t="s">
+      <c r="AW8" s="167"/>
+      <c r="AX8" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="179"/>
-      <c r="AZ8" s="179" t="s">
+      <c r="AY8" s="167"/>
+      <c r="AZ8" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="179"/>
+      <c r="BA8" s="167"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="192"/>
-      <c r="BD8" s="193"/>
-      <c r="BE8" s="203" t="s">
+      <c r="BC8" s="184"/>
+      <c r="BD8" s="185"/>
+      <c r="BE8" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="200"/>
-      <c r="BG8" s="200" t="s">
+      <c r="BF8" s="176"/>
+      <c r="BG8" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="200"/>
-      <c r="BI8" s="200" t="s">
+      <c r="BH8" s="176"/>
+      <c r="BI8" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="200"/>
+      <c r="BJ8" s="176"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="201" t="s">
+      <c r="BL8" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="202"/>
-      <c r="BN8" s="201" t="s">
+      <c r="BM8" s="171"/>
+      <c r="BN8" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="202"/>
-      <c r="BP8" s="201" t="s">
+      <c r="BO8" s="171"/>
+      <c r="BP8" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="202"/>
-      <c r="BR8" s="201" t="s">
+      <c r="BQ8" s="171"/>
+      <c r="BR8" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="202"/>
-      <c r="BT8" s="201" t="s">
+      <c r="BS8" s="171"/>
+      <c r="BT8" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="202"/>
-      <c r="BV8" s="186" t="s">
+      <c r="BU8" s="171"/>
+      <c r="BV8" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="187"/>
-      <c r="BX8" s="186" t="s">
+      <c r="BW8" s="169"/>
+      <c r="BX8" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="187"/>
-      <c r="BZ8" s="186" t="s">
+      <c r="BY8" s="169"/>
+      <c r="BZ8" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="187"/>
-      <c r="CB8" s="186" t="s">
+      <c r="CA8" s="169"/>
+      <c r="CB8" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="187"/>
-      <c r="CD8" s="186" t="s">
+      <c r="CC8" s="169"/>
+      <c r="CD8" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="187"/>
-      <c r="CF8" s="186" t="s">
+      <c r="CE8" s="169"/>
+      <c r="CF8" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="187"/>
-      <c r="CH8" s="186" t="s">
+      <c r="CG8" s="169"/>
+      <c r="CH8" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="187"/>
-      <c r="CJ8" s="186" t="s">
+      <c r="CI8" s="169"/>
+      <c r="CJ8" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="187"/>
-      <c r="CL8" s="186" t="s">
+      <c r="CK8" s="169"/>
+      <c r="CL8" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="187"/>
-      <c r="CN8" s="186" t="s">
+      <c r="CM8" s="169"/>
+      <c r="CN8" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="187"/>
+      <c r="CO8" s="169"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="185"/>
-      <c r="CR8" s="185"/>
-      <c r="CS8" s="167"/>
-      <c r="CT8" s="167"/>
-      <c r="CU8" s="190"/>
+      <c r="CQ8" s="194"/>
+      <c r="CR8" s="194"/>
+      <c r="CS8" s="190"/>
+      <c r="CT8" s="190"/>
+      <c r="CU8" s="182"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="170"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
+      <c r="A9" s="197"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -8349,9 +8359,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="167"/>
-      <c r="CT9" s="167"/>
-      <c r="CU9" s="191"/>
+      <c r="CS9" s="190"/>
+      <c r="CT9" s="190"/>
+      <c r="CU9" s="183"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -24798,6 +24808,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="CS6:CS9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:CR5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
@@ -24814,88 +24906,6 @@
     <mergeCell ref="BT8:BU8"/>
     <mergeCell ref="BV8:BW8"/>
     <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="CS6:CS9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:CR5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
@@ -24920,7 +24930,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
       <selection sqref="A1:P40"/>
     </sheetView>
   </sheetViews>
@@ -29082,8 +29092,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:E15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="60" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29111,106 +29121,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="222"/>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
+      <c r="A3" s="253"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="223" t="s">
+      <c r="A4" s="256" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="223"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="223"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="224" t="s">
+      <c r="A5" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="224"/>
-      <c r="C5" s="224"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="224"/>
-      <c r="F5" s="224"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="223" t="s">
+      <c r="A6" s="256" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="223"/>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
+      <c r="B6" s="256"/>
+      <c r="C6" s="256"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="225" t="s">
+      <c r="A7" s="258" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="225"/>
-      <c r="C7" s="225"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
+      <c r="B7" s="258"/>
+      <c r="C7" s="258"/>
+      <c r="D7" s="258"/>
+      <c r="E7" s="258"/>
+      <c r="F7" s="258"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="226"/>
-      <c r="B8" s="226"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="226"/>
+      <c r="A8" s="259"/>
+      <c r="B8" s="259"/>
+      <c r="C8" s="259"/>
+      <c r="D8" s="259"/>
+      <c r="E8" s="259"/>
+      <c r="F8" s="259"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="222"/>
-      <c r="B9" s="222"/>
-      <c r="C9" s="222"/>
-      <c r="D9" s="222"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="222"/>
+      <c r="A9" s="253"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="253"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="227"/>
-      <c r="B10" s="227"/>
-      <c r="C10" s="227"/>
-      <c r="D10" s="227"/>
-      <c r="E10" s="227"/>
-      <c r="F10" s="227"/>
+      <c r="A10" s="260"/>
+      <c r="B10" s="260"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="260"/>
+      <c r="E10" s="260"/>
+      <c r="F10" s="260"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="228" t="s">
+      <c r="A11" s="261" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="228"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
+      <c r="B11" s="261"/>
+      <c r="C11" s="261"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="261"/>
+      <c r="F11" s="261"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="226"/>
-      <c r="B12" s="226"/>
-      <c r="C12" s="226"/>
-      <c r="D12" s="226"/>
-      <c r="E12" s="226"/>
-      <c r="F12" s="226"/>
+      <c r="A12" s="259"/>
+      <c r="B12" s="259"/>
+      <c r="C12" s="259"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="259"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="229" t="str">
+      <c r="C13" s="262" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="229"/>
-      <c r="E13" s="229"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="262"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -29218,12 +29228,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="221" t="str">
+      <c r="C14" s="255" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="221"/>
-      <c r="E14" s="221"/>
+      <c r="D14" s="255"/>
+      <c r="E14" s="255"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -29231,12 +29241,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="232" t="str">
+      <c r="C15" s="241" t="str">
         <f>REGISTRATION!A4</f>
         <v>THIRD YEAR</v>
       </c>
-      <c r="D15" s="232"/>
-      <c r="E15" s="232"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -29244,12 +29254,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="232" t="str">
+      <c r="C16" s="241" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3A</v>
       </c>
-      <c r="D16" s="232"/>
-      <c r="E16" s="232"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -29257,12 +29267,12 @@
       <c r="B17" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="232" t="str">
+      <c r="C17" s="241" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="232"/>
-      <c r="E17" s="232"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -29274,42 +29284,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="233" t="s">
+      <c r="A19" s="242" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="236" t="s">
+      <c r="B19" s="245" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="233" t="s">
+      <c r="C19" s="242" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="233" t="s">
+      <c r="D19" s="242" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="238" t="s">
+      <c r="E19" s="247" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="233" t="s">
+      <c r="F19" s="242" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="234"/>
-      <c r="B20" s="237"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="239"/>
-      <c r="F20" s="241"/>
+      <c r="A20" s="243"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="243"/>
+      <c r="D20" s="243"/>
+      <c r="E20" s="248"/>
+      <c r="F20" s="250"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="235"/>
+      <c r="A21" s="244"/>
       <c r="B21" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="235"/>
-      <c r="D21" s="235"/>
-      <c r="E21" s="240"/>
-      <c r="F21" s="242"/>
+      <c r="C21" s="244"/>
+      <c r="D21" s="244"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="251"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -29673,7 +29683,7 @@
         <f>REGISTRATION!B25</f>
         <v>201501-1882</v>
       </c>
-      <c r="D36" s="68">
+      <c r="D36" s="269">
         <f>'DEPT CHAIR'!O22</f>
         <v>5</v>
       </c>
@@ -30137,14 +30147,14 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A55" s="249" t="s">
+      <c r="A55" s="225" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="250"/>
-      <c r="C55" s="250"/>
-      <c r="D55" s="250"/>
-      <c r="E55" s="250"/>
-      <c r="F55" s="251"/>
+      <c r="B55" s="226"/>
+      <c r="C55" s="226"/>
+      <c r="D55" s="226"/>
+      <c r="E55" s="226"/>
+      <c r="F55" s="227"/>
     </row>
     <row r="56" spans="1:6" ht="15.75">
       <c r="A56" s="62"/>
@@ -30177,11 +30187,11 @@
       </c>
       <c r="C59" s="60"/>
       <c r="D59" s="60"/>
-      <c r="E59" s="243">
+      <c r="E59" s="252">
         <f ca="1">NOW()</f>
-        <v>43082.761145370372</v>
-      </c>
-      <c r="F59" s="243"/>
+        <v>43084.454924768521</v>
+      </c>
+      <c r="F59" s="252"/>
     </row>
     <row r="60" spans="1:6" ht="15.75">
       <c r="A60" s="60"/>
@@ -30191,10 +30201,10 @@
       </c>
       <c r="C60" s="73"/>
       <c r="D60" s="73"/>
-      <c r="E60" s="222" t="s">
+      <c r="E60" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="F60" s="222"/>
+      <c r="F60" s="253"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="60"/>
@@ -30211,8 +30221,8 @@
       <c r="B62" s="74"/>
       <c r="C62" s="74"/>
       <c r="D62" s="74"/>
-      <c r="E62" s="222"/>
-      <c r="F62" s="222"/>
+      <c r="E62" s="253"/>
+      <c r="F62" s="253"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="60"/>
@@ -30327,14 +30337,14 @@
       <c r="F76" s="60"/>
     </row>
     <row r="77" spans="1:6" ht="15.75">
-      <c r="A77" s="244" t="s">
+      <c r="A77" s="254" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="244"/>
-      <c r="C77" s="244"/>
-      <c r="D77" s="244"/>
-      <c r="E77" s="244"/>
-      <c r="F77" s="244"/>
+      <c r="B77" s="254"/>
+      <c r="C77" s="254"/>
+      <c r="D77" s="254"/>
+      <c r="E77" s="254"/>
+      <c r="F77" s="254"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1">
       <c r="A78" s="60"/>
@@ -30349,124 +30359,124 @@
       <c r="B79" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="C79" s="262" t="s">
+      <c r="C79" s="238" t="s">
         <v>137</v>
       </c>
-      <c r="D79" s="231"/>
-      <c r="E79" s="230" t="s">
+      <c r="D79" s="239"/>
+      <c r="E79" s="240" t="s">
         <v>138</v>
       </c>
-      <c r="F79" s="231"/>
+      <c r="F79" s="239"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="60"/>
       <c r="B80" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C80" s="258">
+      <c r="C80" s="234">
         <f>COUNTIF($D$22:$D$54,"=1.0")+COUNTIF($D$22:$D$54,"=1.25")+(COUNTIF($D$22:$D$54,"=1.50")+COUNTIF($D$22:$D$54,"=1.75"))</f>
         <v>8</v>
       </c>
-      <c r="D80" s="259"/>
-      <c r="E80" s="260">
+      <c r="D80" s="235"/>
+      <c r="E80" s="236">
         <f>(C80/$C$86)*100</f>
         <v>24.242424242424242</v>
       </c>
-      <c r="F80" s="261"/>
+      <c r="F80" s="237"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="60"/>
       <c r="B81" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="C81" s="252">
+      <c r="C81" s="228">
         <f>COUNTIF($D$22:$D$54,"=2.0")+COUNTIF($D$22:$D$54,"=2.25")+(COUNTIF($D$22:$D$54,"=2.50")+COUNTIF($D$22:$D$54,"=2.75"))</f>
         <v>20</v>
       </c>
-      <c r="D81" s="253"/>
-      <c r="E81" s="254">
+      <c r="D81" s="229"/>
+      <c r="E81" s="230">
         <f>(C81/$C$86)*100</f>
         <v>60.606060606060609</v>
       </c>
-      <c r="F81" s="255"/>
+      <c r="F81" s="231"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="60"/>
       <c r="B82" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C82" s="252">
+      <c r="C82" s="228">
         <f>COUNTIF($D$22:$D$54,"=3.0")</f>
         <v>4</v>
       </c>
-      <c r="D82" s="253"/>
-      <c r="E82" s="254">
+      <c r="D82" s="229"/>
+      <c r="E82" s="230">
         <f t="shared" ref="E82:E85" si="1">(C82/$C$86)*100</f>
         <v>12.121212121212121</v>
       </c>
-      <c r="F82" s="255"/>
+      <c r="F82" s="231"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="60"/>
       <c r="B83" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="252">
+      <c r="C83" s="228">
         <f>COUNTIF($D$22:$D$54,"=5.0")</f>
         <v>1</v>
       </c>
-      <c r="D83" s="253"/>
-      <c r="E83" s="254">
+      <c r="D83" s="229"/>
+      <c r="E83" s="230">
         <f t="shared" si="1"/>
         <v>3.0303030303030303</v>
       </c>
-      <c r="F83" s="255"/>
+      <c r="F83" s="231"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="60"/>
       <c r="B84" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C84" s="256">
-        <v>0</v>
-      </c>
-      <c r="D84" s="257"/>
-      <c r="E84" s="254">
+      <c r="C84" s="232">
+        <v>0</v>
+      </c>
+      <c r="D84" s="233"/>
+      <c r="E84" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F84" s="255"/>
+      <c r="F84" s="231"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="60"/>
       <c r="B85" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="C85" s="256">
-        <v>0</v>
-      </c>
-      <c r="D85" s="257"/>
-      <c r="E85" s="254">
+      <c r="C85" s="232">
+        <v>0</v>
+      </c>
+      <c r="D85" s="233"/>
+      <c r="E85" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F85" s="255"/>
+      <c r="F85" s="231"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" thickBot="1">
       <c r="A86" s="60"/>
       <c r="B86" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="245">
+      <c r="C86" s="221">
         <f>SUM(C80:D85)</f>
         <v>33</v>
       </c>
-      <c r="D86" s="246"/>
-      <c r="E86" s="247">
+      <c r="D86" s="222"/>
+      <c r="E86" s="223">
         <f>SUM(E80:F85)</f>
         <v>100</v>
       </c>
-      <c r="F86" s="248"/>
+      <c r="F86" s="224"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="60"/>
@@ -30528,7 +30538,7 @@
       <c r="A93" s="60"/>
       <c r="B93" s="73" t="str">
         <f>REGISTRATION!P16</f>
-        <v>Renen Paul A. Viado</v>
+        <v>Renen Paul M. Viado</v>
       </c>
       <c r="C93" s="60"/>
       <c r="D93" s="60"/>
@@ -30634,6 +30644,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="A77:F77"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="A55:F55"/>
@@ -30650,32 +30686,6 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="E82:F82"/>
     <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F54">
     <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
@@ -30683,8 +30693,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="58" orientation="portrait" horizontalDpi="4294967294" verticalDpi="360" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
+  <pageSetup paperSize="256" scale="75" orientation="portrait" horizontalDpi="4294967294" verticalDpi="360" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="61" max="16383" man="1"/>
     <brk id="72" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
@@ -31899,7 +31910,7 @@
         <v>86.188000000000002</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -31908,7 +31919,7 @@
         <v>72.667999999999992</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -31917,7 +31928,7 @@
         <v>83.164000000000001</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -31926,7 +31937,7 @@
         <v>87.259999999999991</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -31935,7 +31946,7 @@
         <v>85.367999999999995</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -31944,7 +31955,7 @@
         <v>70.414000000000001</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -31953,7 +31964,7 @@
         <v>86.525999999999996</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -31962,7 +31973,7 @@
         <v>80.22</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -31971,7 +31982,7 @@
         <v>71.066000000000003</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -31980,7 +31991,7 @@
         <v>81.668000000000006</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -31989,7 +32000,7 @@
         <v>79.864000000000004</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -31998,7 +32009,7 @@
         <v>76.066000000000003</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -32007,7 +32018,7 @@
         <v>78.426000000000002</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -32016,7 +32027,7 @@
         <v>79.135999999999996</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -32025,7 +32036,7 @@
         <v>11.028</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -32034,7 +32045,7 @@
         <v>92.97399999999999</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -32043,7 +32054,7 @@
         <v>95.352000000000004</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -32052,7 +32063,7 @@
         <v>83.277999999999992</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -32061,7 +32072,7 @@
         <v>97.506</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -32070,7 +32081,7 @@
         <v>88.744</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -32079,7 +32090,7 @@
         <v>84.436000000000007</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -32088,7 +32099,7 @@
         <v>75.504000000000005</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -32097,7 +32108,7 @@
         <v>70.486000000000004</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -32106,7 +32117,7 @@
         <v>83.240000000000009</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -32115,7 +32126,7 @@
         <v>78.616</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -32124,7 +32135,7 @@
         <v>93.109999999999985</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -32133,7 +32144,7 @@
         <v>81.52600000000001</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -32142,7 +32153,7 @@
         <v>75.98599999999999</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -32151,7 +32162,7 @@
         <v>89.256</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -32160,7 +32171,7 @@
         <v>85.41</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -32169,7 +32180,7 @@
         <v>73.76400000000001</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -32178,7 +32189,7 @@
         <v>91.22999999999999</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -32187,7 +32198,7 @@
         <v>81.638000000000005</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
